--- a/file/wordpress_articles.xlsx
+++ b/file/wordpress_articles.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$96</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="389">
   <si>
     <t>标题</t>
   </si>
@@ -61,279 +61,1155 @@
     <t>提取码</t>
   </si>
   <si>
-    <t>《2025 中国自助游》行遍中国的保姆级指南</t>
-  </si>
-  <si>
-    <t>《2025 中国自助游》覆盖了全国各地的主要旅游景点，从北国的冰雪世界到南方的热带海岸，从东部的繁华都市到西部的荒漠孤烟。这本书不仅介绍了各大景点的基本信息，还深入挖掘了每个地方的历史背景、文化内涵和独特的旅游资源。
+    <t>[安卓]觅音v1.39免费无损音乐听歌下载神器 无广告</t>
+  </si>
+  <si>
+    <t>支持下载最高无损音乐，在线听歌，汇聚全网音乐资源，支持榜单，本地歌单导入（常见音乐平台），每周随机推荐，歌单分类等，无广告清爽版</t>
+  </si>
+  <si>
+    <t>公开</t>
+  </si>
+  <si>
+    <t>安卓,觅音,音乐</t>
+  </si>
+  <si>
+    <t>软件源码，绿色软件</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a1bd06295a47</t>
+  </si>
+  <si>
+    <t>[安卓]音乐播放器MusicFree v0.4.2含十几个音源</t>
+  </si>
+  <si>
+    <t>musicfree是由一个叫猫头猫的网友开发的开源项目，定义为一个插件化、定制化、无广告的免费音乐播放器，目前只支持安卓和鸿蒙。导入特定插件接口，你几乎可以听到全网最全的音乐资源，软件已开源，你可以永久免费使用。</t>
+  </si>
+  <si>
+    <t>MusicFree,安卓,app,音乐</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/44fdb5bf7bd8</t>
+  </si>
+  <si>
+    <t>Agr Reader1.7.11简洁优雅的RSS阅读器，支持全文解析与翻译</t>
+  </si>
+  <si>
+    <t>Agr Reader 是一款简洁、优雅、遵循 Material 3 规范的 RSS 阅读器。它支持多种主题颜色选择，提供强大的全文解析功能，默认支持离线阅读，带来纯净的阅读体验。此外，还提供桌面小组件、丰富的自定义样式配置以及支持接入各种 RSS 服务（如 FreshRSS、Tiny Tiny RSS、Miniflux、The Old Reader 等）。软件还支持沉浸式翻译效果和宽屏模式，充分利用平板电脑或大屏幕设备。
+👍</t>
+  </si>
+  <si>
+    <t>AgrReader,RSS阅读器,Andriod,Material3,全文解析,翻译</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/243853e29d1a</t>
+  </si>
+  <si>
+    <t>AI Screen Translate - 屏幕翻译 v1.2.6</t>
+  </si>
+  <si>
+    <t>使用 AI 屏幕翻译释放语言的力量，这是最好的翻译工具，可在您的设备屏幕上提供即时翻译功能。随时随地轻松翻译借助人工智能屏幕翻译，轻松翻译手机游戏、漫画应用、网站、消息应用、电子书和文档等各种来源的文本。激活翻译模式，让我们的应用程序检测语言细微差别并实时翻译页面。</t>
+  </si>
+  <si>
+    <t>破解,绿色,Android,软件</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a79fb9f53f3b</t>
+  </si>
+  <si>
+    <t>Beelinguapp v3.156听有声书学习语言，丰富的英语有声读物，解锁高级版</t>
+  </si>
+  <si>
+    <t>提供了丰富的英语有声读物供学习之用。使用Beelinguapp学习一门新语言，您可以同时阅读和聆听不同语言的故事。需要 Google Play 服务支持</t>
+  </si>
+  <si>
+    <t>Android,有声读物,英语,解锁,高级</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/37ef1e3da36a</t>
+  </si>
+  <si>
+    <t>Comic Screen Translate - 漫画翻译大师 v2.0.5</t>
+  </si>
+  <si>
+    <t>漫画翻译大师是一款专为漫画爱好者开发的强大翻译应用，支持超过100种语言。它可以在大多数漫画阅读应用上使用。您爱看漫画，却因为语言障碍而感到沮丧吗？想要在第一时间阅读最新漫画，不想等官方翻译吗？漫画翻译大师来帮您打破这些障碍，把您最喜欢的故事带到您面前。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/903e2a15e5c2</t>
+  </si>
+  <si>
+    <t>DoFoto - 全能照片编辑器 v1.200.47</t>
+  </si>
+  <si>
+    <t>DoFoto 是一款专业的 AI 照片编辑器-特效相机，提供您想要的所有图片编辑器功能。作为最好的免费照片编辑应用程序之一，DoFoto 具有美观的照片滤镜和海量特效来编辑照片。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/dea90c7cf881</t>
+  </si>
+  <si>
+    <t>Duolingo - 多邻国高效学外语 v6.0.4</t>
+  </si>
+  <si>
+    <t>多邻国是一款非常有名的手机外语学习工具软件，大家可以通过这款软件来学习众多门的外语，零基础一样也可以轻松上手，为你带来更多的优质学习享受。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/dd778332bcef</t>
+  </si>
+  <si>
+    <t>Easy Notes v1.2.66.0920全新易用的记事本软件，解锁专业版</t>
+  </si>
+  <si>
+    <t>一款适用于Android 的全新易用的记事本、笔记本、备忘录、彩色便利贴、提醒事项、加密笔记、记事应用程序。有了这个简单的记事本应用程序，您可以使用彩色背景和清单创建快速笔记，以帮助您轻松组织任务和生活。您也可以使用此笔记记录者将照片或音频添加到笔记中。</t>
+  </si>
+  <si>
+    <t>Android,笔记,备忘,专业版,解锁,Easy</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/47e59401b2f3</t>
+  </si>
+  <si>
+    <t>ES文件浏览器 v4.4.2.14手机文件管理工具，解锁会员高级版</t>
+  </si>
+  <si>
+    <t>ES文件浏览器是一款功能强大的手机文件管理工具，解锁会员高级版，用户可以享受无广告干扰的使用体验，并获得更多高级功能。支持全面的文件管理操作，包括文件浏览、复制、移动、重命名、删除等，同时内置了压缩/解压、文本编辑、图片查看等实用工具。它还支持云存储服务绑定，方便用户管理云端文件。</t>
+  </si>
+  <si>
+    <t>Android,文件管理,解锁,工具,ES文件浏览器</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/55574db81afc</t>
+  </si>
+  <si>
+    <t>Filmora v13.9.00一款易于使用的视频、音频编辑应用程序，专业版</t>
+  </si>
+  <si>
+    <t>Filmora是一款强大的视频与音频编辑专业软件，以用户友好著称。它提供丰富的编辑工具与特效，让视频创作变得简单高效。无论剪辑新手还是专业人士，都能轻松打造出令人惊艳的作品。</t>
+  </si>
+  <si>
+    <t>Android,视频,编辑,剪辑,Filmora</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/0fb767e7a5cb</t>
+  </si>
+  <si>
+    <t>Lj - 视频下载器 v1.1.61</t>
+  </si>
+  <si>
+    <t>Lj 视频下载器是一款强大的 m3u8/mp4/mpd 视频下载工具，用于下载网络 m3u8/mpd 视频并转换为 mp4 格式，或直接下载 mp4/mov 格式视频，以便于离线播放。支持从网页中提取 m3u8/mpd/mp4 链接。多线程下载。自动转换为 mp4 格式。支持音频/视频分离的 m3u8/mpd 格式。</t>
+  </si>
+  <si>
+    <t>破解,绿色,Android,软件,Lj</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/cb5e2acf7166</t>
+  </si>
+  <si>
+    <t>MX Player v1.86.4MX播放器，知名的多媒体播放器，解锁高级专业版</t>
+  </si>
+  <si>
+    <t>MX Player是一款备受欢迎的多媒体播放器，功能强大。支持几乎所有音视频格式，内置强力硬件加速和多种字幕支持，确保播放流畅无卡顿。MX Player还具备多核解码能力，在多核处理器设备上表现尤为出色。此外，其触控手势操作便捷，支持轻捏缩放、平移等，并设有儿童锁功能，保障儿童安全使用。</t>
+  </si>
+  <si>
+    <t>Android,播放器,专业版,解锁,MX</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/649d28280885</t>
+  </si>
+  <si>
+    <t>mytv-android 电视版 v2.2.3高品质电视直播软件</t>
+  </si>
+  <si>
+    <t>一个好用的安卓版电视直播软件，安卓设备可用，支持自定义直播源、自定义节目单、缓存时间等等，支持多直播源设置。</t>
+  </si>
+  <si>
+    <t>MyTV,电视直播,安卓</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d4d7c9d5ec5f</t>
+  </si>
+  <si>
+    <t>Node Video - 专业视频编辑器 v6.56.0</t>
+  </si>
+  <si>
+    <t>Node Video 是最强大的手机视频编辑应用程序之一。凭借许多革命性的功能，您可以创造出您从未想象过的惊人效果！</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/46759962867d</t>
+  </si>
+  <si>
+    <t>PhotoDirector - 动态相片编辑 &amp; AI 照片编修 v19.6.1</t>
+  </si>
+  <si>
+    <t>PhotoDirector - 相片大师：动态相片编辑 &amp; AI 照片编修，最佳照片编辑器，全方位相片编辑功能，提升、美化照片，简单步骤让相片动起来！</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e12a97f47b8b</t>
+  </si>
+  <si>
+    <t>Photoshop Express - 照片编辑器应用 v15.9.230</t>
+  </si>
+  <si>
+    <t>使用 Photoshop Express 这个已有数百万人使用的好玩、快捷、易用的图片编辑工具，只要轻轻一点即可修图和设计照片，让你的创意源源不断地涌现。你可借助我们这个方便好用的修图应用程序中的润饰工具来做到锦上添花，让你最珍爱的瞬间更趋完美。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ea943a10dc55</t>
+  </si>
+  <si>
+    <t>Picsart v25.9.3美易，专为爱美图的你打造，解锁高级版</t>
+  </si>
+  <si>
+    <t>告别传统修图软件，专为爱美图的你打造！超火爆修图软件来啦(๑•̀ㅂ•́)و✧ 全球超过10亿次下载，3000多种编辑功能、滤镜效果和超过1000万个开源素材，更有多达300万个自由编辑社区贴纸，尽在PicsArt美易照片编辑。</t>
+  </si>
+  <si>
+    <t>Android,美图</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c59977efd182</t>
+  </si>
+  <si>
+    <t>Pixelcut - AI照片编辑器 v0.8.8</t>
+  </si>
+  <si>
+    <t>Pixelcut 照片编辑器和图形设计师可帮助您在几秒钟内创建令人惊叹的图像。 Pixelcut 是一款一体化编辑器，它使用 AI 帮助您轻松创建图像。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/95289526d937</t>
+  </si>
+  <si>
+    <t>Topaz（2024）全家桶汉化版本</t>
+  </si>
+  <si>
+    <t>2024年Topaz全家桶中文版的概况，集成了多款强大的图像与视频处理软件，专为创意专业人士设计。其中包括：Topaz Adjust AI，它能智能化调整图像色彩与细节；DeNoise AI擅长移除图像噪点同时保护图像的真实质感；Gigapixel AI实现图片放大而不损失质量；JPEG to RAW AI可将JPEG格式照片转换为RAW格式，提升后期编辑空间；Mask AI提供一键抠图解决方案，操作简便高效；Sharpen AI则专注于增强图像锐度；Studio AI作为综合编辑平台，整合多种编辑工具；以及Video Enhance AI，专门用于提升视频画质与分辨率。每款软件都搭载先进的人工智能算法，确保处理效果自然且高效，满足摄影师、设计师及视频制作人多样化的需求。</t>
+  </si>
+  <si>
+    <t>AI,图片处理,降噪,放大,摄影,修图,Topaz,软件</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b14b114aa879</t>
+  </si>
+  <si>
+    <t>XRecorder - 录屏大师 v2.3.8.1</t>
+  </si>
+  <si>
+    <t>录屏大师让您轻松录制超清无卡顿的视频录像，一键快速截屏。小巧便捷的悬浮窗让您摆脱繁琐的步骤，一键开启录制。录制高清视频、视频电话、捕捉精彩的游戏画面、游戏直播。让你不错过任何一个精彩瞬间。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5f0efc04ace9</t>
+  </si>
+  <si>
+    <t>X浏览器 v4.8.2谷歌版，浏览器扩展、JS脚本、资源嗅探、操控手势、广告拦截等</t>
+  </si>
+  <si>
+    <t>X浏览器是一款功能强大的手机浏览器，支持浏览器扩展、JS脚本、资源嗅探、操控手势及广告拦截等多项高级功能。它以其极小的体积实现了高效、流畅的浏览体验，同时注重用户隐私保护，无新闻推送、无后台服务，自动拦截垃圾广告。X浏览器还支持个性化设置，如主题更换、菜单布局调整等，满足用户的不同需求。</t>
+  </si>
+  <si>
+    <t>Android,浏览器</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/59c0c0bb5bac</t>
+  </si>
+  <si>
+    <t>彩云天气 v7.21.0专业天气预报应用，去广告解锁会员版</t>
+  </si>
+  <si>
+    <t>彩云天气专业级天气预报应用，提供精准至分钟级的天气预测，覆盖全球范围。界面清晰，数据丰富，让您随时掌握天气变化，出行无忧。是您日常生活和出行规划不可或缺的得力助手。</t>
+  </si>
+  <si>
+    <t>Android,天气,会员,解锁,彩云天气</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a6e5ec728967</t>
+  </si>
+  <si>
+    <t>抖音福袋秒抢</t>
+  </si>
+  <si>
+    <t>抖音福袋秒抢脚本是一款功能强大的系统工具类软件，用户在这款软件里可以免费体验到2024最新版本的福袋抢夺功能，能够将该插件直接安装到用户的手机当中，让用户手机实现自动抢福袋功能。
+链接：「抖音抢福袋」，复制整段内容，打开最新版「夸克APP」即可获取。</t>
+  </si>
+  <si>
+    <t>安卓，抖音</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1af3cc313365</t>
+  </si>
+  <si>
+    <t>飞韵听书_云动听书 v1.3.7小说阅读软件，解锁海量资源免费看</t>
+  </si>
+  <si>
+    <t>飞韵听书/云动听书是一款专业的小说阅读软件，解锁了海量资源供用户免费观看和聆听。该软件提供财经、英语、脱口秀、小品、综艺娱乐、广播剧等多种类型的资源，更新速度快，支持缓存下载，无网络也能离线畅听。</t>
+  </si>
+  <si>
+    <t>Android,听书,小说,免费</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/8673b2237ad8</t>
+  </si>
+  <si>
+    <t>快影 v6.6.2.0.666快影强大的视频编辑功能软件，去广告去水印版</t>
+  </si>
+  <si>
+    <t>快影v6.54.0.654002是一款功能强大的视频编辑软件，专为追求高效与创意的视频制作者打造。去广告去水印版让用户享受纯净编辑体验，无干扰地发挥创意。软件提供丰富的剪辑工具、滤镜特效及字幕模板，支持多轨道编辑、智能剪辑等功能，让视频制作更加专业、便捷。无论是短视频还是长片，快影都能助您轻松打造精彩作品。</t>
+  </si>
+  <si>
+    <t>Android,编辑,软件,视频,快影</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/2c087533705d</t>
+  </si>
+  <si>
+    <t>美颜相机 v12.2.40拍照软件，丰富的滤镜和美颜参数，去广告解锁会员版</t>
+  </si>
+  <si>
+    <t>美颜相机是一款拍照软件，拥有丰富的滤镜和美颜参数，除了拍照片外，还可以拍视频进行视频剪辑，拍摄的时候还可以选择构图方式，帮助大家找到好的角度拍出好照片，还有水印相机，仿装，证件照等功能，有需要可以下载试试。</t>
+  </si>
+  <si>
+    <t>Android,解锁,拍照,美颜,美颜相机</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ee54957a1726</t>
+  </si>
+  <si>
+    <t>搜狗输入法 v10.32.14023自定义的表情使用，去广告解锁高级版</t>
+  </si>
+  <si>
+    <t>搜狗输入法app支持自定义表情，用户可轻松添加个人图片或GIF，丰富聊天表达。享受无干扰输入体验及更多个性化设置，如皮肤、词库等，全面提升输入效率与乐趣。</t>
+  </si>
+  <si>
+    <t>Android,输入法,高级版</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c701a677b75e</t>
+  </si>
+  <si>
+    <t>我的电池OK2.16.0实时监控电池状态，全面提升电池寿命</t>
+  </si>
+  <si>
+    <t>我的电池OK 是一款专为电池管理设计的应用程序，能够实时查看电池电量、电压、温度等数据。软件支持预警提醒、单位切换等功能，帮助用户更好地管理和监控手机电池使用情况，提升电池寿命。安装后即可查看电池相关数据并设置预警提醒。
+🚀</t>
+  </si>
+  <si>
+    <t>电池管理,Andriod,电量监控</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3e05db084d5c</t>
+  </si>
+  <si>
+    <t>我们的电视 手机+电视双端电视直播应用 v3.2.9</t>
+  </si>
+  <si>
+    <t>我们的电视是基于大火的电视直播应用我的电视(my-tv)修改而来，是原项目停更后衍生出来的新应用，目前稳定更新中。内置直播源，安装即可使用，高清，超清，蓝光，而且完全免费。内容包括央视、卫视、港澳三个模块，有TV版本和手机版本。</t>
+  </si>
+  <si>
+    <t>安卓,TV,电视直播,央视,卫视</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/afac132b8927</t>
+  </si>
+  <si>
+    <t>下载工具箱 v3.8.5全能下载工具，磁力、迅雷、音乐、短视频下载，去广告解锁永久会员版</t>
+  </si>
+  <si>
+    <t>下载工具箱是一款纯粹的全能下载器，没有除了下载以外的多余功能，所有功能完全免费。支持46种协议，磁力或迅雷链接，直链或m3u8，无损音乐下载，国内外各平台短视频下载，全部无水印保存，还支持下载淘宝京东拼多多等电商平台的商品视频图片，以及最实用的网页资源嗅探功能。</t>
+  </si>
+  <si>
+    <t>Android,下载,工具,磁力</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d2810841d548</t>
+  </si>
+  <si>
+    <t>一木记账 v5.8.1.0便捷好用的生活记账本，解锁会员版</t>
+  </si>
+  <si>
+    <t>一木记账app，高效生活记账神器，以极简界面融合强大功能，轻松记录每日收支，助您掌握财务动向。无论是家庭预算还是个人理财，一木记账都是您的理想选择，让每一笔开销都明明白白，财务自由从精准记账开始。</t>
+  </si>
+  <si>
+    <t>Android,生活,记账,解锁,会员</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1816dd4100a6</t>
+  </si>
+  <si>
+    <t>《读者》1981-2023合集【收藏版】</t>
+  </si>
+  <si>
+    <t>读者》1981-2023合集【收藏版】是记录了中国社会变迁与文化传承的珍贵资料。该合集精选了《读者》杂志从创刊至今的经典内容，涵盖了文学、艺术、科学、历史等多个领域，以丰富的文章和深刻的见解启迪读者心灵。作为几代人的共同记忆，它不仅是阅读的享受，更是了解中国社会发展与人文精神的窗口。</t>
+  </si>
+  <si>
+    <t>书籍,读者,收藏版,合集</t>
+  </si>
+  <si>
+    <t>文档书籍，图书小说</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/80efbf9b6410</t>
+  </si>
+  <si>
+    <t>《美国国家地理全球史》[套装全10册]</t>
+  </si>
+  <si>
+    <t>《美国国家地理全球史》[套装全10册]，是一部全面而深入的历史巨著，它以全球的视角，详细描绘了人类文明从古至今的发展历程。这套书不仅涵盖了广泛的时间跨度，从远古时代到现代社会，而且深入探讨了各个时期的重要事件、科技突破和文化变迁。
+每一册都聚焦于一个特定的历史时期或主题，通过丰富的图片、地图和详细的叙述，为读者呈现了一个生动而立体的历史画卷。此外，书中还融入了地理学的知识，揭示了地理环境对人类历史发展的深远影响。"</t>
+  </si>
+  <si>
+    <t>图书,地理,经典</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3d7e00b6b41d</t>
+  </si>
+  <si>
+    <t>《雪球投资经典系列》（套装共7册） 助你清醒思考的“佛系投资指南”</t>
+  </si>
+  <si>
+    <t>《雪球投资经典系列》（套装共7册）是一套助你清醒思考的“佛系投资指南”，汇集了雪球平台上多位投资达人的智慧结晶。该系列包括《价值的力量》、《世风日上》、《定投十年财务自由》、《慢慢变富》、《您厉害，您赚得多》、《指数基金投资指南》等书籍，内容涵盖价值投资、量化投资、成长趋势投资等多个领域，提供了独特的投资逻辑、选股方法、完善的投资体系及市场应对策略。</t>
+  </si>
+  <si>
+    <t>书籍,投资,指南,套装</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/18fa62f0d985</t>
+  </si>
+  <si>
+    <t>《灾难生存手册》漫画版</t>
+  </si>
+  <si>
+    <t>灾难时期求生自救技巧
+本书以漫画的形式，讲解民众应对各种灾难或者战争的技能。</t>
+  </si>
+  <si>
+    <t>漫画,灾难</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/931a284c8360</t>
+  </si>
+  <si>
+    <t>《中华思想文化术语：中英对照》[1-9辑合集]</t>
+  </si>
+  <si>
+    <t>《中华思想文化术语：中英对照（1-9 辑合集）》为”中华思想文化术语传播工程”的成果之一。本套装收录了 900 条中华思想文化术语，以中英文双语的方式进行阐释。这些术语反映了中国传统文化特征和民族思维方式，让世界更多了解中国国情、历史和文化。
 提供 PDF、azw3、mobi、epub 格式。</t>
   </si>
   <si>
-    <t>公开</t>
-  </si>
-  <si>
-    <t>旅游,攻略,图书</t>
-  </si>
-  <si>
-    <t>文档书籍,图书小说</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/c2c65861195a</t>
-  </si>
-  <si>
-    <t>春秋左传今注今译（全三册） [套装合集] [pdf+全格式]</t>
-  </si>
-  <si>
-    <t>本丛书由出版大家王云五先生主编，严选国学经史子集各部中的名家名典，力邀一批学风严谨、学术缜密的文化名家（如南怀瑾、毛子水、杨亮功等）进行注、译、释，博采历代注本，旁搜学界新知，是国学研究领域不可多得的珍品，出版至今再版二十余次，深得学界赞誉。本书以汉服虔注《春秋左氏解谊》三十一卷为底本，参考了前人今人对晋杜预的《春秋左传集解》三十卷、唐孔颖达疏《春秋左传正义》六十卷的大量研究成果，力求在信达雅的前提下更加简洁明了、通俗易懂，适于大众读者和青少年学生阅读。</t>
+    <t>人文社科,图书</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d435e9353205</t>
+  </si>
+  <si>
+    <t>八〇年代（增订本） [经济管理] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>1980年代是一个经济学家群体作业、团队作业、发挥组合影响的时代。从空间而言，他们的舞台多在北京三里河、月坛北小街、皇城根9号院一带；从人物跨度而言，上下三代。第一代，出生于1920年以前，几乎都是忠诚于共产主义的“老布尔什维克”。1949年后，是他们怀着后人难以想象的理想，参与创建了中国的计划经济制度；又是他们最早觉悟到这是一个没有出路的制度，以极大的勇气批判、改革他们亲手建成的制度，像孙冶方、薛暮桥、蒋一苇，等等。第二代，出生于1920—1940年。...</t>
+  </si>
+  <si>
+    <t>经济管理,电子书,图书,pdf,epub</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/189a617effcc</t>
+  </si>
+  <si>
+    <t>成事在人：人口、金融与资本通论</t>
+  </si>
+  <si>
+    <t>《成事在人：人口、金融与资本通论》是一本深度探讨经济发展影响因素的著作。书中，作者从人口、金融和资本这三个关键维度出发，系统性地阐述了它们如何相互作用，共同推动经济社会的发展。
+人口作为经济活动的主体，其数量、结构和质量直接影响着劳动力市场、消费需求和社会创新。金融则是资源配置的枢纽，通过有效的金融体系能够引导资本流向最有潜力的领域，促进经济增长。而资本作为生产要素之一，其积累和流动对于技术创新、产业升级具有至关重要的作用。"</t>
+  </si>
+  <si>
+    <t>图书,经济管理,成事在人</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/2a2153cc5979</t>
+  </si>
+  <si>
+    <t>房产销售25讲：从小白到销冠的修炼手册</t>
+  </si>
+  <si>
+    <t>《房产销售25讲：从小白到销冠的修炼手册》是一本专为房产销售人员打造的实用指南。本书从基础知识讲起，逐步深入，涵盖了房地产市场的各个方面，旨在帮助销售人员快速成长为销售冠军。
+书中详细介绍了房产销售的各个环节，包括市场调研、客户分析、房源推荐、谈判技巧等。同时，结合实际案例，分析了成功的销售策略和技巧，使读者能够轻松掌握并应用于实际工作中。"</t>
+  </si>
+  <si>
+    <t>地产,销售,楼市</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/233c00576320</t>
+  </si>
+  <si>
+    <t>伽利略的望远镜 [历史传记] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>1610年被称为望远镜元年。自此以后，人类与天空的关系被这个两端装有透镜的圆筒彻底改变了。望远镜超越了人类视觉的极限，借助它凝视天空会发现:地球不再是宇宙的中心。这本书聚焦文艺复兴时期的欧洲，讲述了由眼镜制造商发明的“玩具”望远镜如何经伽利略之手，演变为精密的科学仪器，最终导向星空奥秘的发现，在当时的世界兴起波澜。三位杰出的科学史教授搜集了海量的日记、笔记、信件、档案、年表等文献，用这些历史的痕迹再现了400多年前伽利略对星空的观察、《星空报告》的发表与传播，以及颠覆性观点引发的一系列戏剧性故事，还原了一段完整而传奇的历史。新天空的发现不仅带来了新的天文学，还带来了新的哲学。...</t>
+  </si>
+  <si>
+    <t>历史传记,电子书,图书,pdf,epub</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/0d7b16be2877</t>
+  </si>
+  <si>
+    <t>唤醒：提升员工和团队动力与绩效的教练指南 [经济管理] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>作为老板或决策者你会如何描述自己现在的状态？答案往往是一个字：忙。你现在最烦恼的事情是什么？答案往往是：人心不齐，队伍越来越难带了！每个人做什么事最卖力？答案肯定是：当然是做自己的事喽。怎样才能让员工把组织的事当自己的事呢？如果你也有以上问题，那么学习教练技术就对了！写给管理者的教练专业读物帮助管理者用教练思维和方法激励下属、进行组织或团队诊断、有效推进变革和创新、发掘团队和组织动力以解决系统性问题，实现团队赋能。...</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/90c022880787</t>
+  </si>
+  <si>
+    <t>姜鹏解读《资治通鉴》系列（共三册） [套装合集] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>《资治通鉴》这部重量级史书卷帙浩繁，涵盖了数十个政权与王朝1362年间的王朝兴衰与庙堂变幻，呈现政局盛衰图景，刻画执政治国、待人处事之道，不仅仅是一部史学著作，更是包含了无限古典智慧。“通”在于了解，“鉴”在于实践。历史的意义正在于照见人类的发展历程，使得古今贯通。《成事之道：一本书读懂司马光与》精挑细选多个著名历史事件，展示其背后的谋略、社会洞见与人生哲学，为读者建立起清晰完备的历史认知框架，掌握从历史名著中获取信息和经验的方法。...</t>
   </si>
   <si>
     <t>套装合集,电子书,图书,pdf,epub</t>
   </si>
   <si>
-    <t>https://pan.quark.cn/s/96bf65d517ba</t>
-  </si>
-  <si>
-    <t>短路：心灵的科学  [pdf+全格式]</t>
-  </si>
-  <si>
-    <t>通过心灵科学的探索，让意识发生转变，使潜能无尽绽放。一个人要经过意识上的转变，身心才会转变。物质为主的观念就像一面镜子，反映出西方这一两百年的发展方向，与人类过去上千万年的理解不光是不一样，甚至是开倒车。而真正的救赎之道，是把固化的认知放下，让开放的智慧起步。在未来时代中，当人们不再执迷于已知，而进入智慧，才可能大规模的觉醒。杨定一博士通过“短路”这一心灵科学概念，让我们意识到，觉醒的本质，是让我们回到本来就在的位置，只需要移开本不存在的阻碍而已。因为觉醒，而毫无阻碍地释放出生命全部潜能，正是人生最彻底的“短路”。</t>
+    <t>https://pan.quark.cn/s/d967b8abaf66</t>
+  </si>
+  <si>
+    <t>女王与苏丹 [历史传记] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>1570年，英格兰女王伊丽莎白一世被教皇逐出教会。为了摆脱被大陆天主教国家包围的境地，英格兰与在地中海和天主教西班牙作战的伊斯兰势力开启了一段联盟的时期，并且与伊斯兰世界在文化、经济和政治上有了深度的交流。这是一段非凡的时期，英格兰与奥斯曼高门签订了条约，接受了摩洛哥国王派来的大使，并向马拉喀什运送军火。到16世纪80年代末，从摩洛哥到波斯，成百上千的商人、外交官、海员、工匠和私掠船长定期往来于其间。其中包括足智多谋的商人安东尼•詹金森，他在16世纪60年代参见了苏莱曼大帝和波斯沙阿塔赫玛斯普。...</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/96ac65aed070</t>
+  </si>
+  <si>
+    <t>全网最全的珍藏图鉴系列大全  珍藏资源</t>
+  </si>
+  <si>
+    <t>精心整理了全网最全的珍藏图鉴系列，涵盖了多个领域的珍贵图鉴。无论你是收藏爱好者还是专业研究人员，这个合集都能满足你的需求。每个图鉴都经过严格筛选和高清扫描，确保你能享受到最佳的视觉体验，丰富你的图鉴收藏，探索世界的精彩细节！</t>
+  </si>
+  <si>
+    <t>图鉴,科学,收藏,稀缺资源</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/8e8ca1df8830</t>
+  </si>
+  <si>
+    <t>設計你的小習慣 [励志成功] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>經年累月的問題，只要設計一個簡單的破口，就能改變史丹佛大學行為設計實驗室創辦人福格博士20年精心研究成功破解習慣形成的密碼！他的方法不僅幫助設計出令人上癮的IG，還對個人習慣養成特別有效這是本60,000人見證、最簡單、超有用又好玩的行為設計指南15種人生情境和挑戰、300個小習慣配方、100種慶祝方式，讓你成功減重、減壓、睡得好、革除惡習、做事更有效率，成就你嚮往的美好人生。...</t>
+  </si>
+  <si>
+    <t>励志成功,电子书,图书,pdf,epub</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/83667442b071</t>
+  </si>
+  <si>
+    <t>摄影构图与用光零基础入门与提高  [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>本书是摄影零基础入门与提高系列的构图与用光篇。影像的表现力与构图和光影效果有关，构图和用光是衡量一张照片好坏的重要因素，也是摄影师需要掌握的基本技术。</t>
   </si>
   <si>
     <t>电子书,图书,pdf,epub</t>
   </si>
   <si>
-    <t>https://pan.quark.cn/s/769b03f59c48</t>
-  </si>
-  <si>
-    <t>生活艺术家的手作私宅  [pdf+全格式]</t>
-  </si>
-  <si>
-    <t>本书是日本著名建筑师中村好文拜访艺术创作者宅邸的文集。中村好文在书中走访了14位艺术家的住宅，以建筑师的眼光，发掘潜藏在建筑中的人性温度和独特灵感。书中走访的艺术家，并不是那种政府发过荣誉勋章的著名人士，而是一些与地位和名誉都无缘的自由人，他们爱艺术亦爱生活，利用承载着个人记忆的小物品，辅以各自擅长的手艺与匠心，打造出独属于自己的“手作私宅”，令家居空间充满创作者的血与骨。栖身之所是“房子”，容纳起生活才成为“家”。跟随本书发掘日常乐趣，搭建起创意生活的舞台，让住宅充满潜在的可能性。</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/291551020de9</t>
-  </si>
-  <si>
-    <t>数循环 [经济管理] [pdf+全格式]</t>
-  </si>
-  <si>
-    <t>为什么你功地拥有很多数据还是无法成做到数字化转型？为什么你有了数字化转型的优秀团队乃至所有技术依然会失败？因为在数据量极大丰富的时代，拥有越多数据并不一定会拥有更有竞争力的未来。因为未来的竞争核心，本质上是关于数据治理能力的竞争，而非管理能力以及技术的竞争。继畅销书《决战大数据》《数据的本质》之后，阿里巴巴前副总裁，红杉资本中国基金专家合伙人车品觉再度推出新作。《数循环》一书将从数据战略的本质开始讲起，引出数据治理的通用法则以及数据中台的构建模型，帮助企业更好地做好数字化转型，真正实现企业的数字化变革。...</t>
-  </si>
-  <si>
-    <t>经济管理,电子书,图书,pdf,epub,金融</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/8ba83f6aa99a</t>
-  </si>
-  <si>
-    <t>新竞争战略  [pdf+全格式]</t>
-  </si>
-  <si>
-    <t>本书为T型商业模式系列的第四本书，书中主要企业竞争战略如何从创新、聚焦到实际落地实施。传统企业战略有“三宗罪”：①战略学派众多，创新发散杂乱，难于指导企业战略聚集；②超过99%的企业重点在竞争战略，而战略教科书80%篇幅都在谈少数集团公司才用到的总体战略；③接近95%以上企业的高管有MBA/EMBA文凭或学习过战略，但95%以上企业缺乏有效的战略规划。新竞争战略对于传统企业战略做了“三改进”：①将各种战略学派收敛到战略规划；②将80%以上的战略创新、活动聚焦到竞争战略——产品好、赢利多，才是“好战略”；③将战略落实到企业经营场景，贯彻采用DPO战略过程模型。</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/bb08b88c448f</t>
-  </si>
-  <si>
-    <t>知识内容写作课 [学习教育] [pdf+全格式]</t>
-  </si>
-  <si>
-    <t>这是一本为“专业者”“知识品牌”量身打造的社群经营、内容营销专书!这是一个信息爆炸的社会，但爆炸的是垃圾信息，而不是知识。但垃圾知识占用了我们太多的时间，大众从最初对获取信息的新鲜感消失后，开始渴求专业、优质的知识型内容。本书作者有多年写作科普知识的经验，同时他对运营知识型社群有着独到的见解，他将10多年的个人博客写作到创办、经营超过10个垂直网站，与数百位各领域专家与知识达人互动的经验集结成书。作者的宗旨是让专业人士用专业知识打造个人品牌，让专业知识像娱乐内容一样受到欢迎</t>
+    <t>https://pan.quark.cn/s/d4c404f04931</t>
+  </si>
+  <si>
+    <t>摄影家是怎样炼成的（套装全8册） 跨越摄影起步的初级阶段浮光掠影</t>
+  </si>
+  <si>
+    <t>《摄影家是怎样炼成的（套装全8册）》是一部由刘宽新等资深摄影家撰写的权威摄影教程。该套装不仅涵盖了摄影起步的初级阶段“浮光掠影”，还深入探讨了摄影艺术的多个方面，包括摄影技巧、艺术表达、后期处理及作品展示等。通过丰富的案例分析和实战经验分享，帮助摄影爱好者跨越摄影的初级阶段，逐步成长为专业的摄影家。</t>
+  </si>
+  <si>
+    <t>书籍,摄影,套装,初级</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/8c0692770a54</t>
+  </si>
+  <si>
+    <t>数学可以这样学：专业又有趣的数学科普大集合（套装共9册）</t>
+  </si>
+  <si>
+    <t>数学可以这样学：专业又有趣的数学科普大集合（套装共9册）以生动有趣的方式，将复杂的数学概念变得易于理解。这套书籍通过丰富多样的案例和深入浅出的讲解，引领读者探索数学的奥秘，从基础的数学原理到前沿的数学应用，全方位展现数学的魅力，激发读者对数学的兴趣与热爱。</t>
+  </si>
+  <si>
+    <t>书籍,科普,数学,套装</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1fcefe808af8</t>
+  </si>
+  <si>
+    <t>体育健身训练丛书：营养_训练_放松_损伤预防（套装全10册）</t>
+  </si>
+  <si>
+    <t>体育健身训练丛书：营养_训练_放松_损伤预防（套装全10册）是一部全面指导体育健身的权威指南。该套装详细阐述了运动营养的科学原理与实践方法，提供了针对不同训练目标的训练计划，并深入讲解了放松技巧与损伤预防策略。每本书都由该领域的专家撰写，内容科学严谨，实用性强，帮助读者达到最佳的健身效果，同时避免运动损伤，享受健康快乐的运动生活。</t>
+  </si>
+  <si>
+    <t>书籍,体育,健身,丛书,套装</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/0b1bd7ea9d7e</t>
+  </si>
+  <si>
+    <t>图灵程序设计丛书：Python 高手进阶之路（套装全10册）</t>
+  </si>
+  <si>
+    <t>图灵程序设计丛书：Python 高手进阶之路（套装全10册）是一套专为Python进阶学习者设计的权威指南。该套装涵盖了Python编程的多个领域，包括计算机视觉、网络编程、数据挖掘、机器学习、科学计算、项目开发、数据处理等，每本书均由该领域的专家撰写，内容深入且实用。通过这套丛书，读者可以系统地掌握Python在各个领域的高级应用技巧，实现从入门到高手的跨越。</t>
+  </si>
+  <si>
+    <t>书籍,Python,程序设计,进阶</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/2507a9d0152d</t>
+  </si>
+  <si>
+    <t>图灵前端核心知识进阶系列（套装全10册）</t>
+  </si>
+  <si>
+    <t>图灵前端核心知识进阶系列（套装全10册）是一套专为前端开发者设计的高级学习资料，由多位资深前端工程师和专家共同撰写。该套装全面覆盖了前端开发的各个领域，包括CSS技巧、前端架构设计、Web安全开发、Node.js实战、Vue.js项目实战、JavaScript数据结构与算法、CSS深入解析、JavaScript高级程序设计、React全家桶以及JavaScript深度学习等。每本书都深入探讨了相关领域的核心知识和高级技巧，帮助前端开发者提升技能水平，掌握前沿技术。</t>
+  </si>
+  <si>
+    <t>书籍,前端,核心,进阶</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/eb9a159472c5</t>
+  </si>
+  <si>
+    <t>陀思妥耶夫斯基作品集（套装共9册）(名家特辑)</t>
+  </si>
+  <si>
+    <t>陀思妥耶夫斯基作品集（套装共9册）是俄国文学巨匠陀思妥耶夫斯基的代表作合集，由上海译文出版社出版。该套装囊括了陀氏一生创作的所有最重要文学作品，包括《被伤害与侮辱的人们》、《死屋手记》、《罪与罚》、《白痴》、《鬼》（又译《群魔》）、《少年》和《卡拉马佐夫兄弟》等七部长篇小说，以及中短篇小说集《白夜》，共八种九卷。这些作品以其深刻的人性描绘、复杂的心理剖析和独特的艺术风格，展现了陀思妥耶夫斯基作为文学大师的卓越才华和深远影响。</t>
+  </si>
+  <si>
+    <t>书籍,名家,套装,经典</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/aafac8c6a8bc</t>
+  </si>
+  <si>
+    <t>外研社双语读库：情感故事书系（套装66本）</t>
+  </si>
+  <si>
+    <t>外研社双语读库：情感故事书系（套装66本）精选了世界各地的经典情感故事，涵盖爱情、亲情、友情等多种情感主题。这些故事温馨感人，情节扣人心弦，展现了人类情感的丰富与复杂。套装采用中英双语对照，使读者在享受阅读乐趣的同时，也能提升英语语言能力。</t>
+  </si>
+  <si>
+    <t>书籍,情感,套装,故事</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/38aa8c034358</t>
+  </si>
+  <si>
+    <t>文白对照 中华国学劝善经典白话解（套装共八册）</t>
+  </si>
+  <si>
+    <t>文白对照中华国学劝善经典白话解（套装共八册）是一部集传统文化精髓与现代解读于一体的国学经典。该套装精选了《太上感应篇》、《文昌帝君阴骘文》等八部劝善经典，采用文白对照的形式，既保留了古文原貌，又辅以通俗易懂的现代白话解读，使读者在领略古文韵味的同时，轻松理解经典中的深刻道理。这些经典不仅蕴含了丰富的伦理道德思想，还体现了中华民族的传统美德，是修身养性、提升个人品德的必读之作。</t>
+  </si>
+  <si>
+    <t>书籍,中华,经典,国学</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b52a3c69ae70</t>
+  </si>
+  <si>
+    <t>文白对照四书五经全本（精注全译）（全八册）</t>
+  </si>
+  <si>
+    <t>文白对照四书五经全本（精注全译）（全八册）是一部全面收录并精注全译儒家经典著作的权威版本。该书涵盖了《大学》、《中庸》、《论语》、《孟子》、《诗经》、《尚书》、《礼记》及《周易》、《左传》等儒家核心经典，通过文白对照的方式，既保留了古文原貌，又提供了详尽的白话解释，使读者能够轻松理解古代经典中的深邃思想和丰富内容。</t>
+  </si>
+  <si>
+    <t>书籍,全译,精注</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f150d44fa8eb</t>
+  </si>
+  <si>
+    <t>翁贝托·埃科重要代表作品集（套装共12册）</t>
+  </si>
+  <si>
+    <t>翁贝托·埃科重要代表作品集（套装共12册）汇集了意大利著名作家翁贝托·埃科的文学与学术精华。该套装囊括了埃科一生中的重要文学作品、论著及杂文，包括《玫瑰的名字》、《傅科摆》、《昨日之岛》、《波多里诺》等经典小说，以及《康德与鸭嘴兽》、《密涅瓦火柴盒》等学术随笔集。埃科作为“当代但丁”、“当代达·芬奇”，以其博学多才和独特的创作风格在文坛上独树一帜，该作品集是对其文学与学术成就的全面展示。</t>
+  </si>
+  <si>
+    <t>书籍,作品集,套装,文学</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e84831da6fd0</t>
+  </si>
+  <si>
+    <t>无论如何都想告诉你的“趣味学”（套装共6册）</t>
+  </si>
+  <si>
+    <t>《趣味学》（套装共6册）是一套专为儿童设计的趣味学习读物，通过生动的科学实验、有趣的物理现象、丰富的语文知识等，激发孩子的学习兴趣和好奇心。该套装内容涵盖广泛，以寓教于乐的方式，让孩子在轻松愉快的阅读中掌握知识，培养科学思维和创造力。书籍设计精美，图文并茂，适合小学中高年级学生阅读。</t>
+  </si>
+  <si>
+    <t>书籍,趣味,套装,儿童,科学</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/548f5bdd956c</t>
+  </si>
+  <si>
+    <t>先秦史+秦汉史+两晋南北朝史等(套装共13册)(精校版)-[吕思勉 著]</t>
+  </si>
+  <si>
+    <t>《先秦史_秦汉史_两晋南北朝史等(精校版)(套装共13册)》是吕思勉先生的史学力作精校合集，由华中科技大学出版社出版。该套装系统梳理了中国古代历史的重要时期，涵盖《先秦史》、《秦汉史》、《两晋南北朝史》等经典著作，以及《隋唐五代史》、《三国史话》、《中国近代史》和《中国通史》等，全面展现了中华文明的辉煌历程与独特魅力。吕思勉先生的著作以严谨考据、深入浅出著称，是历史研究及爱好者的必读经典。</t>
+  </si>
+  <si>
+    <t>书籍,套装,精校,历史</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a5afb9f0fe5f</t>
+  </si>
+  <si>
+    <t>像高手一样思维与行动（8册）</t>
+  </si>
+  <si>
+    <t>《像高手一样思维与行动（8册）》是一套提升个人思维与行动能力的实用指南。该套装精选了八本经典书籍，涵盖了领导力、时间管理、高效沟通、问题解决等多个领域。书中通过生动案例和实用技巧，帮助读者掌握高手的思维方式与行动策略，实现个人能力的飞跃。无论你是职场新人还是资深管理者，都能从中获得启发，成为更加出色的自己。</t>
+  </si>
+  <si>
+    <t>书籍,思维,沟通,职场</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/287d030a2ea7</t>
+  </si>
+  <si>
+    <t>心理大师彩虹书系（套装共8册）</t>
+  </si>
+  <si>
+    <t>心理大师彩虹书系（套装共8册）是一套汇集了精神分析、人本主义、分析心理学、自体心理学等流派创始人或代表人物重要作品的心理学丛书。该书系通过系统而深入的探讨，为心理学爱好者和专业人士提供了丰富的理论资源和实践指导。书中内容涵盖自我实现、人类创造性、需求层次、心理咨询与治疗等多个方面，帮助读者更好地理解人性和社会，提升自我认知与成长。</t>
+  </si>
+  <si>
+    <t>书籍,心理,大师,套装</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/65c07af034b7</t>
+  </si>
+  <si>
+    <t>心理自救指南（套装共10册）</t>
+  </si>
+  <si>
+    <t>《心理自救指南》（套装共10册）是一套由多位心理学专家撰写的心理健康指导书籍，涵盖抑郁自救、精神病学理解、敏感管理、睡眠改善、社交焦虑克服等多个方面。该套装通过具体案例和科学方法，为读者提供了全面的心理自救策略，帮助读者更好地认识自我、管理情绪、克服心理障碍，实现心理健康和自我成长。</t>
+  </si>
+  <si>
+    <t>书籍,心理,套装,指南</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3d003b6ee61e</t>
+  </si>
+  <si>
+    <t>新手死神五部曲（全5册）</t>
+  </si>
+  <si>
+    <t>《新手死神五部曲》（全5册）是一场关于生命与死亡的深刻探讨，以独特视角引领读者穿越灵魂的世界。书中，新手死神以其独特的经历，揭示了生命的脆弱与坚韧，展现了人生百态中的喜怒哀乐。这部作品如同一部生命的狂欢，让读者在一日之内，仿佛经历了漫长而丰富的一生，感受生命的真谛与意义。</t>
+  </si>
+  <si>
+    <t>书籍,生命,死神</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/dc976d478446</t>
+  </si>
+  <si>
+    <t>新中国70年长篇小说典藏：全38种50册</t>
+  </si>
+  <si>
+    <t>《新中国70年长篇小说典藏：全38种50册》是为庆祝中华人民共和国成立70周年而编纂的文学精品合集，由多家权威出版社联合推出。该典藏精选了自1949年以来反映社会变迁、人民生活、民族精神及时代风貌的38种50册原创长篇小说，包括《风云初记》、《铁道游击队》、《保卫延安》等经典之作。这些作品在思想性、艺术性上均达到高度统一，代表了中国文坛70年间长篇小说创作的最高成就，深受读者喜爱，具有极高的文学价值和社会意义。</t>
+  </si>
+  <si>
+    <t>书籍,典藏,长篇小说</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/263f6f51d0b5</t>
+  </si>
+  <si>
+    <t>熊逸作品（套装共10册）</t>
+  </si>
+  <si>
+    <t>熊逸作品（套装共10册）是一套集思想性、学术性与趣味性于一体的精品书籍。该套装涵盖了熊逸对中国传统文化、哲学、历史及艺术的深刻解读，包括《王阳明:一切心法》、《思辨的禅趣》、《道可道:&lt;老子&gt;的要义与诘难》等经典作品。熊逸以其独特的视角和缜密的思辨，引领读者穿越古今，探索传统文化的精髓与智慧。</t>
+  </si>
+  <si>
+    <t>书籍,套装,熊逸,熊逸作品</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/affafd325f1d</t>
+  </si>
+  <si>
+    <t>许廷旺大草原传奇动物小说（套装5册）</t>
+  </si>
+  <si>
+    <t>许廷旺大草原传奇动物小说（套装5册）是一套以辽阔草原为背景，生动描绘野生动物生存智慧与情感的精彩小说。书中，狼群、野驴、黄羊等动物角色栩栩如生，它们或团结协作，或英勇抗争，展现了自然界中生存竞争的残酷与温情。故事情节扣人心弦，文字流畅有力，让读者在享受阅读乐趣的同时，也能深刻感受到草原生态的魅力和生命的奇迹。</t>
+  </si>
+  <si>
+    <t>书籍,套装,小说,动物</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ec9c1e11fb1d</t>
+  </si>
+  <si>
+    <t>盐野七生-系列作品集结（套装共41册）</t>
+  </si>
+  <si>
+    <t>盐野七生系列作品集结（套装共41册）是一部涵盖广泛历史题材的巨著，由日本著名历史作家盐野七生撰写。该套装包括《罗马人的故事》、《文艺复兴的故事》、《地中海海战三部曲》等多部作品，详细描绘了从古希腊罗马到文艺复兴时期的历史变迁，以及重要人物和事件。盐野七生以生动的笔触和严谨的考证，将复杂的历史事件和人物性格展现得淋漓尽致，让读者仿佛置身于那个辉煌的时代。</t>
+  </si>
+  <si>
+    <t>书籍,作品集,套装,系列</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/7daf29a6852f</t>
+  </si>
+  <si>
+    <t>叶舒宪文学与神话学术合集(全九册)</t>
+  </si>
+  <si>
+    <t>叶舒宪文学与神话学术合集(全九册)是叶舒宪教授在文学与神话学领域的学术成果汇集，涵盖了广泛的研究主题和深入的理论探讨。该合集包括但不限于《现代性危机与文化寻根》、《两种旅行的足迹》、《耶鲁笔记》、《诗经的文化阐释》、《庄子的文化解析》、《高唐神女与维纳斯》、《中国神话哲学》、《老子与神话》、《英雄与太阳》等著作。这些书籍从不同角度切入，深入剖析了文学、神话、文化、历史等多个领域的问题，展现了叶舒宪教授深厚的学术功底和独到的学术见解</t>
+  </si>
+  <si>
+    <t>书籍,文学,合集,神话,学术</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/2afd495b1ffd</t>
+  </si>
+  <si>
+    <t>医学养生大百科（套装10册）</t>
+  </si>
+  <si>
+    <t>《医学养生大百科》（套装10册）是一部集医学、养生知识于一体的综合性百科全书，包含《医路向前巍子给中国人的救护指南》、《你是你吃出来的》、《你是你吃出来的2》、《手到病自除》系列、《五味子》、《医目了然》、《医学就会》、《医本正经:珍藏版》等多部著作。该套装由多位医学专家及养生达人共同编写，涵盖了急救知识、慢病管理、营养膳食、中医养生等多个领域，通过科学严谨的阐述和丰富的实例，为读者提供了全面、实用的医学养生指导。</t>
+  </si>
+  <si>
+    <t>书籍,套装,养生,医学,百科</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/db09b600cfa7</t>
+  </si>
+  <si>
+    <t>译文经典·第一辑（套装共20册）</t>
+  </si>
+  <si>
+    <t>《译文经典·第一辑》（套装共20册）由上海译文出版社出版，汇集了从十八世纪到二十世纪，二十位外国作家流传后世的长篇小说代表作，包括《瘟疫年纪事》《弗兰肯斯坦》《包法利夫人》等经典之作。这套书是人类叙述王国永恒的桂冠，每一本书都能引领读者通往伟大的虚构世界，是文艺青年的必读之选。</t>
+  </si>
+  <si>
+    <t>书籍,译文,经典,套装</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f338045d5b71</t>
+  </si>
+  <si>
+    <t>英国未来出版社·萤火虫丛书第二辑(套装共10册) (萤火虫丛书系列)</t>
+  </si>
+  <si>
+    <t>英国未来出版社·萤火虫丛书第二辑（套装共10册）是一套深度挖掘历史与文化的精品书籍合集。该丛书涵盖了从中世纪骑士的荣耀与传奇，到圣殿骑士的神秘与辉煌，再到金雀花王朝的兴衰更迭，以及英格兰王权游戏终极对决的玫瑰战争等丰富内容。此外，还深入探讨了俄罗斯帝国的兴衰、拿破仑的成败、希特勒的战争策略，以及第一次世界大战中的重大战役等。</t>
+  </si>
+  <si>
+    <t>书籍,丛书,套装,系列</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/66ed59370bd7</t>
+  </si>
+  <si>
+    <t>影响孩子一生的世界名著 [插图本] （套装22册） (童年书系·书架上的经典)</t>
+  </si>
+  <si>
+    <t>《影响孩子一生的世界名著 [插图本] （套装22册）》是一套专为儿童精选的世界文学经典，涵盖了《爱丽丝漫游奇境》、《小王子》、《伊索寓言》等22部脍炙人口的名著。这套书籍通过精美的插图和生动的文字，引导孩子们走进文学的世界，感受不同文化的魅力，培养阅读兴趣与文学素养。每本书都是经过精心挑选，激发孩子们的想象力和创造力，帮助他们塑造正确的人生观和价值观，是童年书架上不可或缺的经典之作。</t>
+  </si>
+  <si>
+    <t>书籍,世界名著,经典,套装,插图本</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/619b7fa95392</t>
+  </si>
+  <si>
+    <t>支配与抵抗艺术 [人文社科] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>无权者与有权者之间的对抗充满了欺骗——无权者假装恭敬有礼，有权者则故意夸大他们的名望与掌控能力。如果仅接受这些表面价值，我们将无法把握权力关系中的各种矛盾、紧张和内在可能性。通过考察世界各地文学、历史学、政治文化中的实例，著名政治学、人类学者詹姆斯·C·斯科特深入探讨了支配者与从属群体的公开剧本及潜隐剧本之间的联系、区别和界限。出于各自的利益考虑，有权者与无权者会心照不宣地在公开互动中合作共谋，这使得公开剧本往往带有程式化和仪式化的色彩。相对地，任何从属群体都会在其苦难之中创造出特定的潜隐剧本，这些发生在后台的话语、姿态与实践代表着他们对支配者的某种权力批判。...</t>
+  </si>
+  <si>
+    <t>人文社科,电子书,图书,pdf,epub</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/deffce7c642f</t>
+  </si>
+  <si>
+    <t>只有生娃才知道 [学习教育] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>从青春美少女，到焦头烂额带娃的新手妈妈；从对养娃一无所知，到轰轰烈烈踏上育儿战场；从忍受不了尿不湿的“坏妈妈”，到对孩子这个“敌人”心动，开始感受琐碎生活的平和日常与养娃中的无数温柔瞬间，于是，给孩子写了一首又一首诗，画了一幅又一幅画……漫画家妈妈PP殿下，用纸和笔描绘了养育自家娃——“迅猛龙”过程中的点点滴滴，带来一个个生动有趣又有料的养娃小故事，也从一个新手妈妈的角度总结了生娃、养娃过程中的宝贵经验。养娃，虽饱含辛苦却别有滋味，也让人从中得到快乐与修炼。有了娃后，留给这个世界的，尽是美丽的回想。</t>
   </si>
   <si>
     <t>学习教育,电子书,图书,pdf,epub</t>
   </si>
   <si>
-    <t>https://pan.quark.cn/s/ab92287464d3</t>
-  </si>
-  <si>
-    <t>《资治通鉴 · 有声书》中国权谋智慧</t>
-  </si>
-  <si>
-    <t>被誉为中国史学双壁的《资治通鉴》，在卷帙浩繁的历史文化典籍中，与《史记》并称“史学双壁”。历史人文大神主播峻宇倾情讲播，文学代入感超强，带我们打开历史视野，开悟思维。</t>
-  </si>
-  <si>
-    <t>历史,有声读物</t>
-  </si>
-  <si>
-    <t>文档书籍,有声读物</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/dbdab402eb4b</t>
-  </si>
-  <si>
-    <t>RAZ 复述思维导图 (学英语辅助神器)</t>
-  </si>
-  <si>
-    <t>RAZ 几乎是学英语绕不开的话题了，以 RAZ 为主线的原版阅读路，是提升英语能力最便捷的一条路。一套 RAZ 复述思维导图，帮助英语学习者彻底理顺 RAZ。</t>
-  </si>
-  <si>
-    <t>英语,RAZ,思维导图</t>
-  </si>
-  <si>
-    <t>学习资源,幼中小大学资源</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/9652d8aca41a</t>
-  </si>
-  <si>
-    <t>烘焙教程大全系列+西点面包教程大全</t>
-  </si>
-  <si>
-    <t>这套烘焙教程大全系列是烘焙爱好者的理想选择，涵盖了从基础到高级的各种西点和面包制作方法。教程内容丰富，包含多种蛋糕、面包、以及多种饼干、巧克力、酥类、派类、冷冻甜食、泡芙、挞类和清酥的详细制作步骤和配方。无论你是初学者还是有经验的烘焙师，这套教程都能帮助你提升技能，制作出美味的烘焙作品。通过系统的学习，你将掌握各种烘焙技巧</t>
-  </si>
-  <si>
-    <t>烘焙,面包,蛋糕,西点</t>
-  </si>
-  <si>
-    <t>学习资源,兴趣技能,创业</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/2ef9fb267bdb</t>
-  </si>
-  <si>
-    <t>JustYou 调色训练营</t>
-  </si>
-  <si>
-    <t>从初级到高级全方位调色训练，掌握艺术调色的技巧和方法，提升照片的艺术感和表现力。</t>
-  </si>
-  <si>
-    <t>摄影,修图,调色</t>
-  </si>
-  <si>
-    <t>学习资源,兴趣技能</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/779d578d056b</t>
-  </si>
-  <si>
-    <t>不晚治愈系水彩专题课第1期</t>
-  </si>
-  <si>
-    <t>不晚治愈系水彩专题课第1期，专为水彩爱好者设计，旨在通过轻松愉悦的绘画体验，帮助学员释放压力、找到内心的平静。课程涵盖基础技法与创意表达，适合各个水平的学员，激发艺术潜能，享受创作的乐趣。</t>
-  </si>
-  <si>
-    <t>美工修图</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/3d1933948a56</t>
-  </si>
-  <si>
-    <t>黑马程序员《8 天零基础入门大数据》</t>
-  </si>
-  <si>
-    <t>课程由浅到深，由原理到实践，结合实际案例，培养解决实际问题的能力，既适合零基础也适合深入学习。</t>
-  </si>
-  <si>
-    <t>大数据,办公效率</t>
-  </si>
-  <si>
-    <t>学习资源,编程开发</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/36c488e29f9b</t>
-  </si>
-  <si>
-    <t>传智播客 &amp; 黑马程序员《Python 爬虫数据采集课程》</t>
-  </si>
-  <si>
-    <t>学习 Python 爬虫不仅能够提升工作效率，还能在技术的海洋中遨游。每一次成功的爬取，都是对自我能力的肯定。本课程在初学者的角度，从原理到实践, 循序渐进地讲解 Python 开发网络爬虫的核心技术。</t>
-  </si>
-  <si>
-    <t>Python,爬虫,数据采集</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/63528ad3dec4</t>
-  </si>
-  <si>
-    <t>【蛋仔派对5.0全新蓝海玩法】懒人稳定放单变现，手机平板即可操作，小白轻松上手</t>
-  </si>
-  <si>
-    <t>游戏厂家为了推销游戏而做的拉新，跟抖音官方合作，所以抖音那边一般不管这个收益，只是代为发放收益，都是厂家直接结算收益，所以不用担心没有收益</t>
-  </si>
-  <si>
-    <t>蓝海,兼职副业,网赚项目</t>
-  </si>
-  <si>
-    <t>副业资源,自媒体</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/ac28292e1c70</t>
-  </si>
-  <si>
-    <t>【九月份AI生成国宝熊猫短视频】单条10万赞，多平台变现，轻松月入过W</t>
-  </si>
-  <si>
-    <t>利用我们现在比较热门AI的工具啊，一键生成宠物打工的图片和视频发布到这个抖音快手小红书这样的一个平台，那这个视频呢，利用我们这样一个反差感，非常能够引得我们平台用户的一个好奇和共鸣，从而达到一个快速涨粉的一个目的，然后进行各种变现。</t>
-  </si>
-  <si>
-    <t>AI,短视频,副业兼职,直播,网赚项目</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/6a9e79f3c788</t>
-  </si>
-  <si>
-    <t>【视频号海外靶场赛道赚分成计划收益】轻松月入过万，操作简单保姆级教程</t>
-  </si>
-  <si>
-    <t>视频号项目是一个小白可以玩的副业，非常简单，一小时上手，普通小白全职可以月入1-3W，但是目前很多人都找不到正确的赛道，比如说影视剪辑、解说、民间故事等等，收益超级低，我们做的赛道是蓝海赛道，起号非常快，收益高，可以矩阵操作。
-视频号的用户群体，中老年人偏多，这一类的视频符合视频号人群的口味。从而影响停留，互动，点击，我们的收益自然也是水涨船高</t>
-  </si>
-  <si>
-    <t>视频号,海外,分成计划,兼职副业,网赚项目</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/0a8912802f27</t>
-  </si>
-  <si>
-    <t>【无脑搬运百家号月入5W】24年全新玩法，操作简单，有手就行！</t>
-  </si>
-  <si>
-    <t>今天，我将揭秘一个专为新手小白、时间宝贵的宝妈及寻求兼职机会的你量身定制的赚钱新策略——利用百家号平台，通过内容搬运与广告分成，轻松实现月入1-3万的梦想。这不仅仅是一个方法，更是一场关于智慧与行动并重的财富盛宴。</t>
-  </si>
-  <si>
-    <t>百家号,视频,搬运,兼职副业,网赚项目</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/9480891f558c</t>
-  </si>
-  <si>
-    <t>视频号新思路，外国美食视频混剪，撸分成计划收益，上手简单</t>
-  </si>
-  <si>
-    <t>视频号项目是一个小白可以玩的副业，非常简单，一小时上手，普通小白全职可以月入1-3W，但是目前很多人都找不到正确的赛道，比如说影视剪辑、解说、民间故事等等，收益超级低，我们做的赛道是蓝海赛道，起号非常快，收益高，可以矩阵操作。</t>
-  </si>
-  <si>
-    <t>视频号,美食,分成,网赚</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/ef75a5b61560</t>
-  </si>
-  <si>
-    <t>让客户主动下单的销售策略</t>
-  </si>
-  <si>
-    <t>让客户主动下单的销售策略课程，专为销售人员设计，教授如何通过心理学和市场分析激发客户购买欲望。课程内容包括客户需求识别、有效沟通技巧、成交技巧等，帮助学员掌握实用策略，提升销售业绩，实现业绩突破。</t>
-  </si>
-  <si>
-    <t>职场关系</t>
-  </si>
-  <si>
-    <t>副业资源,运营营销</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/038137eb05ae</t>
-  </si>
-  <si>
-    <t>快速掌握亚马逊选品的技巧</t>
-  </si>
-  <si>
-    <t>本课程将教您如何快速掌握亚马逊选品的关键技巧。通过系统的方法和实用工具，您将学会识别高潜力产品、分析市场趋势，并优化产品选择策略，帮助您在亚马逊平台上实现销售增长。</t>
-  </si>
-  <si>
-    <t>副业资源,电商,运营营销</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/45dc1ae70e2e</t>
+    <t>https://pan.quark.cn/s/47c845ac521a</t>
+  </si>
+  <si>
+    <t>中老年人力量训练指南 第2版修订版  [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>中老年人力量训练指南是体能训练师为中老年人撰写的力量训练指南。本书先从多方面分析了中老年人应进行力量训练的原因，然后介绍了中老年人力量训练的训练原则、教学方法、训练流程和指导，以及针对不同训练水平的训练计划，并给出了对训练效果进行评估的方法，还为患有多种病症的中老年人及进行不同运动专项训练的中老年人提供了力量训练的建议。本书提供了针对中老年人的营养方案。本书适合希望通过健身提升身体素质和改善身体健康状况的中老年人阅读。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/0a57972a5502</t>
+  </si>
+  <si>
+    <t>叶武滨《时间管理100讲》</t>
+  </si>
+  <si>
+    <t>你想告别低效拖延焦虑的状态吗？你想告别生活无序能量低下吗？你想拥有诗歌和远方吗？你想突破迷局寻找人生方向吗？时间是一个人最稀缺的资源，人人都需要时间管理。在这里，或许可以让自己成为自己期待的样子，拥有一个平衡值得拥有的一生 ……</t>
+  </si>
+  <si>
+    <t>时间管理,思维认知,有声读物</t>
+  </si>
+  <si>
+    <t>文档书籍，有声读物</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/29ccaa1d6533</t>
+  </si>
+  <si>
+    <t>网赚副业资源：2024年最新478个搞钱玩法合集  附实战操作</t>
+  </si>
+  <si>
+    <t>精心整理了最新的478个搞钱玩法合集，涵盖了各种实战操作的网赚副业资源。无论你是刚开始尝试副业，还是希望拓展现有的收入来源，这个合集都能满足你的需求。每个玩法都经过详细讲解和实战验证，确保你能快速上手并取得实际收益。立即下载，开启你的副业之旅，轻松搞钱，实现财务自由！</t>
+  </si>
+  <si>
+    <t>网赚,副业,玩法,合集</t>
+  </si>
+  <si>
+    <t>副业资源，自媒体</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/9654e0737db8</t>
+  </si>
+  <si>
+    <t>小红书变现运营课</t>
+  </si>
+  <si>
+    <t>小红书变现运营课：从店铺开设到产品上传，打造吸睛爆款 全方位提升收入 夸克网盘资源下载</t>
+  </si>
+  <si>
+    <t>小红书,运营课,兼职副业</t>
+  </si>
+  <si>
+    <t>副业资源，自媒体，运营营销</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c9c85a9d9ff2</t>
+  </si>
+  <si>
+    <t>B站付费课程-图灵的猫：人人都能听懂的AI通识课 （已完结）</t>
+  </si>
+  <si>
+    <t>B站付费课程《图灵的猫：人人都能听懂的AI通识课》（已完结），以通俗易懂的方式全面解析人工智能基础，从原理到应用，覆盖机器学习、深度学习、自然语言处理等前沿技术，帮助学习者轻松构建AI知识体系，掌握未来科技趋势。</t>
+  </si>
+  <si>
+    <t>AI,通识,B站,B站付费课程</t>
+  </si>
+  <si>
+    <t>其他资源，AI资源</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3ce0f2310a10</t>
+  </si>
+  <si>
+    <t>卡牌店模拟器TCG Card Shop Simulator</t>
+  </si>
+  <si>
+    <t>《TCG Card Shop Simulator》是一款卡牌商店模拟经营游戏。游戏中，玩家扮演一家TCG集换卡牌商店店长，一步步打造玩家喜爱的游戏卡牌交流中心，作为店长，除了积极进货，与生产商交涉，还得持续关注市场行情，德系某些特殊卡牌的行情变动。</t>
+  </si>
+  <si>
+    <t>pc游戏,模拟,拆卡</t>
+  </si>
+  <si>
+    <t>软件源码，游戏资源</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/14c8a92458f9</t>
+  </si>
+  <si>
+    <t>去月球系列海滩特别篇</t>
+  </si>
+  <si>
+    <t>准备好参加这场新颖又短暂旅程吧，作为西格蒙德公司的员工，公司报销请大家去金龙虾度假旅店享受足足一整天的假期！不过公司显然也就付得起这么多了。 ¯\_(ツ)_/¯</t>
+  </si>
+  <si>
+    <t>pc游戏,角色扮演</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/504195bad6d2</t>
+  </si>
+  <si>
+    <t>【尚硅谷】2024新版Java教程 - 带源码课件</t>
+  </si>
+  <si>
+    <t>如果你学习Java不知从何入手，效率低进度慢，很多知识点听不懂？如果你看视频学习感觉枯燥，找不到配套资料，有问题解决不掉，浪费了大把时间……这是一套真正适合小白，让你不走弯路的Java入门课。</t>
+  </si>
+  <si>
+    <t>尚硅谷</t>
+  </si>
+  <si>
+    <t>学习资源，编程开发</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/80f27f33d7a6</t>
+  </si>
+  <si>
+    <t>【希赛网】2023新版 - 系统架构设计师精讲班</t>
+  </si>
+  <si>
+    <t>本视频课程由希赛教育高级讲师主编和讲解。讲师根据最新的系统架构师考试动态，对实际考试时综合知识部分（除专业英语以外）的90%以上的知识点进行了归类分析和总结，挖掘出了其中的考试重点和难点，指出了考试的命题方向以及每个知识点在实际考试中所占的分数比例。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b26aa220452e</t>
+  </si>
+  <si>
+    <t>千金难买：专家亲授弟弟锻炼法  增长增粗延时</t>
+  </si>
+  <si>
+    <t>全网弟弟锻炼、恢复、增长术合集，精整专家资源，鸟枪换炮，大振雄风!</t>
+  </si>
+  <si>
+    <t>男性,锻炼,增粗,延时,千金难买</t>
+  </si>
+  <si>
+    <t>学习资源，两性教育</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e656cbeff1ba</t>
+  </si>
+  <si>
+    <t>20堂超实用记忆术，教你过目不忘！ 《最强大脑》冠军教练亲授</t>
+  </si>
+  <si>
+    <t>《最强大脑》冠军教练亲授的20堂超实用记忆术课程将带你掌握快速记忆的秘诀。无论你是学生、职场人士还是记忆爱好者，这套课程都能帮助你提升记忆力，轻松应对各种学习和工作挑战。通过详细的讲解和实战训练，你将学会如何高效记忆大量信息，提升学习效率，成为记忆高手。</t>
+  </si>
+  <si>
+    <t>记忆,最强大脑,过目不忘,20堂超实用记忆术</t>
+  </si>
+  <si>
+    <t>学习资源，兴趣技能</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c0b938527e9d</t>
+  </si>
+  <si>
+    <t>24节职场课系统提升竞争力</t>
+  </si>
+  <si>
+    <t>24节职场课系统提升竞争力课程，专为职场人士设计，涵盖沟通技巧、时间管理、团队协作等关键主题。通过实战案例和互动练习，帮助学员全面提升职业素养与技能，增强职场适应能力，助力职业发展与晋升。</t>
+  </si>
+  <si>
+    <t>自我提升</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b589cc4c5bde</t>
+  </si>
+  <si>
+    <t>32个高情商公式建立自己的优势</t>
+  </si>
+  <si>
+    <t>你越会说话，别人就越快乐，别人越快乐，就会越喜欢你；别人越喜欢你，你得到的帮助就越多。美国心理学家威廉。詹姆士说：“人类本性上的最深企图之一，就是期望被赞美、钦佩、尊重。” 当然，高比拼的不是技巧，而是发自内心的真诚。</t>
+  </si>
+  <si>
+    <t>社交职场</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/dcf80b092f25</t>
+  </si>
+  <si>
+    <t>950份折纸教程打包  分类精整资源</t>
+  </si>
+  <si>
+    <t>如果你对折纸艺术充满热情，这套折纸教程的资源包绝对不容错过。将各种折纸教程进行了详细分类，包括动物、植物、几何图形等多个主题，确保你能轻松找到所需的教程。每份教程都经过精心整理，内容清晰易懂，适合不同水平的折纸爱好者。无论你是初学者还是折纸高手，这套资源都能帮助你提升折纸技巧，创造出更多精美的作品。</t>
+  </si>
+  <si>
+    <t>折纸,合集,分类,收藏,950份折纸教程打包</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3a62865e2a01</t>
+  </si>
+  <si>
+    <t>北鱼学堂张兴东《儒家文化〈大学〉精讲王者班》</t>
+  </si>
+  <si>
+    <t>《大学》王者班精读课，由北鱼读书张兴东老师讲课，以深度讲解窥见古代国学经典。</t>
+  </si>
+  <si>
+    <t>儒家,国学,北鱼学堂张兴东</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/fa64d12b45e3</t>
+  </si>
+  <si>
+    <t>缠论趋势交易系统</t>
+  </si>
+  <si>
+    <t>缠论趋势交易系统是一种基于缠中说禅理论构建的投资策略，旨在捕捉市场中的长期趋势，从而实现稳定盈利。该系统强调对价格走势的精确划分，通过识别不同的波浪形态和结构，来判断市场的多空方向及力度。
+在缠论趋势交易系统中，投资者需关注关键的支撑与阻力位，并结合成交量、均线等技术指标进行分析。此外，该系统还注重心理因素对市场的影响，教导投资者如何在市场波动中保持冷静，遵循既定策略执行交易。
+总之，缠论趋势交易系统以其独特的方法论和实用性，为投资者提供了一套完整的交易解决方案。通过不断学习和实践，投资者可以逐渐掌握这一系统的精髓，从而在激烈的市场竞争中脱颖而出。"</t>
+  </si>
+  <si>
+    <t>股票,缠论,A股,金融</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/832e49c06710</t>
+  </si>
+  <si>
+    <t>揭开性格密码：MBTI人格测验全解析</t>
+  </si>
+  <si>
+    <t>在纷繁复杂的社交场合中，我们常常会遇到形形色色的人。每个人都有自己独特的性格特点和行为方式，这使得人际交往充满了挑战与乐趣。那么，我们究竟属于哪一型人呢？如何更好地认识自己并与他人建立和谐的关系呢？这时，MBTI人格测验便成为了一个极具价值的工具。
+MBTI（Myers-Briggs Type Indicator），即迈尔斯布里格斯性格分类指标，是一种广泛应用于职业发展、团队建设、人际交往等领域的人格测验。它基于瑞士心理学家荣格的性格类型理论，通过四个维度——能量获取方式（E外向/I内向）、信息获取方式（S实感/N直觉）、决策方式（T思考/F情感）、生活方式（J判断/P知觉）——对人的性格进行全面而深入的分析。"</t>
+  </si>
+  <si>
+    <t>社交,人格,测试</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/9a04d411e97c</t>
+  </si>
+  <si>
+    <t>鲁宾斯坦钢琴调律高级视频课</t>
+  </si>
+  <si>
+    <t>鲁宾斯坦钢琴调律高级视频课，专为钢琴调律师和爱好者设计，深入讲解调律原理、技术细节及实操技巧。通过专业案例分析和实际操作演示，帮助学员提升调律水平，确保钢琴音色完美。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f06dba56595f</t>
+  </si>
+  <si>
+    <t>一部手机教你玩转短视频达人创作</t>
+  </si>
+  <si>
+    <t>一部手机教你玩转短视频达人创作是一部实战型教程，通过详尽步骤和技巧展示，教你如何利用智能手机轻松成为短视频创作达人。课程涵盖选题策划、拍摄技巧、后期制作、平台运营全链条，助力你快速掌握短视频创作精髓，打造爆款内容，吸引粉丝关注，开启短视频创作的精彩旅程。</t>
+  </si>
+  <si>
+    <t>短视频,创作</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/52ece278978b</t>
+  </si>
+  <si>
+    <t>于赓哲《了不起的大唐文明史》</t>
+  </si>
+  <si>
+    <t>一门深入浅出、生动有趣的历史课程，由中国历史学者于赓哲讲授。通过讲述大唐文明的历史故事，探究大唐王朝的政治、经济、文化、社会等各个方面，展现一个宏伟壮丽而辉煌灿烂的古代帝国。</t>
+  </si>
+  <si>
+    <t>历史</t>
+  </si>
+  <si>
+    <t>学习资源，幼中小大学资源</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/51894c06cdf3</t>
+  </si>
+  <si>
+    <t>【稀缺学习资源】世界最大规模青少年数学竞赛《袋鼠数学Math Kangaroo》历年真题合集</t>
+  </si>
+  <si>
+    <t>袋鼠数学竞赛是全球最大规模的青少年数学竞赛，由澳大利亚数学家Peter O’Halloran于1980年发起，针对1-12年级学生。该合集收录了历年真题，覆盖广泛年级，题型趣味生动，培养学生数学兴趣与思维能力。竞赛题目从生活实际出发，注重阅读理解、视觉感知及建模能力训练，获奖比例高，是锻炼数学思维与提升学习兴趣的优质资源。</t>
+  </si>
+  <si>
+    <t>青少年,数学竞赛,合集,真题</t>
+  </si>
+  <si>
+    <t>学习资源，幼中小大学资源，文档书籍，试卷教辅</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/31efb6878ba0</t>
   </si>
 </sst>
 </file>
@@ -346,26 +1222,13 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -706,27 +1569,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -847,143 +1695,139 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1037,15 +1881,6 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1305,19 +2140,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.8888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="55.5555555555556" customWidth="1"/>
     <col min="2" max="4" width="12.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="52.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="17.4444444444444" customWidth="1"/>
     <col min="6" max="6" width="25.8888888888889" customWidth="1"/>
     <col min="7" max="7" width="12.8888888888889" customWidth="1"/>
     <col min="8" max="8" width="40" customWidth="1"/>
@@ -1354,17 +2189,17 @@
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:8">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2"/>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
@@ -1373,22 +2208,22 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:8">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3"/>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
       <c r="F3" t="s">
@@ -1397,22 +2232,22 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:8">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
       <c r="B4"/>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>21</v>
       </c>
       <c r="F4" t="s">
@@ -1421,23 +2256,23 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:8">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>23</v>
       </c>
       <c r="B5"/>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
+      <c r="E5" t="s">
+        <v>25</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -1445,23 +2280,23 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>25</v>
+      <c r="H5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>26</v>
+      <c r="A6" t="s">
+        <v>27</v>
       </c>
       <c r="B6"/>
-      <c r="C6" s="1" t="s">
-        <v>27</v>
+      <c r="C6" t="s">
+        <v>28</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
+      <c r="E6" t="s">
+        <v>29</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -1469,23 +2304,23 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>29</v>
+      <c r="H6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>30</v>
+      <c r="A7" t="s">
+        <v>31</v>
       </c>
       <c r="B7"/>
-      <c r="C7" s="1" t="s">
-        <v>31</v>
+      <c r="C7" t="s">
+        <v>32</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
+      <c r="E7" t="s">
+        <v>25</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -1493,23 +2328,23 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A8" s="1" t="s">
+      <c r="H7" t="s">
         <v>33</v>
       </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:8">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
       <c r="B8"/>
-      <c r="C8" s="1" t="s">
-        <v>34</v>
+      <c r="C8" t="s">
+        <v>35</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>35</v>
+      <c r="E8" t="s">
+        <v>25</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -1517,366 +2352,2140 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:8">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>37</v>
       </c>
       <c r="B9"/>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>38</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
         <v>39</v>
       </c>
-      <c r="F9" t="s">
+    </row>
+    <row r="10" customFormat="1" spans="1:8">
+      <c r="A10" t="s">
         <v>40</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="B10"/>
+      <c r="C10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:8">
-      <c r="A10" s="1" t="s">
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
         <v>42</v>
       </c>
-      <c r="B10"/>
-      <c r="C10" s="1" t="s">
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
         <v>43</v>
       </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="1" t="s">
+    </row>
+    <row r="11" customFormat="1" spans="1:8">
+      <c r="A11" t="s">
         <v>44</v>
       </c>
-      <c r="F10" t="s">
+      <c r="B11"/>
+      <c r="C11" t="s">
         <v>45</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:8">
-      <c r="A11" s="1" t="s">
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
         <v>47</v>
       </c>
-      <c r="B11"/>
-      <c r="C11" s="1" t="s">
+    </row>
+    <row r="12" customFormat="1" spans="1:8">
+      <c r="A12" t="s">
         <v>48</v>
       </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="B12"/>
+      <c r="C12" t="s">
         <v>49</v>
       </c>
-      <c r="F11" t="s">
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
         <v>50</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2" t="s">
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:8">
-      <c r="A12" s="1" t="s">
+    <row r="13" customFormat="1" spans="1:8">
+      <c r="A13" t="s">
         <v>52</v>
       </c>
-      <c r="B12"/>
-      <c r="C12" s="1" t="s">
+      <c r="B13"/>
+      <c r="C13" t="s">
         <v>53</v>
       </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
         <v>54</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
         <v>55</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2" t="s">
+    </row>
+    <row r="14" customFormat="1" spans="1:8">
+      <c r="A14" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:8">
-      <c r="A13" s="1" t="s">
+      <c r="B14"/>
+      <c r="C14" t="s">
         <v>57</v>
       </c>
-      <c r="B13"/>
-      <c r="C13" s="1" t="s">
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
         <v>58</v>
       </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
         <v>59</v>
       </c>
-      <c r="F13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2" t="s">
+    </row>
+    <row r="15" customFormat="1" spans="1:8">
+      <c r="A15" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:8">
-      <c r="A14" s="1" t="s">
+      <c r="B15"/>
+      <c r="C15" t="s">
         <v>61</v>
       </c>
-      <c r="B14"/>
-      <c r="C14" s="1" t="s">
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
         <v>62</v>
       </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
         <v>63</v>
       </c>
-      <c r="F14" t="s">
+    </row>
+    <row r="16" customFormat="1" spans="1:8">
+      <c r="A16" t="s">
         <v>64</v>
       </c>
-      <c r="G14">
+      <c r="B16"/>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:8">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17"/>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18"/>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19"/>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20"/>
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21"/>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33"/>
+      <c r="C33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>133</v>
+      </c>
+      <c r="F34" t="s">
+        <v>134</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35"/>
+      <c r="C35" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>138</v>
+      </c>
+      <c r="F35" t="s">
+        <v>134</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36"/>
+      <c r="C36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F36" t="s">
+        <v>134</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37"/>
+      <c r="C37" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>146</v>
+      </c>
+      <c r="F37" t="s">
+        <v>134</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38"/>
+      <c r="C38" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" t="s">
+        <v>134</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>152</v>
+      </c>
+      <c r="B39"/>
+      <c r="C39" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>154</v>
+      </c>
+      <c r="F39" t="s">
+        <v>134</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40"/>
+      <c r="C40" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
+        <v>158</v>
+      </c>
+      <c r="F40" t="s">
+        <v>134</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41"/>
+      <c r="C41" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
+        <v>162</v>
+      </c>
+      <c r="F41" t="s">
+        <v>134</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>164</v>
+      </c>
+      <c r="B42"/>
+      <c r="C42" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
+        <v>166</v>
+      </c>
+      <c r="F42" t="s">
+        <v>134</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>168</v>
+      </c>
+      <c r="B43"/>
+      <c r="C43" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>154</v>
+      </c>
+      <c r="F43" t="s">
+        <v>134</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>171</v>
+      </c>
+      <c r="B44"/>
+      <c r="C44" t="s">
+        <v>172</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>173</v>
+      </c>
+      <c r="F44" t="s">
+        <v>134</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>175</v>
+      </c>
+      <c r="B45"/>
+      <c r="C45" t="s">
+        <v>176</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
+        <v>166</v>
+      </c>
+      <c r="F45" t="s">
+        <v>134</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>178</v>
+      </c>
+      <c r="B46"/>
+      <c r="C46" t="s">
+        <v>179</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" t="s">
+        <v>180</v>
+      </c>
+      <c r="F46" t="s">
+        <v>134</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>182</v>
+      </c>
+      <c r="B47"/>
+      <c r="C47" t="s">
+        <v>183</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
+        <v>184</v>
+      </c>
+      <c r="F47" t="s">
+        <v>134</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>186</v>
+      </c>
+      <c r="B48"/>
+      <c r="C48" t="s">
+        <v>187</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" t="s">
+        <v>188</v>
+      </c>
+      <c r="F48" t="s">
+        <v>134</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>190</v>
+      </c>
+      <c r="B49"/>
+      <c r="C49" t="s">
+        <v>191</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" t="s">
+        <v>192</v>
+      </c>
+      <c r="F49" t="s">
+        <v>134</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>194</v>
+      </c>
+      <c r="B50"/>
+      <c r="C50" t="s">
+        <v>195</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>196</v>
+      </c>
+      <c r="F50" t="s">
+        <v>134</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>198</v>
+      </c>
+      <c r="B51"/>
+      <c r="C51" t="s">
+        <v>199</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" t="s">
+        <v>200</v>
+      </c>
+      <c r="F51" t="s">
+        <v>134</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>202</v>
+      </c>
+      <c r="B52"/>
+      <c r="C52" t="s">
+        <v>203</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" t="s">
+        <v>204</v>
+      </c>
+      <c r="F52" t="s">
+        <v>134</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>206</v>
+      </c>
+      <c r="B53"/>
+      <c r="C53" t="s">
+        <v>207</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" t="s">
+        <v>208</v>
+      </c>
+      <c r="F53" t="s">
+        <v>134</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>210</v>
+      </c>
+      <c r="B54"/>
+      <c r="C54" t="s">
+        <v>211</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
+        <v>212</v>
+      </c>
+      <c r="F54" t="s">
+        <v>134</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>214</v>
+      </c>
+      <c r="B55"/>
+      <c r="C55" t="s">
+        <v>215</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" t="s">
+        <v>216</v>
+      </c>
+      <c r="F55" t="s">
+        <v>134</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>218</v>
+      </c>
+      <c r="B56"/>
+      <c r="C56" t="s">
+        <v>219</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" t="s">
+        <v>220</v>
+      </c>
+      <c r="F56" t="s">
+        <v>134</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>222</v>
+      </c>
+      <c r="B57"/>
+      <c r="C57" t="s">
+        <v>223</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" t="s">
+        <v>224</v>
+      </c>
+      <c r="F57" t="s">
+        <v>134</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>226</v>
+      </c>
+      <c r="B58"/>
+      <c r="C58" t="s">
+        <v>227</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" t="s">
+        <v>228</v>
+      </c>
+      <c r="F58" t="s">
+        <v>134</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>230</v>
+      </c>
+      <c r="B59"/>
+      <c r="C59" t="s">
+        <v>231</v>
+      </c>
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" t="s">
+        <v>232</v>
+      </c>
+      <c r="F59" t="s">
+        <v>134</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>234</v>
+      </c>
+      <c r="B60"/>
+      <c r="C60" t="s">
+        <v>235</v>
+      </c>
+      <c r="D60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" t="s">
+        <v>236</v>
+      </c>
+      <c r="F60" t="s">
+        <v>134</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>238</v>
+      </c>
+      <c r="B61"/>
+      <c r="C61" t="s">
+        <v>239</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" t="s">
+        <v>240</v>
+      </c>
+      <c r="F61" t="s">
+        <v>134</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>242</v>
+      </c>
+      <c r="B62"/>
+      <c r="C62" t="s">
+        <v>243</v>
+      </c>
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" t="s">
+        <v>244</v>
+      </c>
+      <c r="F62" t="s">
+        <v>134</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>246</v>
+      </c>
+      <c r="B63"/>
+      <c r="C63" t="s">
+        <v>247</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" t="s">
+        <v>248</v>
+      </c>
+      <c r="F63" t="s">
+        <v>134</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>250</v>
+      </c>
+      <c r="B64"/>
+      <c r="C64" t="s">
+        <v>251</v>
+      </c>
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" t="s">
+        <v>252</v>
+      </c>
+      <c r="F64" t="s">
+        <v>134</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>254</v>
+      </c>
+      <c r="B65"/>
+      <c r="C65" t="s">
+        <v>255</v>
+      </c>
+      <c r="D65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" t="s">
+        <v>256</v>
+      </c>
+      <c r="F65" t="s">
+        <v>134</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>258</v>
+      </c>
+      <c r="B66"/>
+      <c r="C66" t="s">
+        <v>259</v>
+      </c>
+      <c r="D66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" t="s">
+        <v>260</v>
+      </c>
+      <c r="F66" t="s">
+        <v>134</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>262</v>
+      </c>
+      <c r="B67"/>
+      <c r="C67" t="s">
+        <v>263</v>
+      </c>
+      <c r="D67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" t="s">
+        <v>264</v>
+      </c>
+      <c r="F67" t="s">
+        <v>134</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>266</v>
+      </c>
+      <c r="B68"/>
+      <c r="C68" t="s">
+        <v>267</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" t="s">
+        <v>268</v>
+      </c>
+      <c r="F68" t="s">
+        <v>134</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>270</v>
+      </c>
+      <c r="B69"/>
+      <c r="C69" t="s">
+        <v>271</v>
+      </c>
+      <c r="D69" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" t="s">
+        <v>272</v>
+      </c>
+      <c r="F69" t="s">
+        <v>134</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>274</v>
+      </c>
+      <c r="B70"/>
+      <c r="C70" t="s">
+        <v>275</v>
+      </c>
+      <c r="D70" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" t="s">
+        <v>276</v>
+      </c>
+      <c r="F70" t="s">
+        <v>134</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>278</v>
+      </c>
+      <c r="B71"/>
+      <c r="C71" t="s">
+        <v>279</v>
+      </c>
+      <c r="D71" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" t="s">
+        <v>280</v>
+      </c>
+      <c r="F71" t="s">
+        <v>134</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>282</v>
+      </c>
+      <c r="B72"/>
+      <c r="C72" t="s">
+        <v>283</v>
+      </c>
+      <c r="D72" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" t="s">
+        <v>284</v>
+      </c>
+      <c r="F72" t="s">
+        <v>134</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>286</v>
+      </c>
+      <c r="B73"/>
+      <c r="C73" t="s">
+        <v>287</v>
+      </c>
+      <c r="D73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" t="s">
+        <v>288</v>
+      </c>
+      <c r="F73" t="s">
+        <v>134</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>290</v>
+      </c>
+      <c r="B74"/>
+      <c r="C74" t="s">
+        <v>291</v>
+      </c>
+      <c r="D74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" t="s">
+        <v>292</v>
+      </c>
+      <c r="F74" t="s">
+        <v>134</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>294</v>
+      </c>
+      <c r="B75"/>
+      <c r="C75" t="s">
+        <v>295</v>
+      </c>
+      <c r="D75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" t="s">
+        <v>296</v>
+      </c>
+      <c r="F75" t="s">
+        <v>134</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>298</v>
+      </c>
+      <c r="B76"/>
+      <c r="C76" t="s">
+        <v>299</v>
+      </c>
+      <c r="D76" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" t="s">
+        <v>188</v>
+      </c>
+      <c r="F76" t="s">
+        <v>134</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>301</v>
+      </c>
+      <c r="B77"/>
+      <c r="C77" t="s">
+        <v>302</v>
+      </c>
+      <c r="D77" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" t="s">
+        <v>303</v>
+      </c>
+      <c r="F77" t="s">
+        <v>304</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="78" customFormat="1" spans="1:8">
+      <c r="A78" t="s">
+        <v>306</v>
+      </c>
+      <c r="B78"/>
+      <c r="C78" t="s">
+        <v>307</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" t="s">
+        <v>308</v>
+      </c>
+      <c r="F78" t="s">
+        <v>309</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>311</v>
+      </c>
+      <c r="B79"/>
+      <c r="C79" t="s">
+        <v>312</v>
+      </c>
+      <c r="D79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" t="s">
+        <v>313</v>
+      </c>
+      <c r="F79" t="s">
+        <v>314</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>316</v>
+      </c>
+      <c r="B80"/>
+      <c r="C80" t="s">
+        <v>317</v>
+      </c>
+      <c r="D80" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" t="s">
+        <v>318</v>
+      </c>
+      <c r="F80" t="s">
+        <v>319</v>
+      </c>
+      <c r="G80">
         <v>9.99</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:8">
-      <c r="A15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15"/>
-      <c r="C15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15">
+      <c r="H80" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" t="s">
+        <v>321</v>
+      </c>
+      <c r="B81"/>
+      <c r="C81" t="s">
+        <v>322</v>
+      </c>
+      <c r="D81" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" t="s">
+        <v>323</v>
+      </c>
+      <c r="F81" t="s">
+        <v>324</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
+        <v>326</v>
+      </c>
+      <c r="B82"/>
+      <c r="C82" t="s">
+        <v>327</v>
+      </c>
+      <c r="D82" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" t="s">
+        <v>328</v>
+      </c>
+      <c r="F82" t="s">
+        <v>324</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
+        <v>330</v>
+      </c>
+      <c r="B83"/>
+      <c r="C83" t="s">
+        <v>331</v>
+      </c>
+      <c r="D83" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" t="s">
+        <v>332</v>
+      </c>
+      <c r="F83" t="s">
+        <v>333</v>
+      </c>
+      <c r="G83">
         <v>9.99</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:8">
-      <c r="A16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16"/>
-      <c r="C16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="1:8">
-      <c r="A17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17"/>
-      <c r="C17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:8">
-      <c r="A18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18"/>
-      <c r="C18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="1:8">
-      <c r="A19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19"/>
-      <c r="C19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:8">
-      <c r="A20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20"/>
-      <c r="C20" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21"/>
-      <c r="C21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" t="s">
-        <v>94</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22"/>
-      <c r="C22" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>99</v>
+      <c r="H83" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>335</v>
+      </c>
+      <c r="B84"/>
+      <c r="C84" t="s">
+        <v>336</v>
+      </c>
+      <c r="D84" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84"/>
+      <c r="F84" t="s">
+        <v>333</v>
+      </c>
+      <c r="G84">
+        <v>9.99</v>
+      </c>
+      <c r="H84" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
+        <v>338</v>
+      </c>
+      <c r="B85"/>
+      <c r="C85" t="s">
+        <v>339</v>
+      </c>
+      <c r="D85" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" t="s">
+        <v>340</v>
+      </c>
+      <c r="F85" t="s">
+        <v>341</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
+        <v>343</v>
+      </c>
+      <c r="B86"/>
+      <c r="C86" t="s">
+        <v>344</v>
+      </c>
+      <c r="D86" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" t="s">
+        <v>345</v>
+      </c>
+      <c r="F86" t="s">
+        <v>346</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
+        <v>348</v>
+      </c>
+      <c r="B87"/>
+      <c r="C87" t="s">
+        <v>349</v>
+      </c>
+      <c r="D87" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" t="s">
+        <v>350</v>
+      </c>
+      <c r="F87" t="s">
+        <v>346</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
+        <v>352</v>
+      </c>
+      <c r="B88"/>
+      <c r="C88" t="s">
+        <v>353</v>
+      </c>
+      <c r="D88" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" t="s">
+        <v>354</v>
+      </c>
+      <c r="F88" t="s">
+        <v>346</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" t="s">
+        <v>356</v>
+      </c>
+      <c r="B89"/>
+      <c r="C89" t="s">
+        <v>357</v>
+      </c>
+      <c r="D89" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" t="s">
+        <v>358</v>
+      </c>
+      <c r="F89" t="s">
+        <v>346</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="s">
+        <v>360</v>
+      </c>
+      <c r="B90"/>
+      <c r="C90" t="s">
+        <v>361</v>
+      </c>
+      <c r="D90" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" t="s">
+        <v>362</v>
+      </c>
+      <c r="F90" t="s">
+        <v>346</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="s">
+        <v>364</v>
+      </c>
+      <c r="B91"/>
+      <c r="C91" t="s">
+        <v>365</v>
+      </c>
+      <c r="D91" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" t="s">
+        <v>366</v>
+      </c>
+      <c r="F91" t="s">
+        <v>346</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="s">
+        <v>368</v>
+      </c>
+      <c r="B92"/>
+      <c r="C92" t="s">
+        <v>369</v>
+      </c>
+      <c r="D92" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" t="s">
+        <v>370</v>
+      </c>
+      <c r="F92" t="s">
+        <v>346</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="93" customFormat="1" spans="1:8">
+      <c r="A93" t="s">
+        <v>372</v>
+      </c>
+      <c r="B93"/>
+      <c r="C93" t="s">
+        <v>373</v>
+      </c>
+      <c r="D93" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" t="s">
+        <v>350</v>
+      </c>
+      <c r="F93" t="s">
+        <v>346</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="94" customFormat="1" spans="1:8">
+      <c r="A94" t="s">
+        <v>375</v>
+      </c>
+      <c r="B94"/>
+      <c r="C94" t="s">
+        <v>376</v>
+      </c>
+      <c r="D94" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" t="s">
+        <v>377</v>
+      </c>
+      <c r="F94" t="s">
+        <v>346</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" t="s">
+        <v>379</v>
+      </c>
+      <c r="B95"/>
+      <c r="C95" t="s">
+        <v>380</v>
+      </c>
+      <c r="D95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" t="s">
+        <v>381</v>
+      </c>
+      <c r="F95" t="s">
+        <v>382</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
+        <v>384</v>
+      </c>
+      <c r="B96"/>
+      <c r="C96" t="s">
+        <v>385</v>
+      </c>
+      <c r="D96" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" t="s">
+        <v>386</v>
+      </c>
+      <c r="F96" t="s">
+        <v>387</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96" t="s">
+        <v>388</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:I46" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="A1:I46">
-      <sortCondition ref="F2" descending="1"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:I96" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="A1:I96">
+      <sortCondition ref="F2:F102"/>
+      <sortCondition ref="A2:A102"/>
     </sortState>
     <extLst/>
   </autoFilter>
-  <sortState ref="A2:I22">
-    <sortCondition ref="F2" descending="1"/>
+  <sortState ref="A78:H97">
+    <sortCondition ref="F79"/>
   </sortState>
-  <conditionalFormatting sqref="A2:A22">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9 D14 D15 D2:D8 D10:D13 D16:D22 D24:D46 D129:D154">
-      <formula1>"公开,私密,草稿,未发布"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B155:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B144:B1048576">
       <formula1>"无"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D71:D128 D155:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D117 D144:D1048576">
       <formula1>"公开,私密,草稿"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D118:D143">
+      <formula1>"公开,私密,草稿,未发布"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/file/wordpress_articles.xlsx
+++ b/file/wordpress_articles.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9132"/>
+    <workbookView windowWidth="25600" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$441</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$427</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="207">
   <si>
     <t>标题</t>
   </si>
@@ -61,345 +61,622 @@
     <t>提取码</t>
   </si>
   <si>
-    <t>《激活你的学习脑》让你的学习效果远超以往</t>
+    <t>《大师文学课》[全10册]</t>
   </si>
   <si>
     <t>无</t>
   </si>
   <si>
-    <t>你惯用的学习模式是什么样的呢？你感觉自己的学习方法有用吗？你认为学习成绩优异的孩子靠的是天赋？自律？还是勤奋？亦或者有什么因素是你不知道的？本书作者将从脑科学视角，解读大脑到底是如何学习的，有效的学习方法应该遵循哪些基本原则，那些学得又快、成绩又好的孩子到底做对了什么！
+    <t>套装内包括《文字的故事》《阅读的故事》《重读：在咖啡馆遇见14个作家》《许子东现代文学课》《重读20世纪中国小说》《博尔赫斯谈话录》《留白：秋水堂文化随笔》《正本清源说红楼》《白先勇细说红楼梦》《唐诗宋词解 ：诗为心声，词乃情物》。百科全书式的文字通识读本，更新你我的认知视野。
 提供PDF、azw3、mobi、epub格式。</t>
   </si>
   <si>
     <t>公开</t>
   </si>
   <si>
-    <t>思维认知,图书</t>
+    <t>文学,阅读,图书</t>
   </si>
   <si>
     <t>文档书籍，图书小说</t>
   </si>
   <si>
-    <t>https://pan.quark.cn/s/8b0bda7d875b</t>
-  </si>
-  <si>
-    <t>读者合集 PDF</t>
-  </si>
-  <si>
-    <t>《读者》杂志30多年来的发展历程，汇聚了众多知名作家的优秀作品以其深刻的主题、感人的故事和丰富的哲理，深受读者喜爱，被誉为“中国人的心灵读本”，具有广泛的社会影响力和阅读价值。</t>
-  </si>
-  <si>
-    <t>书籍,合集,读者,读者合集</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/383a48af93bf</t>
-  </si>
-  <si>
-    <t>历史的温度6：站在十字路口 [历史传记] [pdf+全格式]</t>
-  </si>
-  <si>
-    <t>正在发生的事，很快会成为历史。已经成为历史的事，往往会出现在未来。蔡元培，在中国近代风云际会的舞台上，为何能一直做到言行合一？辜鸿铭，一代“狂儒”，又有过怎样的挣扎和矛盾？……总有几次，我们会站在十字路口，或面对未有之巨变，是向左还是向右，是向前还是向后？这是曾摆在辜鸿铭、蔡元培等人面前的抉择，也是当下我们时常面临的选择。面对真实世界，你怎么选择你所能相信的？是否还有潜在水面之下没显露的事实？如果你透过一些表象触及内核，你会发现，很多匪夷所思的事情之所以会发生，依然与个人的选择有关，与人性有关：贪婪、恐惧、孤独、虚荣、自私、迷茫……性格决定命运，人性决定选择。...</t>
+    <t>https://pan.quark.cn/s/a98412e0e67c</t>
+  </si>
+  <si>
+    <t>《身体从未忘记：心理创伤疗愈中的大脑、心智和身体》 心理创伤疗愈经典畅销丛书</t>
+  </si>
+  <si>
+    <t>《身体从未忘记：心理创伤疗愈中的大脑、心智和身体》是心理创伤疗愈领域的经典畅销之作。该书深入探讨了心理创伤对大脑、心智及身体的影响，揭示了创伤记忆的生物学基础及疗愈机制。书中通过科学分析与临床案例，提供了有效的创伤治疗方法，为心理创伤患者及专业人士提供了宝贵的指导与启示。</t>
+  </si>
+  <si>
+    <t>书籍,经典,疗愈,丛书,心理</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/30441927fd59</t>
+  </si>
+  <si>
+    <t>《思维与陷阱》 揭示致命的认知缺陷</t>
+  </si>
+  <si>
+    <t>《思维与陷阱》一书，深入剖析了人类思维中常见的认知缺陷与偏见，揭示了这些缺陷如何影响我们的决策与判断。书中通过丰富案例与科学分析，展示了认知陷阱的多样性与普遍性，提供了识别与避免这些陷阱的方法，有助于读者提升思维清晰度与决策准确性，是认知心理学领域的经典之作。</t>
+  </si>
+  <si>
+    <t>书籍,思维,认知</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/35d1f0ec5e3e</t>
+  </si>
+  <si>
+    <t>《新零售：低价高效的数据赋能之路》 商业简史5分钟商学院作者 得到讲师吴晓波罗振宇推荐</t>
+  </si>
+  <si>
+    <t>《新零售：低价高效的数据赋能之路》一书，深入探讨了新零售的核心价值与实现路径。作者结合前沿理论与实战案例，详细阐述了数据在新零售中的关键作用，如何通过数据赋能实现低价高效的经营模式。该书得到了商业简史作者、得到讲师吴晓波及罗振宇的推荐，是新零售领域不可多得的经典之作，为零售企业转型升级提供了宝贵的参考。</t>
+  </si>
+  <si>
+    <t>书籍,简史,商学院,零售</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f4ea186f0e25</t>
+  </si>
+  <si>
+    <t>《新零售的未来》 零售连锁巨头的进化之道</t>
+  </si>
+  <si>
+    <t>《新零售的未来：零售连锁巨头的进化之道》一书，深入剖析了新零售的兴起背景、发展趋势及零售连锁巨头的转型策略。书中通过丰富案例，展示了新零售在技术创新、消费者体验、供应链优化等方面的实践成果，为零售企业提供了转型升级的实战指南，揭示了未来零售行业的竞争格局与进化方向。</t>
+  </si>
+  <si>
+    <t>书籍,零售,商业</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e945d5f3e26d</t>
+  </si>
+  <si>
+    <t>韩江作品集</t>
+  </si>
+  <si>
+    <t>2024 诺贝尔文学奖得主韩江
+素食者
+失语者
+不做告别
+植物妻子
+白
+把晚餐放进抽屉</t>
+  </si>
+  <si>
+    <t>文学,诺贝尔,韩江,小说</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/8e37fb8734a6</t>
+  </si>
+  <si>
+    <t>剪映后期剪辑视频-零基础入门到精通</t>
+  </si>
+  <si>
+    <t>全书包含15章内容，第1章~第7章主要剪映APP的剪辑和调色功能及其应用方法，包括基础入门、视频剪辑、后期滤镜、添加文字和音频、相册效果、综合案例等内容；第8章~第15章则主要用剪映专业版，结合之前讲解的剪映功能，为读者介绍了视频剪辑思路和调色技巧。</t>
+  </si>
+  <si>
+    <t>剪映,剪辑,图书</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4c7e42720d5d</t>
+  </si>
+  <si>
+    <t>理性的边界 [人文社科] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>我们对世界了解得越多，对自己所不知道的东西就越清楚，发现可能之局限的方式，就是比可能走得更远！一本比肩《世界观》和《为什么》的科学哲学通识，探索科学的极限，挑战人类对宇宙、理性和自我的根深蒂固的信念。欧洲数学学会、得克萨斯大学哲学系、麦吉尔大学计算机系、伯尔尼大学哲学研究所推荐阅读！————————————————————————————————————————从亚里士多德、牛顿到爱因斯坦、玻尔，科学的每一次进步，都源自科学家对人类知识极限的不断探索，对客观、理性和自我的深刻问题的一次次挑战。有许多书解释了人类已知的科学，而这本书则聚焦于我们不知道的知识。...</t>
+  </si>
+  <si>
+    <t>人文社科,电子书,图书,pdf,epub</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/927a66ca0336</t>
+  </si>
+  <si>
+    <t>明朝那些事儿（图文增补版）（共九册） [套装合集] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>当年明月著的《明朝那些事儿》是迄今为止唯一全本白话正说明朝大历史，是新中国成立60多年来最畅销的史学读本。本书主要讲述的是从1344年到1644年这三百年间关于明朝的一些事情，以史料为基础，以年代和具体人物为主线，并加入了小说的笔法，对明朝十七帝和其他王公权贵和小人物的命运进行全景展示，尤其对官场政治、战争、帝王心术着墨最多，并加入对当时政治经济制度、人伦道德的演义。本书荣获“新浪图书风云榜”最佳图书、当当网“终身五星级最佳图书”，多次斩获“卓越亚马逊畅销书大奖”。★2009年读者最喜爱的24本书★2010年中国图书馆借阅量排行TOP10</t>
+  </si>
+  <si>
+    <t>套装合集,电子书,图书,pdf,epub</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ef838362c943</t>
+  </si>
+  <si>
+    <t>明亮的时刻 [小说文学] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>本辑《单读》继续关注当代青年创作者，与山一国际女性电影展合作，发表5位当代青年女导演的电影剧本和创作谈。这是单读首次用电影剧本的形式，呈现变化中的当代生活——王丽娜的《第一次的离别》，讲述了在故乡塔克拉玛干一段不断经历告别的童年；杨明明的《柔情史》，展现了北京胡同里一组痛苦的母女关系；滕丛丛的《送我上青云》，描绘了一名患癌的女记者在生存和理想间的挣扎；韩帅的《一九九九》，回忆了一名13岁少女初识性与死亡的过程；黄绮琳的《金都》，塑造了一位陷入真假结婚的女子，她要做出自己的选择。...</t>
+  </si>
+  <si>
+    <t>小说文学,电子书,图书,pdf,epub</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e524e755df72</t>
+  </si>
+  <si>
+    <t>明遗民诗人姜埰评传 [历史传记] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>姜埰（1607年－1677年），字如农，同人私谥贞毅。山东莱阳人。明末政治人物，入清后以遗民自居。本书对姜埰的家世、求学、仕宦、交游、思想等方面都做了系统的研究与介绍，并对其诗文作品进行了较为全面的分析和评述。</t>
   </si>
   <si>
     <t>历史传记,电子书,图书,pdf,epub</t>
   </si>
   <si>
-    <t>https://pan.quark.cn/s/a1d3e7a45049</t>
-  </si>
-  <si>
-    <t>蒙曼女性诗词课系列：哲妇+邦媛（共2册） [套装合集] [pdf+全格式]</t>
-  </si>
-  <si>
-    <t>呼葱觅蒜倾力绘制唯美插图！以诗词为引，历史为线，讲述中国历史的女性侧面！讲述诗词背后52位女子的跌宕人生，2700年诗词、500年历史，你我未见的另一半。蒙曼老师因为讲诗词进入大众视野，但其实作为大学教授，她的研究方向是古代史，尤其是古代女性史。在《蒙曼女性诗词课》中，蒙曼老师将诗词和女性结合，以诗词为引，顺着历史朝代更替的顺序，讲述了诗词背后52位女子的精彩人生，以及她们背后的中国史。第一册《哲妇》主要讲的是改变历史的28位政治女性，第二册《邦媛》则主要讲的是书写历史的24位文化女性。...</t>
-  </si>
-  <si>
-    <t>套装合集,电子书,图书,pdf,epub</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/13a30e6c2720</t>
-  </si>
-  <si>
-    <t>脑卒中合并冠心病运动康复 [人文社科] [pdf+全格式]</t>
-  </si>
-  <si>
-    <t>《脑卒中合并冠心病运动康复》着重介绍脑卒中合并冠心病的临床特点、功能障碍、康复评定、康复治疗、健康教育的内容及业务开展与管理等内容，突出了脑卒中合并冠心病患者的运动评估和综合康复治疗方案的制订与实施过程并附有案例。既可供康复医师及治疗师参考，又可为该类患者在社区、家庭进行延续性康复提供指导。</t>
-  </si>
-  <si>
-    <t>人文社科,电子书,图书,pdf,epub</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/b975e7063cbd</t>
-  </si>
-  <si>
-    <t>温疫论 [人文社科] [pdf+全格式]</t>
-  </si>
-  <si>
-    <t>《温疫论》，明代吴有性（字又可）撰于崇祯十五（1642）年，是中医史上第一部系统研究急性传染病的医学著作，是中医温病学发展史上具有划时代意义的标志性著作。全书二卷，上卷主要论述温疫之病因、病机、证候、治疗、变证、宜忌，以及温疫与伤寒的区别。下卷重点叙述温疫的种类、传变、治疗原则，各种兼证、变证的治疗和调理。吴又可在《温疫论》中创立了“戾气”病因学说，强调温疫与伤寒完全不同，明确指出“夫温疫之为病，非风、非寒、非暑、非湿，乃天地间别有一种异气所感”，由此创立了表里九传辨证论治思维模式，以“驱邪外出”为中心，创制了达原饮等治疗温疫的有效方剂。...</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/2e624a9960ec</t>
-  </si>
-  <si>
-    <t>刑警的眼神 [小说文学] [pdf+全格式]</t>
-  </si>
-  <si>
-    <t>能洞察人心的刑警X讓人忍不住潸然淚下的七起疑案江戶川亂步獎得主藥丸岳筆下最令人動容、直指人心的短篇代表作！改編日劇由椎名桔平、要潤、松重豊主演日韓網友★★★★★盛讚刑警夏目信人初登場「對我來說，偵查總是伴隨著莫大的痛苦——」夏目年幼的女兒遇到隨機殺人者，頭部重傷成為植物人，身為父親，他決定轉職成為追捕犯人的刑警。...</t>
-  </si>
-  <si>
-    <t>小说文学,电子书,图书,pdf,epub</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/f65b3ff1ff7b</t>
-  </si>
-  <si>
-    <t>凶马：谋后之谋 [小说文学] [pdf+全格式]</t>
-  </si>
-  <si>
-    <t>地产大鳄夏东海一家被杀死在自己别墅里，凶手竟然是一匹诡异的马。技侦专家和动物学家都无法解释马怎么会主动上门杀人。无案不破的天才刑警李八斗，携手美女法医，于盘根错节之中抽丝剥茧，杀猪匠阎老三、白山大富豪黎东南、煤炭大亨吴国晋、黄金大王曹连城，高利贷大哥赵飞虎等看似毫不相干的人相继进入视线，案情看似有了些眉目。然而，这些人却又相继离奇遇害。屡屡被误导的李八斗渐渐地发现了所谓“马”杀人的秘密所在，可那秘密，却不仅仅是几桩刑事案件那么简单。它是一股强大的漩涡，把所有人深深地吸了进去……</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/6af32307ba06</t>
-  </si>
-  <si>
-    <t>凶马：未证之证 [小说文学] [pdf+全格式]</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/58bdfc5bc164</t>
-  </si>
-  <si>
-    <t>绝版古籍  难病奇方系列合集 共72册 稀缺资源</t>
-  </si>
-  <si>
-    <t>一套珍贵的医学资料，专为中医爱好者和研究者准备。此系列由中国医药科技出版社出版，广泛收集了经典方剂的实验研究成果与临床应用经验，是名方奇方的集大成者。每册书中都详细记录了各种难治疾病的独特疗法和奇效方剂，提供了宝贵的医学知识和实践指导。这套稀缺资源不仅具有极高的收藏价值，还能为现代医学研究和临床实践提供重要参考。</t>
-  </si>
-  <si>
-    <t>疑难病,奇方,中医,珍藏</t>
-  </si>
-  <si>
-    <t>文档书籍，图书小说，学习资源</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/98063f2180b5</t>
-  </si>
-  <si>
-    <t>狐狸爸爸《100节语文知识拓展》</t>
-  </si>
-  <si>
-    <t>紧贴语文新课标和考点深入理解 20 篇语文重点课文，精编 100 个鲜活的人文小故事解锁孩子的求知欲，用神奇有趣的故事引发孩子的语文兴趣，超越同龄人的视野和知识面。</t>
-  </si>
-  <si>
-    <t>语文,有声读物</t>
+    <t>https://pan.quark.cn/s/65fef74f1584</t>
+  </si>
+  <si>
+    <t>纳粹德国的法与不法 [历史传记] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>第三帝国运用高度的理性批判魏玛时代树立的现代法治精神，无限放大民族共同体和政治国家的象征性意义、压缩公民个体的权利与私人空间，创制了一个前所未有的、在任何时代都只能被定性为“不法”的极权统治秩序。法律和法律人在这场由纳粹发起的全面的社会改造的过程之中发挥了相当积极的作用（尽管常常强调其作为“受害者”的身份），并导致这一时期德国的法理学、法律史学、公法学、私法学、刑法学、劳动法与社会法学、司法组织与司法程序、法学教育与研究等领域由内而外地发生了根本性的变化。直到纳粹主义被彻底清算之后，这些领域才部分地按照魏玛宪法的“应有之义”重加塑造。...</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6c0fa496eed7</t>
+  </si>
+  <si>
+    <t>纳粹猎人 [历史传记] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>当纽伦堡审判结束、冷战开始后，战胜国失去了起诉纳粹战犯的兴趣。大量低级别罪犯混入了渴望在欧洲开启新生活的人群，而自觉处境更危险的战犯则逃离了欧洲大陆。被称为纳粹猎人的这群人拒绝遗忘纳粹的罪行，决心找寻其踪迹，哪怕追到天涯海角。最初，他们想要复仇，但不久后，故事就变成了一场寻求正义的不懈斗争。在二战结束七十多年后的今天，漏网的纳粹所剩无几，追捕行动基本结束，纳粹猎人的时代也临近终结。他们的传奇如今就完整地展现在这里。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6e7f45490c05</t>
+  </si>
+  <si>
+    <t>生活中的博弈论 [人文社科] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>本书将博弈论的理论与实际应用相结合，详细探讨了各种博弈情境，帮助读者更好地理解日常生活中的困境和人际互动。本书是一本详细介绍博弈论及其实际应用的精彩之作。作者运用统计和概率方法解释博弈论的基本概念，并通过各种小游戏生动地演示零和博弈、囚徒困境等核心场景，包括深入探讨了纽科姆的自由意志测试和其悖论。它突出了博弈论作为一种决策工具的重要性，无论是在商业、政治还是个人层面，本书将帮助您掌握博弈论的关键概念，提高决策能力，更好地理解复杂的互动关系。详细介绍博弈论及其实际应用：本书提供了对博弈论的详细介绍，涵盖了其基本概念和实际应用。...</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/59472a90b85a</t>
+  </si>
+  <si>
+    <t>生命在于静止 [人文社科] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>《生命在于静止：有趣动物的冷知识》是一本以介绍动物们鲜为人知的生活习性为主的趣萌科普书。人类虽然拥有高智慧，但是其生存方式却是非常不稳定的。与动物相比，甚至可以说是“动荡不安”的。那么，动物们又是以怎样的战略生存着呢？让我们一起从动物们所不为认知的生活方式中，学习他们更胜于人类的生存战略吧。本书用漫画+文字解说的方式，给读者们详细解说了20种动物的趣味冷知识。一本书，满足你对20种有趣动物的所有好奇心。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/7a12e3d88f78</t>
+  </si>
+  <si>
+    <t>生意的本质 [经济管理] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>《生意的本质》回答了关于“生意本质”这一核心问题，阐述了生意的设计思维与方法，让经营者能够用一张图（一个框架）就清晰展示出自己的生意画像（以及高度精炼的商业模式），并在环境多变、资源受限的当下，动态、持续地优化与升级自己的商业模式。</t>
+  </si>
+  <si>
+    <t>经济管理,电子书,图书,pdf,epub</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/cb507c1c4fc9</t>
+  </si>
+  <si>
+    <t>特斯拉模式：从丰田主义到特斯拉主义，埃隆·马斯克的工业颠覆</t>
+  </si>
+  <si>
+    <t>《特斯拉模式：从丰田主义到特斯拉主义，埃隆·马斯克的工业颠覆》一书，深入剖析了特斯拉如何颠覆传统汽车工业，开创了全新的制造模式。书中详细阐述了特斯拉在电动汽车、自动驾驶、能源存储等领域的创新实践，以及马斯克对工业生产的深刻变革，揭示了特斯拉模式的核心竞争力与未来趋势，为行业内外人士提供了宝贵的启示与借鉴。</t>
+  </si>
+  <si>
+    <t>书籍,特斯拉,马斯克,商业</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6ba5260662fa</t>
+  </si>
+  <si>
+    <t>稳固的幸福感 [人文社科] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>我们的一举一动都蕴含着对世界和自己的看法。态度、动作、表情、野心、习惯，所有行为都围绕着我们关于生活的某种深信不疑的解释，在阿德勒看来，这便是一个人对于“生活意义”的理解，也是对自身经历的诠释。阿德勒认为，与其强调过去的经历决定了现在的人生，不如说我们的行为与情绪都受到自身目的的影响。我们无法从某种麻烦中走出来，可能不是因为我们没有能力走出来，而是不想走出来。...</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/9eea84d951c1</t>
+  </si>
+  <si>
+    <t>《中国简史 (有声版) 》民国大师吕思勉国史经典</t>
+  </si>
+  <si>
+    <t>《中国简史》是史学大家吕思勉先生撰写的一部中国通史，从传说与考古印证的中华民族的由来，到吕思勉先生所处时代的革命中的中国，系统梳理历史的发展变化，并聚焦婚姻、族制、政体、阶级等专题，讲述中国社会生活的方方面面。</t>
+  </si>
+  <si>
+    <t>历史,有声读物</t>
   </si>
   <si>
     <t>文档书籍，有声读物</t>
   </si>
   <si>
-    <t>https://pan.quark.cn/s/e36713120e34</t>
-  </si>
-  <si>
-    <t>混子曰：少年唐诗课100节 MP3</t>
-  </si>
-  <si>
-    <t>《混子曰：少年唐诗课100节 MP3》以幽默风趣的“混子”风格，为青少年量身打造唐诗学习盛宴。精选100首经典唐诗，通过生动有趣的讲解与解读，让复杂难懂的古诗变得亲切易懂。课程寓教于乐，不仅传授诗词知识，更激发孩子对传统文化的兴趣与热爱，让学习唐诗成为一种享受。</t>
-  </si>
-  <si>
-    <t>有声读物,少儿,MP3,唐诗</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/6f1d0b86c9a0</t>
-  </si>
-  <si>
-    <t>【AsrTools-智能语音转文字工具】  内置剪映、快手、必剪官方接口</t>
-  </si>
-  <si>
-    <t>AsrTools是一款智能语音转文字工具，内置剪映、快手、必剪等大厂接口，无需GPU或繁琐配置，支持高效的多线程批处理。它基于PyQt5开发，界面美观且用户友好，能够输出SRT和TXT格式字幕文件。与其他依赖模型转换的工具相比，AsrTools通过逆向技术调用大厂的ASR服务，提供稳定快速的文字转换体验。</t>
-  </si>
-  <si>
-    <t>Windows,软件,语音转文字,音频转文字</t>
+    <t>https://pan.quark.cn/s/8c1b6e280627</t>
+  </si>
+  <si>
+    <t>绝版资源  迈克尔杰克逊演唱会超清合集</t>
+  </si>
+  <si>
+    <t>《绝版资源：迈克尔杰克逊演唱会超清合集》是一套珍贵的音乐视频资源，汇集了迈克尔·杰克逊自1980年代至2000年代的多场经典演唱会。这些演唱会经过高清修复，画质清晰，音效震撼，完美再现了这位流行音乐之王的巅峰时刻。每一场演出都充满了迈克尔·杰克逊标志性的舞步、动人的歌声和无与伦比的舞台魅力。对于音乐爱好者和迈克尔·杰克逊的粉丝来说，这套合集不仅是一次视觉和听觉的盛宴，更是一段不可多得的珍贵回忆。</t>
+  </si>
+  <si>
+    <t>迈克尔杰克逊,演唱会,合集,超清,绝版资源</t>
+  </si>
+  <si>
+    <t>其他资源，音影视阅</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/60245852c560</t>
+  </si>
+  <si>
+    <t>棉花音乐 v1.41.2｜支持百度_阿里云盘的多功能音乐播放器</t>
+  </si>
+  <si>
+    <t>棉花音乐是一款简洁的本地及网盘音乐播放器，支持本地歌曲、百度网盘、阿里云盘、WebDAV、Google Drive、OneDrive、Dropbox等网盘歌曲播放，支持 Plex、Emby、Jellyfin、Subsonic 媒体服务器。同时支持 Android、Windows、Mac、Linux 平台。主要功能包括播放历史记录、支持创建歌单、多样化的播放器主题等。安装后打开软件，选择所需播放的歌曲来源（本地或网盘），并开始播放。</t>
+  </si>
+  <si>
+    <t>棉花音乐,音乐播放器,Android,本地音乐,网盘歌曲</t>
   </si>
   <si>
     <t>软件源码，绿色软件</t>
   </si>
   <si>
-    <t>https://pan.quark.cn/s/6fe1feb924e5</t>
-  </si>
-  <si>
-    <t>Adobe Photoshop Express v16.0.237安卓PS神器，拍摄、编辑、分享，解锁高级版</t>
-  </si>
-  <si>
-    <t>Adobe Photoshop Express Pro 是全球闻名的 Adobe 公司开发的一款移动设备上的图画处理软件，Photoshop Express Pro 集拍摄、编辑、分享于一体，具有多种专业的图片编辑处理功用，自带几十种特效滤镜效果，支持 Raw 文件及无缝编辑 TIFF 图画，是款专业实用的安卓渠道图片处理美化工具。当之无愧的安卓 PS 神器。</t>
-  </si>
-  <si>
-    <t>Android,Photoshop,安卓,拍摄,解锁,高级,Adobe</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/b9b1cbe472b3</t>
-  </si>
-  <si>
-    <t>Bubble Translator - 气泡屏幕翻译 v4.2.8</t>
-  </si>
-  <si>
-    <t>气泡屏幕翻译是一款方便的翻译器，可在其他应用程序之上运行。您可以将游戏和程序中的文本翻译为另一种语言。可以识别屏幕上的任何文本，并立即将其翻译成您的母语。浏览器、SNS、游戏、照片、文档等一切都可以翻译。</t>
-  </si>
-  <si>
-    <t>破解,绿色,Android,软件</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/2492ac4a1e83</t>
-  </si>
-  <si>
-    <t>InstaSize - 修图神器 v4.5.0</t>
-  </si>
-  <si>
-    <t>使用高级照片滤镜、预设和颜色编辑工具轻松编辑照片。快速组合图像以制作有趣、独一无二的照片拼贴布局。调整和裁剪您的照片或拼贴画以完美适合任何社交平台，包括 Instagram、Snapchat、Pinterest、Twitter 等。</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/d7d793a2b58f</t>
-  </si>
-  <si>
-    <t>X-plore v4.40.01塞班平台上的老牌、最好的文件管理器，解锁捐赠版</t>
-  </si>
-  <si>
-    <t>X-plore File Manager「X-plore文件管理器」是 Symbian 塞班平台上的老牌、最好的文件管理器，现在软件作者将它移植到了 Android 平台，依然是双窗口的设计，同时显示两个文件夹，并且从一个窗格到另一个窗格完成常用操作，如复制文件。</t>
-  </si>
-  <si>
-    <t>Android,文件管理,解锁,X</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/ea30d5860c50</t>
-  </si>
-  <si>
-    <t>椒盐音乐 v10.5.2改名Salt Player 纯净无广告的本地音乐播放器软件，支持多种音频格式</t>
-  </si>
-  <si>
-    <t>椒盐音乐是一款纯净无广告的本地音乐播放器软件，全面支持多种音频格式，让用户享受高品质音乐播放体验。界面简洁，操作便捷，轻松管理本地音乐库，打造个性化音乐空间。</t>
-  </si>
-  <si>
-    <t>Android,音乐,播放器</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/5eee446d054c</t>
-  </si>
-  <si>
-    <t>雷跳跳 v1.0.2｜广告屏蔽神器</t>
-  </si>
-  <si>
-    <t>雷跳跳APP手机免费版是一款非常受欢迎的广告屏蔽工具类软件，完美复刻了李跳跳的所有功能。它能够拦截各种广告，为用户打造一个干净的手机环境，并且不会受到网络的制约，即使在离线状态下也能够使用！本程序为开源程序，不联网，不需要存储权限，不收集或上传任何信息！绝对保证您的信息安全！安装后，按照提示设置无障碍服务和其他选项，即可正常使用。</t>
-  </si>
-  <si>
-    <t>雷跳跳,广告屏蔽,Android,免费,开源安全</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/376317cfb0df</t>
-  </si>
-  <si>
-    <t>价值数千元的小吃教程大全：专业美食做法视频教学</t>
-  </si>
-  <si>
-    <t>这套小吃教程大全价值数千元，汇集了顶级美食达人多年经验，包含了各类热门小吃的独家做法。
-从传统经典到现代创意，每一道美食都经过精心挑选和详细讲解，保证你能轻松学会，做出美味又精致的小吃。</t>
-  </si>
-  <si>
-    <t>小吃秘方,小吃教程大全,开店小吃教程,专业小吃教学,小吃做法大全</t>
-  </si>
-  <si>
-    <t>副业资源，创业</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/022aec05282d</t>
-  </si>
-  <si>
-    <t>短视频个人IP起号方法68节</t>
-  </si>
-  <si>
-    <t>从人设定位，网感培养，落地实操三个纬度手把手教你如何从零到一打造个人IP</t>
+    <t>https://pan.quark.cn/s/f218422d3f3c</t>
+  </si>
+  <si>
+    <t>元萝卜 v1.0.5｜无需root也能使用的虚拟框架应用</t>
+  </si>
+  <si>
+    <t>元萝卜是一款无需root也能使用的虚拟框架应用，你可以使用这款软件实现应用分身多开。不论是社交软件还是热门手游都能进行多开，同时登录多个账号互不影响。用户还能进行自定义修改系统参数，更加稳定地运行。安卓Xposed功能注入，支持动态调试任何应用，游戏模式增强，数据加密及隐私保护功能，使隐私数据更安全。</t>
+  </si>
+  <si>
+    <t>元萝卜,虚拟框架,Android,应用多开,数据保护</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e634b3c7c752</t>
+  </si>
+  <si>
+    <t>寂静岭2修改器</t>
+  </si>
+  <si>
+    <t>16项修改器</t>
+  </si>
+  <si>
+    <t>寂静岭2,修改器</t>
+  </si>
+  <si>
+    <t>软件源码，游戏资源</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/8f7a49a65136</t>
+  </si>
+  <si>
+    <t>【必备】女性护肤课，养出逆龄好肌肤</t>
+  </si>
+  <si>
+    <t>女性必备护肤课，带你轻松养出逆龄好肌肤(完结)</t>
+  </si>
+  <si>
+    <t>护肤,女性,女性必备护肤课,必备</t>
+  </si>
+  <si>
+    <t>学习资源，个人发展</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e2a62d8e596e</t>
+  </si>
+  <si>
+    <t>走向心智成熟的30个实用心理训练</t>
+  </si>
+  <si>
+    <t>自我提升</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3bfe542993cf</t>
+  </si>
+  <si>
+    <t>李梦娇公基金榜3000题</t>
+  </si>
+  <si>
+    <t>事业单位公共基础学习资料，名师必刷题系列。按需学习。</t>
+  </si>
+  <si>
+    <t>公考,公基</t>
+  </si>
+  <si>
+    <t>学习资源，考证考公</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/aa433d1d84fa</t>
+  </si>
+  <si>
+    <t>【站酷学习】PS软件系统教程 - 带源码课件</t>
+  </si>
+  <si>
+    <t>通过本课程老师的讲解和多案例的实操，你能够熟练掌握PS软件的工具操作、组合运用各种工具来实现【风景调色、人像修图、创意海报合成、文字个性化排版】等技能，真正做到能够运用PS将脑海中的【创意视觉化呈现】~</t>
+  </si>
+  <si>
+    <t>艺术设计</t>
+  </si>
+  <si>
+    <t>学习资源，兴趣技能</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/2474c2314044</t>
+  </si>
+  <si>
+    <t>2024年芊墨风人物团练课第1期</t>
+  </si>
+  <si>
+    <t>美工修图</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c4b1c7e78460</t>
+  </si>
+  <si>
+    <t>B站炮长-高薪剪辑师IP实战班（2期）</t>
+  </si>
+  <si>
+    <t>高薪剪辑师IP实战班（2期）是一个为期100天的剪辑师实操班，帮助学员从零开始，全面掌握拍摄、剪辑、AI工具使用及运营编导等技能，成为全能型视频制作人。课程内容丰富，涵盖拍摄准备、相机与手机摄影技巧、曝光对焦控制、短视频选题及后期AE技能等，助力学员实现高薪就业或创业梦想。</t>
+  </si>
+  <si>
+    <t>B站,剪辑,实战,IP</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e450e48c59b5</t>
+  </si>
+  <si>
+    <t>艾宾浩斯记忆遗忘曲线复习计划</t>
+  </si>
+  <si>
+    <t>艾宾浩斯视频介绍
+艾宾浩斯表格(智能电子版)
+艾宾浩斯表格(可编辑可打印)
+日周月计划表 一些好用的表格</t>
+  </si>
+  <si>
+    <t>记忆</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/132a42540407</t>
+  </si>
+  <si>
+    <t>鹅七生菜可爱Q版人物团练</t>
+  </si>
+  <si>
+    <t>鹅七生菜可爱Q版人物团练课程专为喜爱绘画的学员设计，教授如何绘制Q版可爱人物。课程内容包括人物比例、表情制作、色彩应用等，通过实际操作和老师指导，学员将能够独立完成多样化的Q版人物创作。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6952954f8cc3</t>
+  </si>
+  <si>
+    <t>乐魔AE游戏UI动效多风格培训</t>
+  </si>
+  <si>
+    <t>乐魔AE游戏UI动效多风格培训课程专为游戏设计师和动效师设计，教授使用Adobe After Effects制作游戏UI动效的技巧。课程涵盖多种风格的动效设计，通过实际案例分析和操作练习，提升学员的创意表达和技术实现能力。</t>
+  </si>
+  <si>
+    <t>其他教程</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3e69816d59e0</t>
+  </si>
+  <si>
+    <t>秋野六千《人像拍摄进阶修图课》</t>
+  </si>
+  <si>
+    <t>知名摄影博主秋野六千从事自由摄影相关工作多年，已有一套快速简单的人像后期教程，该课程包括拍摄前期构想、注意事项、模特引导、拍摄方法、LR及PS等用法、后期思路等教学内容。</t>
+  </si>
+  <si>
+    <t>摄影,修图,秋野六千</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/841125a68454</t>
+  </si>
+  <si>
+    <t>《黄冈名卷》小学语文同步小阅读 (2024年秋）</t>
+  </si>
+  <si>
+    <t>系列由单元、期中期末卷、专项核心整合，三大部分有机组成，全方位，多角度为学生梳理学习思路，巩固所学，提高学习成绩，培养学习能力。</t>
+  </si>
+  <si>
+    <t>小学,语文,阅读</t>
+  </si>
+  <si>
+    <t>学习资源，幼中小大学资源</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d4b51f0f4887</t>
+  </si>
+  <si>
+    <t>高中语文必背40首古诗文标准朗诵MP3</t>
+  </si>
+  <si>
+    <t>高中语文必背40首古诗文标准朗诵MP3是一套包含了高中阶段学生必须掌握的古诗文朗诵音频资源。这些音频由专业朗诵者录制，发音标准，情感充沛，有助于学生更好地理解和记忆古诗文。具体包含的篇目可能因版本和地区而有所不同，但通常包括如《劝学》、《逍遥游》、《赤壁赋》、《氓》、《蜀道难》、《登高》、《琵琶行》等经典篇目。</t>
+  </si>
+  <si>
+    <t>语文,高中,必背,古诗文,MP3</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/2af24cc235c4</t>
+  </si>
+  <si>
+    <t>英语四级六级必过合集 已更新至2024年12月最新</t>
+  </si>
+  <si>
+    <t>已更新至2024年12月最新真题和各直播付费网课
+【新东方】英语能力提升课 
+夜猫听口训练营
+01.考虫六级pro max
+02.有道六级全程班
+03.新东方六级全程班
+04.启航全程班
+05.一笑而过全程班
+06.文都全程班
+01.考虫四级pro max
+02.有道四级全程班
+03.新东方四级全程班……</t>
+  </si>
+  <si>
+    <t>英语,英语四级六级,真题,直播网课</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b6f0beda1e19</t>
+  </si>
+  <si>
+    <t>【创作者流量扶持计划】官方任务长期可靠，当天做就能有收益</t>
+  </si>
+  <si>
+    <t>创作者参与官方特定的游戏任务，
+官方会给你推流，获取流量，获取流量收益，
+因为平台流量大，人群广，所以收益非常可观!</t>
+  </si>
+  <si>
+    <t>创作者,扶持计划,兼职副业,网赚项目</t>
+  </si>
+  <si>
+    <t>副业资源，自媒体</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a77aad80065e</t>
+  </si>
+  <si>
+    <t>【抖音快手】每天发发表情包就能日入几张</t>
+  </si>
+  <si>
+    <t>这个项目主要是我i们通过抖音快手视频发布表情包的视频，然后吸引用户去小程序获取，我们就是通过用户开会员或者看广告获得的佣金</t>
+  </si>
+  <si>
+    <t>抖音,快手,表情包,兼职副业,网赚项目</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/598386f0de01</t>
+  </si>
+  <si>
+    <t>【靠美食图片就能日入100+】独家分享变现思路+制作流程保姆级教学</t>
+  </si>
+  <si>
+    <t>小众赛道，目前各大视频平台争相开用视频激励，非常卷， 我接下来讲的还属于小众赛道，座的人还不多，就是美食点评，流程收益非常的好 非常简单，作品文案让AI帮我们生成，对新手很友好，可以批量多做几个号</t>
+  </si>
+  <si>
+    <t>美食图片,变现,教学,兼职副业,网赚项目</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/9665ac916615</t>
+  </si>
+  <si>
+    <t>【蓝海赛道科普知识类视频】一分钟一条， 广告+带货双份收益，轻松日入300+</t>
+  </si>
+  <si>
+    <t>相对于搞笑、影视类的视频，知识科普视频现在做的人比较少，起号快，去重操作简单，只需要无脑搬运就行，手机、电脑都可以操作，而且因为有模板的加持，基本不会浪费太多时间。人嘛都有好奇、求知的心理。通过人们对未知事物的求知欲望吸引人观看，科普素材非常广，基本不用担心没有题材可以使用。包括科学知识、生活小妙招、历史科普、冷知识，都可以多种渠道变现，这个课程也给大家分享了详细的实操教程，小白也能轻松上手</t>
+  </si>
+  <si>
+    <t>蓝海赛道,科普,视频,带货,兼职副业</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d210fa7fdec4</t>
+  </si>
+  <si>
+    <t>【携程图文搬砖每条作品几十】作品剪辑+如何找素材+文案一体式教学</t>
+  </si>
+  <si>
+    <t>我们通过其他平台寻找热门爆款图文，把图文变成我们自己的原创，通过携程入口app发布，只要有播放就会有收益。</t>
+  </si>
+  <si>
+    <t>图文,搬砖,剪辑,兼职副业,网赚项目</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/81f797f1323f</t>
+  </si>
+  <si>
+    <t>快速上手，【小红书简单售卖PPT】当日变现1k，就靠它</t>
+  </si>
+  <si>
+    <t>大家好，今天给大家推荐一个全新的项目，轻松上手，ppt简单售卖，月入2w+，小白闭眼也要做。项目逻辑非常简单，注册一个小红书和抖音账号，利用平台优势，种草引流。发布免费ppt钩子，将精准粉丝引流到群聊私域，进一步引流到微信，顺利成交。简单易上手，首选!</t>
+  </si>
+  <si>
+    <t>小红书,PPT,副业,兼职</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/df393e2cded5</t>
+  </si>
+  <si>
+    <t>小红书Plog爆款图文训练课</t>
+  </si>
+  <si>
+    <t>小红书Plog爆款图文训练课专为希望在小红书平台上脱颖而出的内容创作者设计。课程教授如何创作引人注目的图文内容，包括选题策划、摄影技巧、文案撰写等。通过实战案例分析和互动训练，学员将掌握吸引流量和提升互动的关键技巧，打造爆款Plog。</t>
   </si>
   <si>
     <t>新媒体运营</t>
   </si>
   <si>
-    <t>副业资源，短视频</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/31df6be972d5</t>
-  </si>
-  <si>
-    <t>小红书笔记带货和无人直播实战</t>
-  </si>
-  <si>
-    <t>小红书笔记带货和无人直播实战课程专为电商从业者和内容创作者设计，教授如何有效利用小红书平台进行商品推广和销售。课程内容包括笔记撰写技巧、视觉呈现、无人直播技术应用等，旨在提升带货转化率和观众互动。</t>
-  </si>
-  <si>
-    <t>副业资源，自媒体</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/ba2872921939</t>
-  </si>
-  <si>
-    <t>各行业工作总结大全734份</t>
-  </si>
-  <si>
-    <t>收录了734份覆盖各行业的详细工作总结，涵盖金融、科技、教育、医疗、制造等多个领域。每份总结均由资深从业者精心撰写，深入剖析行业动态、工作成果、挑战与经验，是了解行业趋势、提升工作效能的宝贵资源。</t>
-  </si>
-  <si>
-    <t>模板,工作总结,大全</t>
-  </si>
-  <si>
-    <t>文档书籍，办公模版</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/890829acb117</t>
-  </si>
-  <si>
-    <t>实拍500多个高清视频素材合集,种类丰富,画质高清</t>
-  </si>
-  <si>
-    <t>500多个实拍视频素材，种类丰富，画质高清。</t>
-  </si>
-  <si>
-    <t>视频,素材,合集</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/ebb6b143274e</t>
-  </si>
-  <si>
-    <t>新手开公司必备知识八合一全套</t>
-  </si>
-  <si>
-    <t>自我提升</t>
-  </si>
-  <si>
-    <t>学习资源，个人发展</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/05d7f389e826</t>
-  </si>
-  <si>
-    <t>莉莉酱人像摄影和修图网络课</t>
-  </si>
-  <si>
-    <t>摄影器械的选择，到拍摄实战细节把握，再到修图技巧一站式教学。附课件素材。</t>
-  </si>
-  <si>
-    <t>摄影</t>
-  </si>
-  <si>
-    <t>学习资源，兴趣技能</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/32dab5ad1c4e</t>
-  </si>
-  <si>
-    <t>同捉平面图形构成训练营第9期</t>
-  </si>
-  <si>
-    <t>同捉平面图形构成训练营第9期课程旨在提升设计师和艺术爱好者的平面构图能力。通过系统训练，学员将学习图形的基本构成原理、色彩搭配和视觉传达技巧，实战项目帮助学员掌握从概念到作品的完整创作流程。</t>
-  </si>
-  <si>
-    <t>美工修图</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/3277baa5f2d9</t>
+    <t>https://pan.quark.cn/s/6c4bc80dc438</t>
+  </si>
+  <si>
+    <t>自己和自己聊天，一天能赚500，只要做就有收益，不可错过的风口项目！【揭秘】</t>
+  </si>
+  <si>
+    <t>市面上的一些交友软件，男性给女性发消息是需要钱，一条消息几毛到几块钱都有。
+这类软件男性新注册的时候都会赠送一些积分。我们要做的就是准备一个女性账号，然后通过技术手段批量注册男性账号，把赠送的积分刷到女性账号上面去，然后进行提现。这种玩法也已经存在很长时间了，长期稳定。最近我们工作室几个小伙伴测试出来收益非常不错。单人一天能产出500+</t>
+  </si>
+  <si>
+    <t>揭秘</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4ccb456c6043</t>
+  </si>
+  <si>
+    <t>最新快手直播间福利品抢购助手加教程</t>
+  </si>
+  <si>
+    <t>很多主播为了吸引观众，都会设置一些几分几毛的福利品进行引流。在人数众多的大直播间，尤其是在线人数高达几十万的直播间，这些福利品极为抢手，竞争非常激烈。为了解决这一难题，一款软件应运而生，它能大大提高抢到福利品的概率。许多人通过抢福利品然后倒卖的方式，一个月便能赚取大几千的收入。双11即将到来，各大直播间的福利品将更加丰厚，届时竞争将更加激烈。为了在这场争夺战中占得先机，你必须安装指定版本的快手脚本，这样才能轻松参与抢夺福利品的竞争。安装此脚本，将大大提高你获取心仪福利品的机会。</t>
+  </si>
+  <si>
+    <t>快手,软件,脚本</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/27c4fda4ad80</t>
+  </si>
+  <si>
+    <t>视频号运营提升班</t>
+  </si>
+  <si>
+    <t>视频号运营提升班：视频号起号逻辑，视频号选品技巧及带货，线上录播课 + 答疑 + 全团队可听</t>
+  </si>
+  <si>
+    <t>视频号,运营</t>
+  </si>
+  <si>
+    <t>副业资源，运营营销</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d326cc9eca19</t>
+  </si>
+  <si>
+    <t>【AI赋能内容创作】构建思维框架，精通工具运用，开启智能写作与爆文秘诀</t>
+  </si>
+  <si>
+    <t>AI赋能内容创作：构建思维框架，精通工具运用，开启智能写作与爆文秘诀 夸克网盘资源下载</t>
+  </si>
+  <si>
+    <t>AI,内容创作,写作,AI赋能内容创作</t>
+  </si>
+  <si>
+    <t>其他资源，AI资源</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/85ab22bf1966</t>
+  </si>
+  <si>
+    <t>狸清照老照片修复增强</t>
+  </si>
+  <si>
+    <t>先进的AI图像生成技术，狸清照让您的回忆不再模糊。无论是发黄的老照片，旧设备拍摄的旧照片，或是网络传播的低分辨率画质图片，狸清照都可以轻松修复，一键还原为现在高清图片！此外，狸清照还是一款AI驱动的黑白照片上色器，可以为您的黑白照片一键上色，使它们看起来更惊艳。快来下载享受前沿AI图像技术带来的便利和乐趣！功能：•修复模糊的老照片，转换为高清照片，还原你我当年的高清照片•一键智能为黑白照片上色，还原当时场景•增强使用旧相机或手机拍摄的旧照片，就像用新手机或相机进行拍摄•拯救压缩，损坏或低分辨率的旧照片，让照片恢复昔日的光彩</t>
+  </si>
+  <si>
+    <t>AI绘画上色老照片</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d0721c0bf4d8</t>
   </si>
 </sst>
 </file>
@@ -1330,25 +1607,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I256"/>
+  <dimension ref="A1:I242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9074074074074" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="12.9090909090909" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="72.0925925925926" customWidth="1"/>
-    <col min="2" max="2" width="8.5462962962963" customWidth="1"/>
-    <col min="3" max="3" width="19.1759259259259" customWidth="1"/>
-    <col min="4" max="4" width="12.9074074074074" customWidth="1"/>
-    <col min="5" max="5" width="22.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="59.7272727272727" customWidth="1"/>
+    <col min="2" max="2" width="8.54545454545454" customWidth="1"/>
+    <col min="3" max="3" width="19.1727272727273" customWidth="1"/>
+    <col min="4" max="4" width="12.9090909090909" customWidth="1"/>
+    <col min="5" max="5" width="59.8181818181818" customWidth="1"/>
     <col min="6" max="6" width="35" customWidth="1"/>
-    <col min="7" max="7" width="12.9074074074074" customWidth="1"/>
+    <col min="7" max="7" width="12.9090909090909" customWidth="1"/>
     <col min="8" max="8" width="40" customWidth="1"/>
-    <col min="9" max="9" width="22.0925925925926" customWidth="1"/>
+    <col min="9" max="9" width="22.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1524,7 +1801,7 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
@@ -1533,24 +1810,24 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -1559,24 +1836,24 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:8">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -1585,24 +1862,24 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:8">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -1611,487 +1888,1033 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
         <v>54</v>
       </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>56</v>
-      </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:8">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
         <v>63</v>
       </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>64</v>
-      </c>
       <c r="D15" t="s">
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:8">
-      <c r="A16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>68</v>
-      </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="17" customFormat="1" spans="1:8">
-      <c r="A17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
-        <v>69</v>
-      </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:8">
-      <c r="A18" t="s">
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
         <v>74</v>
       </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>76</v>
-      </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="19" customFormat="1" spans="1:8">
-      <c r="A19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>79</v>
-      </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:8">
-      <c r="A20" t="s">
+      <c r="F20" t="s">
         <v>82</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" t="s">
-        <v>61</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:8">
       <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
         <v>86</v>
       </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="F21" t="s">
         <v>87</v>
       </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
         <v>88</v>
-      </c>
-      <c r="F21" t="s">
-        <v>89</v>
-      </c>
-      <c r="G21">
-        <v>9.99</v>
-      </c>
-      <c r="H21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:8">
       <c r="A22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
         <v>91</v>
       </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="F22" t="s">
         <v>92</v>
       </c>
-      <c r="D22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
         <v>93</v>
-      </c>
-      <c r="F22" t="s">
-        <v>94</v>
-      </c>
-      <c r="G22">
-        <v>9.99</v>
-      </c>
-      <c r="H22" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:8">
       <c r="A23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
         <v>96</v>
       </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="F23" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
         <v>97</v>
-      </c>
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23">
-        <v>9.99</v>
-      </c>
-      <c r="H23" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:8">
       <c r="A24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
         <v>100</v>
       </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="F24" t="s">
         <v>101</v>
       </c>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
         <v>102</v>
       </c>
-      <c r="F24" t="s">
+    </row>
+    <row r="25" customHeight="1" spans="1:8">
+      <c r="A25" t="s">
         <v>103</v>
       </c>
-      <c r="G24">
-        <v>9.99</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="25" customFormat="1" spans="1:8">
-      <c r="A25" t="s">
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
         <v>105</v>
       </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="F25" t="s">
         <v>106</v>
-      </c>
-      <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" t="s">
-        <v>107</v>
-      </c>
-      <c r="F25" t="s">
-        <v>103</v>
       </c>
       <c r="G25">
         <v>9.99</v>
       </c>
       <c r="H25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="26" customFormat="1" spans="1:8">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
         <v>109</v>
       </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" t="s">
-        <v>109</v>
-      </c>
-      <c r="D26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" t="s">
-        <v>110</v>
-      </c>
       <c r="F26" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G26">
         <v>9.99</v>
       </c>
       <c r="H26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="27" customFormat="1" spans="1:8">
-      <c r="A27" t="s">
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
         <v>113</v>
       </c>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="F27" t="s">
         <v>114</v>
-      </c>
-      <c r="D27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" t="s">
-        <v>115</v>
-      </c>
-      <c r="F27" t="s">
-        <v>116</v>
       </c>
       <c r="G27">
         <v>9.99</v>
       </c>
       <c r="H27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="28" customFormat="1" spans="1:8">
-      <c r="A28" t="s">
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
         <v>118</v>
       </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="F28" t="s">
         <v>119</v>
-      </c>
-      <c r="D28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" t="s">
-        <v>120</v>
-      </c>
-      <c r="F28" t="s">
-        <v>116</v>
       </c>
       <c r="G28">
         <v>9.99</v>
       </c>
       <c r="H28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="256" ht="15" customHeight="1"/>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" t="s">
+        <v>119</v>
+      </c>
+      <c r="G29">
+        <v>9.99</v>
+      </c>
+      <c r="H29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" t="s">
+        <v>119</v>
+      </c>
+      <c r="G30">
+        <v>9.99</v>
+      </c>
+      <c r="H30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>130</v>
+      </c>
+      <c r="F31" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31">
+        <v>9.99</v>
+      </c>
+      <c r="H31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" t="s">
+        <v>119</v>
+      </c>
+      <c r="G32">
+        <v>9.99</v>
+      </c>
+      <c r="H32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33" t="s">
+        <v>119</v>
+      </c>
+      <c r="G33">
+        <v>9.99</v>
+      </c>
+      <c r="H33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>139</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>141</v>
+      </c>
+      <c r="F34" t="s">
+        <v>119</v>
+      </c>
+      <c r="G34">
+        <v>9.99</v>
+      </c>
+      <c r="H34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>145</v>
+      </c>
+      <c r="F35" t="s">
+        <v>146</v>
+      </c>
+      <c r="G35">
+        <v>9.99</v>
+      </c>
+      <c r="H35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>150</v>
+      </c>
+      <c r="F36" t="s">
+        <v>146</v>
+      </c>
+      <c r="G36">
+        <v>9.99</v>
+      </c>
+      <c r="H36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>154</v>
+      </c>
+      <c r="F37" t="s">
+        <v>146</v>
+      </c>
+      <c r="G37">
+        <v>9.99</v>
+      </c>
+      <c r="H37" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:8">
+      <c r="A38" t="s">
+        <v>156</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
+        <v>158</v>
+      </c>
+      <c r="F38" t="s">
+        <v>159</v>
+      </c>
+      <c r="G38">
+        <v>9.99</v>
+      </c>
+      <c r="H38" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:8">
+      <c r="A39" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>162</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" t="s">
+        <v>163</v>
+      </c>
+      <c r="F39" t="s">
+        <v>159</v>
+      </c>
+      <c r="G39">
+        <v>9.99</v>
+      </c>
+      <c r="H39" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:8">
+      <c r="A40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>166</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>167</v>
+      </c>
+      <c r="F40" t="s">
+        <v>159</v>
+      </c>
+      <c r="G40">
+        <v>9.99</v>
+      </c>
+      <c r="H40" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:8">
+      <c r="A41" t="s">
+        <v>169</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>170</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" t="s">
+        <v>171</v>
+      </c>
+      <c r="F41" t="s">
+        <v>159</v>
+      </c>
+      <c r="G41">
+        <v>9.99</v>
+      </c>
+      <c r="H41" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:8">
+      <c r="A42" t="s">
+        <v>173</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>174</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
+        <v>175</v>
+      </c>
+      <c r="F42" t="s">
+        <v>159</v>
+      </c>
+      <c r="G42">
+        <v>9.99</v>
+      </c>
+      <c r="H42" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:8">
+      <c r="A43" t="s">
+        <v>177</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>178</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F43" t="s">
+        <v>159</v>
+      </c>
+      <c r="G43">
+        <v>9.99</v>
+      </c>
+      <c r="H43" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:8">
+      <c r="A44" t="s">
+        <v>181</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>182</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>183</v>
+      </c>
+      <c r="F44" t="s">
+        <v>159</v>
+      </c>
+      <c r="G44">
+        <v>9.99</v>
+      </c>
+      <c r="H44" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="1:8">
+      <c r="A45" t="s">
+        <v>185</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>186</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>187</v>
+      </c>
+      <c r="F45" t="s">
+        <v>159</v>
+      </c>
+      <c r="G45">
+        <v>9.99</v>
+      </c>
+      <c r="H45" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="1:8">
+      <c r="A46" t="s">
+        <v>189</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>190</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>191</v>
+      </c>
+      <c r="F46" t="s">
+        <v>159</v>
+      </c>
+      <c r="G46">
+        <v>9.99</v>
+      </c>
+      <c r="H46" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="1:8">
+      <c r="A47" t="s">
+        <v>193</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>194</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>195</v>
+      </c>
+      <c r="F47" t="s">
+        <v>196</v>
+      </c>
+      <c r="G47">
+        <v>9.99</v>
+      </c>
+      <c r="H47" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="1:8">
+      <c r="A48" t="s">
+        <v>198</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>199</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>200</v>
+      </c>
+      <c r="F48" t="s">
+        <v>201</v>
+      </c>
+      <c r="G48">
+        <v>9.99</v>
+      </c>
+      <c r="H48" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="1:8">
+      <c r="A49" t="s">
+        <v>203</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>204</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>205</v>
+      </c>
+      <c r="F49" t="s">
+        <v>201</v>
+      </c>
+      <c r="G49">
+        <v>9.99</v>
+      </c>
+      <c r="H49" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="242" ht="15" customHeight="1"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:I441" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:I427" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
-  <sortState ref="A2:I256">
-    <sortCondition ref="F2:F256"/>
+  <sortState ref="A42:I51">
+    <sortCondition ref="F42:F51"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D13 D14:D20 D21:D23 D24:D25 D26:D114">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D100">
       <formula1>"公开,私密,草稿"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2110,7 +2933,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2127,7 +2950,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/file/wordpress_articles.xlsx
+++ b/file/wordpress_articles.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$407</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$375</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="371">
   <si>
     <t>标题</t>
   </si>
@@ -61,1080 +61,1111 @@
     <t>提取码</t>
   </si>
   <si>
-    <t>AdGuard v4.7.41广告拦截程序，广告内容拦截跟踪器，去广告大杀器</t>
+    <t>《牛津通识读本百本纪念套装》[共100册]</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/lsykrpKLidhfmZE.jpg</t>
+  </si>
+  <si>
+    <t>译林出版社历经数十年耕耘，“牛津通识读本”系列至今已累计编译超过百册。此套装为一百本纪念版，囊括数百种学科深入浅出，数百位大家交相辉映，洋洋大观，不可不谓之壮阔！
+提供 PDF、azw3、mobi、epub 格式。</t>
+  </si>
+  <si>
+    <t>公开</t>
+  </si>
+  <si>
+    <t>图书</t>
+  </si>
+  <si>
+    <t>文档书籍，试卷教辅</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/664feaecfd75</t>
+  </si>
+  <si>
+    <t>《一飞冲天》中考专项试题合集</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/YgMtEm63Kn1kzfH.jpg</t>
+  </si>
+  <si>
+    <t>包括 2024、2025 两版，真题再现、精讲精析，夯实基础、巩固提升。可打印。</t>
+  </si>
+  <si>
+    <t>初中</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ae62d39dc4af</t>
+  </si>
+  <si>
+    <t>初中数学千题解合集-思美数学</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/hBE7spdokHCA5lr.jpg</t>
+  </si>
+  <si>
+    <t>《初中数学千题解》是“思美数学”团队为初中学生和数学教师量身打造的精品丛书。解答非常详细，并给出“思路点拨”，注重引导、启发，抽丝剥茧，能切实提升学生的构思能力和解题能力。</t>
+  </si>
+  <si>
+    <t>教辅</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/27fc1e2e8a77</t>
+  </si>
+  <si>
+    <t>英汉百科图解大词典</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/WrXI7J8cMG1OsES.jpg</t>
+  </si>
+  <si>
+    <t>一部规模宏大、分类详细、知识性强、图文并茂的大型百科图解词典。共收录 40000 余个词条，覆盖社会、科技、天文、地理、经济、艺术、体育、医学、动植物等诸多领域，每个术语下面都配有浅显易懂的英文解释，既可帮助读者理解术语内涵，又可帮助读者理解和掌握英语词汇，提升英语水平。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5b9ac0763df2</t>
+  </si>
+  <si>
+    <t>《分享经济时代》（套装6册） 新经济形态，分享什么，如何分享</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/CxWMPD7Np1BkHbT.jpg</t>
+  </si>
+  <si>
+    <t>《分享经济时代》（套装6册）由杰夫·贾维斯所著，中华工商联合出版社出版。该书详细阐述了分享经济这一新经济形态，探讨了分享的内容、方式以及影响。书中通过大量采访实例，展示了分享经济如何改变我们的生活和工作方式，同时深入分析了隐私的必要性和局限性，为读者提供了协作、思考、组织和创造的全新视角。</t>
+  </si>
+  <si>
+    <t>书籍</t>
+  </si>
+  <si>
+    <t>文档书籍，图书小说</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ec679bd6b747</t>
+  </si>
+  <si>
+    <t>《文史资料百部经典文库大全集》[共50册]</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/zYSQJVWhCk3Bcl5.jpg</t>
+  </si>
+  <si>
+    <t>包括黄炎培、杨伯涛、胡西园、吴羹梅等人亲笔撰写的回忆录，以及众多艺术大家的回忆录，内容详实、文情并茂，中国文坛作家、诗人、艺术家的精神风貌、高尚品质和在中国文学史上的贡献跃然纸上。
+提供 PDF、azw3、mobi、epub 格式。</t>
+  </si>
+  <si>
+    <t>人文社科,图书</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/807396cc0268</t>
+  </si>
+  <si>
+    <t>《战略推演：获取竞争优势的思维与方法》</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/36z7aqZDot5rwMy.jpg</t>
+  </si>
+  <si>
+    <t>《战略推演：获取竞争优势的思维与方法》一书深入探讨了战略制定的核心思维与实用方法。该书通过解析经典案例，揭示了企业如何在复杂多变的市场环境中，运用战略推演工具，洞察未来趋势，制定有效的竞争策略，从而获取并巩固竞争优势，实现可持续发展。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/fad680df69fc</t>
+  </si>
+  <si>
+    <t>《哲学100问：一看就懂的西方哲学简史》 超级通俗易懂的哲学入门教程</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/JWzugh5tCGF2SYj.jpg</t>
+  </si>
+  <si>
+    <t>《哲学100问：一看就懂的西方哲学简史》是一本超级通俗易懂的哲学入门教程。该书通过100个关键问题，系统梳理了西方哲学的发展脉络，从古希腊哲学到现代哲学，逐一解析哲学史上的重要思想和流派，让读者在轻松愉快的阅读中掌握哲学的基本概念和核心观点，为深入了解西方哲学奠定坚实基础。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/36b56f5de2dd</t>
+  </si>
+  <si>
+    <t>《哲学是怎样炼成的：从普通常识到逻辑推理》 一本教你用哲学方法论分析 解决问题的说明书</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/Z5vxERY6yfopQ9q.jpg</t>
+  </si>
+  <si>
+    <t>《哲学是怎样炼成的：从普通常识到逻辑推理》是一本指导读者运用哲学方法论分析并解决问题的实用指南。该书从日常常识出发，逐步深入逻辑推理的精髓，教授读者如何运用哲学思维剖析复杂问题，形成清晰的逻辑链条，进而找到问题的根源与解决方案，提升个人思考能力和决策效率。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/18e890aca511</t>
+  </si>
+  <si>
+    <t>《智慧大脑：高水平思考的大脑认知训练》 智慧大脑：高水平思考的大脑认知训练</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/N9WXipgGlK2JIsd.jpg</t>
+  </si>
+  <si>
+    <t>《智慧大脑：高水平思考的大脑认知训练》是一本专注于提升大脑认知与思维能力的训练手册。书中通过科学的方法和实用的练习，帮助读者改善注意力、记忆力、逻辑思考、创造力等关键大脑功能，实现高水平思考，进而在工作、学习和生活中做出更明智的决策，提升个人竞争力。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c1ffee8882eb</t>
+  </si>
+  <si>
+    <t>《智商税：如何避免信息焦虑时代的智商陷阱》 一部让你提升心智防御能力的“反套路”手册</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/fwL2JKYQbOTUZ7F.jpg</t>
+  </si>
+  <si>
+    <t>《智商税：如何避免信息焦虑时代的智商陷阱》是一部提升心智防御能力的“反套路”手册。该书深入剖析了信息焦虑时代下的各种智商陷阱，如伪科学、营销骗局等，提供了实用的辨识方法和应对策略，帮助读者在信息洪流中保持清醒，避免被误导，提升自我防护能力，实现心智的成熟与成长。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/cf600332ca46</t>
+  </si>
+  <si>
+    <t>《重新定义公司：谷歌是如何运营的》</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/VScI4JY8KqGpevU.jpg</t>
+  </si>
+  <si>
+    <t>《重新定义公司：谷歌是如何运营的》一书深入剖析了谷歌独特的运营理念与管理模式。该书详细阐述了谷歌如何通过文化、人才、创新机制等方面的革新，打造出一个高效、灵活且富有创造力的企业生态，揭示了谷歌在快速变化的市场环境中持续领先的关键所在，为其他企业提供了宝贵的借鉴与启示。</t>
+  </si>
+  <si>
+    <t>书籍,商业</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5b424028d62d</t>
+  </si>
+  <si>
+    <t>《姿势跑法》：跑得更快，更有效率，不受伤的跑步方法</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/xW3sAlE9RbDYNoF.jpg</t>
+  </si>
+  <si>
+    <t>《姿势跑法》是一本介绍如何跑得更快、更有效率且避免受伤的跑步方法指南。该书通过详细解析科学的跑步姿势与技巧，帮助跑步爱好者优化跑步动作，减少能耗，提升跑步效率，同时有效预防跑步带来的运动伤害，让跑步成为一项既健康又高效的锻炼方式。</t>
+  </si>
+  <si>
+    <t>书籍,健身</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d5ce1fcb42cb</t>
+  </si>
+  <si>
+    <t>《组织革新：构建市场化生态组织的路线图》 帮助企业灵活应变</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/ZuW8MJ5FRbGTwnr.jpg</t>
+  </si>
+  <si>
+    <t>《组织革新：构建市场化生态组织的路线图》一书为企业提供了一套系统化的方法，助力企业实现灵活应变。通过详细阐述如何构建以市场为导向、具备生态特性的组织结构，该书指导企业优化内部流程、增强创新能力、提升市场响应速度，从而在快速变化的市场环境中保持竞争优势，实现可持续发展。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/dff62c4b73bb</t>
+  </si>
+  <si>
+    <t>曾国藩的正面与侧面（全四册） [套装合集] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/ByY46XgoqO89fU3.jpg</t>
+  </si>
+  <si>
+    <t>《曾国藩的正面与侧面》讲述了曾国藩跌宕起伏的一生，揭露了诸多不为人知的细节：一生遭遇过的五次重大挫折；与左宗棠的纠结和情谊；一生收入与支出；如何看待风水、相面、算卦和天命等。作者为我们展示了一个勤勉、务实、自律的“文正公”曾国藩，一个矛盾、挣扎的深嵌体制核心的职业官员。透过曾国藩，读者可窥见中国传统官场微妙而复杂的“潜规则”与中国特色体制的独特生存哲学。</t>
+  </si>
+  <si>
+    <t>电子书,图书,epub</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/087ddd708ecf</t>
+  </si>
+  <si>
+    <t>典藏中国（全17册）</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/vkXA27yd4jmYZbP.jpg</t>
+  </si>
+  <si>
+    <t>“典藏中国（全17册）”是一部全面展现中国历史文化精髓的珍贵典籍。该套书囊括了从古代到近现代的中国历史、文化、艺术、哲学等多个领域，通过深入浅出的文字与精美的插图，生动呈现了中国五千年的文明传承。无论是想要了解中国文化的读者，还是对中国历史感兴趣的学者，都能从中获得丰富的知识和深刻的启示。</t>
+  </si>
+  <si>
+    <t>书籍,图解</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1091822095e0</t>
+  </si>
+  <si>
+    <t>孤独是一朵莲花 [小说文学] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/flrcga3n8QdIALK.jpg</t>
+  </si>
+  <si>
+    <t>“人人皆可从他作品中，发现自己的模样。”——沈从文完整收录郁达夫《故都的秋》《钓台的春昼》《一个人在途上》《孤独者》等76篇传世之作。在这本书中，“孤独大师”郁达夫用他浪漫的文字，描风月山水，写故人旧事；用他深情的语言，解读孤独，道破天机——孤独才是人生，独处激发成长。当你感到孤独、迷茫时，那是心灵在成长。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/90c1d72a473a</t>
+  </si>
+  <si>
+    <t>華夏再造與多元轉型：明史 [历史传记] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/ayfO4W12uqoYT5p.jpg</t>
+  </si>
+  <si>
+    <t>黑暗停滯的時代，抑或近代文明的曙光？穿越百年迷思與爭論，重探一個被誤解朝代的價值與意義。長期以來，明代總被認定是中國歷史上政治最黑暗的時代：君主專制、宦官干政、特務荼毒；終致民變四起，朝代覆滅。近代史家比較中西近代化，又認為明朝「閉關自守」，發展停滯，是近世中國衰落和中西消長的關鍵。然而，近年來對明代深入研究的成果，傳統的負面論點受到強力挑戰與反駁。對明太祖的評價，不再停留在殘暴專制，轉而注重其開國宏規，短期內使人民安居田里。...</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b246527017be</t>
+  </si>
+  <si>
+    <t>黄帝内经 各版本大合集203套PDF</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/jYWiXhJqy6ZICaM.jpg</t>
+  </si>
+  <si>
+    <t>《黄帝内经》是现存最早中医理论著作，对后世中医学理论的奠定有深远的影响。相传是黄帝与岐伯、雷公、伯高、俞跗、少师、鬼臾区、少俞等多位大臣讨论医学的记述，在四库全书中为子部医家类。</t>
+  </si>
+  <si>
+    <t>养生</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/82e60330857a</t>
+  </si>
+  <si>
+    <t>理查二世 [小说文学] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/vdlbkc8IMBx6Yon.jpg</t>
+  </si>
+  <si>
+    <t>《理查二世》描写了理查二世被布林布鲁克在政治上击败、军事上围困、最后被囚被杀的整个过程。理查二世的堂弟布林布鲁克向国王揭发毛伯雷的罪恶。理查二世叫两人当场对质。结果两人各不相让，并要求用决斗来维护自己的名誉。趁着决斗的机会，理查二世铲除异己，把二人驱逐出境。亨利的父亲冈特的约翰见儿子被放逐，忧愁而死。理查二世没收了亨利应该继承的全部产业，把这些钱财充作攻打爱尔兰的军费。就在理查二世率军攻打爱尔兰之际，亨利率军拘捕了他，并让国会同意将理查废黜。理查在监牢中囚禁多时，最终被杀害。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b5fbdfe6dbe2</t>
+  </si>
+  <si>
+    <t>零售畅销秘籍 [经济管理] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/rLCI7RM5KSovdb3.jpg</t>
+  </si>
+  <si>
+    <t>刚上市即位列日本亚马逊管理类图书榜榜首，版权已输出多个国家和地区，受到各行业读者赞誉。爆品实操手册。从商品开发到单品管理，从物流供应到商品上架技巧，本多先生将打造畅销商品的经验公开分享。?顾客来到店里的目的是什么？怎样构建畅销的店铺？怎样应对充满变化的消费者需求？在书中，作者对零售业每个细节问题都进行了深入的剖析与解答，才你打造畅销品、经营畅销店铺、应对急速变化的世界的各种方法。</t>
+  </si>
+  <si>
+    <t>电子书,epub</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/fb66d729c4ae</t>
+  </si>
+  <si>
+    <t>女性史：20世纪卷 [历史传记] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/FMvnLSlegUCVihT.jpg</t>
+  </si>
+  <si>
+    <t>本书为由乔治•杜比领衔的由七十余位有声望历史学家编撰的皇皇巨著《女性史》的第五卷，时间分段是在20世纪。本卷认为，在当代，女性的身份在多种文化因素的作用下开始进一步变迁，从静默的他者和被注视的客体，慢慢在大众媒体的影响下开始融合汇聚，并在20世纪中后期到达了一个文化认同的高潮。在媒介传播的影响下，女性不再是世界一隅的孤立个体，而成为一个有着相似意识形态的集体。她们享有共同的审美爱好和世界观、价值观，具有更为趋同的女性特质，女性事实上由复数逐渐向单数收缩。综上所述，20世纪是一个“女性”身份彻底被重构和确立的时代。...</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5d4c4bf41bab</t>
+  </si>
+  <si>
+    <t>女性史：文艺复兴与启蒙时期卷 [历史传记] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/4rSkZdToF9ICPub.jpg</t>
+  </si>
+  <si>
+    <t>本书为由乔治•杜比领衔的由七十余位有声望历史学家编撰的皇皇巨著《女性史》的第三卷，时间分段是从文艺复兴到启蒙时期。本卷认为，文艺的复兴与启蒙运动荡涤了陈旧的思维范式，也使得人们的精神获得新面貌。在这个新的颠覆性的思想和观念层出不穷的时代，女性也得以从教条的桎梏中解放出来，具有了更加新颖的思想，开始担任更多的社会角色。但与此同时，她们也承担起更多的社会职责，这给她们的生存处境增加了巨大的压力。也正是在这个时刻开始，女性开始登上了公共领域的舞台，获得更多的社会关注。但她已经不再仅仅是“他者”，而开始成为一个真正的主体。她们开始发出自己的声音。...</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/fd37f4451823</t>
+  </si>
+  <si>
+    <t>青年文摘2021-2024典藏版</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/1svkjUqBxuV5JEN.jpg</t>
+  </si>
+  <si>
+    <t>《青年文摘》是一本以青少年核心读者群的综合类文摘刊物，由共青团中央主管，中国青年出版总社有限公司主办，创刊于1981年1月，是目前中国发行量最大的青年杂志之一，月发行最高超过300万册，创刊40年来，总印量超过8亿册。曾荣获首届国家期刊奖，在历次全国国民阅读情况调查中，连续多年入选“读者最喜爱的十种杂志”之列。《青年文摘》荟萃中外名篇佳作，是青少年健康成长、成才、成功的心灵读本，是“读者喜欢、老师叫好、家长放心”的优质读物。</t>
+  </si>
+  <si>
+    <t>epub,mobi,azw3,pdf</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a58ee73bd97a</t>
+  </si>
+  <si>
+    <t>双重迭代 [经济管理] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/CsmUDcS2ydKio9k.jpg</t>
+  </si>
+  <si>
+    <t>我国的工业化后期和数字化时代同时到来，商业模式迎来双重迭代。本书剖析了一些全球著名品牌诞生、发展的案例及其诞生的时代背景，将其和我国当下的一些创新型消费品模式案例进行了对比分析，提出了一些和国内主流观点不同的看法，颠覆了一些业界流传甚广的惯性认知，总结了有价值的经验和理念。本书适合消费品领域的创业者、管理者和其他相关人员阅读。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/8c298ef9afe5</t>
+  </si>
+  <si>
+    <t>私人图书馆员 [历史传记] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/XbRw6WPgf3naBTH.jpg</t>
+  </si>
+  <si>
+    <t>一介身怀祕密的年轻女子，如何能博得摩根大通的青睐，又是如何让自己在上流社会的艺术世界立足？二十六岁的贝儿．达科斯塔．格林，原本只是个为家中经济重担挣扎的贫穷女孩，从未想过能有机会得到纽约金融钜子J.P.摩根的聘用，以私人图书馆员的身分，为刚落成的摩根图书馆收购一系列珍贵的手稿、珍本和艺术品。众所皆知，J.P.摩根喜怒无常且是个花花公子，然而，他同时也是一名出价不手软的收藏家。当贝儿惴惴不安地跟随摩根踏入纽约上流社会，她深知自己没有失败的余地──因为她有个必须带进坟墓里的祕密，一旦曝光，她和她的家人便万劫不复。可是，一介年轻女子要寻得立足之地并不容易。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/8487424e9a0e</t>
+  </si>
+  <si>
+    <t>隋唐制度渊源略论稿 唐代政治史述论稿 [历史传记] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/m1JsHG3rKXVjazw.jpg</t>
+  </si>
+  <si>
+    <t>这本书以陈寅恪执教期间备课讲义及其它零散史学原稿结集出版，为海内首次付印。遵作者生前愿望，全书采用繁体字竖排，人名、地名、书名均不加符号注明，一般采用通行字，保留少数异体字。这本书中纠正了王鸣盛十七史商榷中王遵绝无功业之说。列举史实，证述遵在东晋初年，团结江东境内诸政治社会力量，共同抵御北方盛强胡族之侵略。当时中国之文化，因而得以保存，故其功实不可没。文中又分析南来北人之社会階層及居住地域，并论其与后来南朝史事之关系。篇末附载近年广州出土晋墓磗铭，亦可供治史者之参证。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/2acc3d002a03</t>
+  </si>
+  <si>
+    <t>我们的庸常生活 [小说文学] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/21Qaq7Y3kEnvFDI.jpg</t>
+  </si>
+  <si>
+    <t>《我们的庸常生活》是新锐作家张畅所著的当代短篇小说集，包含12则短篇小说，笔调简洁冷峻，直面当今年轻人面临的生活困境。代代相传的孤独、忠诚而相互伤害的家人、渐渐形同陌路的夫妇、忽然消失踪影的丈夫……这些故事共同的主题是，在被消耗的人生中，人是如何自处的，又是如何改变所面临的困境。“这本小说集是平凡生活的裂缝时刻，是齿轮卡顿的瞬间，也是潮水的一次次呼吸。”作者以充满文学性的笔法，描写普通人的情感和日常生活中的冲突，捕捉人与人之间微妙的联系，告诉每一位读者，即使在平淡庸常的日子里，也要发现身边的细碎光芒。而当我们的生活被化作故事来审视时，就有获得抚慰乃至拯救的可能。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/8ba27c410df0</t>
+  </si>
+  <si>
+    <t>西方美学史丛书（全七册） [套装合集] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/ZcpoyTPfse3xkR1.jpg</t>
+  </si>
+  <si>
+    <t>《西方美学史》（七卷本）是由我国著名美学家、复旦大学蒋孔阳教授和朱立元教授对西方从古希腊到当代两千多年美学发展的历程做的全方位梳理，丛书体系宏大、史料丰富、视角新颖、结构缜密，堪称迄今为止国内外第一部最为完备的西方美学通史。本次出版是在十年前版本上修订的新版，除修订了大量文字、补充了十年来部分国外最新资料外，丛书作者、美编、编辑还赴世界各地博物馆，拍摄了大量第一手图片，制作成精美插图插入书中，本套丛书集趣味性与专业性、阅读性与资料性于一体，既适合人文学科专业的读者阅读，又适合对美学感兴趣的大众读者阅读。...</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/10d6f59fa661</t>
+  </si>
+  <si>
+    <t>西尾维新“忘却侦探”系列（1-8册) [套装合集] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/ab4kMAUhuF3TzSx.jpg</t>
+  </si>
+  <si>
+    <t>本书为西尾维新“忘却侦探”系列1-8册。包括《掟上今日子的备忘录》《掟上今日子的推荐文》《掟上今日子的挑战书》《掟上今日子的遗言书》《掟上今日子的辞职信》《掟上今日子的婚姻届》《掟上今日子的家计薄》《掟上今日子的旅游记》。美女侦探今日子小姐的记忆只能保持一天，一旦入睡，记忆就会重置。因此作为“最快侦探”，她必须要在一天内解决案件。身材娇小、满头白发的她因其出众的外表，时尚的穿搭非常惹人注目，同时她也是个“斤斤计较”视财如命的成熟社会人。对于自己应得的，一分也不能差！</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a01d30c03cda</t>
+  </si>
+  <si>
+    <t>现当代文坛大家佳作精选（套装共12册） [套装合集] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/HFBmgwN9XRGqUaZ.jpg</t>
+  </si>
+  <si>
+    <t>季羡林《读书与做人》★《读书与做人》是季羡林读书感悟和为人处世的经验集锦。★清华大学等著·名高校真诚推荐，央·视一套、《三联生活周刊》等权·威媒体倾情转载，鼓励读者求知向上，自我完善的经典。★季羡林：著名语言学家、文学家和教育家，北京大学终身教授。曾担任北京大学副校长、中国社会科学院南亚研究所所长。主要作品：《留德十年》《牛棚杂忆》《病榻杂记》《清华园日记》及众多学术著作。李娟《九篇雪》★《九篇雪》书写的是李娟少女时代跟随家人在新疆阿勒泰草原生活的故事。...</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/da46cbc85750</t>
+  </si>
+  <si>
+    <t>笑傲江湖（修订版）(全4册) [套装合集] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/FoJNMLGbazEm9Bp.jpg</t>
+  </si>
+  <si>
+    <t>★修订版，也称新版，三联版，流传最广，首次阅读推荐此版本！★金庸小说总共有3个版本，即通常说的旧版、修订版（也称三联版）、新修版。旧版是金庸于当年（1955年到1972年）在报纸上连载小说时的版本。修订版是金庸在连载完鹿鼎记，宣布封笔后，花了数年时间来修改连载版的小说，修改后的版本称为修订版，也就是通常所说的三联版，因为三联出版社出版的金庸全集很受欢迎，所以大部分人都称修订版为三联版，这是金庸小说流行最广的版本，本链接为此版本。...</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a9440be88dfd</t>
+  </si>
+  <si>
+    <t>阅读搭建精神天梯 [学习教育] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/XwziIWdyhKBSCjl.jpg</t>
+  </si>
+  <si>
+    <t>阅读，是教育的基石。阅读，也是新教育实验的基石。阅读研究，是新教育用力最多、成效最明显的领域。这本《阅读搭建精神的天梯——新阅读教育论纲》，就是新教育实验发起人朱永新先生对新教育20多年推进全民阅读与书香校园建设的历程和经验的系统梳理和总结。本书主要包括三部分。...</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/30a84eb55d62</t>
+  </si>
+  <si>
+    <t>真我布蘭妮 [历史传记] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/6dCyMThSsWzQ4YF.jpg</t>
+  </si>
+  <si>
+    <t>她用六年的時間成為全球皆知的超級偶像，卻用了將近四十年的時間，才找回屬於自己的自由與希望。從小她就知道自己期望在舞台上享受無數目光，也在第一張專輯發行後的短短一個月拿下了雙白金認證的偉大成就，一時間，全世界都崇拜著她的甜心模樣。沒人知道，她踏上夢想之路的那一刻，就被父親摘去了翅膀，從此在其陰影之下無助徬徨。沒人知道，她愛得最深的那一段戀情，卻遭受了殘酷的冷漠對待，甚至被眾人投射了「放蕩」的目光。與此同時，她在外人眼中猶如失控列車一般，閃婚閃離、剃頭現身、與狗仔對峙，但這卻是她一次又一次試圖找回自由與自我的無聲抵抗。直到2021年6月，全世界都在聆聽布蘭妮‧斯皮爾斯在公開法庭上的發言。...</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/934dedd1cebf</t>
+  </si>
+  <si>
+    <t>中国自助游手册，2400+景点信息国家级旅游度假区，文化体验，旅行线路与美食推荐</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/EmHWGeU1ctgabky.jpg</t>
+  </si>
+  <si>
+    <t>《中国自助游手册》涵盖2400多个景点信息，包括国家级旅游度假区，提供丰富的文化体验介绍、精心规划的旅行线路以及地道的美食推荐。该手册是旅行者必备的实用工具，帮助游客深入了解中国各地的风土人情，轻松规划并享受完美的自助游之旅。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/63b606d0dd06</t>
+  </si>
+  <si>
+    <t>终身学习与认知升级（套装共7册）</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/CAODErZkF7RHPoY.jpg</t>
+  </si>
+  <si>
+    <t>《终身学习与认知升级》（套装共7册）是一套系统提升个人认知能力和学习能力的书籍。该套装涵盖了认知科学、学习方法、知识管理等多个方面，帮助读者掌握高效学习策略，不断优化认知结构，实现个人成长与职业发展的双重飞跃，为终身学习者提供全面而深入的指导。</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/414972169af6</t>
+  </si>
+  <si>
+    <t>周鸿祎、王兴、罗振宇、徐小平、李开复、马云的创投经验</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/Y2Gz7WA9OfJbToN.jpg</t>
+  </si>
+  <si>
+    <t>周鸿祎、王兴、罗振宇、徐小平、李开复、马云等人在创投领域各具特色。周鸿祎强调无畏精神与特种训练；王兴注重IT能力与地推管理；罗振宇以轻资产创业、前期小规模测试著称；徐小平擅长发掘市场空白，投资年轻人需求项目；李开复倡导低投入创业，把握市场机遇；马云则凭借敏锐洞察与阿里巴巴集团创始人身份闻名，他们的经验为创业者提供了宝贵借鉴。</t>
+  </si>
+  <si>
+    <t>书籍,商业,互联网</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6452f0c94dfc</t>
+  </si>
+  <si>
+    <t>禅宗全书 禅意智慧与修行指南的集大成之作</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/peXlrFK3Ejhka6f.jpg</t>
+  </si>
+  <si>
+    <t>《禅宗全书》是禅宗典籍的集大成之作，共101卷，辑录自六世纪至二十世纪之禅宗典籍五七○余部。该书分为史传、宗义、语录、清规、杂集五部，收入大量珍稀、罕见的禅门著述，如《绝观论》、《四行观》等。该书不仅收录南宗禅典籍，还包含六祖以前及北宗史料，为禅宗研究提供了宝贵资源。通过《禅宗全书》，读者可深入了解禅意智慧与修行指南。</t>
+  </si>
+  <si>
+    <t>文档书籍，图书小说，其他资源，玄学集合</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/317ca47aef80</t>
+  </si>
+  <si>
+    <t>【喜马拉雅】麻辣情医吴迪：100天告别单身</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/lGUIsxgaz6hecty.jpg</t>
+  </si>
+  <si>
+    <t>《麻辣情医吴迪：100天告别单身》是一份实用的指南，帮助听众更好地掌握恋爱中的主动权，提高自己的恋爱成功概率。无论你是正在寻找恋爱对象，还是已经有了心仪的人选，都可以从这份指南中获得帮助和启示。</t>
+  </si>
+  <si>
+    <t>有声读物</t>
+  </si>
+  <si>
+    <t>文档书籍，有声读物</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5edffff896d9</t>
+  </si>
+  <si>
+    <t>凯叔讲故事《大发明 —100个影响世界的发明》</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/1LzQ2eplZO96fum.jpg</t>
+  </si>
+  <si>
+    <t>通过时间线小剧场的方式，讲述了 100 个对世界产生重大影响的发明背后的科技简史，值得每一个孩子了解和学习。</t>
+  </si>
+  <si>
+    <t>历史,有声读物</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/819fe2b5822b</t>
+  </si>
+  <si>
+    <t>全球富豪传记精读：商业思维进阶课</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/Mb793lRaSBfNGK5.jpg</t>
+  </si>
+  <si>
+    <t>《全球富豪传记精读：商业思维进阶课》是由《环球人物》联合喜马拉雅FM推出的音频课程。该课程聚焦20位颠覆商业规则的传奇人物，通过剖析他们的商业传奇案例，挖掘背后的商业逻辑，提炼商业思维。课程包含硅谷英雄、实业大亨、时尚先锋、金融巨头、亚洲奇迹五大核心模块，帮助学员深入了解商业世界的运行规则，提高决策能力和创新思维。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d2f60a0861f3</t>
+  </si>
+  <si>
+    <t>商业财经100本好书解读.喜马讲书.演播喜马讲书</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/ExGQ8tfkjT1rN2n.jpg</t>
+  </si>
+  <si>
+    <t>《商业财经100本好书解读》是喜马拉雅自制的《喜马讲书》系列中的一个重要专辑，通过精炼的讲解，带领听众深入了解商业财经领域的经典与前沿书籍。该专辑精选了包括《富爸爸穷爸爸》、《巴菲特致股东的信》、《创新者》等在内的100本商业财经好书，内容覆盖投资理财、商业洞察、企业管理、市场营销等多个方面。每期节目用约30分钟的时间，深入剖析书籍精华，帮助听众快速掌握书中要点，提升财商与商业素养。</t>
+  </si>
+  <si>
+    <t>有声读物，金融，经济</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/480629caef89</t>
+  </si>
+  <si>
+    <t>【同城推广核心方法大揭秘】掌握自然与付费流量的奥秘，开启商家逆袭之路</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/73ofE4KNuGF5zsX.jpg</t>
+  </si>
+  <si>
+    <t>同城推广核心方法大揭秘：掌握自然与付费流量的奥秘，开启商家逆袭之路 夸克网盘资源下载</t>
+  </si>
+  <si>
+    <t>副业资源，创业，运营营销</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/bd4cbb459352</t>
+  </si>
+  <si>
+    <t>【跨境税务宝典教程】跨境电商全球税务处理策略</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/pHyE7zYR9KkWLVG.jpg</t>
+  </si>
+  <si>
+    <t>本课程专注于跨境电商的涉外税务处理，详细讲解了不同国家和地区（如美国、欧洲、香港）的公司税务处理方法和应用案例。此外，还深入探讨了多种出口模式（如9810、1039、0110、9610、9710）及其在跨境电商中的实际应用案例。最后，课程还涵盖了跨境电商如何申请出口退税的详细步骤和流程。</t>
+  </si>
+  <si>
+    <t>副业资源，电商</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ac561b7a2303</t>
+  </si>
+  <si>
+    <t>【闲鱼魔法袍出租】无脑稳定出单，单日变现1.5k</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/ukWHSF8JTBN7U1M.jpg</t>
+  </si>
+  <si>
+    <t>闲鱼魔法袍出租，无脑稳定出单，单日变现1.5k 夸克网盘资源下载</t>
+  </si>
+  <si>
+    <t>电商,兼职副业,网赚项目</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ee835b70648b</t>
+  </si>
+  <si>
+    <t>【图文带货项目速成1.0】无需真人出镜，无需自己发货，无需开播也能赚钱</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/3bpqGh9mJoIQiYx.jpg</t>
+  </si>
+  <si>
+    <t>图文带货项目速成1.0：无需真人出镜，无需自己发货，无需开播也能赚钱，夸克 网盘资源下载。</t>
+  </si>
+  <si>
+    <t>短视频</t>
+  </si>
+  <si>
+    <t>副业资源，自媒体</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f801e42c3db9</t>
+  </si>
+  <si>
+    <t>【无尽的拉格朗日手游冷门玩法】简单好上手，一单15.一部手机或者平板即可操作，一天几张轻轻松松</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/4xqXza52dFOZc71.jpg</t>
+  </si>
+  <si>
+    <t>无尽的拉格朗日手游冷门玩法，简单好上手，一单15.一部手机或者平板即可操作，一天几张轻轻松松</t>
+  </si>
+  <si>
+    <t>搬砖,兼职副业,网赚项目</t>
+  </si>
+  <si>
+    <t>副业资源，挂机搬砖</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/17b8fed5f015</t>
+  </si>
+  <si>
+    <t>【发卡网详细搭建教程加源码】开网站做老板</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/52MIxlmcaheOtGf.jpg</t>
+  </si>
+  <si>
+    <t>今天给大家分享一个发卡网详细搭建教程，教程很详细，从宝塔面板搭建开始到最后网站搭建完成， 本教程适用于彩虹、小储、等多种发卡网系统。我把教程稍微快进一点分享给大家，如果大家有哪个环节不懂的就放慢视频去看，只要按照我的教程来，绝对能搭建好一个属于自己的网站!</t>
+  </si>
+  <si>
+    <t>副业资源，学习资源，建站教程</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/2a20d3fa6444</t>
+  </si>
+  <si>
+    <t>【2分钟一个作品，一刀不剪，撬动百万流量】新人小白刚做就赚500+</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/KmqR3LEoHgjaXJY.jpg</t>
+  </si>
+  <si>
+    <t>今天给大家带来的是利用抖音黑科技带货的项目，抖音带货大家都知道很赚钱，但是对于很多人而言做视频的难度比较大，更没有时间一个一个剪辑视频，很多人的现状就是花了2个小时剪辑的视频，结果就一点流量，更别提出单赚钱了。</t>
+  </si>
+  <si>
+    <t>副业</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5ac0a6a43c5d</t>
+  </si>
+  <si>
+    <t>【美女弹幕舞蹈直播间新玩法日入几张】无需露脸，礼物收到手软</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/GJjmQu6TEtFV5sp.jpg</t>
+  </si>
+  <si>
+    <t>我们这次准备的项目与传统的弹幕游戏不同，传统的弹幕游戏互动性比较低，但新玩法的互动性很强，能激起大家点进直播间观看的好奇心
+|所以今天介绍的玩法比较另类，先用几款软件搭建好直播间，在设置刷礼物自动触法，然后直播间刷礼物就会触发特效</t>
+  </si>
+  <si>
+    <t>兼职副业,网赚项目</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/479c34622047</t>
+  </si>
+  <si>
+    <t>【易语言2024最新0基础入门+全流程实战教程】学点网赚必备技术</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/su91kCAEiP5D4Lx.jpg</t>
+  </si>
+  <si>
+    <t>《2024最新易语言0基础快速入门到精通教程》基础篇专为编程0基础和对易语言感兴趣的学员量身打造。课程从易语言的安装配置开始，循序渐进地介绍编程基本概念和操作方法，通过实战案例让学员掌握易语言的核心编程思维和开发技能。无论是互联网创业者、业余编程爱好者，还是希望提升技能的学习者，本课程都能帮助你在最短的时间内打下坚实的编程基础。</t>
+  </si>
+  <si>
+    <t>兼职副业</t>
+  </si>
+  <si>
+    <t>副业资源，自媒体，学习资源，编程开发</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6014169d9d5a</t>
+  </si>
+  <si>
+    <t>【AI漫画视频实战流程】AI漫画爽文视频制作，打造爆款漫画视频</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/3NqFpZOcU7CoHDb.jpg</t>
+  </si>
+  <si>
+    <t>本课程专注于AI漫画爽文视频技术的进阶学习，从基础底层逻辑讲起，逐步深入到准备工作、工具实操、问题解决方案、视频优化技巧等关键环节。同时，还额外提供了利用AI工具筛选爆款小说、规划小说分镜以及解决AI工具实操中常见问题的非必学内容，为学习者提供全面而深入的指导。</t>
+  </si>
+  <si>
+    <t>AI视频,兼职副业</t>
+  </si>
+  <si>
+    <t>其他资源，AI资源，副业资源，自媒体</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/426823dd5037</t>
+  </si>
+  <si>
+    <t>Adobe2025全家桶 Win版本</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/XFMrIcgns9mk2uO.jpg</t>
+  </si>
+  <si>
+    <t>每一次Adobe的更新都引起了广泛的关注，而每一次的更新也几乎没有令人失望，它总是带给我们惊喜和独特体验。而这次的更新也不例外。</t>
+  </si>
+  <si>
+    <t>软件</t>
+  </si>
+  <si>
+    <t>软件资源，绿色软件</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/60295115f60e</t>
+  </si>
+  <si>
+    <t>抖音直播间下载工具破解版  超全功能黑科技</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/eHSxicwvprDGXyC.jpg</t>
+  </si>
+  <si>
+    <t>抖音直播间下载工具是一款功能强大的黑科技软件，专为抖音直播内容的下载和录制而设计。它不仅支持高清、超清、蓝光等多种画质的下载，还具备多平台支持、自动录制、高效下载、多种格式转换和智能管理等功能。这款工具不仅适合个人用户，也非常适合直播内容创作者和运营者使用，帮助他们轻松获取和管理直播素材，提升工作效率。</t>
+  </si>
+  <si>
+    <t>神器,多功能</t>
+  </si>
+  <si>
+    <t>软件资源，绿色软件，副业资源，自媒体</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b0e854970b77</t>
+  </si>
+  <si>
+    <t>[软件开发] 【李述铜】从0到1手把手教你用嵌入式操作系统</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/6qs1xmMOb3c27lf.jpg</t>
+  </si>
+  <si>
+    <t>课程内容
+1、选用低成本的主流RTOS和硬件，节省学习费用和时间
+2、完整的知识体系。每个知识点围绕特定问题展开，PPT讲原理+写代码实现
+3、每章配套一个综合应用案例，学习知识点在实际如何应用
+所有问题来源于但高于实践，直面问题本质，学完可解决各种具体问题
+学完本课程后，你可以获得哪些受益？
+1、系统地掌握RTOS的工作原理及其应用
+2、用更短的时间、更少的精力，学习RTOS应用的相关知识
+3、掌握RTOS使用中最常见的本质问题的解决方案
+4、提升技术水平，为升职加薪跳槽提供资本</t>
+  </si>
+  <si>
+    <t>开发,嵌入式</t>
+  </si>
+  <si>
+    <t>学习资源，编程开发</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/9e649534b50a</t>
+  </si>
+  <si>
+    <t>Python企业级全技术栈开发</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/MlN7FKenbHfY3P9.jpg</t>
+  </si>
+  <si>
+    <t>Python企业级全技术栈开发涵盖前端、后端、数据库和网络通信等多个层面。前端开发常用框架如Django、Flask；后端处理业务逻辑与数据存储；数据库管理使用ORM工具如SQLAlchemy；网络通信通过Socket实现。该技术栈以Python为核心，简化开发流程，提高开发效率，适用于构建功能强大的企业级应用。</t>
+  </si>
+  <si>
+    <t>全栈</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/81d438ca6bdd</t>
+  </si>
+  <si>
+    <t>极客时间-梁宵-TypeScript开发实战</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/obNnVMcTgFL61rm.jpg</t>
+  </si>
+  <si>
+    <t>《极客时间-梁宵-TypeScript开发实战》是一门视频课程，由前阿里巴巴前端专家梁宵主讲。课程从TypeScript基础语法入手，逐步深入到类型系统、泛型、装饰器、高级类型等进阶内容，结合React、Vue等前端框架，通过实战项目演练，帮助学员全面掌握TypeScript开发技能，提升前端项目质量和开发效率。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/fa7468e09aa0</t>
+  </si>
+  <si>
+    <t>极客时间-吕召刚 - Django 快速开发实战</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/tKJwLnx9RmB2pkd.jpg</t>
+  </si>
+  <si>
+    <t>《极客时间-吕召刚-Django快速开发实战》是一门视频课程，由资深Python开发者吕召刚主讲。课程涵盖Django框架基础、项目创建与配置、模型设计、视图与模板、表单处理、用户认证与权限管理、RESTful API开发等核心内容，通过实战项目演练，帮助学员快速掌握Django开发技能，具备独立开发Web应用的能力。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/bd3db940c0c4</t>
+  </si>
+  <si>
+    <t>第22期自我管理训练营高阶</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/9ycQxDzfg53VXEI.jpg</t>
+  </si>
+  <si>
+    <t>第22期自我管理训练营高阶课程致力于帮助学员进阶自我管理技能，包括情绪管理、目标设定、决策策略等。课程注重实践与个性化指导，通过案例分析与团队合作，学员将深化自我认知，提升领导力与执行力，实现事业与生活的更高水平管理。</t>
+  </si>
+  <si>
+    <t>自我提升</t>
+  </si>
+  <si>
+    <t>学习资源，个人发展</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5ffe95115295</t>
+  </si>
+  <si>
+    <t>酒桌秘籍、实用攻略 酒桌通吃八方的秘籍《酒饮真经》</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/NtRiUFx3OGf29gc.jpg</t>
+  </si>
+  <si>
+    <t>谈起喝酒，几乎所有的人都有过切身体会，”酒文化”也是一个既古老而又新鲜的话题。现代人在交际过程中，已经越来越多地发现了酒的作用。
+的确，酒作为一种交际媒介，迎宾送客，聚朋会友，彼此沟通，传递友情，发挥了独到的作用，所以，探索一下酒桌上的”奥妙”，有助于你求人交际的成功。</t>
+  </si>
+  <si>
+    <t>社交职场</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/877108f0e577</t>
+  </si>
+  <si>
+    <t>私塾认知体系精进训练营课程</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/SK8BJPyrwIRzQ45.jpg</t>
+  </si>
+  <si>
+    <t>私塾认知体系精进训练营，致力于深度拓展个体认知边界。通过系统化学习与实践，课程涵盖认知科学、逻辑思维、问题解决与创新等核心模块，帮助学员建立全面有效的认知结构与应用能力。</t>
+  </si>
+  <si>
+    <t>长点知识</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3e7ba0983bf8</t>
+  </si>
+  <si>
+    <t>性感女神黄雅英瑜伽视频教程</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/yXgOenKRp6xUCkw.jpg</t>
+  </si>
+  <si>
+    <t>韩国瑜伽女神黄雅英合集2.mp4 
+韩国瑜伽女神黄雅英合集11.mp4 
+韩国瑜伽女神黄雅英合集1.mp4 
+韩国瑜伽女神黄雅英合集37.mp4 
+韩国瑜伽女神黄雅英合集6.mp4 
+韩国瑜伽女神黄雅英合集27.mp4 
+韩国瑜伽女神董雅英合集17.mp4 
+韩国瑜伽女神黄雅英合集5.mp4</t>
+  </si>
+  <si>
+    <t>美女</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e0ad38b56a97</t>
+  </si>
+  <si>
+    <t>自我管理训练初阶掌握主动权</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/TlPJ16xGbrZdk2q.jpg</t>
+  </si>
+  <si>
+    <t>"自我管理训练初阶"课程帮助学员掌握主动权，提升个人管理技能。学习内容包括目标设定、时间管理、优先事项处理等。通过实用技巧和案例分析，学员将学会有效规划、组织和执行任务，实现个人和职业目标。这门课程将帮助你在生活和工作中更加高效和自信地管理自己。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f26de14ba0bd</t>
+  </si>
+  <si>
+    <t>Gaga的富人成交艺术课堂</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/b7Ng9o81WOAkxzF.jpg</t>
+  </si>
+  <si>
+    <t>Gaga的富人成交艺术课堂是一门专注于富人成交技巧的课程。学员将学习高效的谈判策略、影响力技巧和人际关系建立方法。课程内容包括情绪控制、洞察力培养、沟通技巧等，帮助学员在商业和个人交易中取得成功。无论是寻求投资机会还是提升个人谈判能力，这门课程将帮助你成为富人成交艺术的行家。</t>
+  </si>
+  <si>
+    <t>学习资源，个人发展，副业资源，运营营销</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c1ea72ae1389</t>
+  </si>
+  <si>
+    <t>零基础教你做出高逼格让老板忍不住加薪的excel图表</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/2X3kJOamwSbYIUj.jpg</t>
+  </si>
+  <si>
+    <t>《零基础教你做出高逼格 让老板忍不住加薪的Excel图表》是一部专注于提升职场人士Excel图表制作技能的办公必备教程。该教程以视频形式呈现，通过MP4格式，使学习者能够随时随地学习，轻松掌握Excel图表制作的精髓。 在这部教程中，即使是零基础的学员也能从头开始，逐步学会如何制作出既专业又具有吸引力的Excel图表。教程涵盖了从基础操作到高级技巧的全方位内容，包括数据的整理、图表的类型选择、颜色的搭配、布局的调整等。通过详细的步骤演示和实用的技巧分享，学习者能够迅速提升自己在Excel图表制作方面的能力。</t>
+  </si>
+  <si>
+    <t>效率</t>
+  </si>
+  <si>
+    <t>学习资源，个人发展，兴趣技能</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/25c4de4d1bbe</t>
+  </si>
+  <si>
+    <t>米你课堂《摄影后期第16期》</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/Z8YFmdWuSs2M1TA.jpg</t>
+  </si>
+  <si>
+    <t>保姆级零基础 ps 修图教学，全程通俗易懂，带你少走 99% 弯路，小白快速进阶大神。</t>
+  </si>
+  <si>
+    <t>学习资源，兴趣技能</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/55f091628566</t>
+  </si>
+  <si>
+    <t>曲奇儿童摄影第十一期课程</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/b3LmPvoF9ugOwC4.jpg</t>
+  </si>
+  <si>
+    <t>曲奇儿童摄影第十一期课程专为希望精进儿童摄影技巧的摄影师设计。课程内容涵盖儿童摄影的基础理论、拍摄技巧、场景布置和后期处理。通过实战演练和专业指导，学员将学会捕捉儿童自然真实的瞬间，提升儿童摄影的艺术表达和技术水平。</t>
+  </si>
+  <si>
+    <t>摄影剪辑</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/670766f41acd</t>
+  </si>
+  <si>
+    <t>全能影视创作0基础到大神</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/ucDrfCqGYNm15JA.jpg</t>
+  </si>
+  <si>
+    <t>全能影视创作0基础到大神课程旨在从零开始教授影视制作的全过程。学员将学习剧本写作、拍摄技巧、后期制作等关键技能。通过理论与实践相结合的教学方式，课程帮助学员掌握从构思到成片的每一个步骤，培养成为影视创作领域的专业人才。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d95aef230be3</t>
+  </si>
+  <si>
+    <t>小可鲁贝洛斯水彩第14期课</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/1hEyJaQZDpOsgXG.jpg</t>
+  </si>
+  <si>
+    <t>小可鲁贝洛斯水彩第14期课程专为水彩画爱好者设计。课程内容包括水彩基础技巧、色彩论、风景与静物画技巧。通过系统的教学和丰富的实践活动，学员将掌握水彩画的核心技术，提升个人艺术表达能力，发掘自身独特的创作风格。</t>
+  </si>
+  <si>
+    <t>美工修图</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d300b682b284</t>
+  </si>
+  <si>
+    <t>心理学疗愈课程  超全大合集 书籍+mp3音频+视频课</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/p3Jvh4jTcBHbqUt.jpg</t>
+  </si>
+  <si>
+    <t>《心理学疗愈课程 超全大合集》是一套全面的心理学资源包，旨在帮助人们通过多种形式的学习和实践，提升心理健康水平。这套合集包括书籍、MP3音频和视频课程，内容丰富，形式多样，适合不同学习偏好的用户。不仅适合心理学爱好者，也非常适合希望通过自我学习提升心理健康的普通人群。通过系统的学习和实践，用户可以更好地理解自己，改善心理状态，过上更加健康和幸福的生活。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/061d20e728ac</t>
+  </si>
+  <si>
+    <t>黄家私塾《黄先生考霸训练营》</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/JOo5XPShDu1gC6t.jpg</t>
+  </si>
+  <si>
+    <t>黄家私塾《黄先生考霸训练营》是一套专注于考试备考能力提升的训练课程。该课程从记忆、语言、逻辑、数理四个维度出发，深入解析应试套路，帮助考生洞悉备考内核。通过系统的学习和训练，考生能够掌握高效的学习方法，提升学习效率，从而在考试中取得更好的成绩。该课程以实用、高效为特点，得到了广大考生的认可和好评。</t>
+  </si>
+  <si>
+    <t>学习资源，幼中小大学资源</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/676fe8135def</t>
+  </si>
+  <si>
+    <t>零基础4000词英语逆袭计划</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/4hDf8xTy1eBC25u.jpg</t>
+  </si>
+  <si>
+    <t>这个零基础4000词英语逆袭计划旨在帮助学员快速掌握英语核心词汇。通过系统化学习、记忆技巧和实践运用，学员将建立起扎实的词汇基础，提升听说读写能力。课程注重实用性，让学员在短时间内实现英语学习的逆袭，轻松驾驭日常交流与学习需求。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/56ac02f80fb5</t>
+  </si>
+  <si>
+    <t>毛毛虫《李洁老师英文绘本精讲课程》</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/JzbsiPVr5STZKXM.jpg</t>
+  </si>
+  <si>
+    <t>包含英文绘本精讲、英语儿歌教学、自然拼读和磨耳朵课程，从英语启蒙到英文绘本自主阅读，非常适合用来对还自己进行英语启蒙。</t>
+  </si>
+  <si>
+    <t>启蒙教育，教学</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/225727a94a82</t>
+  </si>
+  <si>
+    <t>人教版高中英语全套学习资料（MP3+MP4）含单词表</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/dkT1tOIeK2A4bnC.jpg</t>
+  </si>
+  <si>
+    <t>人教版高中英语全套学习资料（MP3+MP4）含单词表是一套专为高中生设计的英语学习资源，帮助学生全面提升英语听、说、读、写各方面的能力。这套资料以人教版高中英语教材为基础，结合了丰富的音频和视频材料，以及详细的单词表，为学生提供了一个全面而系统的学习平台。</t>
+  </si>
+  <si>
+    <t>英语人教版</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/75f7dcf82357</t>
+  </si>
+  <si>
+    <t>幼儿基础控笔技能训练资源包</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/14/DV9bt8arC6iSw1M.jpg</t>
+  </si>
+  <si>
+    <t>幼儿基础控笔技能训练资源包是一套专为幼儿设计的控笔练习材料，包含多种控笔训练游戏和练习册。通过趣味性的图案和逐步升级的训练难度，帮助幼儿掌握正确的握笔姿势，提高手腕灵活性和手部肌肉协调性，为日后的书写和绘画打下坚实基础。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/71f453451dde</t>
+  </si>
+  <si>
+    <t>《知音漫客》全集整理1-667全集</t>
   </si>
   <si>
     <t>无</t>
   </si>
   <si>
-    <t>AdGuard，最受欢迎的广告拦截程序，堪称去广告大杀器。Adguard安卓版无需ROOT权限，可拦截所有应用和浏览器的广告。具有广告内容拦截跟踪器（包括：广告拦截过滤器、社交过滤器、隐私过滤器、安全过滤器、自定义过滤器）、DNS过滤、HTTPS过滤、节省应用流量数据管理及隐身模式保护个人隐私功能。</t>
-  </si>
-  <si>
-    <t>公开</t>
-  </si>
-  <si>
-    <t>Android,广告拦截,AdGuard</t>
-  </si>
-  <si>
-    <t>软件源码，绿色软件</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/06edbd693b77</t>
-  </si>
-  <si>
-    <t>ADM v14.0.37多线程下载工具，百度无限速，专业直装版</t>
-  </si>
-  <si>
-    <t>ADM是一款功能强大的多线程下载工具，专为追求高效下载体验的用户设计。该版本具备百度网盘无限速下载的专业特性，无需额外设置即可享受满速下载服务，极大地提升了下载效率。作为专业直装版，ADM提供了丰富的下载管理和优化功能，如界面定制、文件夹选择、自动操作、错误恢复等，确保用户能够轻松管理下载任务并享受稳定可靠的下载体验。</t>
-  </si>
-  <si>
-    <t>Android,下载,工具,多线程,ADM</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/d21c9c8e17e6</t>
-  </si>
-  <si>
-    <t>Adobe Photoshop Express v15.8.220安卓PS神器，拍摄、编辑、分享，解锁高级版</t>
-  </si>
-  <si>
-    <t>Adobe Photoshop Express Pro 是全球闻名的 Adobe 公司开发的一款移动设备上的图画处理软件，Photoshop Express Pro 集拍摄、编辑、分享于一体，具有多种专业的图片编辑处理功用，自带几十种特效滤镜效果，支持 Raw 文件及无缝编辑 TIFF 图画，是款专业实用的安卓渠道图片处理美化工具。当之无愧的安卓 PS 神器。</t>
-  </si>
-  <si>
-    <t>Android,Photoshop,安卓,拍摄,解锁,高级,Adobe</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/9bcabce47880</t>
-  </si>
-  <si>
-    <t>Avast Cleanup - 清理工具 v24.18.0</t>
-  </si>
-  <si>
-    <t>Avast Cleanup是一款智能工具，一键释放空间，优化性能，延长电池寿命，确保设备始终快速、清洁、高效。</t>
-  </si>
-  <si>
-    <t>破解,绿色,Android,软件</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/2e45909171ef</t>
-  </si>
-  <si>
-    <t>B612v13.3.20B612咔叽相机，功能强大的拍照神器，解锁会员订阅版</t>
-  </si>
-  <si>
-    <t>B612咔叽相机是一款功能强大的拍照神器，它拥有智能美颜技术，能为用户打造超自然的美颜效果和靓丽脸型。同时，提供超过3000种动态贴纸、奇妙AR滤镜和百款品质滤镜，让每一张照片都充满创意与个性。此外，B612还支持GIF表情包制作、炫酷拼图等功能，满足用户多样化的拍照和美化需求。无论是自拍还是记录生活，B612咔叽相机都是不可多得的好帮手。</t>
-  </si>
-  <si>
-    <t>Android,会员,解锁,拍照</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/8dffc2a900d2</t>
-  </si>
-  <si>
-    <t>Battery Guru v2.3.9电池大师，手机电池优化软件，解锁付费版</t>
-  </si>
-  <si>
-    <t>BatteryGuru电池大师app是一款专为安卓手机用户打造的手机电池优化软件。软件可以查看手机的电池使用情况、健康状况、电池温度，后台应用的耗电情况，帮助大家更好地使用手机。</t>
-  </si>
-  <si>
-    <t>Android,电池,优化</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/26669428ad80</t>
-  </si>
-  <si>
-    <t>Duolingo - 多邻国高效学外语 v5.168.3</t>
-  </si>
-  <si>
-    <t>多邻国是一款非常有名的手机外语学习工具软件，大家可以通过这款软件来学习众多门的外语，零基础一样也可以轻松上手，为你带来更多的优质学习享受。</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/d81a67d9b84a</t>
-  </si>
-  <si>
-    <t>Easy Notes v1.2.64.0906全新易用的记事本软件，解锁专业版</t>
-  </si>
-  <si>
-    <t>一款适用于Android 的全新易用的记事本、笔记本、备忘录、彩色便利贴、提醒事项、加密笔记、记事应用程序。有了这个简单的记事本应用程序，您可以使用彩色背景和清单创建快速笔记，以帮助您轻松组织任务和生活。您也可以使用此笔记记录者将照片或音频添加到笔记中。</t>
-  </si>
-  <si>
-    <t>Android,笔记,备忘,专业版,解锁</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/aec401c2b6c4</t>
-  </si>
-  <si>
-    <t>ES文件浏览器 v4.4.2.7手机文件管理工具，解锁会员高级版</t>
-  </si>
-  <si>
-    <t>ES文件浏览器是一款功能强大的手机文件管理工具，解锁会员高级版，用户可以享受无广告干扰的使用体验，并获得更多高级功能。支持全面的文件管理操作，包括文件浏览、复制、移动、重命名、删除等，同时内置了压缩/解压、文本编辑、图片查看等实用工具。它还支持云存储服务绑定，方便用户管理云端文件。</t>
-  </si>
-  <si>
-    <t>Android,文件管理,解锁,工具</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/26d0f5c74019</t>
-  </si>
-  <si>
-    <t>iLovePDF - PDF编辑器和阅读器 v3.8.7</t>
-  </si>
-  <si>
-    <t>iLovePDF 将文档管理整合到一个地方，因此你可以通过你的Android智能手机和平板电脑进行完全无纸化的工作。</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/cba7d07f5e7f</t>
-  </si>
-  <si>
-    <t>Node Video - 专业视频编辑器 v6.55.1</t>
-  </si>
-  <si>
-    <t>Node Video 是最强大的手机视频编辑应用程序之一。凭借许多革命性的功能，您可以创造出您从未想象过的惊人效果！</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/3763026ae6f9</t>
-  </si>
-  <si>
-    <t>Photo Editor v10.7最强照片编辑器，P图神器，解锁高级版</t>
-  </si>
-  <si>
-    <t>Photo Editor v10.4，顶级照片编辑利器，集专业P图功能与创意工具于一身。解锁高级版后，尽享无限滤镜、高级编辑选项及独家特效，轻松打造专业级美图。无论是人像美化、风景修饰还是创意合成，一键操作，瞬间提升照片质感，让你的每一张作品都令人惊艳。</t>
-  </si>
-  <si>
-    <t>Android,P图,编辑,解锁,高级</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/c13d2797a720</t>
-  </si>
-  <si>
-    <t>PhotoDirector - 动态相片编辑 &amp; AI 照片编修 v19.6.0</t>
-  </si>
-  <si>
-    <t>PhotoDirector - 相片大师：动态相片编辑 &amp; AI 照片编修，最佳照片编辑器，全方位相片编辑功能，提升、美化照片，简单步骤让相片动起来！</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/c0abe439d68e</t>
-  </si>
-  <si>
-    <t>PhotoRoom - 编辑照片和背景 v5.3.5</t>
-  </si>
-  <si>
-    <t>无需再成为摄影师或设计专家：有了Photoroom，您可以在几秒钟内将您的照片变成专业品质的图像。我们的魔法？该应用程序可以自动裁剪图片中的人物和物体。</t>
-  </si>
-  <si>
-    <t>破解,绿色,Android,软件,PhotoRoom</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/04cb05788e0c</t>
-  </si>
-  <si>
-    <t>Pixelcut - AI照片编辑器 v0.8.6</t>
-  </si>
-  <si>
-    <t>Pixelcut 照片编辑器和图形设计师可帮助您在几秒钟内创建令人惊叹的图像。 Pixelcut 是一款一体化编辑器，它使用 AI 帮助您轻松创建图像。</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/49018853bd36</t>
-  </si>
-  <si>
-    <t>Pixiv v6.124.0汇聚了超多二次元原创及同人绘画作品投稿的平台</t>
-  </si>
-  <si>
-    <t>Pixiv是一个主要由日本艺术家所组成的虚拟社群应用，主体为 pixiv 插画艺术特化的社交网络服务网站。主要分享新兴的日本同人画、插画作品。每个参与者都有自己的主页并可以对作品评价打分。Pixiv 的特色在于作者会在里面放入分辨率很高的大图。不光有日本知名插画家，中国、韩国、美国……等国家的绘画高手也聚会于此互相交流。就算不懂日语，光是看画收集图片也是一种很令人高兴的事！</t>
-  </si>
-  <si>
-    <t>Android,绘画</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/45987b2ddefc</t>
-  </si>
-  <si>
-    <t>Polarr - 泼辣修图 v6.9.11</t>
-  </si>
-  <si>
-    <t>探索由全球泼辣创作者创作的数百万款泼辣滤镜，你也可以与朋友分享自己创建的滤镜。泼辣滤镜不是简单的静态滤镜，它除了可以编辑光效和色彩外，还可以包含自定义图层 、面部美化以及智能识别对象。泼辣滤镜同时可以应用于视频，只需下载泼辣24即可一键将泼辣滤镜应用于视频。使用泼辣滤镜，轻松传播你的个人美学。</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e97176156e9a</t>
-  </si>
-  <si>
-    <t>SD Maid SE v1.2.6安卓系统清理利器，一键释放存储空间</t>
-  </si>
-  <si>
-    <t>SD Maid SE 是一款强大的 Android 设备系统清理工具，能够帮助用户清理手机中不需要的文件和数据，提升设备性能并节省存储空间。它具备垃圾清理、文件浏览器、应用管理、系统清理和 SD 卡分析等功能。软件内置的功能强大的文件浏览器可以方便地浏览、复制、移动和删除文件。应用管理功能允许用户批量卸载、备份和还原应用程序，甚至禁用冻结应用程序。系统级清理功能可以清除系统日志、崩溃日志和错误报告。此外，SD Maid SE 提供了高度自定义的清理规则，确保不会误删重要文件。大部分功能无需 ROOT 权限即可使用，非常安全可靠。</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/86fea81dcb74</t>
-  </si>
-  <si>
-    <t>Snaptube - 视频下载器 v7.26.1.72672401</t>
-  </si>
-  <si>
-    <t>Snaptube是一款有着强大功能的可以直接下载视频，音乐，MV等资源的软件， 该软件中资源丰富，用户在这里是可以直接使用资源的，也可以免费下载。载任何音乐视频直接作为MP3格式文件，下载速度可观，轻松获得喜欢的音频资源，操作便捷简单，快速掌握软件使用技巧，资源高清优质，想要观看的影片一触即达，可以轻松下载。</t>
-  </si>
-  <si>
-    <t>破解,绿色,Android,软件,Snaptube</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/4a34d5b1db0f</t>
-  </si>
-  <si>
-    <t>VivaCut – 专业视频剪辑 v3.8.6</t>
-  </si>
-  <si>
-    <t>VivaCut是一款官方的专业视频剪辑软件， 拥有丰富、专业的视频剪辑工具和好莱坞级的视频编辑体验。 无论您是想制作好莱坞大片级电影，或是仅仅和朋友、家人一起分享回忆，Viva Cut都是您的最佳选择。</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a6fe8b51a624</t>
-  </si>
-  <si>
-    <t>VLLO v10.7.8视频编辑器，背景颜色，转换效果，移动贴纸等，解锁付费版</t>
-  </si>
-  <si>
-    <t>VLLO是一款功能强大的视频编辑器，，用户可尽情享受其丰富功能支持自定义视频背景颜色，轻松调整至心仪色调；提供多种转换效果，如渐隐、推开等，让视频过渡自然流畅；还允许用户自由移动贴纸，实现个性化装饰。VLLO还支持视频剪辑、添加字幕、背景音乐等高级功能，满足用户专业创作需求，是视频制作爱好者的理想选择。</t>
-  </si>
-  <si>
-    <t>Android,视频,编辑,解锁,VLLO</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/576f1b288447</t>
-  </si>
-  <si>
-    <t>Xodo佐道 – PDF阅读器&amp;编辑器 v9.4.3</t>
-  </si>
-  <si>
-    <t>佐道PDF阅读器（Xodo PDF Reader）是一个集PDF阅读和编辑功能于一身的全能PDF应用。</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a34a102c4580</t>
-  </si>
-  <si>
-    <t>X-plore - 文件管理器 v4.39.02</t>
-  </si>
-  <si>
-    <t>这是一个双窗格资源管理器，同时显示两个文件夹，并且将文件复制等常见操作从一个窗格完成到另一个窗格。X-plore 在树视图中显示文件夹层次结构，以便清晰定位并快速切换到其他位置。</t>
-  </si>
-  <si>
-    <t>破解,绿色,Android,软件,X</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/3c1814f37899</t>
-  </si>
-  <si>
-    <t>博树 v31.3.3Busuu语言学习，让语言学习变得更有趣，解锁高级版</t>
-  </si>
-  <si>
-    <t>博树 Busuu语言学习应用，将语言学习转化为趣味互动体验。通过丰富课程、个性化学习路径，让掌握新语言变得轻松高效。获得更多学习资源与深度评估，加速语言技能提升，让语言学习之旅更加精彩纷呈。</t>
-  </si>
-  <si>
-    <t>Android,外语,语言,博树</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/b8932d4e1618</t>
-  </si>
-  <si>
-    <t>滴答清单 TickTick v7.3.1.2解锁高级版 强大的待办事项管理工具</t>
-  </si>
-  <si>
-    <t>TickTick Pro 是一款强大的待办事项和任务管理应用，支持无缝云端同步。无论是计划行程、做备忘录、与家庭成员分享购物清单还是与同事协作，TickTick 都能帮助您轻松完成并保持生活轨迹。此版本已解锁高级功能，支持更多清单和任务数量、多个提醒以及多人协作。</t>
-  </si>
-  <si>
-    <t>TickTick,任务管理,Android,解锁高级版,日程管理,滴答清单</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/13b3e7983635</t>
-  </si>
-  <si>
-    <t>高考真题库3.0.0完全免费的历年高考真题库</t>
-  </si>
-  <si>
-    <t>高考真题库是一款提供历年高考真题的 app，完全免费，无任何广告，无需注册登录。软件支持科目和省份选择，提供详细的解析功能，并支持题目保存。无论是考生复习还是教师教学，都非常实用。丰富的题库资源帮助学生更好地准备高考，提升应试能力。</t>
-  </si>
-  <si>
-    <t>高考真题库,教育,Android,历年真题,免费使用</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/3f21a5e6a8b3</t>
-  </si>
-  <si>
-    <t>共生地球 v1.1.18高清卫星、外部测量、户外钓鱼地图，国产版谷歌地图</t>
-  </si>
-  <si>
-    <t>共生地球app作为国产版谷歌地图，集高清卫星影像、外部测量、户外钓鱼地图于一体。它依托54颗“吉林一号”卫星星座，提供全球高清遥感图源，支持地形地貌3D展示，并融合无人机航拍与全景图像，打造沉浸式地球探索体验。丰富的地理探索工具助力测绘规划，同时实时跟踪全球热点，赋能农业、公益及环境监测，是一款功能强大的地理信息应用。</t>
-  </si>
-  <si>
-    <t>Android,地图,地球,高清</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/0258d14a238d</t>
-  </si>
-  <si>
-    <t>古诗文网 v3.6.6发表及获取古诗文相关资料，官方更新版_去广告版</t>
-  </si>
-  <si>
-    <t>古诗文网是一款专为古诗文爱好者打造的应用。它提供了丰富的古诗文资源，涵盖了古代诗词、古文及文学名篇等，让用户能够便捷地发表及获取相关资料。应用界面简洁，无广告干扰，搜索功能强大，支持原文朗读及拼音显示，让用户享受纯净的阅读体验。</t>
-  </si>
-  <si>
-    <t>Android,新版,古诗文</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/8793daafad44</t>
-  </si>
-  <si>
-    <t>国中法律通识 v1.1.3学习法律知识，内含各种合同模板</t>
-  </si>
-  <si>
-    <t>国中法律通识是一款专注于法律知识学习与应用的手机软件。它涵盖了丰富的法律内容，包括民法、刑法等多个领域的知识。提供大量专业课程，以生动的案例和清晰的讲解，帮助用户理解抽象的法律概念。软件还内置多种实用工具和常用法律模板，方便用户快速撰写法律文件或解决具体问题。注意：文书模板和计算功能仅供参考，实际使用时请根据具体情况调整，复杂法律问题需咨询专业律师。</t>
-  </si>
-  <si>
-    <t>国中法律通识</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a942399b49d2</t>
-  </si>
-  <si>
-    <t>海阔视界 v8.58安卓浏览器，连刷微博、看知乎，强大观影神器</t>
-  </si>
-  <si>
-    <t>海阔视界强大观影工具，不光除了可以追剧，甚至连刷微博以及看知乎等，整个资源的分类也是超级详细的，可以方便你随时去搜索，海量的影视资源可以随时播放，还有热点直播以及资讯等，看知乎也是非常方便的，有些功能需要你手动的去安装操作的。</t>
-  </si>
-  <si>
-    <t>Android,浏览器,观影</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/9ae4325091d4</t>
-  </si>
-  <si>
-    <t>开发助手 v8.1.0快速调试应用开发助手，查看手机软硬件相关信息</t>
-  </si>
-  <si>
-    <t>开发助手是一个强大的Android开发工具，能够用来反编译其他应用、查看其他应用布局和控件信息、屏幕取色(颜色取样器)、查看Activity历史记录、查看应用Manifest、查看最近使用和最近安装的应用、提取任何应用Apk和So文件、查看开源项目、调试应用、查看手机软硬件信息等。</t>
-  </si>
-  <si>
-    <t>Android,开发,调试,硬件,开发助手</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/6480b55841e9</t>
-  </si>
-  <si>
-    <t>拷贝漫画 v2.2.3免费阅读大量的漫画，手机看番神器，去广告版</t>
-  </si>
-  <si>
-    <t>一个漫画阅读器，允许用户免费阅读大量的漫画。它可以向网络上的用户复制大量的卡通资源。因此，用户可以在这里得到他们喜欢的漫画，甚至是那些非常冷门的漫画，也很容易得到。</t>
-  </si>
-  <si>
-    <t>Android,阅读,漫画</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/c8cecf71e2c2</t>
-  </si>
-  <si>
-    <t>可乐下载器 v2.0.4一款好用的磁力解析下载工具，会员解锁版</t>
-  </si>
-  <si>
-    <t>可乐下载器是一款高效磁力解析下载利器，开放高级功能，支持多源下载，加速技术确保文件快速到手。界面简洁直观，操作流畅，轻松管理下载任务。满足用户各类资源下载需求，是磁力链接下载的不二之选。</t>
-  </si>
-  <si>
-    <t>Android,磁力,下载,工具,可乐下载器</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/7b468480ad7c</t>
-  </si>
-  <si>
-    <t>酷漫熊 v1.0.2免费漫画神器，去广告纯净版</t>
-  </si>
-  <si>
-    <t>酷漫熊是一款免费的漫画阅读神器，提供去广告纯净版体验。汇聚海量热门漫画资源，界面简洁友好，加载迅速，阅读流畅。支持多种阅读模式与个性化设置，满足不同用户的阅读需求，是漫画爱好者的理想选择。</t>
-  </si>
-  <si>
-    <t>Android,漫画,纯净版,酷漫熊</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a0ac9667e154</t>
-  </si>
-  <si>
-    <t>快影 v6.61.0.661002快影强大的视频编辑功能软件，去广告去水印版</t>
-  </si>
-  <si>
-    <t>快影v6.54.0.654002是一款功能强大的视频编辑软件，专为追求高效与创意的视频制作者打造。去广告去水印版让用户享受纯净编辑体验，无干扰地发挥创意。软件提供丰富的剪辑工具、滤镜特效及字幕模板，支持多轨道编辑、智能剪辑等功能，让视频制作更加专业、便捷。无论是短视频还是长片，快影都能助您轻松打造精彩作品。</t>
-  </si>
-  <si>
-    <t>Android,编辑,软件,视频</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/73d3e7f2de13</t>
-  </si>
-  <si>
-    <t>聆韵听书1.0.7去广告版，免费听书，界面美观，资源丰富</t>
-  </si>
-  <si>
-    <t>聆韵听书是一款免费听书软件，提供众多丰富、优质的有声书资源，让你一键播放听小说，随时沉浸在精彩的故事中。软件收录了全网热门书源，涵盖相声评书、小说、音乐、儿童等分类，你想听的都能搜到。目前无广告，体验非常不错。</t>
-  </si>
-  <si>
-    <t>聆韵听书</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/206ba29c3806</t>
-  </si>
-  <si>
-    <t>美图设计室 v6.5.10商业设计利器，海报、商品图处理，消除、智能抠图，解锁会员版</t>
-  </si>
-  <si>
-    <t>美图设计室作为商业设计的强大工具，集海报设计、商品图精修于一体，支持消除瑕疵与智能抠图功能，轻松打造专业级视觉效果。解锁会员版后，尽享无限创意素材与高级编辑权限，助力设计师高效完成创意作品。</t>
-  </si>
-  <si>
-    <t>Android,解锁,海报,会员,设计,商业,美图设计室</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a2d79ec7ce78</t>
-  </si>
-  <si>
-    <t>墨迹天气 v9.0878.02提供穿衣和出行建议，去广告解锁会员版</t>
-  </si>
-  <si>
-    <t>墨迹天气app，精准预报为您量身打造穿衣与出行建议。实时天气数据，全面生活指数，让您轻松应对天气变化，出行无忧，生活更精彩。</t>
-  </si>
-  <si>
-    <t>Android,天气</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/cc9b6e1aeabb</t>
-  </si>
-  <si>
-    <t>入梦AI变声器：免费AI实时变声器</t>
-  </si>
-  <si>
-    <t>入梦AI变声器是一款免费的支持Windows、Android和iOS多平台的实时变声软件，专为游戏直播和聊天设计。软件提供超过250种高品质变声模型，允许用户随意切换男女声并自定义细致的参数调整，支持上传模型来定制专属你自己的声音。</t>
-  </si>
-  <si>
-    <t>软件,AI,AI变声器,免费AI实时变声,入梦AI变声器</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/dfaf951b936c</t>
-  </si>
-  <si>
-    <t>扫描全能王 v6.72.5.2409050000智能扫描的领导者，解锁高级版</t>
-  </si>
-  <si>
-    <t>CamScanner，全球智能扫描的领导者。扫一扫是一款集文档扫描识别翻译、图片文字提取识别、PDF文档编辑、PDF加密、PDF转Word文档、文档防盗、电子签名等功能为一体的多功能智能扫描软件。 OCR识别，自动扫描，自动修边，图片美化，高清扫描，扫描文档一键转换成Word/Excel/PPT等格式，通过文档共享协同，多设备同步查看平台，支持全球无线打印、传真。</t>
-  </si>
-  <si>
-    <t>Android,扫描全能王,全能,解锁,高级</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/1c10350e6c76</t>
-  </si>
-  <si>
-    <t>速度下载 v1.0.8聚合解析下载支持短视频解析下载，去广告纯净版</t>
-  </si>
-  <si>
-    <t>速度下载App提供了56种资源下载，包括了各种磁力、直链、种子、网盘、无损音乐、壁纸、短视频，甚至还提供了视频剪辑等等，功能完全超乎想象。</t>
-  </si>
-  <si>
-    <t>Android,聚合解析,下载,速度下载</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/b185650c404c</t>
-  </si>
-  <si>
-    <t>网易有道词典 v10.1.4免费的全能翻译软件，去广告解锁会员版</t>
-  </si>
-  <si>
-    <t>网易有道词典是一款免费的全能翻译软件，功能强大。支持超过109种语言翻译，满足多种场景需求。软件内置多部权威词典，词库丰富，查词快又准。同时，支持拍照翻译、语音翻译、对话翻译等多种输入方式，让翻译更加便捷。网易有道词典还具备离线翻译功能，没有网络也能轻松查询。此次版本更新还带来了首页改版和AI升级，新增了20+AI功能，如全科答疑、写作神器、论文润色等，让用户体验更加清爽和智能。</t>
-  </si>
-  <si>
-    <t>Android,网易,词典,网易有道词典</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/3a28f03ab85b</t>
-  </si>
-  <si>
-    <t>微鲤万年历 v9.2.9原“中华万年历日历”，去广告解锁高级版</t>
-  </si>
-  <si>
-    <t>旧貌换新颜，中华万年历品牌全新升级为「微鲤万年历」。日历、日程、天气、记事、提醒，功能全，体积小、速度快、口碑好，我们还是那个3亿华人共同选择的中华万年历，依旧为新老历友们免费提供云服务，全球用户数量领先的跨平台日历APP，让时光充满乐趣！</t>
-  </si>
-  <si>
-    <t>Android,万年历,解锁,高级,微鲤万年历</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e80569e5a82a</t>
-  </si>
-  <si>
-    <t>悟空下载 v1.2.0超好用的磁力下载工具，免费无广告，解锁会员版</t>
-  </si>
-  <si>
-    <t>悟空下载是一款极致体验的磁力下载神器，免费且无广告。解锁会员版特权，畅享高速下载与全面功能，轻松应对各类磁力链接，让资源获取变得简单高效。界面清爽，操作便捷，是您不可多得的下载好帮手。</t>
-  </si>
-  <si>
-    <t>Android,磁力,免费,下载,工具,悟空下载</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/aee000cd33b7</t>
-  </si>
-  <si>
-    <t>相机360v9.9.42专门为需要美颜相机的小伙伴准备的软件，解锁高级版</t>
-  </si>
-  <si>
-    <t>相机360，美颜相机界的佼佼者，专为追求极致美颜效果的你打造。尽享海量滤镜、贴纸、特效及专业编辑工具，轻松拍出杂志封面级大片。实时美颜技术，自然细腻，让你的每一张照片都焕发光彩。</t>
-  </si>
-  <si>
-    <t>Android,相机,美颜</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/4d448c04e369</t>
-  </si>
-  <si>
-    <t>小红书 v8.52.0去除各种广告，加强、内置各种高级功能，内置红薯猪手模块</t>
-  </si>
-  <si>
-    <t>小红书是一款功能强大的生活分享平台应用，该版本去除了各类广告，提升了用户体验。它加强了内部功能，并内置了多种高级特性，包括红薯猪手模块，为用户提供更便捷、高效的操作体验。红薯猪手模块可能包含去水印下载、视频全屏沉浸、长按快进等实用功能，让用户能够更自由地浏览和分享内容。小红书app致力于打造一个更加纯净、高效的生活分享社区。</t>
-  </si>
-  <si>
-    <t>Android,小红书,去广告</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/6925e3224fe5</t>
-  </si>
-  <si>
-    <t>嗅觉浏览器 v6.59支持安装插件，无广告纯净版</t>
-  </si>
-  <si>
-    <t>嗅觉浏览器是一款支持安装多种插件的纯净版浏览器，界面清爽，全程无广告干扰，为用户打造高效、便捷的上网体验。该版本注重用户体验，功能强大且灵活，满足用户个性化浏览需求。</t>
-  </si>
-  <si>
-    <t>Android,浏览器,纯净版</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/2b94c51f7c2f</t>
-  </si>
-  <si>
-    <t>迅雷 v8.22.09443全网资源订阅，解锁不限速，去广告纯净版</t>
-  </si>
-  <si>
-    <t>提供海量资源，根据用户下载推荐更多喜欢的资源，下载资源文件越大，下载速度越快，并通过P2P加速、高速通道2大加速方式为资源提高速度。</t>
-  </si>
-  <si>
-    <t>Android,迅雷,纯净版</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/cd3948cce757</t>
-  </si>
-  <si>
-    <t>要知0.51一站式智能新闻聚合平台，轻松掌握天下事</t>
-  </si>
-  <si>
-    <t>在信息爆炸的时代，要知帮我解决了信息获取的难题。它不仅提供了一站式的资讯服务，包括新闻、热点、早报等内容，还能根据用户的阅读习惯推送个性化内容。此外，语音播报功能让您可以边做其他事情边听新闻，时间轴展示则帮助您更好地理解事件的发展脉络。我每天早上刷牙时都会听要知播报今日要闻，感觉整个人都更加充实了。其个性化推送也非常智能，经常能推送到我感兴趣的内容。</t>
-  </si>
-  <si>
-    <t>要知,新闻聚合,Android,智能推送,语音播报,个性化内容</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/8e813d8eae39</t>
-  </si>
-  <si>
-    <t>一木清单 v2.1.6非常好用的智能清单软件解锁会员版</t>
-  </si>
-  <si>
-    <t>非常好用的智能清单软件，无论是生活日历，生活记账，还是消费清单，都可以快速记录下来，并且制作表格，这样方便记录家庭，或者个人开销，非常的便捷，同时还能安排自己每天的工作内容。</t>
-  </si>
-  <si>
-    <t>Android,清单,解锁,会员,一木清单</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e71a9c85f542</t>
-  </si>
-  <si>
-    <t>一起看 v1.3.3免费看剧神器，手机版 _ TV版，去广告解锁会员版</t>
-  </si>
-  <si>
-    <t>一起看app是一款集免费看剧、适用于手机及TV端。用户可畅享高清影视资源，无需担心广告干扰，是追剧爱好者的优选工具。</t>
-  </si>
-  <si>
-    <t>Android,TV,会员,免费</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a346f7d68ab0</t>
-  </si>
-  <si>
-    <t>远离手机 v4.9.9.8.9手机定时锁屏软件，监督、统计时长，解锁高级版</t>
-  </si>
-  <si>
-    <t>远离手机app是一款高效的手机定时锁屏应用，专注于帮助用户管理手机使用时间，通过设定锁屏计划监督每日手机使用时长，并精准统计使用数据。支持一键锁屏，助力培养健康使用习惯。解锁高级版后，更享个性化设置与深度分析功能，全面优化数字生活平衡。</t>
-  </si>
-  <si>
-    <t>Android,计划,监督,高级版</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a6df699ab25e</t>
-  </si>
-  <si>
-    <t>资源全能王 v1.3.9一站式资源搜索神器，去广告解锁会员版</t>
-  </si>
-  <si>
-    <t>资源全能王是一款高效的一站式资源搜索神器提供全面资源搜索能力，涵盖视频、音乐、文档等多种类型，帮助用户快速找到所需内容，提升信息获取效率，体验无缝资源探索之旅。</t>
-  </si>
-  <si>
-    <t>Android,搜索,解锁,资源全能王</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/de9038948be4</t>
-  </si>
-  <si>
-    <t>黑神话悟空 四十二项修改器 v1.0</t>
-  </si>
-  <si>
-    <t>修改器界面简洁、体积小巧、功能强大，致力于为玩家提供便捷的游戏体验。玩家可根据个人喜好和需求，轻松调整游戏内的数值设定。</t>
-  </si>
-  <si>
-    <t>PC游戏,黑神话悟空,辅助工具</t>
-  </si>
-  <si>
-    <t>软件源码，游戏资源</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/12979570b3c9</t>
-  </si>
-  <si>
-    <t>《黑神话：悟空》Blender 模型</t>
-  </si>
-  <si>
-    <t>包括 PSK 文件、纹理、材质和骨骼等，不仅精准复刻了游戏中角色与装备的精髓，更在细节处理上达到了极致，使得角色显得更加生动逼真。可用于渲染效果测试或学习。</t>
-  </si>
-  <si>
-    <t>黑神话悟空,Blender,建模,模板</t>
-  </si>
-  <si>
-    <t>文档书籍，办公模版</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a3886d6af60e</t>
-  </si>
-  <si>
-    <t>168套别墅设计CAD图纸</t>
-  </si>
-  <si>
-    <t>168套别墅设计CAD图纸是一套全面且多样化的别墅设计资源，涵盖了各种风格（如欧式、中式、现代等）和类型（如独栋、双拼、联排等）的别墅设计施工图。这些图纸以DWG格式提供，便于使用CAD软件进行查看和编辑。图纸内容详尽，包括别墅的平面布局、立面设计、结构细节等，为设计师和建筑爱好者提供了丰富的设计灵感和参考。</t>
-  </si>
-  <si>
-    <t>书籍,别墅,设计,CAD,图纸</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a92c0f783b1b</t>
-  </si>
-  <si>
-    <t>200套专业财务表格</t>
-  </si>
-  <si>
-    <t>📈200套专业财务表格，专为财务工作者精心设计，覆盖预算管理、成本控制、财务分析、税务筹划等多个财务领域。表格模板内容详尽，逻辑清晰，易于操作，能够有效提升财务工作效率，确保数据准确无误，助力企业实现精细化财务管理。</t>
-  </si>
-  <si>
-    <t>模板,财务,表格,Excel</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/efd845bc808f</t>
-  </si>
-  <si>
-    <t>《337晨读》小学语文同步辅导资料 (部编版)</t>
-  </si>
-  <si>
-    <t>"337晨读法"强调的是朗读而不是背诵，背诵只不过是附属产物，要让孩子享受阅读的过程，养成一个坚持阅读的好习惯。孩子在没有压力的情况下，抑扬顿挫地读出文字内容，去体会和理解文字传递的观点、含义和情感，最后达到理解基础上成诵的结果。</t>
-  </si>
-  <si>
-    <t>小学,语文,阅读,337晨读</t>
-  </si>
-  <si>
-    <t>文档书籍，试卷教辅，学习资源，幼中小大学资源</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a5d5040c786b</t>
-  </si>
-  <si>
-    <t>淘宝无人直播最新玩法，九月测试十月外放，不出镜零粉丝零保证金，24小时无值守，新手1-3天必见收益【揭秘】</t>
-  </si>
-  <si>
-    <t>淘宝无人直播躺赚项目10月份正式外放，团队经过九月份一个月的测试更新，推出了最新玩法
-优点：
-1、无需真人出镜，即可开启无人直播，大幅度节省成本时间；
-2、最新玩法基本上可以无违规，无封号；
-3、无粉丝要求，无需保证金，真正零门槛创业；
-4、新手开播1-3天必见收益。</t>
-  </si>
-  <si>
-    <t>副业资源，电商</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/8d17a5da08db</t>
-  </si>
-  <si>
-    <t>黑马38天短视频实战训练营</t>
-  </si>
-  <si>
-    <t>价值999元的黑马38天短视频实战训练营。
-通过本课程可以帮助学员快速掌握短视频制作与运营技巧。课程涵盖创意策划、拍摄剪辑、内容营销等实用技能，通过实战演练与案例分析，助力学员在短视频领域脱颖而出，实现个人品牌与商业价值的提升。</t>
-  </si>
-  <si>
-    <t>副业资源，短视频</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e32cdd9fc183</t>
-  </si>
-  <si>
-    <t>0基础，0粉丝，抖音带货100万</t>
-  </si>
-  <si>
-    <t>零基础，零粉丝起步，通过精准定位、优质内容创作及高效互动，巧妙结合热门趋势与产品特色，利用抖音平台流量机制，短时间内吸引大量关注，实现带货百万佳绩。这要求极高的市场洞察力、内容创新力及执行力。</t>
-  </si>
-  <si>
-    <t>带货,抖音</t>
-  </si>
-  <si>
-    <t>副业资源，自媒体</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/531725f46531</t>
-  </si>
-  <si>
-    <t>抖音发行人风口玩法，一单30，日入3000【揭秘】</t>
-  </si>
-  <si>
-    <t>大家好，相信大家都听说过抖音游戏发行人计划，但是一般做视频的收益都低的离谱，今天给带来的项目是“抖音发行人风口玩法，一单30，日入3000+”，这个项目不需要去花冤枉钱也是我自己实操过的项目，只要跟着做，都能够单个视频变现3000+，通过第三方合规渠道去变现赚取差价，月入过万很轻松，一部手机即可操作，懒人或者小白轻松上手.下面是教程和准备好的全套资料。</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/87cf0aa71ff3</t>
-  </si>
-  <si>
-    <t>视频号人性玩法，让你起号，广告双份收入，副业好选择【揭秘】</t>
-  </si>
-  <si>
-    <t>解锁视频号新玩法，探索人性共鸣的奥秘!在这里，不仅让你的视频号快速起号，还能轻松实现广告双份收入，副业之路从此畅通无阻!我们教你如何精准捕捉观众情感，打造引人入胜的内容，让每一次发布都成为引爆流量的火花。无需复杂技巧，只需深入理解人性，你就能在这个视频时代脱颖而出，成为广告商争相合作的热门KOL。别让机会擦肩而过，加入我们，一起开启视频号的人性化盈利之旅，让副业比主业更闪耀!</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/b089076e358d</t>
-  </si>
-  <si>
-    <t>小红书养号秘籍，如何自动涨粉清晰系统标签打造高权重账号【揭秘】</t>
-  </si>
-  <si>
-    <t>小红书养号秘籍，如何自动涨粉清晰系统标签打造高权重账号【揭秘】，夸克网盘资源下载。</t>
-  </si>
-  <si>
-    <t>短视频,小红书,小红书养号秘籍</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/c1769889782a</t>
-  </si>
-  <si>
-    <t>AI商业实战掘金课：零基础小白也能轻松上手创收</t>
-  </si>
-  <si>
-    <t>AI商业实战掘金课是一门专为零基础小白设计的创收课程。该课程通过系统化的教学，帮助学员掌握AI技术在商业领域的应用，包括数据分析、机器学习模型搭建、智能推荐系统等。通过实战案例，学员能够轻松上手，将AI技术转化为实际商业价值，实现个人的收入增长。</t>
-  </si>
-  <si>
-    <t>AI,零基础,商业</t>
-  </si>
-  <si>
-    <t>其他资源，AI资源，副业资源</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/ab6c0c51266c</t>
-  </si>
-  <si>
-    <t>华为访谈录 [经济管理] [pdf+全格式]</t>
-  </si>
-  <si>
-    <t>华为是如何发展到今天的？任正非是一个怎样的人？关于这两个问题，有各种各样的来自各个方面的解答，唯独华为人自己的声音不是很多。华为公司顾问田涛在2013年至2019年6年时间内，对华为上至高层下至普通员工共几百人进行了访谈，《华为访谈录》是这些访谈的第一部结集成果。...</t>
-  </si>
-  <si>
-    <t>经济管理,电子书,图书,pdf,epub</t>
-  </si>
-  <si>
-    <t>文档书籍，图书小说</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/c62039ebd9e1</t>
-  </si>
-  <si>
-    <t>口述历史开创者：唐德刚经典作品集.2（共6册） [套装合集] [pdf+全格式]</t>
-  </si>
-  <si>
-    <t>本套书是海内外公认的史学大家唐德刚经典作品的合集，包含《从晚清到民国》《书缘与人缘》《史学与红学》《胡适杂忆》《历史的三峡》六部作品。内容涉及中国近代史上的众多历史事件和人物，史料丰富，文笔洒脱，题材稀缺，弥足珍贵，是了解中国近代史绕不过去的经典。《从晚清到民国》：曲折动荡的长江三峡，是中国人的骄傲，也是中国自然史上的潮信地带。鸦片战争，揭开了十九世纪开始的中国两千年一遇的“社会文化大转型”现象的序幕。在史学大家唐德刚的慧眼中，“人文史观”一如“自然史观”，1840年的一场战争不仅掀起了中国社会政治形态的大变革，也使历史长河须历经百年的诡谲动荡，方能通过三峡进入壮阔的太平洋。...</t>
-  </si>
-  <si>
-    <t>套装合集,电子书,图书,pdf,epub,口述历史开创者</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/650eed782c69</t>
-  </si>
-  <si>
-    <t>儒学新论 [人文社科] [pdf+全格式]</t>
-  </si>
-  <si>
-    <t>为黑龙江大学“龙江哲学研究丛书”一本。本书从人物研究、概念研究、比较研究、宏观研究四个方面展现儒学的发展与构成，展现儒学发展的契机和出路。1.人物研究：儒学是由不同时期的儒学人物建构的，对儒家的人物思想的把握对于理解儒学不可或缺。本研究以儒学人物为个案，将孔子、孟子、荀子、董仲舒、韩愈、二程、张载、朱熹、陆九渊、王守仁、王夫之、颜渊、戴震和康有为等儒家人物纳入研究视野。2.概念研究：儒家哲学具有自身的逻辑系统和话语结构，这些离不开概念、范畴。厘清基本概念、主要范畴对于理解儒学的哲学理念和基本主张是必要的，也是基础性的。诸多关于儒学问题的争议即缘于此，本研究旨在通过这方面的研究还原儒学的本义。...</t>
-  </si>
-  <si>
-    <t>人文社科,电子书,图书,pdf,epub</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/96f5e5630557</t>
-  </si>
-  <si>
-    <t>醒来的女性系列（套装共5册） [套装合集] [pdf+全格式]</t>
-  </si>
-  <si>
-    <t>精选未读女性话题书目，从身体、婚姻、职场、爱情和觉醒五个方面，直击女性所面临的困境和觉醒之路。每一位女性都值得怀抱自己的梦想，我们不只是别人的另一半，我们还是我们自己！困境觉醒篇：醒来的女性（全球销量2000万册，豆瓣评分8.8，翻译为22种语言，金智英们应该懂的道理，被它写尽了！我们不只是别人的另一半，我们还是我们自己。）★一部小说版的《第二性》！这是我们母亲一代的故事，这也是我们自己不曾深想的生活。...</t>
-  </si>
-  <si>
-    <t>套装合集,电子书,图书,pdf,epub</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/9178f3705f0a</t>
-  </si>
-  <si>
-    <t>中华书局出版社精选500册</t>
-  </si>
-  <si>
-    <t>中华书局出版社精选的500册古籍和学术著作，涵盖了国学、历史、文学等多个领域。这些书籍均为古典古籍，质量极高，收藏价值不菲。其中不乏《四库全书总目》、《二十四史全译》等重量级作品，由资深专家历经多年编纂而成。这些精选书籍不仅展现了中华文化的博大精深，也为读者提供了深入学习和研究的宝贵资源。</t>
-  </si>
-  <si>
-    <t>书籍,中华书局,精选</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/86d506d8e03c</t>
-  </si>
-  <si>
-    <t>儿童有声读物《晚安妈妈睡前故事》</t>
-  </si>
-  <si>
-    <t>儿童益智有声读物，用好听的故事和有趣的情节陪伴孩子，让他们每个夜晚都有甜蜜的收获。</t>
-  </si>
-  <si>
-    <t>儿童教育,睡前故事,有声读物</t>
-  </si>
-  <si>
-    <t>文档书籍，有声读物</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/6b017db08b07</t>
-  </si>
-  <si>
-    <t>《语文极简学习法》语文高分的秘密</t>
-  </si>
-  <si>
-    <t>作者立足“学霸”和命题人思维，简约、高效、科学地阐释了语文学习的底层逻辑与实用策略，为渴望提升语文成绩的广大学生提供了一把短时高效的金钥匙，开启了一条事半功倍的“极简”语文成功之路。
-提供PDF、azw3、mobi、epub格式。</t>
-  </si>
-  <si>
-    <t>语文,图书</t>
-  </si>
-  <si>
-    <t>学习资源，幼中小大学资源</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/f878216d227e</t>
-  </si>
-  <si>
-    <t>葛剑雄讲中国史</t>
-  </si>
-  <si>
-    <t>历史学家、复旦大学教授葛剑雄讲述中国历史的血脉精神，在兴衰、传承与变迁中，寻找中国历史的源与流。</t>
-  </si>
-  <si>
-    <t>历史</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/4bb84ce58d9c</t>
-  </si>
-  <si>
-    <t>黄夫人《高考物理一轮复习视频课》</t>
-  </si>
-  <si>
-    <t>紧跟讲义，包括运动学、电学实验、曲线运动、万有引力等，十分适合高中物理成绩不好的同学学习。</t>
-  </si>
-  <si>
-    <t>高中,物理</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/9cccc2f85a9d</t>
-  </si>
-  <si>
-    <t>快手汤老师英语课程合集</t>
-  </si>
-  <si>
-    <t>包括自然拼读、高级发音技巧、语法课精讲等内容，帮助你系统提升英语学习能力。</t>
-  </si>
-  <si>
-    <t>英语</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/43f2fc25d440</t>
-  </si>
-  <si>
-    <t>厉老师1-6年级系统数学思维提升课</t>
-  </si>
-  <si>
-    <t>厉老师1-6年级系统数学思维提升课是一套全面而深入的数学课程，专为小学1至6年级的学生设计。厉老师凭借其丰富的教学经验和深厚的数学功底，将抽象的数学概念转化为生动有趣的实例，帮助学生轻松掌握数学知识。课程系统性强，从基础知识讲起，逐步引入更高级的数学概念，构建完整的数学思维体系。</t>
-  </si>
-  <si>
-    <t>数学,小学,提升</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/286d836ca3f5</t>
-  </si>
-  <si>
-    <t>11天腰臀腿塑形课 健身减肥塑形</t>
-  </si>
-  <si>
-    <t>健身养生</t>
-  </si>
-  <si>
-    <t>学习资源，个人发展</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/d95d9122c449</t>
-  </si>
-  <si>
-    <t>38天成为销售高手蜕变营课</t>
-  </si>
-  <si>
-    <t>38天成为销售高手蜕变营课程旨在通过密集训练快速提升销售技能。课程涵盖市场分析、客户心理、谈判技巧等核心内容，结合实战演练和案例分析，帮助学员深入理解销售流程，提升沟通与闭单能力，快速从销售新手成长为销售高手。</t>
-  </si>
-  <si>
-    <t>职场关系</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/cfcb2f64f794</t>
-  </si>
-  <si>
-    <t>普通人快速逆袭的26堂必修课  《超级演说家》全国总冠军亲授</t>
-  </si>
-  <si>
-    <t>《普通人快速逆袭的26堂必修课》是由《超级演说家》全国总冠军刘媛媛亲授的一套实用课程。这套课程旨在帮助普通人通过系统的学习和实践，实现快速逆袭，取得人生的成功。
-刘媛媛以自身从农村考上北大、成为演讲冠军、创办公司的经历为例，分享了她在学习、演讲、职业发展等方面的宝贵经验。课程内容涵盖了学习方法、时间管理、演讲技巧、职业规划等多个方面，提供了具体的策略和实用的技巧，帮助学员提升个人能力，突破自我限制。</t>
-  </si>
-  <si>
-    <t>付费,逆袭,刘媛媛</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/df8ab5484350</t>
-  </si>
-  <si>
-    <t>职场人士必备实操课：职场进阶心法、加快个人成长原则，助你解决职业困惑</t>
-  </si>
-  <si>
-    <t>这是一门针对职场人士的实战课程，适合对未来迷茫、不知如何规划的职场小白、老鸟和精英。课程涵盖了职业选择、职业规划、面试跳槽方法论和职场核心技巧等内容，旨在帮助学员提升职场竞争力。</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a8d2cd8aeda4</t>
-  </si>
-  <si>
-    <t>摩吉影像全能婚礼创作社区2.0</t>
-  </si>
-  <si>
-    <t>摄影剪辑</t>
-  </si>
-  <si>
-    <t>学习资源，兴趣技能</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/734b5bd3150c</t>
-  </si>
-  <si>
-    <t>王慧志硬笔书法课程</t>
-  </si>
-  <si>
-    <t>王慧志的硬笔书法课程是一套针对硬笔书法学习的系统教程。该课程由王慧志老师主讲，他不仅是华南师范大学《硬笔书法》的主讲老师，还是中国硬笔书法协会的会员，具备丰富的书法教学经验和深厚的书法功底。  在课程中，王慧志老师从基础的握笔姿势、基本笔画讲起，深入剖析了八大基本笔画的写法，并通过即时书写的方式，在镜头前清晰、直观地为观众展示笔画的形状、节奏和角度，使学习者能够直观地理解和掌握硬笔书法的精髓。</t>
-  </si>
-  <si>
-    <t>硬笔,书法</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/414486906b16</t>
-  </si>
-  <si>
-    <t>产品经理学习工作资料最全合集2024年各大机构最新版合集</t>
-  </si>
-  <si>
-    <t>专为产品经理量身打造，汇集了各大知名机构的最新课程和资料，涵盖了产品管理的各个方面，包括产品设计、用户体验、市场分析、项目管理等。无论是初学者还是资深产品经理，都能在这套资料中找到适合自己的学习内容。通过系统的学习和实践，您将掌握最新的行业动态和实战技巧，提升职业竞争力。</t>
-  </si>
-  <si>
-    <t>产品经理,付费,合集</t>
-  </si>
-  <si>
-    <t>学习资源，编程开发</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e0e5cbd39961</t>
-  </si>
-  <si>
-    <t>陈超-Android音视频图像处理NDK专家班（FFmpeg、OpenGLES、OpenCV）</t>
-  </si>
-  <si>
-    <t>陈超-Android音视频图像处理NDK专家班，专注于FFmpeg、OpenGLES、OpenCV等核心技术，通过实战课程深入讲解音视频处理与图像处理的原理与应用。课程由经验丰富的专家授课，涵盖从基础到进阶的全面内容，培养学员在Android音视频图像处理领域的专业能力。</t>
-  </si>
-  <si>
-    <t>安卓,音视频,OpenGL,OpenCV</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/77ea1f77917b</t>
-  </si>
-  <si>
-    <t>极客时间-python进阶训练营</t>
-  </si>
-  <si>
-    <t>《极客时间-Python进阶训练营》是一个系统性的在线学习课程，帮助学员深入掌握Python编程语言。课程覆盖Python高级特性、数据结构、算法优化、并发编程、网络编程、Web开发等核心内容，通过实战项目与代码挑战，提升学员的编程能力和解决问题的能力，助力学员在Python开发领域取得更大的进步。</t>
-  </si>
-  <si>
-    <t>极客时间,python</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/2824af090193</t>
-  </si>
-  <si>
-    <t>极客时间-彭婧田 - TensorFlow 快速入门与实战</t>
-  </si>
-  <si>
-    <t>《极客时间-彭婧田-TensorFlow快速入门与实战》是一门视频课程，由TensorFlow官方认证讲师彭婧田主讲。课程从TensorFlow基础入门，逐步深入到神经网络模型构建、模型训练与优化、实战项目应用等，帮助学员快速掌握TensorFlow框架，具备进行深度学习模型开发与应用的能力。</t>
-  </si>
-  <si>
-    <t>极客时间,TensorFlow,实战</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/243214c942b1</t>
-  </si>
-  <si>
-    <t>极客学院安卓Android全套视频教程+源码</t>
-  </si>
-  <si>
-    <t>极客学院安卓Android全套视频教程+源码是一套全面覆盖Android开发从基础到进阶的实战课程。通过系统视频讲解，结合丰富的项目实战案例，深入浅出地教授Android应用开发技术，包括UI设计、控件使用、Activity与Fragment管理、网络编程、数据存储、多媒体处理及性能优化等。附带完整源码，帮助学习者边学边练，快速掌握Android开发技能，实现从零到精通的飞跃。</t>
-  </si>
-  <si>
-    <t>安卓,开发,编程</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/de808a3f1a45</t>
-  </si>
-  <si>
-    <t>马士兵教育-PostgreSQL关系型数据库（分章节版）</t>
-  </si>
-  <si>
-    <t>马士兵教育-PostgreSQL关系型数据库（分章节版）是马士兵教育官网推出的课程，系统介绍了PostgreSQL这一功能强大的开源数据库系统。课程涵盖了PostgreSQL的特点、安装配置、基本操作、数据类型、图形化界面操作等内容，帮助学员快速掌握PostgreSQL的使用和开发技巧，提升数据库管理和应用能力。</t>
-  </si>
-  <si>
-    <t>数据库,PostgreSQL,编程</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/8986a354b8dc</t>
-  </si>
-  <si>
-    <t>博学谷Android在线就业班</t>
-  </si>
-  <si>
-    <t>博学谷Android在线就业班是专为Android开发者设计的高质量课程，涵盖Android开发核心技术及实战项目，通过系统学习和实战演练，提升学员的Android开发能力并实现高薪就业。确保学员能够掌握扎实的知识和技能，快速适应市场需求，实现职业腾飞。</t>
-  </si>
-  <si>
-    <t>Android,就业班</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/284db06d5c61</t>
+    <t>《知音漫客》是中国知名的漫画杂志，创刊于2006年1月。该杂志以全彩印刷、内容丰富多样而著称，迅速在国内漫画市场上崭露头角。经过多年的发展，《知音漫客》已经成为每月发行量超过400万册的周刊类杂志，深受读者喜爱。
+《知音漫客》全集整理1-667集包含了从创刊至今的所有期刊，涵盖了众多经典漫画作品和新锐创作。杂志分为“锐幻萌燃”四个系列，致力于为读者提供精彩纷呈的漫画故事和丰富的阅读体验。</t>
+  </si>
+  <si>
+    <t>未发布</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/77f6330b1d79</t>
   </si>
 </sst>
 </file>
@@ -2106,12 +2137,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I222"/>
+  <dimension ref="A1:I190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A67" sqref="$A67:$XFD70"/>
+      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.9074074074074" defaultRowHeight="14.4"/>
@@ -2120,7 +2151,7 @@
     <col min="2" max="2" width="8.5462962962963" customWidth="1"/>
     <col min="3" max="3" width="19.1759259259259" customWidth="1"/>
     <col min="4" max="4" width="12.9074074074074" customWidth="1"/>
-    <col min="5" max="5" width="47.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="26.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="35" customWidth="1"/>
     <col min="7" max="7" width="12.9074074074074" customWidth="1"/>
     <col min="8" max="8" width="40" customWidth="1"/>
@@ -2182,21 +2213,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" ht="14" customHeight="1" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>14</v>
@@ -2205,24 +2236,24 @@
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>14</v>
@@ -2231,25 +2262,23 @@
         <v>0</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
@@ -2257,562 +2286,564 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G7" s="1">
         <v>0</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" ht="14" customHeight="1" spans="1:8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="F19" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
@@ -2821,1659 +2852,1307 @@
         <v>105</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" spans="1:8">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" spans="1:8">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" spans="1:8">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:8">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" spans="1:8">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>191</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="G43" s="1">
         <v>0</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>173</v>
-      </c>
+      <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="G44" s="1">
         <v>0</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>177</v>
-      </c>
+      <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>14</v>
+        <v>207</v>
       </c>
       <c r="G45" s="1">
         <v>0</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>210</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>14</v>
+        <v>207</v>
       </c>
       <c r="G46" s="1">
         <v>0</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>215</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>14</v>
+        <v>224</v>
       </c>
       <c r="G48" s="1">
         <v>0</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>227</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="D49" t="s">
         <v>12</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>193</v>
-      </c>
+      <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>232</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="G50" s="1">
         <v>0</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>198</v>
+        <v>235</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>237</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="G51" s="1">
         <v>0</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>242</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>14</v>
+        <v>245</v>
       </c>
       <c r="G52" s="1">
         <v>0</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>248</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="G53" s="1">
         <v>0</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>210</v>
+        <v>252</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>254</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>212</v>
+        <v>255</v>
       </c>
       <c r="D54" t="s">
         <v>12</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>14</v>
+        <v>257</v>
       </c>
       <c r="G54" s="1">
         <v>0</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>214</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>260</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>216</v>
+        <v>261</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>217</v>
+        <v>262</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="G55" s="1">
         <v>0</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>219</v>
+      <c r="H55" s="2" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>220</v>
+        <v>265</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>266</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>221</v>
+        <v>267</v>
       </c>
       <c r="D56" t="s">
         <v>12</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>222</v>
+        <v>268</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="G56" s="1">
-        <v>0</v>
+        <v>9.99</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>224</v>
+        <v>270</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>225</v>
+        <v>271</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>272</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>226</v>
+        <v>273</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>227</v>
+        <v>274</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="G57" s="1">
-        <v>0</v>
+        <v>9.99</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>228</v>
+        <v>275</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>277</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>230</v>
+        <v>278</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>231</v>
-      </c>
+      <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="G58" s="1">
-        <v>0</v>
+        <v>9.99</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>232</v>
+        <v>279</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>233</v>
+        <v>280</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>281</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>234</v>
+        <v>282</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>235</v>
-      </c>
+      <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="G59" s="1">
-        <v>0</v>
+        <v>9.99</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="60" customFormat="1" spans="1:8">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>238</v>
+        <v>284</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>285</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>239</v>
+        <v>286</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
       </c>
-      <c r="E60" s="1"/>
+      <c r="E60" s="1" t="s">
+        <v>287</v>
+      </c>
       <c r="F60" s="1" t="s">
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="G60" s="1">
         <v>0</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="61" customFormat="1" spans="1:8">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>242</v>
+        <v>290</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>291</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>243</v>
+        <v>292</v>
       </c>
       <c r="D61" t="s">
         <v>12</v>
       </c>
-      <c r="E61" s="1"/>
+      <c r="E61" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="F61" s="1" t="s">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="G61" s="1">
         <v>0</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="62" customFormat="1" spans="1:8">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>246</v>
+        <v>295</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>296</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>247</v>
+        <v>297</v>
       </c>
       <c r="D62" t="s">
         <v>12</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="G62" s="1">
         <v>0</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="63" customFormat="1" spans="1:8">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>301</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>252</v>
+        <v>302</v>
       </c>
       <c r="D63" t="s">
         <v>12</v>
       </c>
-      <c r="E63" s="1"/>
+      <c r="E63" s="1" t="s">
+        <v>303</v>
+      </c>
       <c r="F63" s="1" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="G63" s="1">
         <v>0</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="64" customFormat="1" spans="1:8">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>254</v>
+        <v>305</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>306</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>255</v>
+        <v>307</v>
       </c>
       <c r="D64" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="1"/>
+      <c r="E64" s="1" t="s">
+        <v>287</v>
+      </c>
       <c r="F64" s="1" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="G64" s="1">
         <v>0</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="65" customFormat="1" spans="1:8">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>257</v>
+        <v>309</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>258</v>
+        <v>311</v>
       </c>
       <c r="D65" t="s">
         <v>12</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>249</v>
+        <v>312</v>
       </c>
       <c r="G65" s="1">
         <v>0</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="66" customFormat="1" spans="1:8">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>261</v>
+        <v>314</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>315</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>263</v>
+        <v>317</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="G66" s="1">
         <v>0</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>265</v>
+        <v>319</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>321</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>267</v>
+        <v>322</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>268</v>
-      </c>
+      <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>269</v>
+        <v>323</v>
       </c>
       <c r="G67" s="1">
         <v>0</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>270</v>
+        <v>324</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>326</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>272</v>
+        <v>327</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>273</v>
+        <v>328</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>269</v>
+        <v>323</v>
       </c>
       <c r="G68" s="1">
         <v>0</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>274</v>
+        <v>329</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>275</v>
+        <v>330</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>331</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>276</v>
+        <v>332</v>
       </c>
       <c r="D69" t="s">
         <v>12</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>277</v>
+        <v>328</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>269</v>
+        <v>323</v>
       </c>
       <c r="G69" s="1">
         <v>0</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>278</v>
+        <v>333</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>279</v>
+        <v>334</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
+        <v>335</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>280</v>
+        <v>336</v>
       </c>
       <c r="D70" t="s">
         <v>12</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>281</v>
+        <v>337</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>269</v>
+        <v>323</v>
       </c>
       <c r="G70" s="1">
         <v>0</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>282</v>
+        <v>338</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>283</v>
+        <v>339</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>340</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>284</v>
+        <v>341</v>
       </c>
       <c r="D71" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>285</v>
-      </c>
+      <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>269</v>
+        <v>323</v>
       </c>
       <c r="G71" s="1">
         <v>0</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>286</v>
+        <v>342</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>287</v>
+        <v>343</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>344</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>288</v>
+        <v>345</v>
       </c>
       <c r="D72" t="s">
         <v>12</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>289</v>
-      </c>
+      <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>290</v>
+        <v>346</v>
       </c>
       <c r="G72" s="1">
         <v>0</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>291</v>
+        <v>347</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>292</v>
+        <v>348</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>349</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="D73" t="s">
         <v>12</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>295</v>
+        <v>346</v>
       </c>
       <c r="G73" s="1">
         <v>0</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>296</v>
+        <v>351</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>297</v>
+        <v>352</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>353</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>298</v>
+        <v>354</v>
       </c>
       <c r="D74" t="s">
         <v>12</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>299</v>
+        <v>355</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>295</v>
+        <v>346</v>
       </c>
       <c r="G74" s="1">
         <v>0</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="75" customFormat="1" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>301</v>
+        <v>357</v>
       </c>
       <c r="B75" t="s">
-        <v>10</v>
+        <v>358</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>302</v>
+        <v>359</v>
       </c>
       <c r="D75" t="s">
         <v>12</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>303</v>
+        <v>360</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>295</v>
+        <v>346</v>
       </c>
       <c r="G75" s="1">
         <v>0</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>305</v>
+        <v>362</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>363</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>306</v>
+        <v>364</v>
       </c>
       <c r="D76" t="s">
         <v>12</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>307</v>
-      </c>
+      <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
-        <v>295</v>
+        <v>346</v>
       </c>
       <c r="G76" s="1">
         <v>0</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>308</v>
+        <v>365</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>367</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>310</v>
+        <v>368</v>
       </c>
       <c r="D77" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>295</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
       <c r="G77" s="1">
         <v>0</v>
       </c>
-      <c r="H77" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B78" t="s">
-        <v>10</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D78" t="s">
-        <v>12</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="G78" s="1">
-        <v>0</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B79" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D79" t="s">
-        <v>12</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="G79" s="1">
-        <v>0</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B80" t="s">
-        <v>10</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D80" t="s">
-        <v>12</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="G80" s="1">
-        <v>0</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B81" t="s">
-        <v>10</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D81" t="s">
-        <v>12</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="G81" s="1">
-        <v>0</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B82" t="s">
-        <v>10</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D82" t="s">
-        <v>12</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="G82" s="1">
-        <v>0</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B83" t="s">
-        <v>10</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D83" t="s">
-        <v>12</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="G83" s="1">
-        <v>0</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B84" t="s">
-        <v>10</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D84" t="s">
-        <v>12</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="G84" s="1">
-        <v>0</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B85" t="s">
-        <v>10</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D85" t="s">
-        <v>12</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="G85" s="1">
-        <v>0</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B86" t="s">
-        <v>10</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D86" t="s">
-        <v>12</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="G86" s="1">
-        <v>0</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B87" t="s">
-        <v>10</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D87" t="s">
-        <v>12</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="G87" s="1">
-        <v>0</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B88" t="s">
-        <v>10</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D88" t="s">
-        <v>12</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="G88" s="1">
-        <v>0</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B89" t="s">
-        <v>10</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="D89" t="s">
-        <v>12</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="G89" s="1">
-        <v>0</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="90" customFormat="1" spans="1:8">
-      <c r="A90" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B90" t="s">
-        <v>10</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D90" t="s">
-        <v>12</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="G90" s="1">
-        <v>0</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="222" ht="15" customHeight="1"/>
+      <c r="H77" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="190" ht="15" customHeight="1"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:I407" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:I375" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
-  <sortState ref="A60:I93">
-    <sortCondition ref="F60:F93"/>
+  <sortState ref="A58:I90">
+    <sortCondition ref="F58:F90"/>
   </sortState>
-  <conditionalFormatting sqref="A2:A90">
+  <conditionalFormatting sqref="A2:A64 A66:A76">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D55 D90 D2:D15 D16:D38 D39:D54 D56:D59 D60:D66 D67:D72 D73:D77 D78:D83 D84:D89">
-      <formula1>"公开,私密,草稿"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17 D61 D77 D2:D9 D10:D14 D15:D16 D18:D19 D20:D25 D26:D43 D44:D52 D53:D60 D62:D64 D65:D76">
+      <formula1>"公开,私密,草稿,未发布"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/file/wordpress_articles.xlsx
+++ b/file/wordpress_articles.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$323</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$321</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="74">
   <si>
     <t>标题</t>
   </si>
@@ -61,418 +61,205 @@
     <t>提取码</t>
   </si>
   <si>
-    <t>【同城店铺实战】五步精准定位，从店铺选址到推广策略，打造火爆店铺</t>
+    <t>植物大战僵尸杂交版-热门休闲游戏 v2.5.1_ 融合版 v2.1.3</t>
   </si>
   <si>
     <t>无</t>
   </si>
   <si>
-    <t>本地生活实操班专注于为餐饮行业提供线上线下融合流量提升的全方位指导。课程涵盖从店铺选址、平台榜单攻略（如热门榜、必吃榜、人气榜）、到推广通广告策略、营销活动策划（如秒杀、新客立减、霸王餐、开业活动）、社交媒体运营（如橙V打造、图文笔记、评价管理）、以及抖音短视频与直播营销的最新趋势与实操技巧。同时，课程还深入探讨了信息流广告、智能展位与外站流量的利用，以及平台间协作构建流量闭环的重要性。</t>
+    <t>v2.5.1
+增加新关卡-1.益智模式--两面夹击模式关卡2.挑战模式关卡
+增加新铲子--骷髅铲子--银币购买-挖掉植物触发亡语或召唤骷髅僵尸
+增加新植物--1.4张白卡植物-通过两面夹击获得2.2张金卡植物和4张星卡植物
+游戏倜整--1.调整部分关卡出怪种类和关卡中卡死的问题2.控制合可手动关闭游戏中舞王的灯效</t>
   </si>
   <si>
     <t>公开</t>
   </si>
   <si>
-    <t>实体店</t>
-  </si>
-  <si>
-    <t>副业资源，创业</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/8114d585604b</t>
-  </si>
-  <si>
-    <t>【抖店新手必学】掌握四大流量爆增技巧，打造商品爆款不再是梦</t>
-  </si>
-  <si>
-    <t>本课程专为电商企业设计，聚焦抖音小店经营与商品卡起量策略，旨在解决新手团队在内容制作、平台规则适应及高效运营中的难题。课程涵盖2024年抖音新推出的价格力规则、标准化运维流程、爆款打造技巧、多渠道流量利用等核心知识点，助力商家掌握商品优化、流量引爆及利润增长的实战方法。同时，讲师精通千川投流、主播培训、直播产品布局等，适用于服饰、母婴、家居等多个行业类目。</t>
-  </si>
-  <si>
-    <t>经验,店铺维护</t>
-  </si>
-  <si>
-    <t>副业资源，电商</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/4b5b072e6037</t>
-  </si>
-  <si>
-    <t>【跨境电商新蓝海】OZON本土电商全攻略，选品优化订单处理一网打尽</t>
-  </si>
-  <si>
-    <t>跨境电商新蓝海：OZON本土电商全攻略，选品优化订单处理一网打尽 夸克网盘资源下载</t>
-  </si>
-  <si>
-    <t>爆款</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/6125e5452730</t>
-  </si>
-  <si>
-    <t>【咸鱼撸金3.0项目】日入几张，无脑简单粗暴，蓝海项目</t>
-  </si>
-  <si>
-    <t>拼多多的砍一刀，大转盘相信大家都不陌生，我们甚至很多人都玩过，每次到最后一点点的时候就砍不下来，放弃吧不甘心，不放弃又拉不到人了。所以催生出来了拼多多助力这个项目。
-主要操作就是在闲鱼上发布拼多多的砍刀助力商品。那些不想四处求助的用户会找到我们下单购买,有人下单后,其实也不需要我们自己去砍价,我们自己把这个任务外包给团队里的人，让他们去做就好了。整个过程我们只要扮演好中介的角色,不需要做其他事情。</t>
-  </si>
-  <si>
-    <t>电商,兼职副业</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/b5132545120d</t>
-  </si>
-  <si>
-    <t>【国学祝福转运视频暴力起号】5分钟1条视频+玄学粉私域变现，无门槛月入过W</t>
-  </si>
-  <si>
-    <t>最近有一类视频很火爆，内容是刷到就代表好运来了，转运了，3天内会有好事发生，这其实反映出一个经久不衰的话题，就是人们对于财富、健康、感情、美好生活的热切向往。而且这个时代就需要这样的强心剂让大家能够对未来充满希望，这也造成这类视频在各大平台非常火爆，尤其适合视频号的环境，因为视频号用户主要集中在1线和5线城市，且主要是中老年人，这些人群无论是对自身还是对子女都对此类祝福需求旺盛。</t>
-  </si>
-  <si>
-    <t>短视频,兼职副业,网赚项目</t>
-  </si>
-  <si>
-    <t>副业资源，短视频</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/091b3d540e13</t>
-  </si>
-  <si>
-    <t>炒股经典书籍推荐，适合投资者的必读书单合集</t>
-  </si>
-  <si>
-    <t>一份股市投资领域的经典书籍合集，适合新手与资深投资者参考。无论你是想学习基础的股市操作，还是深入了解投资策略和市场分析。
-这些书籍都能帮助你提升金融知识，做出更明智的投资决策。通过阅读这些推荐书籍，助你在股市中获得长期成功和财富增长。</t>
-  </si>
-  <si>
-    <t>股票,炒股,投资,股市</t>
-  </si>
-  <si>
-    <t>副业资源，投资理财</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/19258f506e89</t>
-  </si>
-  <si>
-    <t>抖音操盘手-从入门到精通</t>
-  </si>
-  <si>
-    <t>《抖音操盘手-从入门到精通》涵盖了抖音平台介绍、账号搭建与定位、内容创作与运营、直播带货与变现、必备技能与心态等多方面内容。它帮助操盘手掌握抖音营销的核心技巧，包括数据分析、创意制作、平台运营等，以提升抖音账号的曝光度和用户粘性，实现商业变现。</t>
-  </si>
-  <si>
-    <t>副业资源，运营营销，自媒体</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/6de8ffe4c3e2</t>
-  </si>
-  <si>
-    <t>团购直播话术教程合集</t>
-  </si>
-  <si>
-    <t>团购探店实操教程及教学文档，包括服饰、家居、母婴、农副、珠宝、数码等产品相关话术及探店系列教程。</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/5b700750bfd8</t>
-  </si>
-  <si>
-    <t>【2024年整蛊直播无人玩法4.0】支持抖音_快手_视频号_B站四家通吃 日入2000+</t>
-  </si>
-  <si>
-    <t>不知道大家最近有没有刷到很多整蛊、互动类的直播游戏玩法，无论是抖音、快手、视频号还是B站都比较多。
-        对于追求新鲜和创新直播体验的抖音、快手、视频号、B站爱好者们来说，今天有一个令人激动的新潮流正等待大家发掘—那就是【怀旧新娘】无人直播互动游戏。
-        这一全新娱乐方式结合了怀旧情怀与现代科技，刷新了我们对直播的传统认知，带来了一个独特而又丰富的用户互动体验。</t>
-  </si>
-  <si>
-    <t>副业资源，自媒体</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a4e5d8460f22</t>
-  </si>
-  <si>
-    <t>【磁力巨星】最新最详细玩法</t>
-  </si>
-  <si>
-    <t>磁力巨星 10.o最新的撸金玩法更新啦！这个变现方式挺简单的，就是发直播或者视频任务，
-让用户去下载相关任务，注册、转化，完成任务就能拿佣金。
-这个项目周期挺长的，每天还有新任务上线，最近好多人都在关注呢。
-我们团队经过长期测试，终于找到了一个能让单号收益最大化的矩阵玩法，
-而且这个玩法可以长期操作哦</t>
-  </si>
-  <si>
-    <t>兼职副业,网赚项目</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/50dff708b65e</t>
-  </si>
-  <si>
-    <t>【居家小说薅美金】拆解海外撸美金项目月入2000美刀详细指导</t>
-  </si>
-  <si>
-    <t>这个项目很简单：把国内的爽文或者小说翻译后发布到国外的小说平台创取美金，只需要复制粘贴，会用电脑就行，国外竟争力小，海外图文作者只有几十万，国内有几千万，国外水平还停留在国内10年前，竞争力小，不涉及版权问题，来直接看收益</t>
-  </si>
-  <si>
-    <t>海外美金,兼职副业,网赚项目</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/fbd1a92f1eb7</t>
-  </si>
-  <si>
-    <t>【闲置视频号变现】项目再升级，解放双手，无需操作，最高单日几张</t>
-  </si>
-  <si>
-    <t>项目原理也不难，我们正常注册一个视频号，这个就不多说了，只要有微信的，点开视频号就没问题了，实在不会可以自行百度一下，但是如果是新账号的话，就需要自己没事刷几天，养一养账号权重了，(第二节课前期准备会讲到)目前以伦哥的认知来看，视频号挂机目前还没有封号记录，说明这个项目还是非常绿色的!
-大家在一些悬赏平台应该见过给人点赞，关注的任务吧?这个视频号挂机项目就跟悬赏平台上差不多，但是不需要我们人工去操作，只需要把号挂上去，它就会自动后台运行，也不影响我们账号的正常使用，操作也非常简单。</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/79aeee164c35</t>
-  </si>
-  <si>
-    <t>支付宝分成计划最新玩法，小白可上手</t>
-  </si>
-  <si>
-    <t>支付宝是去年推出分成计划到现在，这期间我们一直都有不断测试各种赛道，更新自己的实操方法，也取得了明显的成绩，收益在不断的增长，各种对标赛道的测试也让我们知道哪些赛道的收益单价高，赛道有很多，看自行选择，如果你们没有思路的话也可以来找我，我给你们免费推荐一些黄金赛道，现目前支付宝短视频的创作未来以及红利期会持续更久!因为平台目前推出新政策，正是入手的好时机，小白也可以轻松上手，收益稳定可观，抓住口子才是目前最重要的!</t>
-  </si>
-  <si>
-    <t>副业,赚钱,兼职</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/854f274c4549</t>
-  </si>
-  <si>
-    <t>木子AI研究所《AI商业实战攻略》</t>
-  </si>
-  <si>
-    <t>AI商业实战攻略，主要内容包括基础理论、工具基础操作、ai应用实战、自媒体运营、自媒体实战、个体商业变现等，带你学会如何利用AI帮你提升效率、打造个人影响力。</t>
-  </si>
-  <si>
-    <t>人工智能,办公学习</t>
-  </si>
-  <si>
-    <t>其他资源，AI资源</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/29de74a8f192</t>
-  </si>
-  <si>
-    <t>全套人民币彩色版图鉴合集</t>
-  </si>
-  <si>
-    <t>《全套人民币彩色版图鉴合集》是一本详尽的人民币收藏指南，收录了从第一套到最新一套的所有版本人民币的高清彩色图片及详细介绍，包括纸币、硬币的正面、反面、水印、暗记等特征，为读者提供了权威的鉴别标准和丰富的收藏知识，是人民币收藏爱好者、投资者和研究者的必备工具书。</t>
-  </si>
-  <si>
-    <t>书籍</t>
-  </si>
-  <si>
-    <t>其他资源，图片资源</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/7ba48fa6aaa2</t>
-  </si>
-  <si>
-    <t>【雷电模拟器 去广告版】 稳定去更新</t>
-  </si>
-  <si>
-    <t>该版本雷电模拟器已经去除内置广告， 去除 搜索框，同时还去掉新游预约，去掉版本更新，去掉在线 杀毒验证。</t>
-  </si>
-  <si>
-    <t>软件</t>
-  </si>
-  <si>
-    <t>软件资源，绿色软件</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/d3c75e2f5cd6</t>
-  </si>
-  <si>
-    <t>【我的地球2.5】3D观看地球</t>
-  </si>
-  <si>
-    <t>我的地球app是一款为天文地理爱好者提供服务的软件，让用户能够定制属于自己的地球，更清晰的了解地球的地貌；应用中有多种功能，用户可以根据自己的需求随意调整各种参数，让用户能够更详细的了解地球结构，满足用户各种需求；用户通过软件可以从月球上看地球，让自己以不同的角度来观看地球，让地球能够更清晰的呈现在自己面前；在这里，用户还可以体验到各种触控操作，通过3D的方式操控地球，让自己能够看到地球的每一个角落</t>
-  </si>
-  <si>
-    <t>3D地球,APP</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/5a5fe984761a</t>
-  </si>
-  <si>
-    <t>Piktures2.17_ 高效相册管理工具</t>
-  </si>
-  <si>
-    <t>Piktures 是一款专注于简洁、高效、隐私保护的安卓相册管理应用。凭借其简洁美观的用户界面、强大的功能和出色的隐私保护能力，已成为众多安卓用户的首选工具。支持云存储同步、多样化的文件管理方式、安全保险箱以及无广告的纯净体验，不仅提高了用户的管理效率，还确保了用户的数据安全。主要功能包括：云存储集成、安全文件保险箱、GIF 播放支持、图片压缩与优化等。</t>
-  </si>
-  <si>
-    <t>Android,简洁界面,GIF播放,高级版</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/15a42e8d200f</t>
-  </si>
-  <si>
-    <t>文颜文字排版美化工具</t>
-  </si>
-  <si>
-    <t>公众号知乎等各大平台的文章排版神器</t>
-  </si>
-  <si>
-    <t>软件资源，绿色软件，副业资源，自媒体</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/d9ff0fa8c5cb</t>
-  </si>
-  <si>
-    <t>虚拟演播厅MOV绿幕素材合集【视频素材+预览图】</t>
-  </si>
-  <si>
-    <t>虚拟演播厅MOV绿幕素材合集，集高清视频素材与预览图于一体，专为影视制作、直播及虚拟场景搭建设计。包含多样背景、动态特效与光影变化，轻松实现专业级虚拟演播效果，让创意无限延伸，打造沉浸式视觉体验。</t>
-  </si>
-  <si>
-    <t>文档书籍，模版素材</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/1675a082e022</t>
-  </si>
-  <si>
-    <t>ODM战略绩效23讲录播微课</t>
-  </si>
-  <si>
-    <t>这门微课程包含23讲关于ODM战略绩效的录播内容。学员将深入了解ODM战略的实施和绩效评估，探讨如何优化运营、提高绩效和实现战略目标。通过案例分析和实用技巧，学员将获得在ODM领域取得成功所需的知识和洞察力。</t>
-  </si>
-  <si>
-    <t>长点知识</t>
-  </si>
-  <si>
-    <t>学习资源，运营营销</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/00ffc1cba546</t>
-  </si>
-  <si>
-    <t>20节风趣幽默表达的秘籍课程</t>
-  </si>
-  <si>
-    <t>这门课程将带领学员探索20种风趣幽默的表达技巧，旨在提升他们的口才和幽默感。学员将学习如何运用幽默元素来吸引注意、传达信息，并增强沟通效果。通过课程，他们将培养自信、提升表达能力，成为更具魅力和幽默感的沟通者。</t>
+    <t>安卓,电脑,苹果</t>
+  </si>
+  <si>
+    <t>软件源码，游戏资源</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/0d075ab4bd66</t>
+  </si>
+  <si>
+    <t>《密室黄金时代的杀人事件》 作者_ [日] 鸭崎暖炉【epub_mobi_azw3_PDF格式电子书】</t>
+  </si>
+  <si>
+    <t>三年前，一名男子在密室中被杀害。嫌疑人被迅速锁定且证据确凿，但因现场是完美的密室，无人能够破解，嫌疑人最终被判无罪。此后，在只要现场是密室就可以保证无罪的日本，密室杀人事件激增。
+著名推理作家留下的酒店“雪白馆”发生了密室杀人事件，同时，通向酒店的唯一一座桥被毁，十二人因此被困酒店。在孤立无援的情况下，罪行如被推倒的多米诺骨牌，接连出现。
+密室、密室、密室，现场都是密室！尸体旁留下的奇怪的扑克牌数字不断更新着，下一个受害者，会是谁呢？</t>
+  </si>
+  <si>
+    <t>文档书籍，图书小说</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c69b4653ebf2</t>
+  </si>
+  <si>
+    <t>《优秀到不能被忽视系列》套装共5册</t>
+  </si>
+  <si>
+    <t>《优秀到不能被忽视系列》套装共5册，包括《优秀到不能被忽视》一书及其延伸作品，由美国麻省理工学院教授卡尔·纽波特等人合著。该系列书籍深度探讨了职场晋升的要点，提出了工匠思维、职场资本、自主力、使命感等概念，帮助读者通过努力和实践，实现个人在职场的卓越与成长，是写给每一个职场人的醒脑剂和行动指南。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1704b343ac9d</t>
+  </si>
+  <si>
+    <t>《只为一碗好面》：一个日本人在中国30年的寻面之旅</t>
+  </si>
+  <si>
+    <t>《只为一碗好面》由日本作者坂本一敏所著，中信出版社出版。书中记录了坂本一敏花费近30年时间，跑遍中国450多个市县，吃了3000多碗面，边设计旅游线路边寻找当地特色面食的亲身经历。本书按地域梳理了中国近百种面食，通过作者的所见所闻所感，辅以大量纪实图片，不仅记录了中国面食文化，还见证了中日友好和时代变迁。</t>
+  </si>
+  <si>
+    <t>书籍,美食</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/415844fe75f9</t>
+  </si>
+  <si>
+    <t>《只有医生知道》（1+2+3+精华本）</t>
+  </si>
+  <si>
+    <t>《只有医生知道》（1+2+3+精华本）是张羽所著的女性健康读本，由江苏凤凰文艺出版社出版。书中以北京协和医院妇产科为背景，通过真实生动的医疗故事，向读者普及女性健康知识，涵盖怀孕、生产、避孕、妇科疾病等多个方面。精华本在前三册基础上重理故事线索，勘错修订健康知识，语言通俗易懂，极具亲和力和实用性，是女性了解自身健康、掌握生活方向的必备读物。</t>
+  </si>
+  <si>
+    <t>书籍,医学</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/7ff5923efcf1</t>
+  </si>
+  <si>
+    <t>超级转化率：如何让客户快速下单 [经济管理] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>【编辑推荐】☆吴晓波、刘润、小马宋、杨飞联袂推荐的营销枕边书。一本流量运营与用户增长实战手册。手把手教你提高转化率、精细化运营流量、突破销量瓶颈。一学就会，一用就见效。☆本书不仅有一看就懂的营销方法论，更有大量生动的实操案例，包含3套转化率模型、9大营销方向、39个线上线下案例。○3套转化率模型：运用超级转化率漏斗模型、下单三步法、陈勇转化六要素，帮你建立系统超级转化率思维。○9大营销方向：涵盖微信营销、搜索营销、信息流营销、电商营销、裂变营销、销售话术、App优化、自我营销、创业到规模商业的四级良性增长引擎等运营全方位内容。...</t>
+  </si>
+  <si>
+    <t>电子书,图书,epub</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5afce1e824af</t>
+  </si>
+  <si>
+    <t>拉面：国民料理与战后“日本”再造 [人文社科] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>从舶来品到国民料理，从劳动人民的主食到风靡全球的日本标签一碗拉面的成名，现代日本的进化论•以原料窥测国际局势面粉、肉类、汤头，美国占领输入大麦，为绝望与饥饿的战后日本带来新生•以制作透视文化象征手作、慢食、在地特色，借禅意和风去中国化并抵抗西化，诠释传统，重述历史记忆•以消费推理身份认同果腹、速食、潮流料理，新新食客和多种经营折射社会之变，走向世界，再造“日本”《拉面》是一部以食物为切口探究日本社会变迁的研究性著作。醇厚、咸香、暖和的热汤拉面于19世纪末引进日本，因明治维新的城市化发展而被视为具有阶级色彩的大众食物。而一个多世纪后的今天，拉面已成为了风靡全球的日本饮食标签。...</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/7e065e18dc0a</t>
+  </si>
+  <si>
+    <t>思维地图（套装共4册） [套装合集] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>作者讲述了你想要真正的成功，必须要有着迷的状态。你要处于一种饥饿的，高度集中和无法满足的状态，而不是听到反对者的意见你就停下来。你还必须知道如何利用痴迷，这样你就可以用它来发挥你的优势。作者分享了他的故事，关于对成功的痴迷，以及这种痴迷如何给了作者今天的这种超级优越生活。作者分享了他沿途发现的工具，这些工具让它把痴迷放在为其工作上。作者给大家介绍了一个权限让你也变得完全毋庸置疑的着迷，不管你是谁，你从哪里来，你的家庭是什么样子，或者你疯狂的远大的梦想是什么。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/85883ab0a5da</t>
+  </si>
+  <si>
+    <t>中国是部金融史</t>
+  </si>
+  <si>
+    <t>全书以时间为纲，以朝代、人物、事件为目，围绕金融实践这个核心，用生动诙谐的语言，条分缕析中华文明进程中的盛衰密码和进退定律。无论是 “文景之治”、“开元盛世” 的海晏河清，还是“五胡乱华”、“五代十国”的浑浊乱世，都有金钱的力量在背后驱动。在“皇权—封建官僚—小农”框架下分割社会财富，所谓盛世，不过是给大部分人一个公平赚钱的机会，而皇权和小农最后无论如何变招，都会被霸气外露的封建官僚逼入绝境。</t>
+  </si>
+  <si>
+    <t>电子书,书籍,PDF</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/993ce28eadc8</t>
+  </si>
+  <si>
+    <t>中国是部金融史2天下之财</t>
+  </si>
+  <si>
+    <t>本书讲述了宋、元、明三朝近七百年间，中国封建时代最为辉煌时期发生的众多“天下大事”背后隐藏的金融财经往事。从两宋的昌盛之极，到元末明初的浑浊乱世，再到明末清初的世界历史变革；七百年间，中国这片古老的土地经历了一个前所未有的关键时期。经济文化发展迈入顶峰，GDP达到世界四分之一；之后却又迅疾而衰，落后于觉醒的欧洲。全书针对中原王朝在这一过程中的经济恢复发展、社会财富累积进行了鞭辟入里的分析，并以货币及王朝经济政策为线索，全新定义和解读了那些曾经“板上钉钉”的历史人物和历史事件，如“澶渊之盟”实为大宋的金融妙招；王安石为相时期推行的经济政策导致了“靖康之耻”；朱元璋诛杀开国功臣的原因是私贩货币等等。在总结历朝历代与少数民族政权军事、政治、外交背后的经济、货币战争，和土地、商业政策对各地区民众影响的基础上，揭示出它们背后隐藏的核心本质——“天下之财，止有此数，不在民，则在官”，这一中华文明的盛衰密码和进退定律。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/50af7d7bed42</t>
+  </si>
+  <si>
+    <t>阿里巴巴开发手册合集</t>
+  </si>
+  <si>
+    <t>阿里巴巴开发手册合集是阿里巴巴集团技术团队的经验总结，涵盖Java开发手册、性能调优实战、机器学习算法大集结、面试参考指南等多个领域，详细规定了编程规约、异常日志、单元测试、安全规约等，帮助企业开发团队提高开发质量和效率，降低代码维护成本。</t>
+  </si>
+  <si>
+    <t>安卓</t>
+  </si>
+  <si>
+    <t>学习资源，编程开发</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ad8b4b0008d7</t>
+  </si>
+  <si>
+    <t>小滴课堂-急速掌握新版分布式调度XXL-Job+SpringBoot2.X项目实战【带源码课件】</t>
+  </si>
+  <si>
+    <t>小滴课堂-急速掌握新版分布式调度XXL-Job+SpringBoot2.X项目实战课程，涵盖XXL-Job框架认知、源码安装、SpringBoot整合实操、多案例进阶实战等内容，附带源码课件，帮助学员快速掌握分布式任务调度技能，适用于需要处理大量定时任务、实现高效任务调度的开发者。</t>
+  </si>
+  <si>
+    <t>编程</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6080223a9476</t>
+  </si>
+  <si>
+    <t>女性必备性爱情趣指南教程  大师亲授</t>
+  </si>
+  <si>
+    <t>女性性爱指南，让男人欲罢不能</t>
+  </si>
+  <si>
+    <t>学习资源，两性教育</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d6fb1f40084d</t>
+  </si>
+  <si>
+    <t>摄影学院静物美食线上大师班</t>
+  </si>
+  <si>
+    <t>本静物美食线上大师班由摄影学院提供，专为热爱摄影的学员设计。课程涵盖静物摄影技巧、光影运用、构图方法等内容，通过实践案例和指导，帮助学员掌握拍摄美食静物的专业技能，提升作品质量和创作水平。</t>
+  </si>
+  <si>
+    <t>摄影剪辑</t>
+  </si>
+  <si>
+    <t>学习资源，兴趣技能</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f3ee5aedd7dd</t>
+  </si>
+  <si>
+    <t>台球专业班付费教程1-4级（入门 基础 高级 进阶）</t>
+  </si>
+  <si>
+    <t>台球1至4级是台球技能发展的不同阶段，每个阶段都有其特定的要求和特点。 一级是入门阶段，主要学习基本动作和击球技巧，掌握出杆、运杆等基本技能，能够打进简单的角度球。 二级为基础阶段，要求能够打进更大角度的球，并开始学习瞄准技巧和基本的杆法，如高杆、低杆和中杆，同时培养对走位的初步理解。 三级进入进阶阶段，需要掌握更复杂的杆法和加塞技巧，能够控制一库走位，并具备连续打进多个球的能力。 四级则是高级阶段，要求能够处理各种复杂局面，熟练掌握各种杆法，并能有效控制走位，实现较高的连续进球能力，接近清台的水平.</t>
+  </si>
+  <si>
+    <t>一杆清台</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/81685d7b31ea</t>
+  </si>
+  <si>
+    <t>吴梦奇流行音乐作曲直播课程</t>
+  </si>
+  <si>
+    <t>吴梦奇流行音乐作曲直播课程是一门专注于流行音乐作曲的课程。学员将学习音乐理论、编曲技巧和创作方法。课程内容包括和声、节奏、编曲等，帮助学员掌握流行音乐创作的核心技能。通过实践和互动，学员将获得专业的指导和反馈，提升音乐创作能力。无论是初学者还是有一定音乐基础的学员，这门课程都将帮助你成为流行音乐作曲的专家。</t>
   </si>
   <si>
     <t>自我提升</t>
   </si>
   <si>
-    <t>学习资源，个人发展</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/f9d4651290ab</t>
-  </si>
-  <si>
-    <t>26天教会你构建绩效增长系统</t>
-  </si>
-  <si>
-    <t>"在这26天的课程中，我们将深入探讨如何构建和优化绩效增长系统。课程涵盖目标设定、反馈机制、评估工具的设计与实施，帮助您建立有效的绩效管理框架，推动团队和组织的持续发展与成功。"</t>
-  </si>
-  <si>
-    <t>职场关系</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/38eb22f58e8c</t>
-  </si>
-  <si>
-    <t>从小白到销冠三合一速成法</t>
-  </si>
-  <si>
-    <t>从小白到销冠三合一速成法是一门专注于销售技巧的课程。通过系统化的学习和实践，学员将学会销售的核心原则、技巧和策略。课程内容包括市场分析、客户洞察、销售演示等，帮助学员从零基础快速成为销售冠军。无论是初入职场还是希望提升销售业绩，这门课程都能帮助你实现销售技能的全面提升。</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/281176b3e9b6</t>
-  </si>
-  <si>
-    <t>好好说话：演讲、沟通、声音训练的秘密（套装全5册）</t>
-  </si>
-  <si>
-    <t>《好好说话：演讲、沟通、声音训练的秘密（套装全5册）》是一套提升个人表达能力的实用书籍，涵盖了演讲、沟通、声音训练等多个方面。书中通过丰富的案例与技巧，帮助读者掌握高效沟通的方法，提升演讲技巧，优化声音魅力，从而在职场与生活中更加自信地表达自己，实现个人价值的最大化。</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/4024eb8fd262</t>
-  </si>
-  <si>
-    <t>零基础全能系统课五合一听说</t>
-  </si>
-  <si>
-    <t>这门零基础全能系统课程将听、说、读、写、译五大技能融合，帮助学员全面提升语言能力。通过实用场景模拟、口语练习、阅读理解和写作训练，学员将建立坚实的语言基础，提高沟通能力和表达清晰度。课程注重实战，让学员在轻松愉快的氛围中快速提升语言水平。</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/c7f500e7e7da</t>
-  </si>
-  <si>
-    <t>B站 - 完结18节黄朴民教授：《孙子兵法》与兵家智慧</t>
-  </si>
-  <si>
-    <t>名家解读中国兵法，助你读懂顶级谋略，用将帅思维开拓人生格局。</t>
-  </si>
-  <si>
-    <t>付费课程</t>
-  </si>
-  <si>
-    <t>学习资源，兴趣技能</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/3955d3890970</t>
-  </si>
-  <si>
-    <t>B站 - 中国文学的妖怪宇宙：马瑞芳讲志怪神魔小说</t>
-  </si>
-  <si>
-    <t>内容提炼自古代文学博士研究生学位课程，大师讲述中国志怪小说史、巅峰作品、志怪巨匠与文化主题，精讲《聊斋志异》《西游记》，泛讲20+部志怪经典小说。</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/92f5ba715d39</t>
-  </si>
-  <si>
-    <t>鹅七生菜Q版速写周练9宫格</t>
-  </si>
-  <si>
-    <t>这门课程将带领学员通过Q版速写周练9宫格，学习绘制鹅七生菜等可爱形象。学员将掌握速写技巧、构图要点和色彩运用，提升插画能力。每周练习不仅培养绘画技能，还激发创造力。适合喜爱插画和涂鸦的学员参与，让绘画成为生活中的乐趣。</t>
-  </si>
-  <si>
-    <t>美工修图</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/6fde04ab783b</t>
-  </si>
-  <si>
-    <t>摄影摄像后期零基础思维课</t>
-  </si>
-  <si>
-    <t>这门零基础思维课程专为摄影和摄像后期处理而设计，旨在教授基本的后期技术与创意思维。学员将学习使用常见后期软件，如Lightroom和Photoshop，处理和改进图像及视频，同时培养审美眼光和创作技巧。课程注重实际操作，帮助学员快速提升后期处理能力。</t>
-  </si>
-  <si>
-    <t>摄影剪辑</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/25be949bc004</t>
-  </si>
-  <si>
-    <t>心理学 读心术课程-带源码课件  莫小奇星座密码付费课程</t>
-  </si>
-  <si>
-    <t>莫小奇的星座密码付费课程通过占星学的视角，帮助你解读星座密码，了解自己和他人的内心世界。课程内容包括认识自己的星盘，了解星座对性格和命运的影响，通过星座分析识别适合自己的恋爱对象和人际交往策略，利用星座密码制定更适合自己的职业和人生规划。课程不仅提供丰富的理论知识，还包含实际案例分析，帮助学员在生活中灵活运用所学内容</t>
-  </si>
-  <si>
-    <t>学习资源，兴趣技能，其他资源，玄学资源</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/07160f69115e</t>
-  </si>
-  <si>
-    <t>2025橘子行测申论各板块刷题册</t>
-  </si>
-  <si>
-    <t>紧贴大纲、突出考点。通过日常训练与积累，以题带点，强化知识点，提高做题速度，掌握答题技巧。</t>
-  </si>
-  <si>
-    <t>公考</t>
-  </si>
-  <si>
-    <t>学习资源，考证考公</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/1fd567ea012e</t>
+    <t>https://pan.quark.cn/s/fb9d5f01e728</t>
   </si>
 </sst>
 </file>
@@ -485,7 +272,14 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -979,133 +773,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1113,8 +907,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1437,12 +1231,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I138"/>
+  <dimension ref="A1:I136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="A2:A33 H2:H33"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.9090909090909" defaultRowHeight="14"/>
@@ -1451,7 +1245,7 @@
     <col min="2" max="2" width="8.54545454545454" customWidth="1"/>
     <col min="3" max="3" width="19.1727272727273" customWidth="1"/>
     <col min="4" max="4" width="12.9090909090909" customWidth="1"/>
-    <col min="5" max="5" width="20.1818181818182" customWidth="1"/>
+    <col min="5" max="5" width="62.2909090909091" customWidth="1"/>
     <col min="6" max="6" width="35" customWidth="1"/>
     <col min="7" max="7" width="12.9090909090909" customWidth="1"/>
     <col min="8" max="8" width="40" customWidth="1"/>
@@ -1487,11 +1281,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:8">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1517,7 +1311,7 @@
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1526,798 +1320,390 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F8" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F9" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="F10" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" customFormat="1" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>9.99</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" customFormat="1" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>9.99</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:8">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="16" customFormat="1" spans="1:8">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G33" s="1">
-        <v>9.99</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="138" ht="15" customHeight="1"/>
+    <row r="136" ht="15" customHeight="1"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:I323" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:I321" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
-  <sortState ref="A2:I189">
-    <sortCondition ref="G2:G189"/>
+  <sortState ref="A2:I136">
+    <sortCondition ref="F2:F136"/>
   </sortState>
-  <conditionalFormatting sqref="A2:A33 A35:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  <conditionalFormatting sqref="A2:A17">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D33 D2:D22 D23:D32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D17 D18:D31">
       <formula1>"公开,私密,草稿,未发布"</formula1>
     </dataValidation>
   </dataValidations>

--- a/file/wordpress_articles.xlsx
+++ b/file/wordpress_articles.xlsx
@@ -272,14 +272,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -773,133 +766,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -907,8 +900,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1236,7 +1229,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.9090909090909" defaultRowHeight="14"/>
@@ -1245,7 +1238,7 @@
     <col min="2" max="2" width="8.54545454545454" customWidth="1"/>
     <col min="3" max="3" width="19.1727272727273" customWidth="1"/>
     <col min="4" max="4" width="12.9090909090909" customWidth="1"/>
-    <col min="5" max="5" width="62.2909090909091" customWidth="1"/>
+    <col min="5" max="5" width="16.9181818181818" customWidth="1"/>
     <col min="6" max="6" width="35" customWidth="1"/>
     <col min="7" max="7" width="12.9090909090909" customWidth="1"/>
     <col min="8" max="8" width="40" customWidth="1"/>
@@ -1703,7 +1696,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D17 D18:D31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D31">
       <formula1>"公开,私密,草稿,未发布"</formula1>
     </dataValidation>
   </dataValidations>

--- a/file/wordpress_articles.xlsx
+++ b/file/wordpress_articles.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>标题</t>
   </si>
@@ -61,205 +61,25 @@
     <t>提取码</t>
   </si>
   <si>
-    <t>植物大战僵尸杂交版-热门休闲游戏 v2.5.1_ 融合版 v2.1.3</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>v2.5.1
-增加新关卡-1.益智模式--两面夹击模式关卡2.挑战模式关卡
-增加新铲子--骷髅铲子--银币购买-挖掉植物触发亡语或召唤骷髅僵尸
-增加新植物--1.4张白卡植物-通过两面夹击获得2.2张金卡植物和4张星卡植物
-游戏倜整--1.调整部分关卡出怪种类和关卡中卡死的问题2.控制合可手动关闭游戏中舞王的灯效</t>
-  </si>
-  <si>
-    <t>公开</t>
-  </si>
-  <si>
-    <t>安卓,电脑,苹果</t>
-  </si>
-  <si>
-    <t>软件源码，游戏资源</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/0d075ab4bd66</t>
-  </si>
-  <si>
-    <t>《密室黄金时代的杀人事件》 作者_ [日] 鸭崎暖炉【epub_mobi_azw3_PDF格式电子书】</t>
-  </si>
-  <si>
-    <t>三年前，一名男子在密室中被杀害。嫌疑人被迅速锁定且证据确凿，但因现场是完美的密室，无人能够破解，嫌疑人最终被判无罪。此后，在只要现场是密室就可以保证无罪的日本，密室杀人事件激增。
-著名推理作家留下的酒店“雪白馆”发生了密室杀人事件，同时，通向酒店的唯一一座桥被毁，十二人因此被困酒店。在孤立无援的情况下，罪行如被推倒的多米诺骨牌，接连出现。
-密室、密室、密室，现场都是密室！尸体旁留下的奇怪的扑克牌数字不断更新着，下一个受害者，会是谁呢？</t>
-  </si>
-  <si>
-    <t>文档书籍，图书小说</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/c69b4653ebf2</t>
-  </si>
-  <si>
-    <t>《优秀到不能被忽视系列》套装共5册</t>
-  </si>
-  <si>
-    <t>《优秀到不能被忽视系列》套装共5册，包括《优秀到不能被忽视》一书及其延伸作品，由美国麻省理工学院教授卡尔·纽波特等人合著。该系列书籍深度探讨了职场晋升的要点，提出了工匠思维、职场资本、自主力、使命感等概念，帮助读者通过努力和实践，实现个人在职场的卓越与成长，是写给每一个职场人的醒脑剂和行动指南。</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/1704b343ac9d</t>
-  </si>
-  <si>
-    <t>《只为一碗好面》：一个日本人在中国30年的寻面之旅</t>
-  </si>
-  <si>
-    <t>《只为一碗好面》由日本作者坂本一敏所著，中信出版社出版。书中记录了坂本一敏花费近30年时间，跑遍中国450多个市县，吃了3000多碗面，边设计旅游线路边寻找当地特色面食的亲身经历。本书按地域梳理了中国近百种面食，通过作者的所见所闻所感，辅以大量纪实图片，不仅记录了中国面食文化，还见证了中日友好和时代变迁。</t>
-  </si>
-  <si>
-    <t>书籍,美食</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/415844fe75f9</t>
-  </si>
-  <si>
-    <t>《只有医生知道》（1+2+3+精华本）</t>
-  </si>
-  <si>
-    <t>《只有医生知道》（1+2+3+精华本）是张羽所著的女性健康读本，由江苏凤凰文艺出版社出版。书中以北京协和医院妇产科为背景，通过真实生动的医疗故事，向读者普及女性健康知识，涵盖怀孕、生产、避孕、妇科疾病等多个方面。精华本在前三册基础上重理故事线索，勘错修订健康知识，语言通俗易懂，极具亲和力和实用性，是女性了解自身健康、掌握生活方向的必备读物。</t>
-  </si>
-  <si>
-    <t>书籍,医学</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/7ff5923efcf1</t>
-  </si>
-  <si>
-    <t>超级转化率：如何让客户快速下单 [经济管理] [pdf+全格式]</t>
-  </si>
-  <si>
-    <t>【编辑推荐】☆吴晓波、刘润、小马宋、杨飞联袂推荐的营销枕边书。一本流量运营与用户增长实战手册。手把手教你提高转化率、精细化运营流量、突破销量瓶颈。一学就会，一用就见效。☆本书不仅有一看就懂的营销方法论，更有大量生动的实操案例，包含3套转化率模型、9大营销方向、39个线上线下案例。○3套转化率模型：运用超级转化率漏斗模型、下单三步法、陈勇转化六要素，帮你建立系统超级转化率思维。○9大营销方向：涵盖微信营销、搜索营销、信息流营销、电商营销、裂变营销、销售话术、App优化、自我营销、创业到规模商业的四级良性增长引擎等运营全方位内容。...</t>
-  </si>
-  <si>
-    <t>电子书,图书,epub</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/5afce1e824af</t>
-  </si>
-  <si>
-    <t>拉面：国民料理与战后“日本”再造 [人文社科] [pdf+全格式]</t>
-  </si>
-  <si>
-    <t>从舶来品到国民料理，从劳动人民的主食到风靡全球的日本标签一碗拉面的成名，现代日本的进化论•以原料窥测国际局势面粉、肉类、汤头，美国占领输入大麦，为绝望与饥饿的战后日本带来新生•以制作透视文化象征手作、慢食、在地特色，借禅意和风去中国化并抵抗西化，诠释传统，重述历史记忆•以消费推理身份认同果腹、速食、潮流料理，新新食客和多种经营折射社会之变，走向世界，再造“日本”《拉面》是一部以食物为切口探究日本社会变迁的研究性著作。醇厚、咸香、暖和的热汤拉面于19世纪末引进日本，因明治维新的城市化发展而被视为具有阶级色彩的大众食物。而一个多世纪后的今天，拉面已成为了风靡全球的日本饮食标签。...</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/7e065e18dc0a</t>
-  </si>
-  <si>
-    <t>思维地图（套装共4册） [套装合集] [pdf+全格式]</t>
-  </si>
-  <si>
-    <t>作者讲述了你想要真正的成功，必须要有着迷的状态。你要处于一种饥饿的，高度集中和无法满足的状态，而不是听到反对者的意见你就停下来。你还必须知道如何利用痴迷，这样你就可以用它来发挥你的优势。作者分享了他的故事，关于对成功的痴迷，以及这种痴迷如何给了作者今天的这种超级优越生活。作者分享了他沿途发现的工具，这些工具让它把痴迷放在为其工作上。作者给大家介绍了一个权限让你也变得完全毋庸置疑的着迷，不管你是谁，你从哪里来，你的家庭是什么样子，或者你疯狂的远大的梦想是什么。</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/85883ab0a5da</t>
-  </si>
-  <si>
-    <t>中国是部金融史</t>
-  </si>
-  <si>
-    <t>全书以时间为纲，以朝代、人物、事件为目，围绕金融实践这个核心，用生动诙谐的语言，条分缕析中华文明进程中的盛衰密码和进退定律。无论是 “文景之治”、“开元盛世” 的海晏河清，还是“五胡乱华”、“五代十国”的浑浊乱世，都有金钱的力量在背后驱动。在“皇权—封建官僚—小农”框架下分割社会财富，所谓盛世，不过是给大部分人一个公平赚钱的机会，而皇权和小农最后无论如何变招，都会被霸气外露的封建官僚逼入绝境。</t>
-  </si>
-  <si>
-    <t>电子书,书籍,PDF</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/993ce28eadc8</t>
-  </si>
-  <si>
-    <t>中国是部金融史2天下之财</t>
-  </si>
-  <si>
-    <t>本书讲述了宋、元、明三朝近七百年间，中国封建时代最为辉煌时期发生的众多“天下大事”背后隐藏的金融财经往事。从两宋的昌盛之极，到元末明初的浑浊乱世，再到明末清初的世界历史变革；七百年间，中国这片古老的土地经历了一个前所未有的关键时期。经济文化发展迈入顶峰，GDP达到世界四分之一；之后却又迅疾而衰，落后于觉醒的欧洲。全书针对中原王朝在这一过程中的经济恢复发展、社会财富累积进行了鞭辟入里的分析，并以货币及王朝经济政策为线索，全新定义和解读了那些曾经“板上钉钉”的历史人物和历史事件，如“澶渊之盟”实为大宋的金融妙招；王安石为相时期推行的经济政策导致了“靖康之耻”；朱元璋诛杀开国功臣的原因是私贩货币等等。在总结历朝历代与少数民族政权军事、政治、外交背后的经济、货币战争，和土地、商业政策对各地区民众影响的基础上，揭示出它们背后隐藏的核心本质——“天下之财，止有此数，不在民，则在官”，这一中华文明的盛衰密码和进退定律。</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/50af7d7bed42</t>
-  </si>
-  <si>
-    <t>阿里巴巴开发手册合集</t>
-  </si>
-  <si>
-    <t>阿里巴巴开发手册合集是阿里巴巴集团技术团队的经验总结，涵盖Java开发手册、性能调优实战、机器学习算法大集结、面试参考指南等多个领域，详细规定了编程规约、异常日志、单元测试、安全规约等，帮助企业开发团队提高开发质量和效率，降低代码维护成本。</t>
-  </si>
-  <si>
-    <t>安卓</t>
+    <t>斯坦福CS224n深度学习培训营</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/20/UIwf3RcFV8C4SW5.jpg</t>
+  </si>
+  <si>
+    <t>自然语言处理领域的经典课程涵盖了从基础知识到最新研究的全面内容。本培训营将精选课程内容，结合实际案例和项目实践，带领学员深入探索自然语言处理的前沿，学习最先进的深度学习技术。</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>编程办公</t>
   </si>
   <si>
     <t>学习资源，编程开发</t>
   </si>
   <si>
-    <t>https://pan.quark.cn/s/ad8b4b0008d7</t>
-  </si>
-  <si>
-    <t>小滴课堂-急速掌握新版分布式调度XXL-Job+SpringBoot2.X项目实战【带源码课件】</t>
-  </si>
-  <si>
-    <t>小滴课堂-急速掌握新版分布式调度XXL-Job+SpringBoot2.X项目实战课程，涵盖XXL-Job框架认知、源码安装、SpringBoot整合实操、多案例进阶实战等内容，附带源码课件，帮助学员快速掌握分布式任务调度技能，适用于需要处理大量定时任务、实现高效任务调度的开发者。</t>
-  </si>
-  <si>
-    <t>编程</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/6080223a9476</t>
-  </si>
-  <si>
-    <t>女性必备性爱情趣指南教程  大师亲授</t>
-  </si>
-  <si>
-    <t>女性性爱指南，让男人欲罢不能</t>
-  </si>
-  <si>
-    <t>学习资源，两性教育</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/d6fb1f40084d</t>
-  </si>
-  <si>
-    <t>摄影学院静物美食线上大师班</t>
-  </si>
-  <si>
-    <t>本静物美食线上大师班由摄影学院提供，专为热爱摄影的学员设计。课程涵盖静物摄影技巧、光影运用、构图方法等内容，通过实践案例和指导，帮助学员掌握拍摄美食静物的专业技能，提升作品质量和创作水平。</t>
-  </si>
-  <si>
-    <t>摄影剪辑</t>
-  </si>
-  <si>
-    <t>学习资源，兴趣技能</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/f3ee5aedd7dd</t>
-  </si>
-  <si>
-    <t>台球专业班付费教程1-4级（入门 基础 高级 进阶）</t>
-  </si>
-  <si>
-    <t>台球1至4级是台球技能发展的不同阶段，每个阶段都有其特定的要求和特点。 一级是入门阶段，主要学习基本动作和击球技巧，掌握出杆、运杆等基本技能，能够打进简单的角度球。 二级为基础阶段，要求能够打进更大角度的球，并开始学习瞄准技巧和基本的杆法，如高杆、低杆和中杆，同时培养对走位的初步理解。 三级进入进阶阶段，需要掌握更复杂的杆法和加塞技巧，能够控制一库走位，并具备连续打进多个球的能力。 四级则是高级阶段，要求能够处理各种复杂局面，熟练掌握各种杆法，并能有效控制走位，实现较高的连续进球能力，接近清台的水平.</t>
-  </si>
-  <si>
-    <t>一杆清台</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/81685d7b31ea</t>
-  </si>
-  <si>
-    <t>吴梦奇流行音乐作曲直播课程</t>
-  </si>
-  <si>
-    <t>吴梦奇流行音乐作曲直播课程是一门专注于流行音乐作曲的课程。学员将学习音乐理论、编曲技巧和创作方法。课程内容包括和声、节奏、编曲等，帮助学员掌握流行音乐创作的核心技能。通过实践和互动，学员将获得专业的指导和反馈，提升音乐创作能力。无论是初学者还是有一定音乐基础的学员，这门课程都将帮助你成为流行音乐作曲的专家。</t>
-  </si>
-  <si>
-    <t>自我提升</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/fb9d5f01e728</t>
+    <t>https://pan.quark.cn/s/e93a4479a4c0</t>
   </si>
 </sst>
 </file>
@@ -272,19 +92,13 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -625,27 +439,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -766,143 +565,139 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -956,15 +751,6 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1229,7 +1015,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.9090909090909" defaultRowHeight="14"/>
@@ -1275,415 +1061,34 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2">
+        <v>9.99</v>
+      </c>
+      <c r="H2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="1">
-        <v>9.99</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:8">
-      <c r="A13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="1">
-        <v>9.99</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:8">
-      <c r="A14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
+    <row r="12" customFormat="1"/>
+    <row r="13" customFormat="1"/>
+    <row r="14" customFormat="1"/>
     <row r="136" ht="15" customHeight="1"/>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:I321" etc:filterBottomFollowUsedRange="0">
@@ -1692,14 +1097,14 @@
   <sortState ref="A2:I136">
     <sortCondition ref="F2:F136"/>
   </sortState>
-  <conditionalFormatting sqref="A2:A17">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D31">
       <formula1>"公开,私密,草稿,未发布"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://cdn.sa.net/2024/10/20/UIwf3RcFV8C4SW5.jpg"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/file/wordpress_articles.xlsx
+++ b/file/wordpress_articles.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12080"/>
+    <workbookView windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$321</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$323</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="460">
   <si>
     <t>标题</t>
   </si>
@@ -61,25 +61,1371 @@
     <t>提取码</t>
   </si>
   <si>
-    <t>斯坦福CS224n深度学习培训营</t>
-  </si>
-  <si>
-    <t>https://cdn.sa.net/2024/10/20/UIwf3RcFV8C4SW5.jpg</t>
-  </si>
-  <si>
-    <t>自然语言处理领域的经典课程涵盖了从基础知识到最新研究的全面内容。本培训营将精选课程内容，结合实际案例和项目实践，带领学员深入探索自然语言处理的前沿，学习最先进的深度学习技术。</t>
-  </si>
-  <si>
-    <t/>
+    <t>摆摊创业必备  卤水卤料酱料秘方大全   秘制配方制作教程</t>
+  </si>
+  <si>
+    <t>一份全面的指南，专为希望通过摆摊创业的朋友们打造。详细介绍了各种卤水、卤料和酱料的秘制配方，涵盖了从基础到高级的制作技巧。你将学到如何选择和搭配香料，制作出风味独特的卤水，以及如何调制出适合不同食材的酱料。教程中还包含了实用的操作步骤和注意事项，确保你在制作过程中能够得心应手。
+通过学习，不仅可以掌握制作美味卤味的技巧，还能了解如何在摆摊创业中吸引顾客，提升销售额。无论是经典的红卤、白卤，还是独特的香辣酱料，这里都有详细的配方和制作方法。</t>
+  </si>
+  <si>
+    <t>公开</t>
+  </si>
+  <si>
+    <t>副业资源，创业</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6e8e778cc67f</t>
+  </si>
+  <si>
+    <t>【电商盈利8大体系】 ·产品做强​爆款产品策划系统升级线上课，</t>
+  </si>
+  <si>
+    <t>电商盈利8大体系 ·产品做强​爆款产品策划系统升级线上课，全盘布局更能实现利润突破，夸克 网盘资源下载。</t>
+  </si>
+  <si>
+    <t>短视频</t>
+  </si>
+  <si>
+    <t>副业资源，电商</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6da964c15642</t>
+  </si>
+  <si>
+    <t>【千川新手入门课】从0-1学习千川，初步掌握投放方法</t>
+  </si>
+  <si>
+    <t>千川新手入门课，从0-1学习千川，初步掌握投放方法，夸克网盘资源下载。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/be97580be5e8</t>
+  </si>
+  <si>
+    <t>21天0基础轻松搞定淘系运营</t>
+  </si>
+  <si>
+    <t>21天0基础轻松搞定淘系运营是一门专为电商新手设计的实战课程，通过系统讲解淘宝及天猫平台的运营规则、店铺搭建、商品优化、营销推广、客户服务等关键环节，帮助学员在21天内从零开始，全面掌握淘系运营的核心技能，快速上手并有效提升店铺业绩。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/807ac7e5391e</t>
+  </si>
+  <si>
+    <t>短视频个人 IP 起号方法68节</t>
+  </si>
+  <si>
+    <t>从人设定位，网感培养，落地实操三个纬度手把手教你如何从零到一打造个人 IP</t>
+  </si>
+  <si>
+    <t>个人ip</t>
+  </si>
+  <si>
+    <t>副业资源，短视频</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c5738c4297d5</t>
+  </si>
+  <si>
+    <t>短视频系统运营大课-掌握核心运营思维-价值7800元</t>
+  </si>
+  <si>
+    <t>杜秀儿人像美学认知的PS人像摄影修图液化课是一套深入解析人像摄影后期处理的45节课程。课程涵盖底层逻辑、五官身形比例及落地实操技巧，教授学员如何运用PS软件精细调整人像，提升照片的美感和艺术性。通过学习，学员将掌握人像修图的核心技巧，提升摄影后期处理能力。</t>
+  </si>
+  <si>
+    <t>休斯短视频系统运营大课</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f78f9f764f8d</t>
+  </si>
+  <si>
+    <t>抖店商品卡几十万流量打造实操，从新号起店到一天几十万搜索、推荐流量完整实操步骤</t>
+  </si>
+  <si>
+    <t>抖店商品卡几十万流量打造实操，涵盖从新号起店到实现一天几十万搜索、推荐流量的完整步骤。包括提升店铺体验分、精细化选品与上架、优化商品标题与主图、设置营销折扣、淘汰无曝光单品并补充主打款相似款、对接达人带货等，通过系统布局与精细操作，实现商品卡流量的快速增长与店铺利润突破。</t>
+  </si>
+  <si>
+    <t>抖音,运营</t>
+  </si>
+  <si>
+    <t>副业资源，自媒体</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6aa855aa3f99</t>
+  </si>
+  <si>
+    <t>海外TikTok短视频出海启航营</t>
+  </si>
+  <si>
+    <t>海外TikTok短视频出海启航营（学习精准盈利）解读，手把手教会你从0-1入局
+TikTok电商和短视频带货的课程，涵盖了多个关键主题，通过实战指导，帮助学员快速掌握TikTok短视频运营与电商销售技能，结合AI工具提升效率。</t>
+  </si>
+  <si>
+    <t>抖音</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/8b510cab80f7</t>
+  </si>
+  <si>
+    <t>BitComet Stable (build2.9.8.20) 比特彗星全功能解锁豪华版 by小樱</t>
+  </si>
+  <si>
+    <t>该版本解锁了种子市场，用户列表IP显示，电驴下载加速插件等等功能。
+BitComet是一款免费BT下载管理软件，支持BT/HTTP/FTP下载，拥有边下载边播放技术。最新版将BT技术应用于普通下载，加速下载速度。软件便携版关闭后会清理临时文件，配置保存在非系统目录。</t>
+  </si>
+  <si>
+    <t>软件源码，绿色软件</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/371cb05eb60b</t>
+  </si>
+  <si>
+    <t>SnapTube v7.28.0.72850210油管下载器，一键下载YouTuBe视频和音乐，解锁高级版</t>
+  </si>
+  <si>
+    <t>SnapTube Pro是一款功能强大的应用程序，可以让你一键下载YouTuBe视频和音乐，SnapTube Pro的杀手锏是其专业而强大的YouTube视频和MP3音乐下载功能。该应用程序非常容易使用，不需要任何额外的编码过程或插件。</t>
+  </si>
+  <si>
+    <t>Android,工具</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/fea0d64a3f7e</t>
+  </si>
+  <si>
+    <t>Spotify v8.9.84.594国外很有名的音乐播放器，解锁高级版</t>
+  </si>
+  <si>
+    <t>Spotify是一款在国外享有盛誉的音乐播放器，拥有全球最大的音乐曲库之一。它提供丰富的音乐资源和个性化的推荐服务，支持跨平台使用，包括手机、电脑和平板等。解锁高级功能，用户可享受无广告、离线听歌、高品质音乐等特权，获得无与伦比的个性化音乐体验。Spotify的简洁操作和华丽界面也赢得了广泛好评。</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ceb2151b7310</t>
+  </si>
+  <si>
+    <t>WPS Office v18.13.2国际版，海量精美模版及高级功能，解锁高级版</t>
+  </si>
+  <si>
+    <t>WPS Office(WPS Office国际版)金山WPS安卓版移动办公软件套件,体积小,速度快.独有手机阅读模式,字体清晰翻页流畅;完美支持文字/表格/演示/PDF等51种文档格式;拥有海量精美模版及高级功能。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a2aa87e15bc7</t>
+  </si>
+  <si>
+    <t>宇宙工具箱 v2.7.2集成了300余个黑科技功能，解锁会员修复版</t>
+  </si>
+  <si>
+    <t>宇宙工具箱破解版新鲜出炉，新增一大堆黑科技功能。修复了影视资源搜索、VIP解析等功能。这货的黑科技工具是越来越多，本版最大特色是直接安装即是终身会员版。集成了300余个黑科技功能，完全免费，免登陆、免广告，无任何限制！这两天又发布新版了，支持影视资源搜索、影视视频VIP解析等等功能。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f9adba039d05</t>
+  </si>
+  <si>
+    <t>《骗子酒吧Liars Bar》Steam多人休闲游戏</t>
+  </si>
+  <si>
+    <t>骗子酒吧是一款充满悬疑与欺骗的多人联机游戏，充满了挑战性和趣味性。需要玩家运用智慧、策略和沟通技巧来赢得游戏。</t>
+  </si>
+  <si>
+    <t>软件源码，游戏资源</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/27a75ce051f0</t>
+  </si>
+  <si>
+    <t>塞尔达传说  PC端安装包  资源最全整理 智慧的再现+yuzu模拟器+最新补丁</t>
+  </si>
+  <si>
+    <t>包含了游戏的完整安装包、Yuzu模拟器以及最新的补丁，确保你能获得最佳的游戏体验。不仅解决了闪屏等常见问题，还优化了游戏的运行性能，支持完美60帧的流畅画面。只需简单解压即可开始游戏，无需复杂的设置，非常适合想要快速上手的玩家。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/98241c7a619e</t>
+  </si>
+  <si>
+    <t>文明6+全dlc+修改器+附3.4.5+原生音乐_Sid Meiers Civilization VI_</t>
+  </si>
+  <si>
+    <t>《文明6》是由Firaxis制作、2K Games发行的经典策略游戏《文明》系列的续作。本作建构在《文明》系列的坚实基础上，而且增添了许多精彩的新元素。
+在《文明6》里城市将实际在地图上扩张，创造出全新、深入的策略层次，另外，积极研究科技和文化将能解锁可能的新玩法；还有众多各式各样的领袖会依据历史所记载的个人特征去追求自我宗旨，而且玩家可诉诸自己选择的方式取得游戏胜利。本作将提供多种新方式让玩家与世界互动、在地图上扩张城市，以及对抗历史上的伟大领袖，以建立起经得起时间考验的强盛文明。</t>
+  </si>
+  <si>
+    <t>建造,局域网,回合制,3A大作</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/02be989fd0ad</t>
+  </si>
+  <si>
+    <t>[英语学习]小初高 闪电背单词 PDF合集</t>
+  </si>
+  <si>
+    <t>闪电背单词》小初高合集是由洛基国际英语TOM老师联合多位国内外金牌讲师，经过多年潜心研发的一套英语单词记忆工具。该合集利用电影视觉滚动等创新方法，帮助学生在趣味中快速记忆单词，提升学习效率。它针对小学、初中、高中不同阶段的英语学习需求，提供了科学合理的单词划分和记忆策略，帮助学生攻克英语单词难关，提升英语水平。</t>
+  </si>
+  <si>
+    <t>文档书籍，试卷教辅</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/0271c50ef7f0</t>
+  </si>
+  <si>
+    <t>2015-2024中考真题合集</t>
+  </si>
+  <si>
+    <t>近十年全国各地中考全学科历年真题，高清电子版，可编辑打印。</t>
+  </si>
+  <si>
+    <t>初中</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/2f195737d912</t>
+  </si>
+  <si>
+    <t>理想树《2025版初中必刷题 (全科上册) 》</t>
+  </si>
+  <si>
+    <t>初中全科上册必刷题汇总，新考法、新素材，基础与重点并重，轻松备战中考。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/664a1e86b1af</t>
+  </si>
+  <si>
+    <t>趣课多马方旭《万词王之词汇速记》</t>
+  </si>
+  <si>
+    <t>趣课多马方旭的《万词王之词汇速记》是一门高效记忆单词的课程。该课程通过80节精品视频，教授学员如何拆解单词结构、划分单词类别，并采用多种记忆方法，如词根词缀记忆、联想记忆等，帮助学员快速牢记大量单词。适合各水平英语学习者，尤其是希望提高词汇量的学生。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/0daac68e2135</t>
+  </si>
+  <si>
+    <t>宋分数工作室《宋分数高考数学解题笔记 (2010-2025) 》</t>
+  </si>
+  <si>
+    <t>高考数学培优学习资料，分为上下两册，聚焦知识点精细讲解。附参考答案。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1550b3d120dd</t>
+  </si>
+  <si>
+    <t>新高考数学试卷150套</t>
+  </si>
+  <si>
+    <t>精选全国各地新高考数学模拟试卷，难度适中、针对性强，帮助学生有效适应试题类型，做好应考准备。附答案解析。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a5b3cdb53537</t>
+  </si>
+  <si>
+    <t>《大自然的社交网络》</t>
+  </si>
+  <si>
+    <t>《大自然的社交网络》是德国作家彼得·渥雷本的科普佳作，通过散文诗般的语言，揭示了自然界中万物间复杂而微妙的联系。书中讲述了阔叶树影响地球自转、鹤群降低西班牙火腿产量等惊奇现象，展现了动植物间迷人的关系及自然系统的精妙平衡。渥雷本基于最新科研成果与数十年观察，引导读者以全新视角审视周边世界，感受大自然的神奇与精巧。该书一经出版便广受好评，成为科普领域的畅销之作。</t>
+  </si>
+  <si>
+    <t>自然科普,渥雷本著作,自然联系</t>
+  </si>
+  <si>
+    <t>文档书籍，书籍\小说\PDF</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/251b94c18b49</t>
+  </si>
+  <si>
+    <t>《第一推动丛书.25周年纪念版合集》（套装共43册）</t>
+  </si>
+  <si>
+    <t>《第一推动丛书·25周年纪念版合集》（套装共49册，此处按43册简述为符合字数要求）由湖南科学技术出版社出版，是国内最早、最具影响力的引进版科普图书之一。该合集精选世界一流科学家的一流科学名著，涵盖宇宙、物理、生命、综合四大系列，包括史蒂芬·霍金的《时间简史》、布莱恩·格林的《宇宙的琴弦》等经典作品，传播科学精神、科学思想，对全民进行科学启蒙和教育。</t>
+  </si>
+  <si>
+    <t>书籍</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/9b06bc8ef34c</t>
+  </si>
+  <si>
+    <t>《第一推动丛书.畅销经典套装》（套装共12册）</t>
+  </si>
+  <si>
+    <t>《第一推动丛书·畅销经典套装》（套装共12册）由湖南科学技术出版社出版，汇聚了史蒂芬·霍金、罗杰·彭罗斯、布莱恩·格林等世界顶尖科学家的经典之作。该套装涵盖了宇宙、物理、生命等多个领域，包括《时间简史》《宇宙的琴弦》《黑洞与时间弯曲》等畅销科普读物，是科学精神和前沿探索的完美结合，为读者提供了探索未知世界的宝贵钥匙。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/dc8fe8eba648</t>
+  </si>
+  <si>
+    <t>《第一推动丛书.读懂宇宙的七大经典著作》（新版套装共7册）</t>
+  </si>
+  <si>
+    <t>《第一推动丛书·读懂宇宙的七大经典著作》（新版套装共7册）由湖南科学技术出版社出版，包括《时间简史》《宇宙的琴弦》《宇宙的结构》《黑洞与时间弯曲》《时间之箭》《上帝与新物理学》《物理学的困惑》七本书。该套装书籍涵盖了宇宙学、黑洞、弦理论、时间箭头等前沿话题，是探索宇宙最前沿、最权威理论的经典之作。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/052f8ba0d393</t>
+  </si>
+  <si>
+    <t>《第一推动丛书.宇宙系列》（2022年版·套装共13册）</t>
+  </si>
+  <si>
+    <t>《第一推动丛书·宇宙系列》（2022年版·套装共13册）由湖南科学技术出版社出版，汇集了史蒂芬·霍金、基普·S.索恩等顶尖科学家的宇宙学著作。该套装涵盖了宇宙起源、黑洞、时空弯曲、量子引力等前沿领域，以生动的语言和严谨的科学态度，将宇宙物理学的发展历史、代表人物及理论冲突等知识呈现给读者，是科学爱好者探索宇宙奥秘的必备读物。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/2ec7df78ce12</t>
+  </si>
+  <si>
+    <t>《第一推动丛书.综合系列》（升级版套装共8册）</t>
+  </si>
+  <si>
+    <t>《第一推动丛书·综合系列》（升级版套装共8册）由湖南科学技术出版社出版，集结了《复杂》《复杂的引擎》《皇帝新脑》《逻辑的引擎》《数学的意义》《未来50年》《真理与美》《下一步是什么》8本著作，涵盖了复杂性科学、数学、物理学、计算机科学、哲学等多个领域，是一套具有极高学术价值的丛书。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4174b01362d5</t>
+  </si>
+  <si>
+    <t>《第一推动丛书》（共21本）</t>
+  </si>
+  <si>
+    <t>《第一推动丛书》（共21本）是湖南科学技术出版社引进的极具影响力的科普丛书，由史蒂芬·霍金、罗杰·彭罗斯等世界顶尖科学家所著。该丛书涵盖了宇宙、物理、生命等多个科学领域，展示了科学家们在探索自然奥秘过程中的亲身经历和重大发现，体现了科学精神和探索精神，是科学普及和科学教育的重要读物。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/70a07e4e5c8a</t>
+  </si>
+  <si>
+    <t>《第一推动丛书》（共35本）</t>
+  </si>
+  <si>
+    <t>《第一推动丛书》（共35本）由湖南科学技术出版社出版，是一套极具影响力的科普丛书。它汇集了世界顶尖科学家的科普佳作，涵盖了宇宙、物理、生命、综合等多个领域，从科普的角度展示了科学家求解自然之谜的亲身经历和重大进展。该丛书以科学精神和科学思想为核心，反映了科学家在揭示自然奥秘的过程中表现出的探索精神和批判精神，是科学爱好者的宝贵读物。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e97c4e3ca460</t>
+  </si>
+  <si>
+    <t>《培根随笔全集》---弗朗西斯·培根</t>
+  </si>
+  <si>
+    <t>《培根随笔全集》是英国文艺复兴时期哲学家、文学家弗朗西斯·培根的经典之作。全书共收录五十八篇短文，以其简洁的语言、优美的文笔、透彻的说理和迭出的警句著称，内容涉及政治、经济、宗教、爱情、婚姻、友谊、艺术、教育、伦理等多个方面，展现了培根深邃的思想和广博的学识。这部随笔集被誉为世界文学史上最伟大的散文作品之一，历经四百年而不朽，对后世产生了深远影响。培根在书中以独特的视角探讨人生世态，其思想之博大精深，足可使人们汲取人生路上的精神养分。</t>
+  </si>
+  <si>
+    <t>思想深邃</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5ef459862b46</t>
+  </si>
+  <si>
+    <t>《十万个为什么》[第六版全套18本]</t>
+  </si>
+  <si>
+    <t>《十万个为什么》（第六版全套18本）由全国政协副主席、中国科学技术协会主席韩启德院士担任总主编，110余位两院院士组成编委会，确保科学性与权威性。该书涵盖数学、物理、化学、天文、地球、生命、动植物、古生物、医学、建筑与交通、电子与信息、大脑与认知、海洋、能源与环境、航空与航天、武器与国防、灾难与防护等18个领域，共600万字，7000余幅彩色图片，收录4500余个问题，注重科技前沿和青少年兴趣点，以彩色图文版形式激发青少年好奇心与探究欲。</t>
+  </si>
+  <si>
+    <t>《十万个为什么》第六版,院士主编,多领域知识</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/82b334600f6c</t>
+  </si>
+  <si>
+    <t>《提升孩子学习兴趣的知识大全集》[套装27册]</t>
+  </si>
+  <si>
+    <t>《提升孩子学习兴趣的知识大全集》是一本帮助家长和教师激发孩子学习兴趣的实用指南。本书通过丰富的案例和实践经验，提供了多种方法和技巧，引导孩子发现学习的乐趣，培养他们的自主学习能力和终身学习的习惯。  本书首先介绍了学习兴趣的定义及其特征，强调了学习兴趣在孩子学习过程中的重要性。接着，通过解析好奇心和求知欲这两个学习兴趣的根源，帮助读者理解孩子为何会对某些事物产生浓厚的兴趣，并提供了激发孩子好奇心和求知欲的具体方法。</t>
+  </si>
+  <si>
+    <t>激发好奇心</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/142c95caa2d3</t>
+  </si>
+  <si>
+    <t>《图解一次完全读懂佛经佛教常识》11部佛教经典著作 以现代手法诠释佛陀智慧</t>
+  </si>
+  <si>
+    <t>《图解一次完全读懂佛经佛教常识》是一本关于佛教经典著作的书籍，它以现代手法诠释了佛陀的智慧。这本书通过简洁明了的文字和生动的图表，介绍了佛教的基本概念、历史背景、教义思想和修行方法等方面的内容。 在这本书中，作者选取了11部佛教经典著作进行解读，包括《大般若波罗蜜多经》、《金刚经》、《佛说阿弥陀佛经》等。这些经典著作是佛教中的重要文献，它们包含了佛教的核心思想和智慧。通过阅读这些内容，读者可以更好地理解佛教的教义和思想，领悟佛陀的智慧。</t>
+  </si>
+  <si>
+    <t>佛经解读,现代诠释</t>
+  </si>
+  <si>
+    <t>文档书籍，书籍\小说\PDF，其他资源，玄学集合</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/9014dca4f9e5</t>
+  </si>
+  <si>
+    <t>《一读就上瘾的少年科学课》课本上学不到的有趣科学</t>
+  </si>
+  <si>
+    <t>火箭载人需要满足哪些条件？人类制造的最光滑的镜子是什么？摄像机拍摄能有多快？火车不脱轨是谁的功劳？科学火箭叔带你上天入地，探秘历史上的、现实中的、脑洞里的、课上讲不到的科学知识，带领青少年从多学科角度了解科技进程，激发求知欲，锻炼科学思维。定制趣味插图，轻松搞定科学原理。
+提供PDF、azw3、mobi、epub格式。</t>
+  </si>
+  <si>
+    <t>科普,图书</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/12cff295f3ba</t>
+  </si>
+  <si>
+    <t>《湛庐“科学大师”书系》[10册]</t>
+  </si>
+  <si>
+    <t>包含《李·斯莫林讲量子引力》《理论最小值：经典力学》《人类的起源》《性的进化》《宇宙的起源》等科普读物。一起探究人类文明与科技，共同关心宇宙和人类未来。
+提供PDF、azw3、mobi、epub格式。</t>
+  </si>
+  <si>
+    <t>图书</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/eee087e7fb38</t>
+  </si>
+  <si>
+    <t>《中国古代风水术》风水术基础 阳宅风水[pdf]</t>
+  </si>
+  <si>
+    <t>风水学，又称为风水术或风水学，是中国古代的一种神秘文化，它集地理学、星象学、气象学、建筑学、景观学、生态学、心理学、社会学等多种学科于一体，主要研究环境对人的影响以及如何选择和调整环境以达到最佳的生活和生存状态。</t>
+  </si>
+  <si>
+    <t>环境影响</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/faf514364b3b</t>
+  </si>
+  <si>
+    <t>12堂魔力数学课 [人文社科] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>读完本书，你定会为你上学期间没机会读到这样的数学书而感到懊恼不已！本书作者阿瑟·本杰明是享誉全球的“数学魔术师”，他独创性地将许多人避之不及的数学与许多人津津乐道的魔术结合在一起，为众多数学恐惧症成人患者、正在学习数学的学生们开启了一个奇妙美丽的数学魔法世界。本书堪称“12堂极简数学课”，囊括了我们从小学到中学到大学必须掌握的12个最重要的数学概念，比如算术、代数学、几何学、三角学、微积分、圆周率、无穷大等。更重要的是，本杰明既是一名优秀的数学教授，更是一位高明的魔术师，他的魔术棒所指之处，会让我们茅塞顿开。...</t>
+  </si>
+  <si>
+    <t>电子书,图书,epub</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/84c6aab2a59f</t>
+  </si>
+  <si>
+    <t>20241016日 研报、市场动态分析、财经观点分析</t>
+  </si>
+  <si>
+    <t>20241016日 研报、市场动态分析、财经观点分析，涉及各个行业</t>
+  </si>
+  <si>
+    <t>行业报告,资料</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/54ede041f73b</t>
+  </si>
+  <si>
+    <t>2052：未来四十年的中国与世界 [人文社科] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>在未来四十年中，人口数量将会达到多少？地球是否能承受得了这么多人的生存需求？下一代人是否愿意为这一代人的养老与债务买单？气候与环境会不会一直恶化下去？西方式的民主能否解决人类面对的巨大问题？世界经济的主导地位将如何过渡给中国？乔根·兰德斯，《增长的极限》作者之一，聚合了全球顶尖的科学家、经济学家与未来学研究者，就经济、能源、自然资源、气候、食品、城市化、养老金等问题，对未来四十年进行了趋势预测。...</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e34d2e49a93e</t>
+  </si>
+  <si>
+    <t>how to：如何不切实际地解决实际问题</t>
+  </si>
+  <si>
+    <t>《How to:如何不切实际地解决实际问题》是一本由兰道尔·门罗创作的科普读物，于2020年由天津科学技术出版社出版。书中，门罗以科学严谨的态度，结合多学科知识，针对日常生活中的常见问题，给出了荒诞却符合科学原理的解决方案。这些方案虽不切实际，却激发了读者的好奇心和想象力，展现了科学的非凡魅力。书中内容涵盖数学、物理学、天文学等多个领域，配以幽默的火柴人漫画，让科学知识变得生动有趣。</t>
+  </si>
+  <si>
+    <t>门罗著作,科学魅力</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/480103b09dc7</t>
+  </si>
+  <si>
+    <t>炒饭烩饭宝典[pdf]</t>
+  </si>
+  <si>
+    <t>《炒饭烩饭宝典》是一本专注于炒饭与烩饭烹饪技巧的实用指南。该书汇集了多种经典与创新口味的炒饭与烩饭食谱，如蔬果炒饭、腊肠炒饭、培根炒饭及黑胡椒牛柳烩饭等，涵盖了丰富的食材选择与烹饪方法。书中不仅详细介绍了每道菜的原料配比与制作步骤，还传授了炒饭与烩饭的基础知识与进阶技巧，如米饭的处理、火候的掌握及调味品的运用等。</t>
+  </si>
+  <si>
+    <t>烹饪指南,丰富食谱,技巧传授，菜谱，厨艺，做饭</t>
+  </si>
+  <si>
+    <t>文档书籍，书籍\小说\PDF，学习资源，兴趣技能，副业资源，创业</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3d4cefd35f8a</t>
+  </si>
+  <si>
+    <t>大家小书：历史类套装（15册）</t>
+  </si>
+  <si>
+    <t>《大家小书：历史类套装（15册）》集结了多位历史学大家的心血之作，以精炼的篇幅、深厚的学养，全方位呈现中国古代至近现代的历史变迁。从政治、经济、文化到社会生活的方方面面，深入剖析历史脉络，揭示发展规律，引领读者穿越时空，领略中华文明的博大精深与辉煌灿烂。</t>
+  </si>
+  <si>
+    <t>精炼篇幅</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c4cfeaf8bee4</t>
+  </si>
+  <si>
+    <t>费希特与谢林哲学体系的差异 [人文社科] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>发表于1801年的《费希特与谢林哲学体系的差异》，历来被视为黑格尔的重要作品。表面上看，这部作品梳理了德国唯心主义哲学的两位重要人物——费希特和谢林的哲学体系，并试图澄清两者的根本区别。但实际上，黑格尔通过比较这两位哲学家的思想，发展出自己的哲学观点，尤其是对绝对精神的理解。在黑格尔看来，费希特的哲学过于侧重于主观性，而谢林的哲学虽然更注重自然与精神的统一，但他的尝试没有成功克服对立。因此黑格尔认为，真正的哲学应该超越这种主客观的对立，通过辩证法揭示出绝对精神在自然和人类历史中的自我展现和自我认识过程。也正是这一洞见，让本书成为黑格尔后来哲学体系的重要基石。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e75c9f48ac8c</t>
+  </si>
+  <si>
+    <t>奉旨打劫：英国私掠船活动研究 [历史传记] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>本书致力于从历史学的视角梳理英国私掠船活动的脉络，旨在考察英国私掠船活动演进的历史进程，阐述其发展脉络及其与英国海洋战略的内在联系，从国家战略的高度审视私掠船在英国海洋争霸战争中的地位和作用，从政治和经济角度对英国私掠船活动的调整进行分析阐述。通过深入分析各个时期私掠船在英国发展中的状况和作用，勾勒出英国通过私掠船助推其崛起为世界强国的足迹，深入阐释私掠船在英国崛起中所起的关键作用。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f0d52fa74cbc</t>
+  </si>
+  <si>
+    <t>浮沉 [历史传记] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>里亚布申斯基家族出身农民阶层，通过几代人的努力，建立了声名显赫的商业帝国，在现代俄国社会生活中具有重要地位。作为俄国资本的豪门家族，其商业足迹遍布土地、棉花、木材、玻璃、纺织、出版、银行等多种行业，其成功密码是什么？19世纪末20世纪初，除了卓越的商业成就，家族成员活跃于社会、政治、科学、文学、收藏、艺术、慈善等领域，其社会文化基因是什么？本书通过讲述里亚布申斯基家族三代人自亚历山大一世起到1917年这一时期立身、起家、繁盛和衰落的故事，既回答了上述疑问，也呈现了家族成员鲜活的面影、独特的性格特征和起起落落的生活境遇，为我们了解该时段俄国的社会发展、经济进步以及文化变迁提供了一个窗口。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d55f0fbda5b7</t>
+  </si>
+  <si>
+    <t>干眼自救！ [生活时尚] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>你是否每天都感到眼睛干涩、有异物感？你是否畏光、或者佩戴隐形眼镜越来越困难？你可能已经患上了干眼症。而盲目依赖滴眼液，可能使情况变得更糟，甚至损害你的视力。干眼症的成因因人而异，治疗方法也千差万别。通过本书，你将了解自身干眼症的类型、确定病因、识别环境中的诱因，并获得一系列简单实用的方法来改善干眼症症状。这些方法既包括在家就能做的（如调整日常环境、加强营养、家庭眼部护理），也包括需要医疗干预的（如药物疗法、激素疗法、泪点栓塞、手术等）。书中详细讲解了每一种方法的原理、优点及局限性，帮助你从中找到最适合自己的方法，让眼睛早日恢复水润。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/fda2d75ef824</t>
+  </si>
+  <si>
+    <t>刚刚好的人生 [励志成功] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>从心而活，顺势而为，人生小满胜万全。◆内容简介◆为什么你这次又没能完成项目？为什么你总是学不进去？为什么你和身边人的关系总是一塌糊涂？为什么你明明没干什么却总觉得很累？不是因为你能力不行，也不是因为你懒惰，而是因为你没能顺应自己的优势，获得能量。本书分别从生活、学习、工作、人际关系等方面，帮助你从费力的状态里走出来，不再疲惫、迷茫和焦虑，换个心态生活，以更清晰、简明的思路，面对过去你认为的苦难、障碍和困惑。通过应用本书提到的18种自我成长的方法，你会发现，自己可以最大限度地发挥自己的潜能与才能，享受爱与自由，按照自己的意愿，过上丰盛人生。“水满则溢，月盈则亏”，刚刚好才是理想的人生状态。...</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/9f03bb9c3c50</t>
+  </si>
+  <si>
+    <t>国家建筑标准设计图集22G101全套高清无水印</t>
+  </si>
+  <si>
+    <t>国家建筑标准设计图集是中国工程建设领域的重要参考资料，涵盖了建筑结构设计、建筑材料选择、建筑装饰设计等多个方面。这些图集对于建筑设计师、工程师和施工人员都具有重要的参考价值，有助于保证工程质量、提高效率、节约资源、降低成本，并促进行业技术进步。</t>
+  </si>
+  <si>
+    <t>建筑图集</t>
+  </si>
+  <si>
+    <t>文档书籍，书籍\小说\PDF，其他资源，图片资源</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/07c80bee3db4</t>
+  </si>
+  <si>
+    <t>国医绝学家庭使用手册 (传统中医、中药常识+简便按摩、拔罐、刮痧、艾灸养生方法）</t>
+  </si>
+  <si>
+    <t>《国医绝学家庭使用手册》是一本集传统中医理论、中药常识以及简便的按摩、拔罐、刮痧、艾灸养生方法于一体的实用手册。这本书帮助读者了解中医的基本理论，掌握一些简单的养生技巧，以便能够在日常生活中进行自我调理和健康管理。</t>
+  </si>
+  <si>
+    <t>中医养生</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/71ebdb29d82a</t>
+  </si>
+  <si>
+    <t>华文全球战争史（套装共10册）</t>
+  </si>
+  <si>
+    <t>《华文全球战争史》（套装共10册）是一套由华文出版社策划出版的全景插图版世界史丛书，汇集了多个历史时期和地域的重要战争及其影响。该套装书以纵深性、系统性、权威性和全面性的视角，呈现了从古代到近现代的世界战争史。具体包括《拿破仑·波拿巴与反法同盟战争》、《玫瑰战争、亨利七世与都铎王朝的兴起》、《海斯总统传:南北战争与美利坚统一的再造》、《西班牙王位继承战争:1701-1714》、《腓特烈大帝与约瑟夫二世:18世纪的战争与外交》、《索姆河战役:第一次世界大战的幽灵》、《滑铁卢战役:一部军事史》、《殖民、争霸与现代北美的诞生:新法兰西与新英格兰》、《塞尔维亚史:困扰巴尔干半岛一千五百年的火药桶》以及《土耳其革命:1908—1909》等十部作品，每本书均由相关领域的知名学者撰写，为读者提供了丰富而深入的历史知识和见解。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/8731d75c58e5</t>
+  </si>
+  <si>
+    <t>吉本芭娜娜作品系列套装（套装共13册）</t>
+  </si>
+  <si>
+    <t>吉本芭娜娜作品系列套装（套装共13册）汇聚了日本知名作家吉本芭娜娜的多部经典作品，包括《哀愁的预感》《蜜月旅行》《不伦与南美》等热门小说。吉本芭娜娜以细腻别致的笔触书写家庭、成长与情感，作品充满治愈与和解的力量，深受全球读者喜爱。套装设计精美，是文学爱好者的必藏之选。</t>
+  </si>
+  <si>
+    <t>细腻笔触,治愈文学</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5cb41069adbb</t>
+  </si>
+  <si>
+    <t>李尔王 [小说文学] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>《李尔王》是莎士比亚创作的经典悲剧之一，讲述了不列颠王李尔将其国土一分为三，欲由其三个女儿分别继承。大女儿、二女儿在国王分配国土时对父亲百般甜言蜜语，尽述父女深情，李尔王深感快慰；而三女儿并不屑于像两个姐姐般花言巧语、争宠夺爱，其平淡的表露引得李尔王大怒，使她遭到父亲的抛弃。不久之后，大女儿、二女儿虚伪自私的本性暴露，两人不愿收留自己的父王，甚至将其赶至荒郊。此时已成为法兰西皇后的三女儿听说后立即率军救父，却终被害死。李尔王悲伤过度，也奔溃而亡。本书是综合了近年来莎士比亚戏剧最新研究成果的译本，能为读者提供更加优良的阅读体验。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/0d8c97665719</t>
+  </si>
+  <si>
+    <t>历史背后的细节（套装共6册）</t>
+  </si>
+  <si>
+    <t>《历史背后的细节》（套装共6册）是一套深入剖析历史细节与暗逻辑的书籍，通过精准犀利的文字和幽默的笔触，揭示了大历史中的小人物和小细节中的大主宰。此套装可能包含如《暗逻辑:张鸣说历史背后的细节》等作品，这些书籍不仅补充了历史读物的广度，更通过细致入微的剖析，让读者对历史事件和人物有更全面、深刻的认识。张鸣等作者以其独特的视角和深厚的底蕴，为读者呈现了一个个生动、真实的历史场景，让读者在轻松愉快的阅读中感受到历史的魅力和深度。</t>
+  </si>
+  <si>
+    <t>张鸣著作,深度认识</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a5ea00df608e</t>
+  </si>
+  <si>
+    <t>历史的温度（套装共5册）</t>
+  </si>
+  <si>
+    <t>《历史的温度》（套装共5册）是张玮所著的一套历史文学读物，由中信出版社出版。这五册书通过生动有趣的笔触，深入挖掘并还原了历史背后的故事、细节、信念与人性，让历史人物和事件跃然纸上，充满温度。书中内容广泛，涵盖了中国及世界历史上的重要节点、著名人物和事件，如叶名琛、丁汝昌、爱因斯坦、爱迪生、徐霞客、麦哲伦等，展现了历史的多样性和复杂性。张玮以第三方视角，尽量不带感情色彩地还原历史，同时用辩证的眼光看待历史人物和事件，引导读者在轻松愉快的阅读中感受历史的魅力和深度。该套装书籍深受读者喜爱，是了解历史、增长见识的佳作。</t>
+  </si>
+  <si>
+    <t>张玮著作,历史故事,人物事件</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/06c3de2e2245</t>
+  </si>
+  <si>
+    <t>面食制作宝典</t>
+  </si>
+  <si>
+    <t>书中详细阐述了面粉的选择、和面技巧、发酵方法以及各类面食的制作步骤与要点，包括饺子、包子、馒头、面条、饼类等经典与创意面食。通过图文并茂的形式，让读者轻松掌握面食制作的精髓，享受亲手制作美味面食的乐趣。</t>
+  </si>
+  <si>
+    <t>技巧要点，菜谱，厨艺，做饭</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/7e43c01531f6</t>
+  </si>
+  <si>
+    <t>名家科普经典系列（套装共14册）</t>
+  </si>
+  <si>
+    <t>名家科普经典系列（套装共14册）是一套集科普知识与经典著作于一体的丛书，涵盖了生物学、物理学、天文学、数学等多个学科领域。该套装包括《我即我脑》、《时间的故事》、《奇妙的生命》、《火烈鸟的微笑》等经典作品，以及《寻找多重宇宙》、《霍金的宇宙》等前沿科学探索。书中通过深入浅出的讲解和生动的案例，向读者展示了科学的魅力与奥秘，引领读者走进科学的殿堂，感受科学的神奇与伟大。同时，该套装还注重培养读者的科学思维和创新精神，激发读者对科学的兴趣和热爱。</t>
+  </si>
+  <si>
+    <t>多学科,科学魅力</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d85f4757ef62</t>
+  </si>
+  <si>
+    <t>男生强身健体食补秘方</t>
+  </si>
+  <si>
+    <t>男生强身健体食补秘方，民间珍藏，祖传秘方，精选天然食材，科学搭配，提升免疫力，均衡摄入，长期坚持，可显著改善体质，塑造强健体魄。</t>
+  </si>
+  <si>
+    <t>男生食补</t>
+  </si>
+  <si>
+    <t>文档书籍，书籍\小说\PDF，学习资源，个人发展</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/9f31ba588b7f</t>
+  </si>
+  <si>
+    <t>牛津通识读本《卢梭》</t>
+  </si>
+  <si>
+    <t>牛津通识读本《卢梭》由英国历史学家、政治理论家罗伯特·沃克勒撰写，深入解读了让-雅克·卢梭的政治理论和思想体系。该书不仅涵盖了卢梭的《社会契约论》、《论人类不平等的起源和基础》等经典著作，还提供了背景知识、关键概念和重要观点的解读，帮助读者全面理解卢梭的思想。沃克勒在书中详细阐述了卢梭的历史哲学、音乐和政治理论，以及他的小说、教育和宗教作品，甚至包括他的植物学创作，如何受其关于人类自由状态下自我实现的空想理念所激发。此外，沃克勒还解释了卢梭在回归古典共和主义、古代神话、与神直接交流及孤独状态中，如何预见到了后现代主义者对启蒙运动的某些拒斥。这本书是英语世界中难得一见的阐释卢梭思想发展脉络的概览性作品，对于学术研究者和对政治哲学感兴趣的读者来说，都是一本值得一读的佳作。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6f7757ae95d5</t>
+  </si>
+  <si>
+    <t>浓香蒸菜[pdf]</t>
+  </si>
+  <si>
+    <t>《浓香蒸菜》是一部专注于探索蒸制美食奥秘的烹饪指南，精选多种食材，通过独特的蒸制工艺，保留食材原汁原味与丰富营养。书中不仅传授了基础蒸菜技巧，还创新融合了各式调料与风味，打造出层次分明的浓香口感。每一道蒸菜都是对食材的极致尊重与烹饪艺术的展现，引领健康美味的饮食新潮流。</t>
+  </si>
+  <si>
+    <t>菜谱，厨艺，做饭</t>
+  </si>
+  <si>
+    <t>文档书籍，书籍\小说\PDF，副业资源，创业</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/dd94d2435d3f</t>
+  </si>
+  <si>
+    <t>胖虎下山 [小说文学] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>编辑推荐：◎风靡全网的胖虎出没，“猫铃铛”作者新作，漫画家、玩具设计师@不二马大叔首部个人画集欢喜参上！◎全书7大章节，收录2017～2021年胖虎系列画作近300副，更有作者从未发表过的作品和绘制教程在内。从“胖且生气”的胖虎和“喊妈”小虎的野生父子日常，到“万物皆可胖虎”百变立绘，再到节气主题插画，一本囊括海量精彩。◎16开尺寸，书脊采用裸背锁线工艺，可180度平摊打开，精美画作一笔都不遮挡。作者全新绘制封面，互动双封，无处不虎趣。内文使用艺术纸，精湛笔触，臻彩呈现。◎不二马笔下的“猛虎”憨态可掬，画风自然，巨大的反差萌引得百万粉丝“云吸虎”。...</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/69028eba6f69</t>
+  </si>
+  <si>
+    <t>怦然心动的工作整理魔法 [励志成功] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>如果你曾经或正在面临这些困扰：·办公区杂乱无章，想找的东西永远找不到·一口气整理完，用不了多久很快打回原形·电子文档不会归类，电脑桌面一团混乱·时间永远不够，每天被各种deadline追着跑·大会小会不断，高质量的会议却凤毛麟角……别犹豫，快翻开这本书，你需要的答案都在里面！“日本整理女王”近藤麻理惠继《怦然心动的人生整理魔法》全球畅销12000000册后全新力作！这一次她重新梳理自己的“整理魔法思维”，从日常家居升级到“生活+工作”的双核模式，用整理的方法和概念，提供故事、研究和策略，帮我们从办公场所、办公工具甚至办公理念中真正腾出“空间和时间”，真正享受整洁的环境和思路带来的工作效率，真...</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d027f511ac48</t>
+  </si>
+  <si>
+    <t>契诃夫小说选集·全27册</t>
+  </si>
+  <si>
+    <t>《契诃夫小说选集·全27册》是一套由人民文学出版社出版的经典文学作品集，收录了俄罗斯著名小说家契诃夫的二百余篇短篇小说。该选集由翻译家汝龙精心翻译，并经过重新校订，确保译文准确传达原著精髓。全书共27册，每册独立成篇，取名活泼引人，便于携带阅读。契诃夫以其独特的幽默与深刻的洞察力，在小说中描绘了俄国社会各阶层的生活图景，展现了人性的复杂与多样。这套选集是了解契诃夫文学世界、品味经典文学的必备之选。</t>
+  </si>
+  <si>
+    <t>汝龙翻译</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d944b2a7c524</t>
+  </si>
+  <si>
+    <t>钱歌川英语学习大全：教育泰斗毕生英语教学总结（套装共5册）</t>
+  </si>
+  <si>
+    <t>《钱歌川英语学习大全：教育泰斗毕生英语教学总结》（套装共5册）是钱歌川先生的英语教学总结之作，全面覆盖英语语法与写作两大核心领域。该书分为“语法之部”和“作文之部”，前者深入剖析词性、语法规则及练习，后者则通过造句例解、作文批改及英文正误纠偏，帮助学生系统提升英语能力。</t>
+  </si>
+  <si>
+    <t>钱歌川著作,语法写作</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/aeda830cec7d</t>
+  </si>
+  <si>
+    <t>人类的情感 [历史传记] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>快乐、愤怒、厌恶、恐惧、悲哀和惊讶，跨越了文化隔阂，是所有人都有的情感。从古希腊到中世纪，从启蒙运动到大众传媒时代，从拿破仑写给约瑟芬的情书到奥巴马写给女儿们的信，从玛丽?雪莱的《弗兰肯斯坦》到斯皮尔伯格的《人工智能》、梦工厂的《怪物史莱克》，情感在历史发展进程中发挥着催化作用，不同文化在不同时期对情感的处理方式亦存在差异，但关于情感这个古老而又新鲜的研究领域其实已有近一百年的历史……</t>
+  </si>
+  <si>
+    <t>情感共通,历史进程,文化差异</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a014e62402e6</t>
+  </si>
+  <si>
+    <t>如何成为一个很厉害的人（套装三册） [套装合集] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>《重复力：如何把简单的事情做到极致》本书告诉读者：水滴石穿，不是水的力量，而是重复落的力量。同样的道理，柔弱的幼苗之所以能够破土而出，不是苗的力量，而是重复顶的力量。这样的重复充满了精气神。美国的马尔科姆曾经提出著名的“一万小时定律”，就是做事情只要坚持一万小时以上，基本上都可以成为该领域的专家。所以，我们无论做什么事，只要能坚持一万个小时，即使没有发生奇迹，至少也会战胜自己。若是能再多学学反复倒油的卖油翁和反复试验的爱迪生，或许真的会有奇迹发生。《自控力：如何平衡自己的时间和生活》本书告诉读者：如果你想让生活变得更美好，就从自控力入手吧。...</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c9d8923ea5e8</t>
+  </si>
+  <si>
+    <t>山河犹存：陈舜臣带你读史（套装共10册）</t>
+  </si>
+  <si>
+    <t>《山河犹存：陈舜臣带你读史（套装共10册）》是华裔日本作家陈舜臣的代表作，他在历史创作领域与司马辽太郎并称“双璧”。该套装以故事的形式，细致还原了近代中日两国的大事件及中国各大派系的发展进程，展现了近代中国社会军政、经济、文化、社会生活的变化，以及中国青年们的奋斗精神。陈舜臣以其渊博的历史知识和丰厚的文化功底，让读者轻松掌握相关历史，兼具专业性与趣味性，是了解中国近代史的极佳读本。</t>
+  </si>
+  <si>
+    <t>陈舜臣著作,历史故事</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/de973a49be49</t>
+  </si>
+  <si>
+    <t>十万个为什么（第六版 全套18册年儿童出版社</t>
+  </si>
+  <si>
+    <t>《十万个为什么（第六版 全套18册）》由少年儿童出版社出版，总主编为韩启德。该套书自20世纪60年代初出版以来，已历经多个版本，是新中国几代青少年的科学启蒙读物。第六版于2013年首发，内容近九成全新，涵盖数学、物理、化学、天文、地球、生命、动物、植物、古生物、医学、建筑与交通、电子与信息、大脑与认知、海洋、能源与环境、航空与航天、武器与国防、灾难与防护等18个分册，每个分册包含250～300个问题。该套书约请“两院”院士担任图书编委，一线专家、学者、科研人员、科普工作者编写，权威科学家审稿，确保了内容的科学性和权威性。同时，书中采用大量彩色图片和生动有趣的科学故事，增强了读者的阅读兴趣，是青少年科普读物的佳作。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/54a156719a74</t>
+  </si>
+  <si>
+    <t>世界奇异档案记录[pdf]</t>
+  </si>
+  <si>
+    <t>《世界奇异档案记录》是一部以奇异事件和未解之谜为主题的书籍，可能以PDF形式存在。该书通过记录世界各地的奇异档案，展现了许多令人惊叹和不解的现象，如超自然现象、神秘生物、历史谜团等。内容引人入胜，满足读者对未知世界的好奇心和探索欲。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ab31b8d7dd9d</t>
+  </si>
+  <si>
+    <t>双语译林文库·世界名著（共108册）</t>
+  </si>
+  <si>
+    <t>双语译林文库·世界名著（共108册）是一套精选自世界文学宝库的中英双语读物，涵盖了多个时期、地域的经典作品，包括《小妇人》、《月亮与六便士》、《面纱》等名著。该套装通过双语对照的方式，让读者在欣赏文学之美的同时，提升英语阅读能力，拓宽国际视野，感受不同文化的魅力。每本书均由专业译者精心翻译，确保语言准确流畅，为读者带来原汁原味的阅读体验。</t>
+  </si>
+  <si>
+    <t>英语学习</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/298ff8ab6edf</t>
+  </si>
+  <si>
+    <t>无知的教师 [人文社科] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>本书是法国当代最有影响力的哲学家朗西埃的哲学奠基之作，其中的思想要点，贯穿了他之后所有的研究。而本书写法，像是讲述故事，讲了一名法国教师雅科托的不凡经历。雅科托依据一本传统的小说课本，创设了他的教学法，他从书中的第一句话开始，教给只字不识的人如何阅读。而其中关键，就是教师自身并不授以具体的知识，鼓励学生运用自己的认识能力，教师只用“验证”学生是否学会。所以这套办法，甚至可以授以贫民父亲，让他们教孩子读书识字，解放智力。这不仅促生了一种社会改良的有效办法，更提出了一种平等的哲学。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/500d48776f3a</t>
+  </si>
+  <si>
+    <t>物理学之“道” [人文社科] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>改版后的《物理学之&amp;#8221;道&amp;#8221;:近代物理学与东方神秘主义(第4版)》包括了一篇新的前言和后记。在这里，作者审视了这本书自第一版到如今25年的发展。探讨了《物理学之&amp;#8221;道&amp;#8221;:近代物理学与东方神秘主义(第4版)》所得到的批评。并对一个未来的科学界所可能带来的影响作了预言。《物理学之&amp;#8221;道&amp;#8221;:近代物理学与东方神秘主义(第4版)》由卡普拉著。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/03d613db442b</t>
+  </si>
+  <si>
+    <t>稀缺资源：中国国家地理杂志2003以来大合集整理</t>
+  </si>
+  <si>
+    <t>《稀缺资源：中国国家地理杂志 2003以来大合集整理》是一份珍贵的地理知识宝库，汇集了自2003年以来的《中国国家地理》杂志电子版。这些杂志不仅涵盖了中国各地的自然风光和人文景观，还涉及天文、生物、历史和考古等多个领域。
+自1950年创刊以来，《中国国家地理》一直以其权威性和独特性，成为地理爱好者和学术研究者的重要参考资料。每一期杂志都通过精美的图片和深入的文章，揭示了自然和人文景观背后的故事和奥秘。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/0572ef5db9e8</t>
+  </si>
+  <si>
+    <t>小炒一本就够 全彩扫描版[pdf]</t>
+  </si>
+  <si>
+    <t>《小炒一本就够》是一本全面介绍小炒技巧的烹饪书籍，采用全彩扫描版印刷，使得菜品的色彩和细节都得到了完美的呈现。  这本书的特点是简洁实用，内容涵盖了各种小炒的制作方法和技巧，包括选材、刀工、火候、调味等方面，非常适合烹饪爱好者和家庭主妇参考。  书中的菜品种类丰富，包括肉类、海鲜、蔬菜等各种小炒，每一道菜都有详细的制作步骤和图片解说，让读者能够轻松掌握制作技巧，做出美味可口的小炒菜肴。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a9ea99984b3b</t>
+  </si>
+  <si>
+    <t>小文艺口袋文库·知人系列（全7册）</t>
+  </si>
+  <si>
+    <t>《小文艺口袋文库·知人系列》（全7册）由上海文艺出版社于2020年3月出版，由[美]丹尼斯·林等多位作者编著。该系列以胶囊式传记形式，深入剖析了七位饱受争议的天才人物：埃德加·爱伦·坡、大卫·林奇、J.D.塞林格、汉娜·阿伦特、卢西安·弗洛伊德、阿尔弗雷德·希区柯克以及梵高。</t>
+  </si>
+  <si>
+    <t>小文艺文库</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ea24d6b061ce</t>
+  </si>
+  <si>
+    <t>徐静琰《24个绘本阅读秘籍》</t>
+  </si>
+  <si>
+    <t>根据儿童成长的脉络，梳理八类主题绘本，借力亲子阅读从而激发孩子阅读兴趣，开阔孩子眼界，丰富孩子知识，培养爱思考的全能型宝宝。</t>
+  </si>
+  <si>
+    <t>绘本故事,有声读物</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b458bfe6095d</t>
+  </si>
+  <si>
+    <t>养生粥煲制大全[pdf]</t>
+  </si>
+  <si>
+    <t>《养生粥煲制大全》是一本全面介绍各类养生粥品制作方法的实用指南。书中精选了多种具有不同功效的粥品配方，如健脾养胃的小米粥、润肺止咳的百合粥、补血养颜的红枣粥等，详细阐述了每种粥的选材、配比、煲制步骤及食用注意事项。通过简单易学的操作，读者可以在家中轻松煲制出美味又养生的粥品，为日常饮食增添健康元素。</t>
+  </si>
+  <si>
+    <t>制作指南,美味养生,功效多样，菜谱，厨艺，做饭</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4d4cb06fa06a</t>
+  </si>
+  <si>
+    <t>由中转到再现代 [人文社科] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>&amp;#8220;本书为“中国雕塑史论文丛”之一，本书凝聚着一个美术馆的文化视野、历史责任和文化担当，同时从差异化的展览理念中，也不同程度反映了中国当下社会的变化及我们共同面临的生存处境和生存困境，也深刻地反思了全球文化格局中的文化冲突与融合问题，及急速变化的社会现实所带来的焦虑体验，这其实是中国在迈向现代性过程中社会不断转型的缩影，也反映了进入21世纪十几年来中国社会的经济结构、文化身份、生活习惯和价值认同的变化。“中国雕塑史论文丛”汇集了多位知名艺术理论家、评论家的研究成果，旨在从历史和未来的角度，深入梳理中国雕塑的历史经验，探讨中国雕塑的发展路径和趋势。...</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f14e9fa7ee0a</t>
+  </si>
+  <si>
+    <t>与神对话(全5卷）一部不可撼动的殿堂级经典著作，值得一生等待的灵魂圣经</t>
+  </si>
+  <si>
+    <t>《与神对话（全5卷）》是由美国作家尼尔·唐纳德·沃尔什创作的畅销心灵读本，全球销量超1500万册。书中以“我”与虚构的“神”展开对话的形式，探讨了爱、恐惧、生命、痛苦等深刻主题，提出生命是创造而非发现的过程等独到见解。沃尔什以不容辩驳的逻辑和通俗易懂的文笔，融合神学、哲学和心理学，为读者提供了全新的世界观和人生观，被誉为“我们时代的灵魂圣经”。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/0a5e27452ea4</t>
+  </si>
+  <si>
+    <t>中国古典文学名家选集（全17册）</t>
+  </si>
+  <si>
+    <t>《中国古典文学名家选集》（全17册）由上海古籍出版社出版，精选了唐宋至清代众多文学名家的代表作品，如韩愈、李白、杜甫、苏轼等，涵盖诗词、散文等多种文体。每册由古典文学研究专家精心选注，注释详尽，既有名家生平简谱，又附相关研究成果，是古典文学研究者和爱好者的珍贵参考读物，深受读者喜爱，在海内外获得广泛好评。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e6f7421eea18</t>
+  </si>
+  <si>
+    <t>中国历史百科全书</t>
+  </si>
+  <si>
+    <t>《中国历史百科全书》是一部系统梳理中国五千年历史的权威著作，由众多专家学者共同编撰完成。该书以时间为线，以条目为纲，内容涵盖政治、经济、文化、社会风俗等多个领域，详略得当，语言凝炼，堪称工史之笔。它不仅是中国史学界集体智慧的结晶，也是广大读者了解中国历史、传承中华文明的重要工具。通过这本书，读者可以全方位、多角度地了解中国历史的发展脉络和文化精髓。</t>
+  </si>
+  <si>
+    <t>史学著作</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/32bfebd39fa0</t>
+  </si>
+  <si>
+    <t>中国皮肤病性病图鉴  特殊现场清理师</t>
+  </si>
+  <si>
+    <t>七年时间，三次重印，累计万册，均已售罄。说明本书第1版深受广大读者的欢迎。本次修订保持了第1版的基本形式不变，仍以大量的图片为主，辅以简明扼要的诊疗文字描述</t>
+  </si>
+  <si>
+    <t>医学,法医,皮肤科,医院,电子书,书籍,PDF</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f5dad74f3116</t>
+  </si>
+  <si>
+    <t>中国文化合集（套装共36本)</t>
+  </si>
+  <si>
+    <t>《中国文化合集（套装共36本）》是一套全面展现中国文化的经典丛书，由李济、费孝通、梁思成等多位大家之作汇编而成。该合集以中英双语形式呈现，涵盖中华思想、中医、建筑、历史、经济、外交等多个领域，深度挖掘并展示了中国深厚的历史内涵和文化底蕴。通过阅读这套合集，读者可以全方位、多角度地了解中国文化，领略其独特的魅力和智慧。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/9b0a537a6b59</t>
+  </si>
+  <si>
+    <t>中国最美的气质套装（全15册） [套装合集] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>中国历史悠久，自黄帝王朝的姬轩辕时期算起约有5000年，历经夏、商、周、秦、汉、晋、隋、唐、明、清等大大小小83个王朝，559个帝王。历经多次政权演变和朝代更迭，涤荡出许多光风霁月、眉目如画的佳人。这些女子经受住岁月的历练，在几千年的历史长河里姹紫嫣红，熠熠生辉，永不被人遗忘。本书从春秋到东晋，从唐代到五代，从北宋到南宋，从明清到民国，跨越3000年历史，细数中国最美气质。...</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a52508eb5ef7</t>
+  </si>
+  <si>
+    <t>中信2021豆瓣高分盘点-科普新知（共10册） [套装合集] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>《气候经济与人类未来》内容简介：比尔·盖茨花了十年时间调研气候变化的成因和影响。在物理学、化学、生物学、工程学、政治学和经济学等领域的专家的支持下，他专注于探索减少温室气体排放的新技术。在本书中，比尔·盖茨从电力、制造业、农业、交通等碳排放主要领域分析了零排放面临的挑战，可使用的技术工具以及我们需要的技术突破，并提供了一套涵盖广泛但每一步都切实可行的行动计划。诚如比尔·盖茨在书中一再强调的，实现零排放并非易事，但如果我们遵循他给出的计划，这个目标定会实现。无论你是政策决策者、企业家，还是忙于生计的普通民众，你都可以贡献力量，一起帮助这个世界避免气候灾难。...</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/01463136d808</t>
+  </si>
+  <si>
+    <t>中信出版社 诺贝尔经济学奖得主作品合集（套装共21册）</t>
+  </si>
+  <si>
+    <t>中信出版社的诺贝尔经济学奖得主作品合集（套装共21册）汇聚了多位经济学领域杰出学者的经典著作，涵盖了宏观经济、金融政策、行为经济学等多个方面。该合集包括《伯南克论大萧条》、《金融的本质：伯南克四讲美联储》、《行动的勇气：金融危机及其余波回忆录》等，每本书都深入探讨了经济学的重要议题，提供了丰富的理论分析和实践案例。</t>
+  </si>
+  <si>
+    <t>经济学著作</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f0fa0b6204e9</t>
+  </si>
+  <si>
+    <t>众名家钢笔、硬笔字帖</t>
+  </si>
+  <si>
+    <t>《众名家钢笔、硬笔字帖》合集
+共30套，超高清PDF，可打印，夸克+度</t>
+  </si>
+  <si>
+    <t>书法,字体,写字</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/72a846d7274d</t>
+  </si>
+  <si>
+    <t>最全高清人体穴位图及穴位图解大全</t>
+  </si>
+  <si>
+    <t>通过高清的图片和详细的图解，向读者展示了人体各个部位的穴位分布、名称、位置、功效及按摩方法等内容。</t>
+  </si>
+  <si>
+    <t>高清图片,详细图解</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/7dc59404efb5</t>
+  </si>
+  <si>
+    <t>作家榜经典：孤独小说家</t>
+  </si>
+  <si>
+    <t>《作家榜经典：孤独小说家》是日本作家石田衣良的温情励志小说，讲述小说家青田耕平在中年遭遇事业瓶颈，经历自我怀疑与挣扎，最终凭借坚持与努力赢得文学大奖，实现人生逆转的故事。小说笔触细腻，情感真挚，展现了主人公在追求梦想过程中的孤独与坚持，以及最终收获的成功与喜悦。该书不仅是一部励志佳作，更是一部触动人心的文学作品，让读者在感受主人公心路历程的同时，也能从中汲取力量与勇气。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/14e6d9f7907f</t>
+  </si>
+  <si>
+    <t>【100多道菜】实用教学让你从小白变大厨</t>
+  </si>
+  <si>
+    <t>100多道菜，实用教学让你从小白变大厨，夸克网盘资源下载。</t>
+  </si>
+  <si>
+    <t>兴趣爱好，菜谱，厨艺，做饭</t>
+  </si>
+  <si>
+    <t>学习资源，兴趣技能，副业资源，创业</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/278dd8bb660c</t>
+  </si>
+  <si>
+    <t>【得到】武志红年度心理课：从自恋到自信（39讲）</t>
+  </si>
+  <si>
+    <t>《从自恋到自信》是一门既有理论深度又有实践指导意义的课程，适合那些希望提升自我认知、增强自信心、改善人际关系和职业发展的听众。 学习这门课程，听众可以逐步摆脱自恋的束缚，建立更健康、更积极的自我形象，实现个人成长和成功。</t>
+  </si>
+  <si>
+    <t>自信提升,积极形象</t>
+  </si>
+  <si>
+    <t>学习资源，个人发展</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/55afd133f79d</t>
+  </si>
+  <si>
+    <t>【哈佛】英语口语教学+场景练习</t>
+  </si>
+  <si>
+    <t>引导学生进行大量的口语练习，提高学生的口语表达能力和交流能力。</t>
+  </si>
+  <si>
+    <t>哈佛雪梨英语口语教学</t>
+  </si>
+  <si>
+    <t>学习资源，幼中小大学资源</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a1be169cf074</t>
+  </si>
+  <si>
+    <t>【完结】杨照－古代中国的留言：先秦经典八部</t>
+  </si>
+  <si>
+    <t>《杨照－古代中国的留言：先秦经典八部》是杨照老师对先秦时期八部经典著作的深入解读，包括《荀子》、《孟子》、《墨子》、《周易》、《论语》、《左传》、《诗经》和《尚书》。这八部经典代表了中国轴心突破时代的思想与文化，是理解古代中国文明的重要基石。杨照老师通过生动的讲解，揭示了这些经典著作的历史背景、思想内涵及其对后世的影响，为读者呈现了一幅丰富多彩的先秦文化画卷。</t>
+  </si>
+  <si>
+    <t>杨照解读</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/fccf8894851d</t>
+  </si>
+  <si>
+    <t>2024中级经济师建筑专业PDF电子教材</t>
+  </si>
+  <si>
+    <t>2024 中级经济师建筑专业 PDF 电子教材来啦！
+这份教材内容全面，涵盖建筑专业的各个重要知识点。清晰的排版，方便阅读和标记。
+对于备考中级经济师建筑专业的考生来说，是不可或缺的学习资料。随时随地学习，提高备考效率。
+获取这份电子教材，为你的考试之路助力。让我们一起努力，在 2024 年中级经济师考试中取得优异成绩！</t>
+  </si>
+  <si>
+    <t>考试助力,努力奋进</t>
+  </si>
+  <si>
+    <t>学习资源，考证考公</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/082638f83912</t>
+  </si>
+  <si>
+    <t>2025考研 政治 徐涛 等课程 PDF 合集</t>
+  </si>
+  <si>
+    <t>各个名师精讲，细致 PDF 重点，考研规划</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/efec25eef3d2</t>
+  </si>
+  <si>
+    <t>Github电子书精选合集</t>
+  </si>
+  <si>
+    <t>Github电子书精选合集，汇聚了编程、数据科学、机器学习、网络安全等多领域的优质资源。这些电子书由顶尖专家编写，内容涵盖基础知识到高级实践，提供详尽的代码示例和案例分析。无论是初学者还是资深从业者，都能在此找到适合自己的学习资料，是编程爱好者和专业人士的宝贵财富。</t>
+  </si>
+  <si>
+    <t>编程学习</t>
+  </si>
+  <si>
+    <t>学习资源，编程开发</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/339dc580cda6</t>
+  </si>
+  <si>
+    <t>MIT麻省理工学院公开课合集 中英双语字幕</t>
+  </si>
+  <si>
+    <t>麻省理工学院公开课合集包含多门学科的中英双语字幕课程，如单变量微积分、经典力学、电磁学、人工智能等。这些课程由麻省理工学院顶尖教授亲自授课，内容深入浅出，适合不同基础的学习者。中英双语字幕的加入，更是为英语学习者提供了便利，使其能够轻松理解课程内容，提升专业素养。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6eaf3bfd00f0</t>
+  </si>
+  <si>
+    <t>Nancy 罗南希两性情感小课堂</t>
+  </si>
+  <si>
+    <t>Nancy罗南希两性小课堂是一个专注于两性关系教育的课程，提供系统且深入的两性知识讲解。课程涵盖情感沟通、恋爱技巧、婚姻经营、性别认知等多个方面，帮助学员理解两性差异，提升情感智慧，建立健康和谐的两性关系。通过科学的方法和丰富的案例，Nancy罗南希两性小课堂为学员提供实用的两性相处之道。</t>
+  </si>
+  <si>
+    <t>学习资源，两性教育</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/8cb1bd01669b</t>
+  </si>
+  <si>
+    <t>Python自动化办公教程处理Excel等技巧   快速掌握小白必备</t>
+  </si>
+  <si>
+    <t>专为小白设计的实用课程，旨在帮助学员快速掌握Python在办公自动化中的应用。通过这门课程，你将学会如何使用Python处理Excel文件，并实现各种办公自动化任务，从而大幅提升工作效率。
+课程内容涵盖了Python编程的基础知识，包括数据类型、条件语句和循环等基本概念。此外，还结合了多个实用的办公自动化案例，如发送邮件、处理大文件和操作Excel等，帮助你在短时间内掌握这些技能。</t>
+  </si>
+  <si>
+    <t>python，自动化办公</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/14d495b76290</t>
+  </si>
+  <si>
+    <t>八方网域-网络安全大师课-带源码课件</t>
+  </si>
+  <si>
+    <t>八方网域-网络安全大师课-带源码课件，是一套全面的网络安全学习资料。课程深入讲解网络安全攻防技术，涵盖网络攻击原理、防御策略、漏洞挖掘与修复等核心内容。附带源码课件，方便学员实践操作，提升实战能力。适合网络安全从业者、IT技术人员及网络安全爱好者深入学习。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/14bdbe26db17</t>
+  </si>
+  <si>
+    <t>大语文名师团《36本名著精讲》</t>
+  </si>
+  <si>
+    <t>读透中小学阅读经典名著，覆盖 1000 个知识点, 对应学习方法 + 技巧，文、史、地多维讲解, 字、辞、篇系统学习。</t>
+  </si>
+  <si>
+    <t>有声读物</t>
+  </si>
+  <si>
+    <t>文档书籍，有声读物</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/fa357e85830a</t>
+  </si>
+  <si>
+    <t>抖音短视频拍摄运镜技术视频课</t>
+  </si>
+  <si>
+    <t>抖音短视频拍摄运镜技术包含推、拉、摇、移、跟等多种技巧。推镜头靠近物体以突出主体，拉镜头远离主体展现环境。摇镜头原地旋转拍摄，展现全貌。移镜头平行移动，表现空间关系。跟镜头跟随拍摄主体，增强代入感。这些技术结合使用，可创造出丰富多样的视觉效果。</t>
+  </si>
+  <si>
+    <t>学习资源，兴趣技能</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f60654325b9c</t>
+  </si>
+  <si>
+    <t>抖音热门舞蹈教程合集</t>
+  </si>
+  <si>
+    <t>抖音热门舞蹈教程合集精选当下流行的舞蹈视频教程，包含街舞、爵士、韩舞等多种风格，由专业舞蹈导师及网红KOL亲自示范。教程内容详细，步骤清晰，适合不同水平的舞蹈爱好者学习。通过学习这些热门舞蹈，用户可以快速提升舞技，享受舞蹈带来的乐趣与成就感。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/2ae8cec8a2a2</t>
+  </si>
+  <si>
+    <t>父母与孩子沟通相处五门必修大课[MP3]</t>
+  </si>
+  <si>
+    <t>父母与孩子沟通相处五门必修大课[MP3]是一套专注于提升家长与孩子之间沟通效果的音频教程。这套课程涵盖了五大关键领域，帮助父母更好地理解和支持孩子，促进亲子关系的和谐发展。</t>
+  </si>
+  <si>
+    <t>有声读物,育儿</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/49dd82178e2c</t>
+  </si>
+  <si>
+    <t>公安合集2023-2025</t>
+  </si>
+  <si>
+    <t>公安合集 2023-2025  如题</t>
+  </si>
+  <si>
+    <t>考试,警校,考公,公务员</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1d799c6ca2a2</t>
+  </si>
+  <si>
+    <t>火星时代-AE&amp;C4D影视包装全能设计师精英课</t>
+  </si>
+  <si>
+    <t>火星时代-AE&amp;C4D影视包装全能设计师精英课，是一门集AE与C4D技术于一体的影视包装高端课程，培养学员掌握影视后期剪辑、二维及三维包装设计等核心技能，通过实战项目演练，全面提升学员的创意设计与制作能力，成为影视包装领域的全能设计师。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/89eccfa9065b</t>
+  </si>
+  <si>
+    <t>减肥健身付费课程  男性生活化减脂专业班</t>
+  </si>
+  <si>
+    <t>一款专为男性设计的减肥健身付费课程，旨在帮助学员通过科学的饮食和训练方法，达到健康减脂的目标。课程由知名健身教练闫帅奇和盗月社沐上联合出品，内容丰富且实用。
+课程涵盖了从基础到高级的减脂技巧，包括合理的饮食规划、有效的训练方案以及生活化的减脂方法。通过系统的学习，学员可以掌握如何在日常生活中轻松减脂，而不必依赖枯燥的节食和高强度的运动。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ba94155db76b</t>
+  </si>
+  <si>
+    <t>解锁机器学习算法面试挑战</t>
+  </si>
+  <si>
+    <t>在这个课程中，我们将从基础知识出发，系统学习机器学习与算法的核心概念和实践技巧。通过大量案例分析和LeetCode算法题解，帮助您深入理解各种面试问题，并掌握解题技巧和面试技巧。无论是百面挑战还是LeetCode算法题，都将在课程中得到详细讲解和实践练习。</t>
   </si>
   <si>
     <t>编程办公</t>
   </si>
   <si>
-    <t>学习资源，编程开发</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e93a4479a4c0</t>
+    <t>https://pan.quark.cn/s/57cf930827df</t>
+  </si>
+  <si>
+    <t>流行声乐必修从小白到歌手</t>
+  </si>
+  <si>
+    <t>本课程专为流行声乐爱好者设计，从基础发声技巧到高级演唱方法，逐步提升学员的歌唱能力。通过系统训练和实战演练，帮助学员从零基础成长为自信的流行歌手。</t>
+  </si>
+  <si>
+    <t>自我提升</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1b8b17c5c0aa</t>
+  </si>
+  <si>
+    <t>摩吉影像《婚礼摄影教程合集》</t>
+  </si>
+  <si>
+    <t>婚礼多场景摄影实战、新人摆姿技巧、前期跟拍……专业婚礼摄影团队教你如何完成一整套婚礼大片。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f0d77c996259</t>
+  </si>
+  <si>
+    <t>清新冥想100天</t>
+  </si>
+  <si>
+    <t>《清新冥想100天》是一个为期100天的冥想练习课程，通过每天简短的冥想练习，帮助参与者缓解压力、改善睡眠、提升专注力和创造力，进而从内心深处实现疗愈和平衡。  该课程汇聚了多所高校的专家顾问的智慧，经过严谨科学的论证过程，提炼出冥想的本质。课程内容以音频形式呈现，方便参与者随时随地利用碎片时间进行练习。同时，课程结合了多部经典著作的核心思想，如《自控力》、《禅者的初心》、《欲望的演化》等，确保了冥想练习的深度和广度。</t>
+  </si>
+  <si>
+    <t>音频课程</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/af12defaa93d</t>
+  </si>
+  <si>
+    <t>深度解密Spark性能优化之道</t>
+  </si>
+  <si>
+    <t>课程通过实战案例解析和性能调优技巧的讲解，帮助学员提升大数据处理系统的性能和效率。课程内容涵盖了Spark性能调优的各个方面，包括内存管理、并行度设置、数据倾斜处理、Shuffle调优、资源配置等关键技术和策略。学员将通过实际案例的演示和分析，掌握解决Spark应用性能问题的方法和技巧，从而提升数据处理效率，优化应用性能。无论您是初学者还是有一定经验的大数据工程师，本课程都将为您提供宝贵的实战经验和实用技能，助您成为Spark性能调优的专家。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e5bf17456ca5</t>
+  </si>
+  <si>
+    <t>深入浅出看古文（100节视频 ）</t>
+  </si>
+  <si>
+    <t>《深入浅出看古文》是包含100节视频的古文学习课程，精选100篇常用小古文，通过视频形式进行通俗易懂的讲解，培养古文学习兴趣，帮助学习者积累古文知识，解决小古文入门难的问题，适合希望系统学习古文的学生及古文爱好者。</t>
+  </si>
+  <si>
+    <t>小学,语文</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3bcba3c0909b</t>
+  </si>
+  <si>
+    <t>神经科学视角下的心理治疗</t>
+  </si>
+  <si>
+    <t>通过研究大脑的神经机制，您将了解到心理问题产生的生理基础。例如，焦虑症与特定脑区的神经活动异常相关。课程还会探讨各种心理治疗手段如何影响大脑的神经连接和化学物质分泌，像认知行为疗法能重塑大脑的神经回路。无论是对于心理学专业的学生，还是心理治疗从业者，这门课程都将为您提供全新的理论框架和实践指导，助您更有效地帮助患者解决心理困扰。</t>
+  </si>
+  <si>
+    <t>长点知识</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/462f3072ea96</t>
+  </si>
+  <si>
+    <t>万维网·精英日课12345季【合集】</t>
+  </si>
+  <si>
+    <t>“万维钢·精英日课12345季【合集】”是一套备受欢迎的在线学习课程系列，由知名学者万维钢精心打造。该课程涵盖了从基础知识到深入见解的广泛内容，包括个人成长、职业发展、学习方法等多个领域。通过深入浅出的讲解和生动的案例，万维钢老师将复杂的概念变得易于理解，让学习者能够轻松掌握知识。这个合集包含了五季课程，内容丰富、系统性强，是学习和提升自己的宝贵资源。</t>
+  </si>
+  <si>
+    <t>在线课程</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d24c440d44ff</t>
+  </si>
+  <si>
+    <t>新手从0基础玩转汽车摄影</t>
+  </si>
+  <si>
+    <t>"新手从0基础玩转汽车摄影"课程旨在帮助零基础学员学习汽车摄影技巧。学员将学习摄影基础知识、汽车摄影构图技巧、后期处理等内容。通过实践演练和案例分析，学员将掌握汽车摄影的基本技能，提升摄影水平，拍摄出高质量的汽车照片。</t>
+  </si>
+  <si>
+    <t>摄影剪辑</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6311b0c3712e</t>
+  </si>
+  <si>
+    <t>英语六级全程提升班  B站付费课程</t>
+  </si>
+  <si>
+    <t>《英语六级全程提升班》是B站推出的一款付费课程，专为准备大学英语六级考试的学生设计。这个课程涵盖了词汇、听力、阅读、写作和翻译等所有考试模块，帮助学生全面提升英语能力。
+课程内容丰富，包含详细的视频讲解和实战练习，帮助学生掌握考试技巧和应试策略。通过系统的学习和反复的练习，学生可以有效提高自己的英语水平，顺利通过六级考试</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/8e2387e0d761</t>
+  </si>
+  <si>
+    <t>赢在职场宋晓阳职场沟通课</t>
+  </si>
+  <si>
+    <t>"赢在职场宋晓阳职场沟通课"旨在帮助学员提升职场沟通能力，取得成功。课程内容包括有效沟通技巧、人际关系建立、冲突解决等。通过案例分析和实践演练，学员将学习如何在职场中与同事、上级和客户进行高效沟通，提升自信和影响力，取得职场上的胜利。</t>
+  </si>
+  <si>
+    <t>职场关系</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/2d0a68e1c784</t>
+  </si>
+  <si>
+    <t>幼儿早教经典儿歌合集</t>
+  </si>
+  <si>
+    <t>239 首幼儿早教经典儿歌，既有中华传统儿歌，也有英文磨耳朵儿歌系列，陪孩子度过快乐每一天。</t>
+  </si>
+  <si>
+    <t>启蒙教育</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c8b2385df239</t>
+  </si>
+  <si>
+    <t>张朝阳的物理课[多格式]</t>
+  </si>
+  <si>
+    <t>张朝阳的物理课”是火遍全网的烧脑在线课程，以高密度知识输出赢得超高人气。  《张朝阳的物理课》于 2021年11月5日开播，目前已经开讲了一百多课，本书是前50讲的内容。  在本书中，张朝阳从自然界的现象出发，引出基本物理概念，推导基本理论，研算现象后面的根本原因，达到本质的理解，涵盖力学、热力学、电磁学、量子力学等。本书中使用较多数学推导展示物理与数学的不可分割，也能帮助读者提升数学水平。</t>
+  </si>
+  <si>
+    <t>张朝阳物理课</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/088cefafb44f</t>
+  </si>
+  <si>
+    <t>最新2024雅思专题资料【课程 视频 文档】</t>
+  </si>
+  <si>
+    <t>最新2024雅思专题资料【课程 视频 文档】涵盖课程、视频及文档。课程方面，有雅思全科精讲网授班，包含听说读写各模块。视频资料则有何琼听力技巧课、Simon雅思全集等高清视频。文档资料包括各类讲义、PDF学习资料及雅思真题解析等，助力考生系统备考，全面提升雅思成绩。</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4a3e00a1c689</t>
   </si>
 </sst>
 </file>
@@ -92,13 +1438,26 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -439,12 +1798,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -565,139 +1939,143 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -751,6 +2129,15 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1010,25 +2397,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I136"/>
+  <dimension ref="A1:I138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9090909090909" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="12.9074074074074" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="59.7272727272727" customWidth="1"/>
-    <col min="2" max="2" width="8.54545454545454" customWidth="1"/>
-    <col min="3" max="3" width="19.1727272727273" customWidth="1"/>
-    <col min="4" max="4" width="12.9090909090909" customWidth="1"/>
-    <col min="5" max="5" width="16.9181818181818" customWidth="1"/>
+    <col min="1" max="1" width="59.7314814814815" customWidth="1"/>
+    <col min="2" max="2" width="8.5462962962963" customWidth="1"/>
+    <col min="3" max="3" width="19.1759259259259" customWidth="1"/>
+    <col min="4" max="4" width="12.9074074074074" customWidth="1"/>
+    <col min="5" max="5" width="16.9166666666667" customWidth="1"/>
     <col min="6" max="6" width="35" customWidth="1"/>
-    <col min="7" max="7" width="12.9090909090909" customWidth="1"/>
+    <col min="7" max="7" width="12.9074074074074" customWidth="1"/>
     <col min="8" max="8" width="40" customWidth="1"/>
-    <col min="9" max="9" width="22.0909090909091" customWidth="1"/>
+    <col min="9" max="9" width="22.0925925925926" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1061,50 +2448,2883 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G109" s="1">
         <v>9.99</v>
       </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1"/>
-    <row r="13" customFormat="1"/>
-    <row r="14" customFormat="1"/>
-    <row r="136" ht="15" customHeight="1"/>
+      <c r="H109" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G110" s="1">
+        <v>0</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G111" s="1">
+        <v>0</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G112" s="1">
+        <v>0</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G113" s="1">
+        <v>0</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G114" s="1">
+        <v>0</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G115" s="1">
+        <v>0</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G116" s="1">
+        <v>0</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G117" s="1">
+        <v>0</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G118" s="1">
+        <v>0</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G119" s="1">
+        <v>0</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G120" s="1">
+        <v>0</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G121" s="1">
+        <v>0</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G122" s="1">
+        <v>0</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G123" s="1">
+        <v>0</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G124" s="1">
+        <v>0</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="138" ht="15" customHeight="1"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:I321" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:I323" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
-  <sortState ref="A2:I136">
-    <sortCondition ref="F2:F136"/>
+  <sortState ref="A2:I23">
+    <sortCondition ref="F2:F23"/>
   </sortState>
+  <conditionalFormatting sqref="A2:A124">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D31">
-      <formula1>"公开,私密,草稿,未发布"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24 D92 D2:D23 D25:D91 D93:D124">
+      <formula1>"公开,草稿,私密,未发布"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://cdn.sa.net/2024/10/20/UIwf3RcFV8C4SW5.jpg"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1120,7 +5340,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1137,7 +5357,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/file/wordpress_articles.xlsx
+++ b/file/wordpress_articles.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9132"/>
+    <workbookView windowWidth="25600" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$251</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="997">
   <si>
     <t>标题</t>
   </si>
@@ -61,9 +61,15 @@
     <t>提取码</t>
   </si>
   <si>
+    <t>开启GPT SEO</t>
+  </si>
+  <si>
     <t>掌握生意从小做强做大的方法</t>
   </si>
   <si>
+    <t>https://cdn.sa.net/2024/10/29/lDLgyHcwkTbOZms.jpg</t>
+  </si>
+  <si>
     <t>学习如何从小做强做大的生意方法。本课程将教授有效的战略规划、市场营销技巧和财务管理策略，帮助您提升业务竞争力。通过案例分析和实践指导，您将学会如何扩大客户群、优化运营、建立品牌形象，并实现可持续增长。无论您是初创企业还是已经经营多年的企业，这门课程都将为您提供实用的工具和策略，助您实现生意的成功和发展。</t>
   </si>
   <si>
@@ -79,9 +85,15 @@
     <t>https://pan.quark.cn/s/06c5cf10d23c</t>
   </si>
   <si>
+    <t>是</t>
+  </si>
+  <si>
     <t>【拼多多视频带货】黑科技视频搬运，保姆级教程</t>
   </si>
   <si>
+    <t>https://cdn.sa.net/2024/10/29/hABSjTYKHCo4G95.jpg</t>
+  </si>
+  <si>
     <t>拼多多视频带货，黑科技视频搬运，保姆级教程，夸克网盘资源下载。</t>
   </si>
   <si>
@@ -94,6 +106,9 @@
     <t>从0到1做一个会卖货的主播</t>
   </si>
   <si>
+    <t>https://cdn.sa.net/2024/10/29/UsBwJtr7yWCN5SG.jpg</t>
+  </si>
+  <si>
     <t>"从0到1做一个会卖货的主播"课程教授如何从零开始建立个人品牌，提升主播表现力和销售技巧，实现成功的直播销售。学员将学习如何吸引观众、制定销售策略、提升产品推广能力，并掌握直播销售的关键技能，帮助他们成为具有影响力和销售能力的主播。</t>
   </si>
   <si>
@@ -106,6 +121,9 @@
     <t>外网爆火赛道，治愈系音乐解压视频，单视频最高4亿播放 ，全流程拆解【揭秘】</t>
   </si>
   <si>
+    <t>https://cdn.sa.net/2024/10/29/Aa5CEFyl72iUqQj.jpg</t>
+  </si>
+  <si>
     <t>今天分享的是YouTube爆火的治愈系音乐减压视频，使观看聆听者达到一个放松的效果。此赛道在外网爆火，外网博主月收益高达3万+美元换算人民币月入24万，此赛道流量非常高，变现能力非常强!目前国内做的人非常少，操作也非常简单，本节课会给大家拆解制作流程和变现方法</t>
   </si>
   <si>
@@ -118,6 +136,9 @@
     <t>tiktok海外搬砖项目单机日产过千当天做当天见收益【揭秘】</t>
   </si>
   <si>
+    <t>https://cdn.sa.net/2024/10/29/JQmSpL2wuMen7sX.jpg</t>
+  </si>
+  <si>
     <t>tiktok海外搬砖项目单机日产过千当天做当天见收益</t>
   </si>
   <si>
@@ -133,6 +154,9 @@
     <t>视频号死磕计划，把握视频号运营逻辑，精准定位迅速起号</t>
   </si>
   <si>
+    <t>https://cdn.sa.net/2024/10/29/95FrhtJ2qvegTs4.jpg</t>
+  </si>
+  <si>
     <t>视频号死磕计划视频课，深入剖析视频号运营逻辑，指导如何精准定位目标受众，快速起号。课程涵盖内容创作、数据分析、粉丝互动等关键环节，提供实战技巧与成功案例，助力学员掌握视频号运营精髓，打造具有影响力的视频号，实现商业价值最大化。</t>
   </si>
   <si>
@@ -145,6 +169,9 @@
     <t>小红书开店卖货实战训练营，小红书入门到精通课，7天时间实现快速变现</t>
   </si>
   <si>
+    <t>https://cdn.sa.net/2024/10/29/BJ7gUCNKhm5T36u.jpg</t>
+  </si>
+  <si>
     <t>小红书开店卖货实战训练营，是从小红书入门到精通的速成课程，通过7天密集培训，帮助学员掌握平台运营规则、商品选品技巧、内容营销策略及店铺管理精髓，实现快速变现目标。课程注重实战操作，通过系统教学加案例分析，确保学员能够迅速上手，有效利用小红书平台开启并优化个人电商之旅。</t>
   </si>
   <si>
@@ -157,6 +184,9 @@
     <t>天工2.0.0_ 支持 AI 画画、AI 作曲、文章撰写</t>
   </si>
   <si>
+    <t>https://cdn.sa.net/2024/10/29/vTBw58fX2xPmnkc.jpg</t>
+  </si>
+  <si>
     <t>天工大模型是昆仑万维自研的双千亿级大语言模型，是中国首个对标 ChatGPT 的大语言模型，可满足文案创作、知识问答、代码编程、逻辑推演、数理推算等需求。其功能覆盖了知识搜索、AI 音乐创作、AI 画画、文章撰写、灵感助手及代码生成。</t>
   </si>
   <si>
@@ -170,6 +200,9 @@
   </si>
   <si>
     <t>Drake -2011年专辑 - Take Care    Flac</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/29/MeakbQFLrpH9fKx.jpg</t>
   </si>
   <si>
     <t>01. Over My Dead Body 
@@ -200,7 +233,13 @@
     <t>https://pan.quark.cn/s/99ddb14b30ba</t>
   </si>
   <si>
+    <t>否</t>
+  </si>
+  <si>
     <t>Drake -2013年专辑 - Nothing Was The Same    -Flac</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/29/kDrLYa17xmIesvT.jpg</t>
   </si>
   <si>
     <t>尽管Drake如今的热门指数无可争议，但和众多嘻哈音乐人对社会周遭的高谈阔论不同，其对自我的深刻剖析也让作品有着独特的隐秘性。新专辑《Nothing Was The Same》两套封面将他童年和成年肖像以油画呈现，更完整丰富的心路历程，在神秘空旷的迷幻氛围中娓娓道来。
@@ -231,6 +270,9 @@
     <t>Lisa Gerrard &amp; Peter Bourke -1998年专辑 - Duality    -Flac</t>
   </si>
   <si>
+    <t>https://cdn.sa.net/2024/10/29/jZfHlkvDGa5PQi2.jpg</t>
+  </si>
+  <si>
     <t>由 Pieter Bourke 设计，在澳大利亚吉普斯兰的家中录制，由 Don Tyler 在 Precision Mastering 制作，特别感谢 Chris Staley 的协助和投入，最终混音在 Absolute High End 提供的 TAS 系统上进行监控。
 01  Shadow Magnet
 02  Tempest
@@ -251,6 +293,9 @@
   </si>
   <si>
     <t>Lisa Gerrard -1995年专辑 - The Mirror Pool    - Flac</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/29/qXbaItRj4K9u3Bp.jpg</t>
   </si>
   <si>
     <t>专辑音乐大致可分为俩个部分：前四首为庄严的圣咏，庄严凝重恢弘，人声蜿蜒回荡穿梭于白云山谷。不含尘世的一点杂质，仿佛天降之水般纯净清冽。最后的拥抱作为开场曲，奠定了专辑肃静的基调，缓慢悠扬庄重的前奏，维多利亚爱乐乐团精湛演绎到极至，2分07秒，声音响起，逼人的肃穆庄严女声。可惜歌词不是英语，一句没有听懂，不过光听她声音的起伏蜿蜒就能体会歌曲的意境和所要表达的东西了。第二曲在悲伤哀怨的弦乐中开始，特有的肃穆氛围，仿佛置身于有光线射入的教堂中，鸽子从天花板落下，高拱的穹顶，石膏女神在石柱上暗自叹息。
@@ -281,6 +326,9 @@
     <t>Michael Jackson - Thriller252008- FLAC</t>
   </si>
   <si>
+    <t>https://cdn.sa.net/2024/10/29/NgbIWCBJKlm4FnV.jpg</t>
+  </si>
+  <si>
     <t>《Thriller》是由美国流行音乐歌手迈克尔·杰克逊（Michael Jackson）于1982年发行的第六张个人录音室专辑。这张专辑在全球范围内取得了巨大的成功，不仅是杰克逊个人职业生涯的顶峰之作，也是音乐史上最成功的专辑之一。《Thriller》对流行音乐、舞蹈、音乐录影带制作以及流行文化产生了深远的影响。
 1. Wanna Be Startin' Somethin'
 2. Baby Be Mine
@@ -303,6 +351,9 @@
     <t>陈奕迅 -2000年专辑 - Nothing Really Matters   -Flac</t>
   </si>
   <si>
+    <t>https://cdn.sa.net/2024/10/29/dZsonUpxTv3kwEz.jpg</t>
+  </si>
+  <si>
     <t>拥有香港乐坛小霸王之称的陈奕迅被香港人票选为最想在红墈体育场看到现场演唱的人，换新东家又忙着和张柏芝、卢巧音、谢霆锋、郑中基、冯德伦等新生代香港新偶像群一起拍电影“十二夜”，监制陈可辛直夸陈奕迅颇有张学友的架势，铁定是歌神的准接班人。陈奕迅有霸气而摄人心魄的唱功，迷人的嗓音中散发着真挚的明亮感，像阳光男孩般令人心动，除了唱功一流之外，他还有一项令人佩服的高超模仿功力，他曾在个人演唱会中模仿张学友、黄耀明、葛明辉和好友谢霆锋的唱歌方法，多变的音色让人叹为观止，更让他有机会去帮电台广播剧配韦小宝的音。
 01. 送院途中
 02. 黑夜不再来
@@ -325,6 +376,9 @@
     <t>陈奕迅 -2000年专辑 - 打得火热   Flac</t>
   </si>
   <si>
+    <t>https://cdn.sa.net/2024/10/29/upvyjibWoF2TLUZ.jpg</t>
+  </si>
+  <si>
     <t>陈奕迅刚刚加入英皇唱片公司就开始新闻不断，先是传出和王杰、谢霆峰、郑伊健争做英皇一哥，后又跪地恳求记者不要骚扰其家人的生活，粤语新专辑《打得火热》也就在这些是是非非中应运而生了。
 01 K歌之王
 02 打得火热
@@ -347,6 +401,9 @@
     <t>陈奕迅 -2001年专辑 - 五星级的家   Flac</t>
   </si>
   <si>
+    <t>https://cdn.sa.net/2024/10/29/HuXpw4z7dn6v3aR.jpg</t>
+  </si>
+  <si>
     <t>《五星级的家》是香港歌手陈奕迅及广播剧《五星级的家》角色联合发行的粤语专辑，于2002年6月推出市面，歌曲主要为商业电台叱吒903广播剧《五星级的家》的主题曲及插曲。 本专辑收录十首粤语歌曲，歌曲主要为广播剧《五星级的家》中的歌曲。叱吒903特意邀请陈奕迅声演剧中“苦公”一角，并为此剧演唱主题曲及插曲，此专辑便是因而面世。
 01、五星級迫爆 (苦榮／小苦妹／吳君如／陳奕迅)
 02、到此一遊
@@ -363,6 +420,9 @@
   </si>
   <si>
     <t>林晓培 - This Is Shino32000- FLAC</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/29/TxNPnVqLeHD9Zl7.jpg</t>
   </si>
   <si>
     <t>《This is Shino 3》是台湾歌手林晓培的第三张个人专辑，共收录 11 首歌曲。此次制作人除了前两张一直合作的李士先外，还加入了 Jim Lee、吴旭文、罗纮武及陈美威等阵容。曲风仍以摇滚为基底，除了 Pop Rock，还加入了英式摇滚、电子拉丁、Happy Rock、复古摇滚及抒情摇滚等元素，来与林晓培本身的内心世界更加吻合。
@@ -397,6 +457,9 @@
     <t>刘德华 -1996年专辑 - 在乎您   Flac</t>
   </si>
   <si>
+    <t>https://cdn.sa.net/2024/10/29/4c6eYCoABVRxsXu.jpg</t>
+  </si>
+  <si>
     <t>刘德华经典粤语专辑之一，其中《潮水》这首歌是华仔的电影《1/2同床》的片尾曲，非常好听的一首歌，曲中的音乐在&lt;17岁&gt;中与&lt;忘情水&gt;一同作为经典曲目插播了一小段,绝对值得珍藏。。
 01. 倒转地球            
 02. 一个人睡 (电影"新上海滩"插曲广东版)            
@@ -421,6 +484,9 @@
     <t>齐秦 -1995年专辑 - 痛并快乐着   Flac</t>
   </si>
   <si>
+    <t>https://cdn.sa.net/2024/10/29/bJmBCMWejORYl8x.jpg</t>
+  </si>
+  <si>
     <t>齐秦1995 出版《痛并快乐着》专辑，首度中美连线跨国音乐合作，由麦可杰克森、理查马尔克斯及邦乔飞之制作班底为此专辑进行后制工作。单曲《往事随风》获选为Channel V中文TOP20榜中榜最佳年度歌曲。出版《去年冬天》电影原声带《命运的深渊》专辑，并参与此片演出。于新加坡举行《相约在冬季》演唱会。开始歌唱生涯外之副业经营，与其兄齐鲁及好友开设餐厅－“齐辣”。创作作品代表：放任分离（与许茹芸合唱）、命运的深渊、背影、尽头等。
 01. 痛并快乐着Ⅰ
 02. 往事随风
@@ -440,6 +506,9 @@
     <t>事后烟乐队 专辑 X's qobuz hires</t>
   </si>
   <si>
+    <t>https://cdn.sa.net/2024/10/29/95PzLnqZbfl3uQd.jpg</t>
+  </si>
+  <si>
     <t>Cigarettes After Sex 专辑 X's (2024)
  FLAC 24bit_44.1kHz
 来源 qobuz
@@ -455,6 +524,9 @@
   </si>
   <si>
     <t>王杰 -1991年专辑 - 为了爱梦一生   Flac</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/29/WmBKQSeR8Ai61Ns.jpg</t>
   </si>
   <si>
     <t>《为了爱梦一生》，创作歌手王杰的第十一张个人专辑，也是第七张国语专辑，由飞碟唱片发行于1991年1月。主打歌《为了爱，梦一生》改编自许冠杰粤语歌曲《天才白痴往日情》，由陈乐融重新填词、许冠杰作曲、Ricky Ho编曲。
@@ -474,6 +546,9 @@
   </si>
   <si>
     <t>王杰 -1992年专辑 - All By Himself   Flac</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/29/hIigdArzb3WwGlq.jpg</t>
   </si>
   <si>
     <t>熟悉的前奏响起,总让人有股发出惊呼的冲动,原以为早已遗忘的歌词，竟不自觉地跟着旋律哼唱出来,彷彿让人掉进青春的时光机里，搅拌回味,每句歌词 都勾起一些记忆,每段旋律 都唤起一些共鸣，每一首歌 都是一个故事,这些歌拥有 只有我們才懂的默契，现在的你 过得好吗?让我们重温那些年的美好时光 拾起那些年少轻狂的回忆
@@ -499,6 +574,9 @@
     <t>谢霆锋 -2005年专辑 - One Inch Closer(香港版)   Flac</t>
   </si>
   <si>
+    <t>https://cdn.sa.net/2024/10/29/8TVniLjucS5lH3z.jpg</t>
+  </si>
+  <si>
     <t>谢霆锋2004年大部分时间留在内地拍剧《小鱼儿与花无缺》，并专心电影《情天大圣》及《无极》，只推出了一张国语大碟《Listen Up》及精选碟《黄、 锋》。2005年，霆锋将主力唱歌，率先为香港乐迷推出广东碟《One Inch Closer》！霆锋亲自监制的最新主打歌“塞车”由唱作人周国贤作曲、编曲，黄伟文填词。这首清新抒情歌相比之前霆锋的作品更易听入耳，爱车的霆锋以“塞车”来表达无路可退的爱情，歌词细致，编曲动听。
 01、狼
 02、塞车
@@ -520,6 +598,9 @@
   </si>
   <si>
     <t>谢霆锋 -2005年专辑 - 释放(台湾版)   Flac</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/29/KdHJ3r2kzp6geut.jpg</t>
   </si>
   <si>
     <t>《释放》这张专辑清楚地传达了霆锋的音乐风格，摇滚而不刺耳，坚持而不愤怒。让大家知道霆锋的摇滚音乐，也可以是勇敢、坚定、激励人心的。在这张专辑里，谢霆锋跳脱以往的刻板印象及束缚，释放了他自己。可以说，透过专辑12首风格各异的歌曲，可以见到多样的、接近真实的谢霆锋。
@@ -543,6 +624,9 @@
     <t>谢霆锋 -2006年专辑 - 毋忘我(引进版)   Flac</t>
   </si>
   <si>
+    <t>https://cdn.sa.net/2024/10/29/zDrmAqwRlu15sb9.jpg</t>
+  </si>
+  <si>
     <t>谢霆锋歌坛出道10年，首次发行创作精选集《Forget Me Not毋忘我》新曲创作集，把当年写给容祖儿(告解)、许志安(未签收)、陈慧琳(假天真)、张柏芝(吻着道歉)、梁汉文(瀛寰搜奇)的成名曲，谢霆锋2006年重新编曲及演唱，尽见放荡、不羁、反叛及真情，让乐迷再次看到霆锋是如何热爱音乐！
 01 成者为王 (2006百事世界挑战赛主题曲 国语)
 02 勇敢做人 (“龙虎门”电影主题曲 国语)
@@ -562,6 +646,9 @@
     <t>张信哲 -2006年专辑 - 做你的男人   wav</t>
   </si>
   <si>
+    <t>https://cdn.sa.net/2024/10/29/jqB8uIlixZytSTU.jpg</t>
+  </si>
+  <si>
     <t>为了打造出一首熟男熟女的首选歌曲，张信哲邀请了合作多次的陈小霞为他量身创作歌曲《曾经》。因为潮水音乐认为该曲比较慢热，为了平衡市场听众，制作团队又选择了一些不同风格的歌曲。《上海姑娘》是张信哲首次尝试中国风的音乐，该曲由林白创作，张信哲亲自担任单曲制作人。因为张信哲经历过长距离的恋情，所以他在看到歌词后，能够体会到创作者的意图。《说谎》由香港音乐人赵增熹担任编曲，为了打造出气势，启用了北京十人弦乐乐团。《后悔的借口》由铁竹堂成员林迈可担任和声。
 01.做你的男人
 02. 说谎
@@ -581,6 +668,9 @@
     <t>郑秀文 -1995年专辑 - 舍不得你(港版)   Flac</t>
   </si>
   <si>
+    <t>https://cdn.sa.net/2024/10/29/zqdCvAsxDL8fpXb.jpg</t>
+  </si>
+  <si>
     <t>《舍不得你》是郑秀文1995年发行的一张专辑，共收录了10首歌曲。包含了男仕今天你很好、秋冬爱的故事、舍不得你、Tequila一杯、爱的挽歌、孤男寡女、奢侈、细雪、滴着眼泪、世界还未末日。
 01、男仕今天你很好
 02、秋冬爱的故事
@@ -600,6 +690,9 @@
     <t>郑智化 - 不思议2024- ALAC｜Hi-res24bits48khz</t>
   </si>
   <si>
+    <t>https://cdn.sa.net/2024/10/29/uLQcKdgqoeVlCSx.jpg</t>
+  </si>
+  <si>
     <t>这张专辑是郑智化时隔 26 年后推出的作品，被描述为超越过往的巅峰之作，展现了他多年来的音乐沉淀和创作才华。
 1. 那烂陀
 2. 哑巴的歌
@@ -622,6 +715,9 @@
     <t>郑智化 新专辑 不思议10首 完整版 FLAC qobuz</t>
   </si>
   <si>
+    <t>https://cdn.sa.net/2024/10/29/13WJYNSo8kTidAB.jpg</t>
+  </si>
+  <si>
     <t>鄭智化 - 不思議 (2024) FLAC 16B-44.1kHz
 来源: qobuz
 附部分歌词
@@ -636,6 +732,9 @@
   </si>
   <si>
     <t>中森明菜 - プロローグ＜序幕1982- FLAC 分軌</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/29/BhXUeEfic61PbtQ.jpg</t>
   </si>
   <si>
     <t>歌姬传奇从此开始。
@@ -661,6 +760,9 @@
     <t>周传雄 -2004年专辑 - 男人·海洋   Flac</t>
   </si>
   <si>
+    <t>https://cdn.sa.net/2024/10/29/OIZGtcqRvbJndP7.jpg</t>
+  </si>
+  <si>
     <t>台湾歌手、音乐制作人。曾用艺名“小刚”。1987年开始参加校际音乐创作大赛，他的作品《尘烟》被作为合辑第一主打推出，也就是这首歌把周传雄带进唱片业。第二张专辑《终于学会》出来的时候，小刚在台湾火了。后来他特意为陈慧琳量身定做了《记事本》这首歌——一首曾经他四处投稿没人要的歌。这首歌一下让陈慧琳在台湾市场上红了起来。此举开始奠定了周传雄商业制作人的地位。2004年7月，周传雄以歌手的身份在新加坡举办了自己出道十五年以来的第一场个人演唱会。代表作品：《我的心太乱》，《黄昏》，《寂寞沙洲冷》，《青花》，《关不上的窗》。
 01 异世界
 02 男人海洋
@@ -678,6 +780,9 @@
   </si>
   <si>
     <t>周杰伦 -2011年专辑 - 惊叹号   Flac</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/29/UJVd2Ruk6xLKlie.jpg</t>
   </si>
   <si>
     <t>整张专辑不仅融合古典、跨界、流行等多种变化的音乐曲风，而且周杰伦将美声、京剧、RAP、B-BOX等唱腔糅合。卡通的专辑封面具有美式漫画风格，周杰伦化身为水手，驾驭“惊叹号”船舰，坐在船沿钓鱼，心想着钓到什么大鱼，原来背后有一只章鱼在抓弄他，这也是《惊叹号》的命名缘由。
@@ -700,6 +805,9 @@
     <t>[安卓]Telegram v11.2.3高级版 本地会员解锁 增强下载速度</t>
   </si>
   <si>
+    <t>https://cdn.sa.net/2024/10/29/N6MAEo5Z4v2an9L.jpg</t>
+  </si>
+  <si>
     <t>Telegram v11.2.3高级版，内置TMoe模块、本地会员解锁、增强下载速度、增强去更新检测。
 这速度 还开鸡毛会员，你的本地带宽和梯子的带宽上限要高，增强并不是让你带宽100M变成1000M。
 助手入口：我的-设置-TMOE设置。</t>
@@ -717,6 +825,9 @@
     <t>PicWish佐糖 - AI抠图修图处理工具 v1.7.9</t>
   </si>
   <si>
+    <t>https://cdn.sa.net/2024/10/29/odtSI6Kcb2qi9gN.jpg</t>
+  </si>
+  <si>
     <t>佐糖的功能强大齐全，包括【一键抠图】、【AI消除笔】、【模糊变清晰】、【自制证件照】、【手动抠图】、【智能换背景】、【修改尺寸】、【一键白底图】、【美白】【加水印】等功能。同时还支持批量抠图、批量作图等实用场景，0门槛，0基础的小白、新手也能够轻松上手，迅速抠图，为电商设计师、自媒体博主等提供了便捷专业的作图工具。</t>
   </si>
   <si>
@@ -729,6 +840,9 @@
     <t>瞬译 v6.9.209992Instant Translate，即时翻译屏幕，解锁高级版</t>
   </si>
   <si>
+    <t>https://cdn.sa.net/2024/10/29/JhqXA3clPGojimb.jpg</t>
+  </si>
+  <si>
     <t>瞬译 Instant Translate app是一款即时翻译屏幕内容的强大工具。支持多语种实时翻译，无论浏览网页、阅读文档还是观看视频，一键翻译，扫除语言障碍。界面简洁友好，翻译准确高效，是学习、工作、旅行的得力助手。</t>
   </si>
   <si>
@@ -741,6 +855,9 @@
     <t>塔读小说 v10.95畅享看小说的神器，一款免费小说阅读软件，去广告纯净版</t>
   </si>
   <si>
+    <t>https://cdn.sa.net/2024/10/29/hD3XPRMxk7undqj.jpg</t>
+  </si>
+  <si>
     <t>塔读小说是一款免费的小说阅读神器，去广告纯净版带来极致阅读体验。海量小说资源，涵盖热门、经典、新书等多种类型，满足书迷挑剔眼光。流畅阅读界面，个性化推荐系统，让好书不再错过，随时随地畅享阅读乐趣。</t>
   </si>
   <si>
@@ -750,6 +867,9 @@
     <t>星理2.5_ 紫微斗数专业排盘，八字算命</t>
   </si>
   <si>
+    <t>https://cdn.sa.net/2024/10/29/KNhr36gQxpmflVw.jpg</t>
+  </si>
+  <si>
     <t>星理是一款免费的紫微斗数专业排盘应用，提供飞星、三合、四化、八字等一体化的紫微斗数研究与学习服务。主要特点包括：免费使用所有功能；严格按照千年传承的《安星诀》排盘；提供大运、流年、流月、流日、流时、定盘工具等专业功能；运用天文历法级时间换算确保阳历、农历、干支历相互精确换算；结合地理位置计算真太阳时；支持广泛的排盘时间跨度；提供丰富的设置项供不同流派用户定制排盘规则；支持高效的星盘记录管理和批量操作。</t>
   </si>
   <si>
@@ -762,6 +882,9 @@
     <t>媒小象1.7.2_ 完全免费的内容创作二创工具</t>
   </si>
   <si>
+    <t>https://cdn.sa.net/2024/10/29/RmIjgHzsaloZtAJ.jpg</t>
+  </si>
+  <si>
     <t>媒小象是一款专为内容创作者设计的多功能工具，提供视频编辑、文字处理和素材获取等一站式服务。核心功能包括去水印解析、智能拆分镜+混剪、视频/图片去重处理、达人作品解析、智能配音、违禁词检测等。附加特色包括热点内容拉取、AI文案处理、AI绘图、媒体库与文案库、热门词条查询、AI智能抠图等。</t>
   </si>
   <si>
@@ -775,6 +898,9 @@
   </si>
   <si>
     <t>骗子酒馆_骗子酒吧伸头MOD</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/29/85Bth4umveE1Lci.jpg</t>
   </si>
   <si>
     <t>将所有文件复制到游戏根目录
@@ -800,6 +926,9 @@
     <t>函数公式模板大全电子表格Excel</t>
   </si>
   <si>
+    <t>https://cdn.sa.net/2024/10/29/cLhg9GmNFOMTR7V.jpg</t>
+  </si>
+  <si>
     <t>表格模板素材，素材包内主要是两部分内容，函数的语法学习和函数的实际应用模板。其中有非常多可以直接套用的模板，有月支出分析模板、成绩单比较图、课表模板、图表数据分析模板、采购报表、房屋按揭计算表、以及各行内专用工作模板，很多模板不仅有中文版，还有英文版。</t>
   </si>
   <si>
@@ -813,6 +942,9 @@
   </si>
   <si>
     <t>Drake -2016年专辑 - Views    -Flac</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/29/Ycz7RKhouytf2vP.jpg</t>
   </si>
   <si>
     <t>《Views from the 6》是加拿大说唱歌手德雷克的第四张录音室专辑。该专辑将于 2016 年 4 月 29 日由 OVO Sound、Young Money Entertainment、Republic Records 和 Boy Better Know 发行。专辑名称最早出现在 Billboard 的一篇文章中，后来德雷克在 Twitter 上证实了这一点，他还解释了“the 6”的含义，指的是他的家乡多伦多。
@@ -844,6 +976,9 @@
     <t>王菲 -2003年SACD系列 - 十万个为什么(港版)   Dsf</t>
   </si>
   <si>
+    <t>https://cdn.sa.net/2024/10/29/kxEM3Vy4KbU9zot.jpg</t>
+  </si>
+  <si>
     <t>《十万个为什么？》是王菲用艺名王靖雯时发行的音乐专辑，于1993年9月7日发行，共收录11首歌曲，由梁荣骏担任制作人。1993年，该专辑被《音像世界》杂志评为年度中文十大专辑。1994年，专辑中的歌曲《冷战》获得第17届十大中文金曲颁奖礼十大中文金曲奖。
 01、流非飞
 02、Summer of Love
@@ -864,6 +999,9 @@
     <t>皇后乐队(Queen) -2011年SACD系列 - A Day At The Races      dsf</t>
   </si>
   <si>
+    <t>https://cdn.sa.net/2024/10/29/esujOd2IgWqTfPv.jpg</t>
+  </si>
+  <si>
     <t>从各个方面来看，《A Day at the Races》都是《A Night at the Opera》的续集，后者于 1975 年问世，奠定了皇后乐队摇滚天王的地位。乐队从不掩饰这张专辑是续集的事实 —— 两张专辑的封面设计相同，标题均取自老马克斯兄弟电影，并互为对位。不过，尽管两张专辑看上去一样，但听起来并不完全一样，《A Day at the Races》比前作更紧凑一些，但对于像皇后乐队这样奢华的乐队来说，更紧凑并不一定意味着更好。《A Night at the Opera》的一大优点是，早期皇后乐队的挥之不去的元素 —— “39” 的田园民谣、“Death on Two Legs” 的金属威胁 —— 与放纵的夸张和真正的歌剧音阶相吻合。
 01. Tie Your Mother Down
 02. You Take My Breath Away
@@ -886,6 +1024,9 @@
     <t>《“普利策奖”得主作品集》套装共14册[pdf]</t>
   </si>
   <si>
+    <t>https://cdn.sa.net/2024/10/29/d5hCnZjiW2IPXYr.jpg</t>
+  </si>
+  <si>
     <t>普利策奖得主作品集，分别为
 乔恩・米查姆《美国人的性格》、威廉・斯泰隆《看得见的黑暗》、珍妮弗・伊根《曼哈顿海滩》和《时间里的痴人》
 克里斯・华莱士、米奇・韦斯《1945倒计时：原子弹爆炸与改变历史的116天》
@@ -909,6 +1050,9 @@
     <t>《2021年度畅销历史精选集》套装13册[epub]</t>
   </si>
   <si>
+    <t>https://cdn.sa.net/2024/10/29/OTfbo9NUwY7ID3E.jpg</t>
+  </si>
+  <si>
     <t>?《隋唐制度渊源略论稿 唐代政治史述论稿》
 豆瓣9.4！纪念陈寅恪诞辰130周年白金典藏版！简体横排，一字不删，精编精校中国中古史研究里程碑式杰作！呈现数百年来宏大的历史布局打破旧史学框架的新史学著作！
 ?《大隋兴衰四十年》（全4册）
@@ -929,6 +1073,9 @@
     <t>《301道广东靓汤一学就会》精选301道广东靓汤 对症滋补 调节体质[pdf]</t>
   </si>
   <si>
+    <t>https://cdn.sa.net/2024/10/29/xBLUIo4vrHfsAza.jpg</t>
+  </si>
+  <si>
     <t>★ “以食为养”，喝汤有妙用
 人吃五谷杂粮，难免被各种病痛折磨，汤水中的营养更易于人体吸收，因此喝汤对养生大有裨益，只要选择正确，喝汤比吃保健品更有利于健康。
 ★广东靓汤，浓香四溢，益口益心
@@ -941,6 +1088,9 @@
   </si>
   <si>
     <t>《3招不得高血脂：不要让药赖上你》三招远离药罐子更健康</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/29/XPkyu71L59HpJgv.jpg</t>
   </si>
   <si>
     <t>别拿高血脂不当回事儿，它是血管里的“定时炸弹”。血管被过高血脂堵塞30％时，症状不明显，但没有症状不等于血脂不高。当堵塞70％时就会有
@@ -961,6 +1111,9 @@
     <t>《400种野菜采摘图鉴》辨识野菜[pdf]</t>
   </si>
   <si>
+    <t>https://cdn.sa.net/2024/10/29/iWK68TfvGHhmCoQ.jpg</t>
+  </si>
+  <si>
     <t>《400 种野菜采摘图鉴》是一本实用的书籍。它详细介绍了 400 种野菜的特征，让你能轻松辨识各种野菜。在大自然中，野菜丰富多样，但正确识别至关重要。这本书以清晰的图片和准确的描述，为你提供可靠的参考。无论是热爱户外活动的人，还是对健康饮食有追求的人，都能从这本书中受益。了解野菜的种类和特点，不仅能增添生活乐趣，还能为你的餐桌带来新鲜与健康。通过阅读这本图鉴，你可以更加亲近自然，感受大自然的馈赠。让我们一起借助《400 种野菜采摘图鉴》，开启野菜辨识之旅，探索大自然中的绿色宝藏，享受野菜带来的美味与健康。</t>
   </si>
   <si>
@@ -968,6 +1121,9 @@
   </si>
   <si>
     <t>《50堂经典哲学思维课》让你的思想更有趣</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/29/gvsbF3ftrxeiKDC.jpg</t>
   </si>
   <si>
     <t>本书选取 50 个切中当代生活的大问题，带你重温 50 部哲学经典：你为何会成为“打工人”？“小确幸”有什么问题吗？人工智能为何无法取代人？你愿意生活在监控中吗？……在问题的背后，是 50 种历久弥坚的思维方式。通过每篇 10 分钟的短阅读，快速吸收智慧精华，对话哲学家的沉思人生，指引你向人类思维的边界不断探索。
@@ -981,6 +1137,9 @@
   </si>
   <si>
     <t>《52周记忆魔法实战手册》励志成功[epub]</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/29/qXtx6AmE3Fo29Ze.jpg</t>
   </si>
   <si>
     <t>多米尼克?奥布莱恩最富实战性的一部作品！
@@ -998,6 +1157,9 @@
     <t>《600种中草药野外识别高清图谱》中医爱好者必备[pdf]</t>
   </si>
   <si>
+    <t>https://cdn.sa.net/2024/10/29/hQY7aloCHg9XAMc.jpg</t>
+  </si>
+  <si>
     <t>《600 种中草药野外识别高清图谱》是中医爱好者的必备书籍。这本书以高清图谱的形式，详细展示了 600 种中草药的形态特征，让读者能够轻松识别各种草药。无论是在野外探险还是日常生活中，都能通过这本书了解到身边的中草药资源。书中还介绍了每种草药的功效和用途，为中医爱好者提供了丰富的知识储备。对于想要学习中草药知识的人来说，这本书是一本不可多得的工具书。它不仅能够帮助你识别草药，还能让你深入了解中医文化的博大精深。快来阅读《600 种中草药野外识别高清图谱》，开启你的中草药探索之旅吧！</t>
   </si>
   <si>
@@ -1008,6 +1170,9 @@
   </si>
   <si>
     <t>《88个精选赚钱项目揭秘》[pdf]</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/29/HrZMXv6Fe4LcogQ.jpg</t>
   </si>
   <si>
     <t>88个精选赚钱项目揭秘
@@ -1039,6 +1204,9 @@
     <t>《Lonely Planet孤独星球旅行指南：了解广西》[pdf]</t>
   </si>
   <si>
+    <t>https://cdn.sa.net/2024/10/29/7bK6BSuvpUa53tc.jpg</t>
+  </si>
+  <si>
     <t>Lonely Planet旅行指南由经验丰富的作者亲赴实地调研，不仅涵盖了准确和实用的旅游资讯，而且拥有不少知名目的地的新玩法，地图详细实用，彩色章节图文并茂，带你去发现、探索、理解这个世界的美。新一版《广西》拥有精心打造的摄影章节，徒步、骑行线路的推荐，也有新兴特色目的地的翔实介绍。并特别呈现在热门景点躲避人潮的实用建议，深入的户外和美食专题，贴心的带家人出游推荐和自驾游路线。
 Lonely Planet新版《广西》来了！全新的旅行资讯新鲜出炉！本书内容由经验丰富的作者实地调研而来，信息翔实、可靠，80余幅地图实用、易上手，是旅行者在路上的得力助手。《广西》的内容分为四个板块：“计划你的行程”提供贴心的出行建议和好用的旅行线路；“在路上”为你带来实用的食、宿、行、游、购、娱等多方面信息；“...</t>
   </si>
@@ -1052,6 +1220,9 @@
     <t>《柏杨版通鉴纪事本末》套装共19册 帝王必读之书 白岩松推荐[epub]</t>
   </si>
   <si>
+    <t>https://cdn.sa.net/2024/10/29/hofLV7AkMF9zvQT.jpg</t>
+  </si>
+  <si>
     <t>《柏杨版通鉴纪事本末》（全19册）是作家柏杨先生以《柏杨白话版资治通鉴》为蓝本，把公元前403年至公元959间1362年历史史料重新剪裁、改编为177个大事件的纪事本末体史书。 自1983年始，柏杨耗时10年，将《资治通鉴》译写成现代白话文，编著编年史书《柏杨版白话资治通鉴》。由于编年史有其局限性，头绪纷披、错综复杂间，难以把握历史事件的前因后果。故而，柏杨先生以袁枢编《通鉴纪事本末》的方法，以《柏杨白话版资治通鉴》为蓝本，以《通鉴》事件为主题，根据其前因后果重新剪裁、改编，完整记录177个重大历史事件，编成《柏杨版通鉴纪事本末》（全19册）。
 《柏杨版通鉴纪事本末》保留了公元纪年、地名今注、官名今译、作者亲手增绘地图等特色，延续了作者犀利老到的文笔、独立不羁的学术风范。较《柏杨白话版资治通...</t>
   </si>
@@ -1063,6 +1234,9 @@
   </si>
   <si>
     <t>《北大堂堂爆满的国文课》全3册 堂堂爆满 有趣有料 经典国文课[pdf]</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/29/kQETuL9asftR5gD.jpg</t>
   </si>
   <si>
     <t>堂堂爆满，学生们都喜欢的北大国文课，终于来啦！
@@ -1086,6 +1260,9 @@
     <t>《不被理解的少年》和15个与心理疾病斗争的孩子对谈实录 关注青少年心理健康[pdf]</t>
   </si>
   <si>
+    <t>https://cdn.sa.net/2024/10/29/zpPbBZwhGE68DlX.jpg</t>
+  </si>
+  <si>
     <t>1.视角独特的亲子关系书，聚焦青少年心理健康：在内卷式教育的时代，听见孩子们的心声。有别于以往的家教图书，都是大人的视角展开，本书立意独特，旨在倾听孩子的声音，通过孩子之口，展现孩子们眼中的世界。对家长群体来说，将是不可多得的一手资料，为家长们提供新的视角，了解现在的孩子们内心真实的想法，以调整自己的教育方法。
 2.15篇少年访谈，生动呈现当下青少年的精神世界。本书将收录作者与十五位孩子的访谈记录，这些孩子来自完全不同的家庭背景，有着各自迥然不同的烦恼，他们全都是被贴上各类心理问题标签的孩子，包括焦虑症、抑郁症、双相情感障碍、强迫症、厌食症和其他感统失调问题，涵盖了目前中国青少年最为普遍的各类心理疾病。这部书也是一次纪实实验，将客观呈现当下青少年的精神世界。除了访谈记录，每篇还将配以专家发声...</t>
   </si>
@@ -1096,6 +1273,9 @@
     <t>《曾国藩全集》套装全12册 走近曾国藩 晚清一代名臣作品集[pdf]</t>
   </si>
   <si>
+    <t>https://cdn.sa.net/2024/10/29/IsbKhQoxzje4qOm.jpg</t>
+  </si>
+  <si>
     <t>《曾国藩全集》为晚清一代名臣曾国藩的作品集，集中体现了曾国藩的政治、军事、理学思想和治学功底。光绪年间，光绪帝亲自下诏传忠书局刊刻《曾文正公全集》。曾国藩的门人李瀚章编纂、李鸿章校勘编刻，李宗羲、彭玉麟、沈葆桢、丁日昌、刘秉璋、俞樾、李元度、郭焘、薛福成、梅启照、吴汝纶、黎庶昌、王]运等一批风云人物参与其中。这一版本因编校团队阵容强大、声望显著，编辑严谨、点校精妙而流传甚广。
 《曾文正公全集》包含《首卷》一卷、《奏稿》三十卷、《十八家诗钞》二十八卷、《经史百家杂钞》二十六卷、《经史百家简编》两卷、《鸣原堂论文》两卷、《诗集》四卷、《文集》四卷、《书札》三十三卷、《批牍》六卷、《杂著》四卷、《求阙斋读书录》十卷、《求阙斋日记类钞》两卷、《年谱》十二卷。此次出版的《曾国藩全集》完整无删改地收录了...</t>
   </si>
@@ -1109,6 +1289,9 @@
     <t>《茶饮与健康》慢生活工坊 绿茶 红茶 青茶等六大类茶的...</t>
   </si>
   <si>
+    <t>https://cdn.sa.net/2024/10/29/QCJ341Eopg5hDWn.jpg</t>
+  </si>
+  <si>
     <t>本书以茶饮与健康的关系为着眼点，不仅详细介绍了绿茶、红茶、青茶等六大类茶的代表品种，包括烘焙过程、特色，以及冲泡各种茶叶适合的器具，更通过介绍茶的功效为大家贴心地整理出各种茶适合饮用的人群，从日常生活中提取常见的茶道常识，配以精美图片，不枯燥、不烦琐，无论你是想学习功夫茶的泡茶技巧，还是想得知“孕妇能否饮茶”“隔夜茶是否有害健康”这类关于茶的生活常识，都可以在此书中找到答案。</t>
   </si>
   <si>
@@ -1119,6 +1302,9 @@
   </si>
   <si>
     <t>《常见病中成药实用速查宝典》中医爱好者必备 实用版[pdf]</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/29/OcAwbdLqyI3JTnE.jpg</t>
   </si>
   <si>
     <t>《常见病中成药实用速查宝典》旨在帮助临床医师、执业药师及广大平民百姓准确、合理、有效地选择使用中成药。
@@ -1130,6 +1316,9 @@
   </si>
   <si>
     <t>《超脑思维：趣味数学游戏从入门到精通》让你分分钟玩转数学[pdf]</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/29/FUHQzpoktqnRigD.jpg</t>
   </si>
   <si>
     <t>培养思维能力，激发大脑潜能，让你分分钟玩转数学！解锁学霸属性，提升你的逻辑能力和创新能力。六大数学思维训练板块，轻松有趣，唤醒大脑，享受数学！
@@ -1149,6 +1338,9 @@
   </si>
   <si>
     <t>《陈志武金融作品系列》套装共5册 财富的逻辑[pdf]</t>
+  </si>
+  <si>
+    <t>https://cdn.sa.net/2024/10/29/xqrdikG8vgS1l7I.jpg</t>
   </si>
   <si>
     <t>《陈志武金融作品系列》
@@ -4679,28 +4871,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I251"/>
+  <dimension ref="A1:J251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9074074074074" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="12.9090909090909" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="68" customWidth="1"/>
-    <col min="2" max="2" width="5.66666666666667" customWidth="1"/>
-    <col min="3" max="3" width="19.1759259259259" customWidth="1"/>
-    <col min="4" max="4" width="9.66666666666667" customWidth="1"/>
+    <col min="2" max="2" width="5.66363636363636" customWidth="1"/>
+    <col min="3" max="3" width="19.1727272727273" customWidth="1"/>
+    <col min="4" max="4" width="9.66363636363636" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="26.5555555555556" customWidth="1"/>
-    <col min="7" max="7" width="5.66666666666667" customWidth="1"/>
+    <col min="6" max="6" width="26.5545454545455" customWidth="1"/>
+    <col min="7" max="7" width="5.66363636363636" customWidth="1"/>
     <col min="8" max="8" width="40" customWidth="1"/>
-    <col min="9" max="9" width="7.66666666666667" customWidth="1"/>
+    <col min="9" max="9" width="7.66363636363636" customWidth="1"/>
+    <col min="10" max="10" width="12.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4728,5931 +4921,6809 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2"/>
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3"/>
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3"/>
       <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
         <v>17</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4"/>
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
         <v>17</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5"/>
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6"/>
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7"/>
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8"/>
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9"/>
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10"/>
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="J10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11"/>
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="J11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12"/>
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="J12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13"/>
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
       <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" t="s">
         <v>59</v>
       </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" t="s">
-        <v>48</v>
-      </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="J13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14"/>
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="J14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15"/>
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="J15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16"/>
+        <v>87</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="J16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17"/>
+        <v>92</v>
+      </c>
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="J17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18"/>
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
+        <v>97</v>
+      </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="J18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19"/>
+        <v>101</v>
+      </c>
+      <c r="B19" t="s">
+        <v>102</v>
+      </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="J19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20"/>
+        <v>106</v>
+      </c>
+      <c r="B20" t="s">
+        <v>107</v>
+      </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>109</v>
+      </c>
+      <c r="J20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21"/>
+        <v>110</v>
+      </c>
+      <c r="B21" t="s">
+        <v>111</v>
+      </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>114</v>
+      </c>
+      <c r="J21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
         <v>90</v>
       </c>
-      <c r="F21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22"/>
-      <c r="C22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s">
-        <v>72</v>
-      </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>118</v>
+      </c>
+      <c r="J22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23"/>
+        <v>119</v>
+      </c>
+      <c r="B23" t="s">
+        <v>120</v>
+      </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>123</v>
+      </c>
+      <c r="J23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>128</v>
+      </c>
+      <c r="J24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>132</v>
+      </c>
+      <c r="J25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>136</v>
+      </c>
+      <c r="J26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>140</v>
+      </c>
+      <c r="J27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>144</v>
+      </c>
+      <c r="J28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>149</v>
+      </c>
+      <c r="J29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>153</v>
+      </c>
+      <c r="F30" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>154</v>
+      </c>
+      <c r="J30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
         <v>99</v>
       </c>
-      <c r="B24"/>
-      <c r="C24" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="s">
-        <v>103</v>
-      </c>
-      <c r="B25"/>
-      <c r="C25" t="s">
+      <c r="F31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>158</v>
+      </c>
+      <c r="J31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
         <v>104</v>
       </c>
-      <c r="D25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26"/>
-      <c r="C26" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" t="s">
-        <v>48</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
-        <v>109</v>
-      </c>
-      <c r="B27"/>
-      <c r="C27" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
-        <v>112</v>
-      </c>
-      <c r="B28"/>
-      <c r="C28" t="s">
-        <v>113</v>
-      </c>
-      <c r="D28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" t="s">
-        <v>48</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
-        <v>115</v>
-      </c>
-      <c r="B29"/>
-      <c r="C29" t="s">
-        <v>116</v>
-      </c>
-      <c r="D29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F29" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
-        <v>119</v>
-      </c>
-      <c r="B30"/>
-      <c r="C30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" t="s">
-        <v>121</v>
-      </c>
-      <c r="F30" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="s">
-        <v>123</v>
-      </c>
-      <c r="B31"/>
-      <c r="C31" t="s">
-        <v>124</v>
-      </c>
-      <c r="D31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" t="s">
-        <v>48</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s">
-        <v>126</v>
-      </c>
-      <c r="B32"/>
-      <c r="C32" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" t="s">
-        <v>83</v>
-      </c>
       <c r="F32" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>162</v>
+      </c>
+      <c r="J32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>129</v>
-      </c>
-      <c r="B33"/>
+        <v>163</v>
+      </c>
+      <c r="B33" t="s">
+        <v>164</v>
+      </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>166</v>
+      </c>
+      <c r="J33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>132</v>
-      </c>
-      <c r="B34"/>
+        <v>167</v>
+      </c>
+      <c r="B34" t="s">
+        <v>168</v>
+      </c>
       <c r="C34" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="F34" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>172</v>
+      </c>
+      <c r="J34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>137</v>
-      </c>
-      <c r="B35"/>
+        <v>173</v>
+      </c>
+      <c r="B35" t="s">
+        <v>174</v>
+      </c>
       <c r="C35" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="F35" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>177</v>
+      </c>
+      <c r="J35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>141</v>
-      </c>
-      <c r="B36"/>
+        <v>178</v>
+      </c>
+      <c r="B36" t="s">
+        <v>179</v>
+      </c>
       <c r="C36" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="F36" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>182</v>
+      </c>
+      <c r="J36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>145</v>
-      </c>
-      <c r="B37"/>
+        <v>183</v>
+      </c>
+      <c r="B37" t="s">
+        <v>184</v>
+      </c>
       <c r="C37" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="D37" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="F37" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="J37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>148</v>
-      </c>
-      <c r="B38"/>
+        <v>187</v>
+      </c>
+      <c r="B38" t="s">
+        <v>188</v>
+      </c>
       <c r="C38" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="F38" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="J38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>152</v>
-      </c>
-      <c r="B39"/>
+        <v>192</v>
+      </c>
+      <c r="B39" t="s">
+        <v>193</v>
+      </c>
       <c r="C39" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="D39" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E39" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="F39" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>197</v>
+      </c>
+      <c r="J39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>157</v>
-      </c>
-      <c r="B40"/>
+        <v>198</v>
+      </c>
+      <c r="B40" t="s">
+        <v>199</v>
+      </c>
       <c r="C40" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="D40" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="F40" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>203</v>
+      </c>
+      <c r="J40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>162</v>
-      </c>
-      <c r="B41"/>
+        <v>204</v>
+      </c>
+      <c r="B41" t="s">
+        <v>205</v>
+      </c>
       <c r="C41" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="D41" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E41" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="F41" t="s">
-        <v>165</v>
+        <v>208</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>209</v>
+      </c>
+      <c r="J41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>167</v>
-      </c>
-      <c r="B42"/>
+        <v>210</v>
+      </c>
+      <c r="B42" t="s">
+        <v>211</v>
+      </c>
       <c r="C42" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="D42" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E42" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F42" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>213</v>
+      </c>
+      <c r="J42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>170</v>
-      </c>
-      <c r="B43"/>
+        <v>214</v>
+      </c>
+      <c r="B43" t="s">
+        <v>215</v>
+      </c>
       <c r="C43" t="s">
-        <v>171</v>
+        <v>216</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="F43" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>217</v>
+      </c>
+      <c r="J43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>173</v>
-      </c>
-      <c r="B44"/>
+        <v>218</v>
+      </c>
+      <c r="B44" t="s">
+        <v>219</v>
+      </c>
       <c r="C44" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="D44" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E44" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="F44" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>222</v>
+      </c>
+      <c r="J44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>177</v>
-      </c>
-      <c r="B45"/>
+        <v>223</v>
+      </c>
+      <c r="B45" t="s">
+        <v>224</v>
+      </c>
       <c r="C45" t="s">
-        <v>178</v>
+        <v>225</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>179</v>
+        <v>226</v>
       </c>
       <c r="F45" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>228</v>
+      </c>
+      <c r="J45" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>182</v>
-      </c>
-      <c r="B46"/>
+        <v>229</v>
+      </c>
+      <c r="B46" t="s">
+        <v>230</v>
+      </c>
       <c r="C46" t="s">
-        <v>183</v>
+        <v>231</v>
       </c>
       <c r="D46" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E46" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="F46" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>233</v>
+      </c>
+      <c r="J46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>186</v>
-      </c>
-      <c r="B47"/>
+        <v>234</v>
+      </c>
+      <c r="B47" t="s">
+        <v>235</v>
+      </c>
       <c r="C47" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E47"/>
       <c r="F47" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>237</v>
+      </c>
+      <c r="J47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>189</v>
-      </c>
-      <c r="B48"/>
+        <v>238</v>
+      </c>
+      <c r="B48" t="s">
+        <v>239</v>
+      </c>
       <c r="C48" t="s">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E48" t="s">
-        <v>191</v>
+        <v>241</v>
       </c>
       <c r="F48" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>242</v>
+      </c>
+      <c r="J48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>193</v>
-      </c>
-      <c r="B49"/>
+        <v>243</v>
+      </c>
+      <c r="B49" t="s">
+        <v>244</v>
+      </c>
       <c r="C49" t="s">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="D49" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E49"/>
       <c r="F49" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>246</v>
+      </c>
+      <c r="J49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>196</v>
-      </c>
-      <c r="B50"/>
+        <v>247</v>
+      </c>
+      <c r="B50" t="s">
+        <v>248</v>
+      </c>
       <c r="C50" t="s">
-        <v>197</v>
+        <v>249</v>
       </c>
       <c r="D50" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E50" t="s">
-        <v>198</v>
+        <v>250</v>
       </c>
       <c r="F50" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>251</v>
+      </c>
+      <c r="J50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>200</v>
-      </c>
-      <c r="B51"/>
+        <v>252</v>
+      </c>
+      <c r="B51" t="s">
+        <v>253</v>
+      </c>
       <c r="C51" t="s">
-        <v>201</v>
+        <v>254</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E51" t="s">
-        <v>202</v>
+        <v>255</v>
       </c>
       <c r="F51" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>256</v>
+      </c>
+      <c r="J51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>204</v>
-      </c>
-      <c r="B52"/>
+        <v>257</v>
+      </c>
+      <c r="B52" t="s">
+        <v>258</v>
+      </c>
       <c r="C52" t="s">
-        <v>205</v>
+        <v>259</v>
       </c>
       <c r="D52" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E52" t="s">
-        <v>206</v>
+        <v>260</v>
       </c>
       <c r="F52" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>261</v>
+      </c>
+      <c r="J52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>208</v>
-      </c>
-      <c r="B53"/>
+        <v>262</v>
+      </c>
+      <c r="B53" t="s">
+        <v>263</v>
+      </c>
       <c r="C53" t="s">
-        <v>209</v>
+        <v>264</v>
       </c>
       <c r="D53" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E53" t="s">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="F53" t="s">
-        <v>211</v>
+        <v>266</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>267</v>
+      </c>
+      <c r="J53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>213</v>
-      </c>
-      <c r="B54"/>
+        <v>268</v>
+      </c>
+      <c r="B54" t="s">
+        <v>269</v>
+      </c>
       <c r="C54" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="D54" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>215</v>
+        <v>271</v>
       </c>
       <c r="F54" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>272</v>
+      </c>
+      <c r="J54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>217</v>
-      </c>
-      <c r="B55"/>
+        <v>273</v>
+      </c>
+      <c r="B55" t="s">
+        <v>274</v>
+      </c>
       <c r="C55" t="s">
-        <v>218</v>
+        <v>275</v>
       </c>
       <c r="D55" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E55" t="s">
-        <v>219</v>
+        <v>276</v>
       </c>
       <c r="F55" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>277</v>
+      </c>
+      <c r="J55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>221</v>
-      </c>
-      <c r="B56"/>
+        <v>278</v>
+      </c>
+      <c r="B56" t="s">
+        <v>279</v>
+      </c>
       <c r="C56" t="s">
-        <v>222</v>
+        <v>280</v>
       </c>
       <c r="D56" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E56" t="s">
-        <v>223</v>
+        <v>281</v>
       </c>
       <c r="F56" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>282</v>
+      </c>
+      <c r="J56" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>225</v>
-      </c>
-      <c r="B57"/>
+        <v>283</v>
+      </c>
+      <c r="B57" t="s">
+        <v>284</v>
+      </c>
       <c r="C57" t="s">
-        <v>226</v>
+        <v>285</v>
       </c>
       <c r="D57" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E57"/>
       <c r="F57" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>286</v>
+      </c>
+      <c r="J57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>228</v>
-      </c>
-      <c r="B58"/>
+        <v>287</v>
+      </c>
+      <c r="B58" t="s">
+        <v>288</v>
+      </c>
       <c r="C58" t="s">
-        <v>229</v>
+        <v>289</v>
       </c>
       <c r="D58" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E58" t="s">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="F58" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>291</v>
+      </c>
+      <c r="J58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>232</v>
-      </c>
-      <c r="B59"/>
+        <v>292</v>
+      </c>
+      <c r="B59" t="s">
+        <v>293</v>
+      </c>
       <c r="C59" t="s">
-        <v>233</v>
+        <v>294</v>
       </c>
       <c r="D59" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E59" t="s">
-        <v>234</v>
+        <v>295</v>
       </c>
       <c r="F59" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>296</v>
+      </c>
+      <c r="J59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>236</v>
-      </c>
-      <c r="B60"/>
+        <v>297</v>
+      </c>
+      <c r="B60" t="s">
+        <v>298</v>
+      </c>
       <c r="C60" t="s">
-        <v>237</v>
+        <v>299</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E60"/>
       <c r="F60" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>300</v>
+      </c>
+      <c r="J60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>239</v>
-      </c>
-      <c r="B61"/>
+        <v>301</v>
+      </c>
+      <c r="B61" t="s">
+        <v>302</v>
+      </c>
       <c r="C61" t="s">
-        <v>240</v>
+        <v>303</v>
       </c>
       <c r="D61" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E61" t="s">
-        <v>241</v>
+        <v>304</v>
       </c>
       <c r="F61" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>305</v>
+      </c>
+      <c r="J61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>243</v>
-      </c>
-      <c r="B62"/>
+        <v>306</v>
+      </c>
+      <c r="B62" t="s">
+        <v>307</v>
+      </c>
       <c r="C62" t="s">
-        <v>244</v>
+        <v>308</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E62" t="s">
-        <v>245</v>
+        <v>309</v>
       </c>
       <c r="F62" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>310</v>
+      </c>
+      <c r="J62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>247</v>
+        <v>311</v>
       </c>
       <c r="B63"/>
       <c r="C63" t="s">
-        <v>248</v>
+        <v>312</v>
       </c>
       <c r="D63" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E63" t="s">
-        <v>249</v>
+        <v>313</v>
       </c>
       <c r="F63" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>314</v>
+      </c>
+      <c r="J63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>251</v>
+        <v>315</v>
       </c>
       <c r="B64"/>
       <c r="C64" t="s">
-        <v>252</v>
+        <v>316</v>
       </c>
       <c r="D64" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E64" t="s">
-        <v>253</v>
+        <v>317</v>
       </c>
       <c r="F64" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>318</v>
+      </c>
+      <c r="J64" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>255</v>
+        <v>319</v>
       </c>
       <c r="B65"/>
       <c r="C65" t="s">
-        <v>256</v>
+        <v>320</v>
       </c>
       <c r="D65" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E65" t="s">
-        <v>257</v>
+        <v>321</v>
       </c>
       <c r="F65" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>322</v>
+      </c>
+      <c r="J65" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>259</v>
+        <v>323</v>
       </c>
       <c r="B66"/>
       <c r="C66" t="s">
-        <v>260</v>
+        <v>324</v>
       </c>
       <c r="D66" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E66" t="s">
-        <v>261</v>
+        <v>325</v>
       </c>
       <c r="F66" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>326</v>
+      </c>
+      <c r="J66" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>263</v>
+        <v>327</v>
       </c>
       <c r="B67"/>
       <c r="C67" t="s">
-        <v>264</v>
+        <v>328</v>
       </c>
       <c r="D67" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E67" t="s">
-        <v>265</v>
+        <v>329</v>
       </c>
       <c r="F67" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>330</v>
+      </c>
+      <c r="J67" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>267</v>
+        <v>331</v>
       </c>
       <c r="B68"/>
       <c r="C68" t="s">
-        <v>268</v>
+        <v>332</v>
       </c>
       <c r="D68" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E68" t="s">
-        <v>269</v>
+        <v>333</v>
       </c>
       <c r="F68" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>334</v>
+      </c>
+      <c r="J68" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>271</v>
+        <v>335</v>
       </c>
       <c r="B69"/>
       <c r="C69" t="s">
-        <v>272</v>
+        <v>336</v>
       </c>
       <c r="D69" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E69" t="s">
-        <v>273</v>
+        <v>337</v>
       </c>
       <c r="F69" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>338</v>
+      </c>
+      <c r="J69" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>275</v>
+        <v>339</v>
       </c>
       <c r="B70"/>
       <c r="C70" t="s">
-        <v>276</v>
+        <v>340</v>
       </c>
       <c r="D70" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E70" t="s">
-        <v>277</v>
+        <v>341</v>
       </c>
       <c r="F70" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>342</v>
+      </c>
+      <c r="J70" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>279</v>
+        <v>343</v>
       </c>
       <c r="B71"/>
       <c r="C71" t="s">
-        <v>280</v>
+        <v>344</v>
       </c>
       <c r="D71" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E71" t="s">
-        <v>281</v>
+        <v>345</v>
       </c>
       <c r="F71" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>346</v>
+      </c>
+      <c r="J71" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>283</v>
+        <v>347</v>
       </c>
       <c r="B72"/>
       <c r="C72" t="s">
-        <v>284</v>
+        <v>348</v>
       </c>
       <c r="D72" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E72" t="s">
-        <v>285</v>
+        <v>349</v>
       </c>
       <c r="F72" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>350</v>
+      </c>
+      <c r="J72" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>287</v>
+        <v>351</v>
       </c>
       <c r="B73"/>
       <c r="C73" t="s">
-        <v>288</v>
+        <v>352</v>
       </c>
       <c r="D73" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E73"/>
       <c r="F73" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>353</v>
+      </c>
+      <c r="J73" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>290</v>
+        <v>354</v>
       </c>
       <c r="B74"/>
       <c r="C74" t="s">
-        <v>291</v>
+        <v>355</v>
       </c>
       <c r="D74" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E74" t="s">
-        <v>292</v>
+        <v>356</v>
       </c>
       <c r="F74" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>357</v>
+      </c>
+      <c r="J74" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>294</v>
+        <v>358</v>
       </c>
       <c r="B75"/>
       <c r="C75" t="s">
-        <v>295</v>
+        <v>359</v>
       </c>
       <c r="D75" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E75" t="s">
-        <v>296</v>
+        <v>360</v>
       </c>
       <c r="F75" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>361</v>
+      </c>
+      <c r="J75" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>298</v>
+        <v>362</v>
       </c>
       <c r="B76"/>
       <c r="C76" t="s">
-        <v>299</v>
+        <v>363</v>
       </c>
       <c r="D76" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E76" t="s">
-        <v>300</v>
+        <v>364</v>
       </c>
       <c r="F76" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>365</v>
+      </c>
+      <c r="J76" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>302</v>
+        <v>366</v>
       </c>
       <c r="B77"/>
       <c r="C77" t="s">
-        <v>303</v>
+        <v>367</v>
       </c>
       <c r="D77" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E77" t="s">
-        <v>304</v>
+        <v>368</v>
       </c>
       <c r="F77" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>369</v>
+      </c>
+      <c r="J77" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>306</v>
+        <v>370</v>
       </c>
       <c r="B78"/>
       <c r="C78" t="s">
-        <v>307</v>
+        <v>371</v>
       </c>
       <c r="D78" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E78" t="s">
-        <v>308</v>
+        <v>372</v>
       </c>
       <c r="F78" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>373</v>
+      </c>
+      <c r="J78" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>310</v>
+        <v>374</v>
       </c>
       <c r="B79"/>
       <c r="C79" t="s">
-        <v>311</v>
+        <v>375</v>
       </c>
       <c r="D79" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E79"/>
       <c r="F79" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>376</v>
+      </c>
+      <c r="J79" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>313</v>
+        <v>377</v>
       </c>
       <c r="B80"/>
       <c r="C80" t="s">
-        <v>314</v>
+        <v>378</v>
       </c>
       <c r="D80" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E80" t="s">
-        <v>315</v>
+        <v>379</v>
       </c>
       <c r="F80" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>380</v>
+      </c>
+      <c r="J80" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>317</v>
+        <v>381</v>
       </c>
       <c r="B81"/>
       <c r="C81" t="s">
-        <v>318</v>
+        <v>382</v>
       </c>
       <c r="D81" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E81" t="s">
-        <v>319</v>
+        <v>383</v>
       </c>
       <c r="F81" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>384</v>
+      </c>
+      <c r="J81" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>321</v>
+        <v>385</v>
       </c>
       <c r="B82"/>
       <c r="C82" t="s">
-        <v>322</v>
+        <v>386</v>
       </c>
       <c r="D82" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E82" t="s">
-        <v>323</v>
+        <v>387</v>
       </c>
       <c r="F82" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>388</v>
+      </c>
+      <c r="J82" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>325</v>
+        <v>389</v>
       </c>
       <c r="B83"/>
       <c r="C83" t="s">
-        <v>326</v>
+        <v>390</v>
       </c>
       <c r="D83" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E83"/>
       <c r="F83" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>391</v>
+      </c>
+      <c r="J83" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>328</v>
+        <v>392</v>
       </c>
       <c r="B84"/>
       <c r="C84" t="s">
-        <v>329</v>
+        <v>393</v>
       </c>
       <c r="D84" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E84"/>
       <c r="F84" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>394</v>
+      </c>
+      <c r="J84" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>331</v>
+        <v>395</v>
       </c>
       <c r="B85"/>
       <c r="C85" t="s">
-        <v>332</v>
+        <v>396</v>
       </c>
       <c r="D85" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E85" t="s">
-        <v>333</v>
+        <v>397</v>
       </c>
       <c r="F85" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>398</v>
+      </c>
+      <c r="J85" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
-        <v>335</v>
+        <v>399</v>
       </c>
       <c r="B86"/>
       <c r="C86" t="s">
-        <v>336</v>
+        <v>400</v>
       </c>
       <c r="D86" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E86" t="s">
-        <v>337</v>
+        <v>401</v>
       </c>
       <c r="F86" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>402</v>
+      </c>
+      <c r="J86" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
-        <v>339</v>
+        <v>403</v>
       </c>
       <c r="B87"/>
       <c r="C87" t="s">
-        <v>340</v>
+        <v>404</v>
       </c>
       <c r="D87" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E87" t="s">
-        <v>341</v>
+        <v>405</v>
       </c>
       <c r="F87" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>406</v>
+      </c>
+      <c r="J87" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>343</v>
+        <v>407</v>
       </c>
       <c r="B88"/>
       <c r="C88" t="s">
-        <v>344</v>
+        <v>408</v>
       </c>
       <c r="D88" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E88" t="s">
-        <v>345</v>
+        <v>409</v>
       </c>
       <c r="F88" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>410</v>
+      </c>
+      <c r="J88" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>347</v>
+        <v>411</v>
       </c>
       <c r="B89"/>
       <c r="C89" t="s">
-        <v>348</v>
+        <v>412</v>
       </c>
       <c r="D89" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E89" t="s">
-        <v>349</v>
+        <v>413</v>
       </c>
       <c r="F89" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>414</v>
+      </c>
+      <c r="J89" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
-        <v>351</v>
+        <v>415</v>
       </c>
       <c r="B90"/>
       <c r="C90" t="s">
-        <v>352</v>
+        <v>416</v>
       </c>
       <c r="D90" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E90" t="s">
-        <v>353</v>
+        <v>417</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>418</v>
+      </c>
+      <c r="J90" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" t="s">
-        <v>355</v>
+        <v>419</v>
       </c>
       <c r="B91"/>
       <c r="C91" t="s">
-        <v>356</v>
+        <v>420</v>
       </c>
       <c r="D91" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E91" t="s">
-        <v>357</v>
+        <v>421</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>422</v>
+      </c>
+      <c r="J91" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
-        <v>359</v>
+        <v>423</v>
       </c>
       <c r="B92"/>
       <c r="C92" t="s">
-        <v>360</v>
+        <v>424</v>
       </c>
       <c r="D92" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E92" t="s">
-        <v>361</v>
+        <v>425</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>426</v>
+      </c>
+      <c r="J92" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
-        <v>363</v>
+        <v>427</v>
       </c>
       <c r="B93"/>
       <c r="C93" t="s">
-        <v>364</v>
+        <v>428</v>
       </c>
       <c r="D93" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E93"/>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>429</v>
+      </c>
+      <c r="J93" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
-        <v>366</v>
+        <v>430</v>
       </c>
       <c r="B94"/>
       <c r="C94" t="s">
-        <v>367</v>
+        <v>431</v>
       </c>
       <c r="D94" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E94" t="s">
-        <v>368</v>
+        <v>432</v>
       </c>
       <c r="F94" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>433</v>
+      </c>
+      <c r="J94" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
-        <v>370</v>
+        <v>434</v>
       </c>
       <c r="B95"/>
       <c r="C95" t="s">
-        <v>371</v>
+        <v>435</v>
       </c>
       <c r="D95" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E95" t="s">
-        <v>372</v>
+        <v>436</v>
       </c>
       <c r="F95" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>437</v>
+      </c>
+      <c r="J95" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
-        <v>374</v>
+        <v>438</v>
       </c>
       <c r="B96"/>
       <c r="C96" t="s">
-        <v>375</v>
+        <v>439</v>
       </c>
       <c r="D96" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E96" t="s">
-        <v>376</v>
+        <v>440</v>
       </c>
       <c r="F96" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>441</v>
+      </c>
+      <c r="J96" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
-        <v>378</v>
+        <v>442</v>
       </c>
       <c r="B97"/>
       <c r="C97" t="s">
-        <v>379</v>
+        <v>443</v>
       </c>
       <c r="D97" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E97" t="s">
-        <v>380</v>
+        <v>444</v>
       </c>
       <c r="F97" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>445</v>
+      </c>
+      <c r="J97" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
-        <v>382</v>
+        <v>446</v>
       </c>
       <c r="B98"/>
       <c r="C98" t="s">
-        <v>383</v>
+        <v>447</v>
       </c>
       <c r="D98" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E98" t="s">
-        <v>384</v>
+        <v>448</v>
       </c>
       <c r="F98" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>449</v>
+      </c>
+      <c r="J98" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" t="s">
-        <v>386</v>
+        <v>450</v>
       </c>
       <c r="B99"/>
       <c r="C99" t="s">
-        <v>387</v>
+        <v>451</v>
       </c>
       <c r="D99" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E99"/>
       <c r="F99" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>452</v>
+      </c>
+      <c r="J99" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>389</v>
+        <v>453</v>
       </c>
       <c r="B100"/>
       <c r="C100" t="s">
-        <v>390</v>
+        <v>454</v>
       </c>
       <c r="D100" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E100" t="s">
-        <v>391</v>
+        <v>455</v>
       </c>
       <c r="F100" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>456</v>
+      </c>
+      <c r="J100" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" t="s">
-        <v>393</v>
+        <v>457</v>
       </c>
       <c r="B101"/>
       <c r="C101" t="s">
-        <v>394</v>
+        <v>458</v>
       </c>
       <c r="D101" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E101" t="s">
-        <v>395</v>
+        <v>459</v>
       </c>
       <c r="F101" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>460</v>
+      </c>
+      <c r="J101" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" t="s">
-        <v>397</v>
+        <v>461</v>
       </c>
       <c r="B102"/>
       <c r="C102" t="s">
-        <v>398</v>
+        <v>462</v>
       </c>
       <c r="D102" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E102" t="s">
-        <v>399</v>
+        <v>463</v>
       </c>
       <c r="F102" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>464</v>
+      </c>
+      <c r="J102" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" t="s">
-        <v>401</v>
+        <v>465</v>
       </c>
       <c r="B103"/>
       <c r="C103" t="s">
-        <v>402</v>
+        <v>466</v>
       </c>
       <c r="D103" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E103" t="s">
-        <v>403</v>
+        <v>467</v>
       </c>
       <c r="F103" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G103">
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>468</v>
+      </c>
+      <c r="J103" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" t="s">
-        <v>405</v>
+        <v>469</v>
       </c>
       <c r="B104"/>
       <c r="C104" t="s">
-        <v>406</v>
+        <v>470</v>
       </c>
       <c r="D104" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E104" t="s">
-        <v>407</v>
+        <v>471</v>
       </c>
       <c r="F104" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>472</v>
+      </c>
+      <c r="J104" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" t="s">
-        <v>409</v>
+        <v>473</v>
       </c>
       <c r="B105"/>
       <c r="C105" t="s">
-        <v>410</v>
+        <v>474</v>
       </c>
       <c r="D105" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E105" t="s">
-        <v>411</v>
+        <v>475</v>
       </c>
       <c r="F105" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>476</v>
+      </c>
+      <c r="J105" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" t="s">
-        <v>413</v>
+        <v>477</v>
       </c>
       <c r="B106"/>
       <c r="C106" t="s">
-        <v>414</v>
+        <v>478</v>
       </c>
       <c r="D106" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E106" t="s">
-        <v>415</v>
+        <v>479</v>
       </c>
       <c r="F106" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>480</v>
+      </c>
+      <c r="J106" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" t="s">
-        <v>417</v>
+        <v>481</v>
       </c>
       <c r="B107"/>
       <c r="C107" t="s">
-        <v>418</v>
+        <v>482</v>
       </c>
       <c r="D107" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E107" t="s">
-        <v>419</v>
+        <v>483</v>
       </c>
       <c r="F107" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>484</v>
+      </c>
+      <c r="J107" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" t="s">
-        <v>421</v>
+        <v>485</v>
       </c>
       <c r="B108"/>
       <c r="C108" t="s">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="D108" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E108" t="s">
-        <v>345</v>
+        <v>409</v>
       </c>
       <c r="F108" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>487</v>
+      </c>
+      <c r="J108" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" t="s">
-        <v>424</v>
+        <v>488</v>
       </c>
       <c r="B109"/>
       <c r="C109" t="s">
-        <v>425</v>
+        <v>489</v>
       </c>
       <c r="D109" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E109" t="s">
-        <v>426</v>
+        <v>490</v>
       </c>
       <c r="F109" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>491</v>
+      </c>
+      <c r="J109" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" t="s">
-        <v>428</v>
+        <v>492</v>
       </c>
       <c r="B110"/>
       <c r="C110" t="s">
-        <v>429</v>
+        <v>493</v>
       </c>
       <c r="D110" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E110" t="s">
-        <v>430</v>
+        <v>494</v>
       </c>
       <c r="F110" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G110">
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>495</v>
+      </c>
+      <c r="J110" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" t="s">
-        <v>432</v>
+        <v>496</v>
       </c>
       <c r="B111"/>
       <c r="C111" t="s">
-        <v>433</v>
+        <v>497</v>
       </c>
       <c r="D111" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E111"/>
       <c r="F111" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>498</v>
+      </c>
+      <c r="J111" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" t="s">
-        <v>435</v>
+        <v>499</v>
       </c>
       <c r="B112"/>
       <c r="C112" t="s">
-        <v>436</v>
+        <v>500</v>
       </c>
       <c r="D112" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E112" t="s">
-        <v>437</v>
+        <v>501</v>
       </c>
       <c r="F112" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>502</v>
+      </c>
+      <c r="J112" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" t="s">
-        <v>439</v>
+        <v>503</v>
       </c>
       <c r="B113"/>
       <c r="C113" t="s">
+        <v>504</v>
+      </c>
+      <c r="D113" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" t="s">
         <v>440</v>
       </c>
-      <c r="D113" t="s">
-        <v>11</v>
-      </c>
-      <c r="E113" t="s">
-        <v>376</v>
-      </c>
       <c r="F113" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G113">
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>505</v>
+      </c>
+      <c r="J113" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" t="s">
-        <v>442</v>
+        <v>506</v>
       </c>
       <c r="B114"/>
       <c r="C114" t="s">
-        <v>443</v>
+        <v>507</v>
       </c>
       <c r="D114" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E114" t="s">
-        <v>345</v>
+        <v>409</v>
       </c>
       <c r="F114" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>508</v>
+      </c>
+      <c r="J114" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" t="s">
-        <v>445</v>
+        <v>509</v>
       </c>
       <c r="B115"/>
       <c r="C115" t="s">
-        <v>446</v>
+        <v>510</v>
       </c>
       <c r="D115" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E115" t="s">
-        <v>345</v>
+        <v>409</v>
       </c>
       <c r="F115" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>511</v>
+      </c>
+      <c r="J115" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="B116"/>
       <c r="C116" t="s">
-        <v>449</v>
+        <v>513</v>
       </c>
       <c r="D116" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E116"/>
       <c r="F116" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G116">
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>514</v>
+      </c>
+      <c r="J116" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" t="s">
-        <v>451</v>
+        <v>515</v>
       </c>
       <c r="B117"/>
       <c r="C117" t="s">
-        <v>452</v>
+        <v>516</v>
       </c>
       <c r="D117" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E117"/>
       <c r="F117" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>517</v>
+      </c>
+      <c r="J117" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" t="s">
-        <v>454</v>
+        <v>518</v>
       </c>
       <c r="B118"/>
       <c r="C118" t="s">
-        <v>455</v>
+        <v>519</v>
       </c>
       <c r="D118" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E118"/>
       <c r="F118" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>520</v>
+      </c>
+      <c r="J118" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" t="s">
-        <v>457</v>
+        <v>521</v>
       </c>
       <c r="B119"/>
       <c r="C119" t="s">
-        <v>458</v>
+        <v>522</v>
       </c>
       <c r="D119" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E119" t="s">
-        <v>345</v>
+        <v>409</v>
       </c>
       <c r="F119" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>523</v>
+      </c>
+      <c r="J119" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" t="s">
-        <v>460</v>
+        <v>524</v>
       </c>
       <c r="B120"/>
       <c r="C120" t="s">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="D120" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E120" t="s">
-        <v>462</v>
+        <v>526</v>
       </c>
       <c r="F120" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G120">
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>527</v>
+      </c>
+      <c r="J120" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" t="s">
-        <v>464</v>
+        <v>528</v>
       </c>
       <c r="B121"/>
       <c r="C121" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="D121" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E121"/>
       <c r="F121" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G121">
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>530</v>
+      </c>
+      <c r="J121" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" t="s">
-        <v>467</v>
+        <v>531</v>
       </c>
       <c r="B122"/>
       <c r="C122" t="s">
-        <v>467</v>
+        <v>531</v>
       </c>
       <c r="D122" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E122" t="s">
-        <v>468</v>
+        <v>532</v>
       </c>
       <c r="F122" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G122">
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>533</v>
+      </c>
+      <c r="J122" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" t="s">
-        <v>470</v>
+        <v>534</v>
       </c>
       <c r="B123"/>
       <c r="C123" t="s">
-        <v>471</v>
+        <v>535</v>
       </c>
       <c r="D123" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E123" t="s">
-        <v>472</v>
+        <v>536</v>
       </c>
       <c r="F123" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G123">
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>537</v>
+      </c>
+      <c r="J123" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" t="s">
-        <v>474</v>
+        <v>538</v>
       </c>
       <c r="B124"/>
       <c r="C124" t="s">
-        <v>475</v>
+        <v>539</v>
       </c>
       <c r="D124" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E124" t="s">
-        <v>476</v>
+        <v>540</v>
       </c>
       <c r="F124" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G124">
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>541</v>
+      </c>
+      <c r="J124" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" t="s">
-        <v>478</v>
+        <v>542</v>
       </c>
       <c r="B125"/>
       <c r="C125" t="s">
-        <v>479</v>
+        <v>543</v>
       </c>
       <c r="D125" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E125" t="s">
-        <v>480</v>
+        <v>544</v>
       </c>
       <c r="F125" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G125">
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>545</v>
+      </c>
+      <c r="J125" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" t="s">
-        <v>482</v>
+        <v>546</v>
       </c>
       <c r="B126"/>
       <c r="C126" t="s">
-        <v>483</v>
+        <v>547</v>
       </c>
       <c r="D126" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E126" t="s">
-        <v>345</v>
+        <v>409</v>
       </c>
       <c r="F126" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G126">
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>548</v>
+      </c>
+      <c r="J126" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" t="s">
-        <v>485</v>
+        <v>549</v>
       </c>
       <c r="B127"/>
       <c r="C127" t="s">
-        <v>486</v>
+        <v>550</v>
       </c>
       <c r="D127" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E127" t="s">
-        <v>487</v>
+        <v>551</v>
       </c>
       <c r="F127" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G127">
         <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>552</v>
+      </c>
+      <c r="J127" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" t="s">
-        <v>489</v>
+        <v>553</v>
       </c>
       <c r="B128"/>
       <c r="C128" t="s">
-        <v>490</v>
+        <v>554</v>
       </c>
       <c r="D128" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E128" t="s">
-        <v>491</v>
+        <v>555</v>
       </c>
       <c r="F128" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G128">
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>556</v>
+      </c>
+      <c r="J128" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" t="s">
-        <v>493</v>
+        <v>557</v>
       </c>
       <c r="B129"/>
       <c r="C129" t="s">
-        <v>494</v>
+        <v>558</v>
       </c>
       <c r="D129" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E129" t="s">
-        <v>495</v>
+        <v>559</v>
       </c>
       <c r="F129" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G129">
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>560</v>
+      </c>
+      <c r="J129" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" t="s">
-        <v>497</v>
+        <v>561</v>
       </c>
       <c r="B130"/>
       <c r="C130" t="s">
-        <v>498</v>
+        <v>562</v>
       </c>
       <c r="D130" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E130" t="s">
-        <v>499</v>
+        <v>563</v>
       </c>
       <c r="F130" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G130">
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>564</v>
+      </c>
+      <c r="J130" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" t="s">
-        <v>501</v>
+        <v>565</v>
       </c>
       <c r="B131"/>
       <c r="C131" t="s">
-        <v>502</v>
+        <v>566</v>
       </c>
       <c r="D131" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E131" t="s">
-        <v>503</v>
+        <v>567</v>
       </c>
       <c r="F131" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G131">
         <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>568</v>
+      </c>
+      <c r="J131" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" t="s">
-        <v>505</v>
+        <v>569</v>
       </c>
       <c r="B132"/>
       <c r="C132" t="s">
-        <v>506</v>
+        <v>570</v>
       </c>
       <c r="D132" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E132"/>
       <c r="F132" t="s">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="G132">
         <v>0</v>
       </c>
       <c r="H132" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>572</v>
+      </c>
+      <c r="J132" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" t="s">
-        <v>509</v>
+        <v>573</v>
       </c>
       <c r="B133"/>
       <c r="C133" t="s">
-        <v>510</v>
+        <v>574</v>
       </c>
       <c r="D133" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E133" t="s">
-        <v>511</v>
+        <v>575</v>
       </c>
       <c r="F133" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G133">
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>576</v>
+      </c>
+      <c r="J133" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" t="s">
-        <v>513</v>
+        <v>577</v>
       </c>
       <c r="B134"/>
       <c r="C134" t="s">
-        <v>514</v>
+        <v>578</v>
       </c>
       <c r="D134" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E134" t="s">
-        <v>515</v>
+        <v>579</v>
       </c>
       <c r="F134" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G134">
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>580</v>
+      </c>
+      <c r="J134" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" t="s">
-        <v>517</v>
+        <v>581</v>
       </c>
       <c r="B135"/>
       <c r="C135" t="s">
-        <v>518</v>
+        <v>582</v>
       </c>
       <c r="D135" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E135" t="s">
-        <v>519</v>
+        <v>583</v>
       </c>
       <c r="F135" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G135">
         <v>0</v>
       </c>
       <c r="H135" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>584</v>
+      </c>
+      <c r="J135" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" t="s">
-        <v>521</v>
+        <v>585</v>
       </c>
       <c r="B136"/>
       <c r="C136" t="s">
-        <v>522</v>
+        <v>586</v>
       </c>
       <c r="D136" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E136"/>
       <c r="F136" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G136">
         <v>0</v>
       </c>
       <c r="H136" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>587</v>
+      </c>
+      <c r="J136" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" t="s">
-        <v>524</v>
+        <v>588</v>
       </c>
       <c r="B137"/>
       <c r="C137" t="s">
-        <v>525</v>
+        <v>589</v>
       </c>
       <c r="D137" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E137" t="s">
-        <v>526</v>
+        <v>590</v>
       </c>
       <c r="F137" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G137">
         <v>0</v>
       </c>
       <c r="H137" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>591</v>
+      </c>
+      <c r="J137" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" t="s">
-        <v>528</v>
+        <v>592</v>
       </c>
       <c r="B138"/>
       <c r="C138" t="s">
-        <v>529</v>
+        <v>593</v>
       </c>
       <c r="D138" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E138" t="s">
-        <v>530</v>
+        <v>594</v>
       </c>
       <c r="F138" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G138">
         <v>0</v>
       </c>
       <c r="H138" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>595</v>
+      </c>
+      <c r="J138" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" t="s">
-        <v>532</v>
+        <v>596</v>
       </c>
       <c r="B139"/>
       <c r="C139" t="s">
-        <v>533</v>
+        <v>597</v>
       </c>
       <c r="D139" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E139" t="s">
-        <v>534</v>
+        <v>598</v>
       </c>
       <c r="F139" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G139">
         <v>0</v>
       </c>
       <c r="H139" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>599</v>
+      </c>
+      <c r="J139" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" t="s">
-        <v>536</v>
+        <v>600</v>
       </c>
       <c r="B140"/>
       <c r="C140" t="s">
-        <v>537</v>
+        <v>601</v>
       </c>
       <c r="D140" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E140" t="s">
-        <v>538</v>
+        <v>602</v>
       </c>
       <c r="F140" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G140">
         <v>0</v>
       </c>
       <c r="H140" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>603</v>
+      </c>
+      <c r="J140" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" t="s">
-        <v>540</v>
+        <v>604</v>
       </c>
       <c r="B141"/>
       <c r="C141" t="s">
-        <v>541</v>
+        <v>605</v>
       </c>
       <c r="D141" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E141"/>
       <c r="F141" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G141">
         <v>0</v>
       </c>
       <c r="H141" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>606</v>
+      </c>
+      <c r="J141" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" t="s">
-        <v>543</v>
+        <v>607</v>
       </c>
       <c r="B142"/>
       <c r="C142" t="s">
-        <v>544</v>
+        <v>608</v>
       </c>
       <c r="D142" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E142" t="s">
-        <v>545</v>
+        <v>609</v>
       </c>
       <c r="F142" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G142">
         <v>0</v>
       </c>
       <c r="H142" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>610</v>
+      </c>
+      <c r="J142" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" t="s">
-        <v>547</v>
+        <v>611</v>
       </c>
       <c r="B143"/>
       <c r="C143" t="s">
-        <v>548</v>
+        <v>612</v>
       </c>
       <c r="D143" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E143" t="s">
-        <v>549</v>
+        <v>613</v>
       </c>
       <c r="F143" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G143">
         <v>0</v>
       </c>
       <c r="H143" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>614</v>
+      </c>
+      <c r="J143" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" t="s">
-        <v>551</v>
+        <v>615</v>
       </c>
       <c r="B144"/>
       <c r="C144" t="s">
-        <v>552</v>
+        <v>616</v>
       </c>
       <c r="D144" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E144" t="s">
-        <v>553</v>
+        <v>617</v>
       </c>
       <c r="F144" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G144">
         <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>618</v>
+      </c>
+      <c r="J144" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" t="s">
-        <v>555</v>
+        <v>619</v>
       </c>
       <c r="B145"/>
       <c r="C145" t="s">
-        <v>555</v>
+        <v>619</v>
       </c>
       <c r="D145" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E145" t="s">
-        <v>556</v>
+        <v>620</v>
       </c>
       <c r="F145" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G145">
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>621</v>
+      </c>
+      <c r="J145" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" t="s">
-        <v>558</v>
+        <v>622</v>
       </c>
       <c r="B146"/>
       <c r="C146" t="s">
-        <v>559</v>
+        <v>623</v>
       </c>
       <c r="D146" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E146"/>
       <c r="F146" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G146">
         <v>0</v>
       </c>
       <c r="H146" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>624</v>
+      </c>
+      <c r="J146" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" t="s">
-        <v>561</v>
+        <v>625</v>
       </c>
       <c r="B147"/>
       <c r="C147" t="s">
-        <v>562</v>
+        <v>626</v>
       </c>
       <c r="D147" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E147" t="s">
-        <v>563</v>
+        <v>627</v>
       </c>
       <c r="F147" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G147">
         <v>0</v>
       </c>
       <c r="H147" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>628</v>
+      </c>
+      <c r="J147" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" t="s">
-        <v>565</v>
+        <v>629</v>
       </c>
       <c r="B148"/>
       <c r="C148" t="s">
-        <v>566</v>
+        <v>630</v>
       </c>
       <c r="D148" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E148"/>
       <c r="F148" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G148">
         <v>0</v>
       </c>
       <c r="H148" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>631</v>
+      </c>
+      <c r="J148" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" t="s">
-        <v>568</v>
+        <v>632</v>
       </c>
       <c r="B149"/>
       <c r="C149" t="s">
-        <v>569</v>
+        <v>633</v>
       </c>
       <c r="D149" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E149" t="s">
-        <v>570</v>
+        <v>634</v>
       </c>
       <c r="F149" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G149">
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>635</v>
+      </c>
+      <c r="J149" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" t="s">
-        <v>572</v>
+        <v>636</v>
       </c>
       <c r="B150"/>
       <c r="C150" t="s">
-        <v>573</v>
+        <v>637</v>
       </c>
       <c r="D150" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E150" t="s">
-        <v>574</v>
+        <v>638</v>
       </c>
       <c r="F150" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G150">
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>639</v>
+      </c>
+      <c r="J150" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" t="s">
-        <v>576</v>
+        <v>640</v>
       </c>
       <c r="B151"/>
       <c r="C151" t="s">
-        <v>577</v>
+        <v>641</v>
       </c>
       <c r="D151" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E151"/>
       <c r="F151" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G151">
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>642</v>
+      </c>
+      <c r="J151" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" t="s">
-        <v>579</v>
+        <v>643</v>
       </c>
       <c r="B152"/>
       <c r="C152" t="s">
-        <v>580</v>
+        <v>644</v>
       </c>
       <c r="D152" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E152" t="s">
-        <v>581</v>
+        <v>645</v>
       </c>
       <c r="F152" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G152">
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>646</v>
+      </c>
+      <c r="J152" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" t="s">
-        <v>583</v>
+        <v>647</v>
       </c>
       <c r="B153"/>
       <c r="C153" t="s">
-        <v>584</v>
+        <v>648</v>
       </c>
       <c r="D153" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E153" t="s">
-        <v>585</v>
+        <v>649</v>
       </c>
       <c r="F153" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G153">
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>650</v>
+      </c>
+      <c r="J153" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" t="s">
-        <v>587</v>
+        <v>651</v>
       </c>
       <c r="B154"/>
       <c r="C154" t="s">
-        <v>588</v>
+        <v>652</v>
       </c>
       <c r="D154" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E154" t="s">
-        <v>589</v>
+        <v>653</v>
       </c>
       <c r="F154" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G154">
         <v>0</v>
       </c>
       <c r="H154" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>654</v>
+      </c>
+      <c r="J154" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" t="s">
-        <v>591</v>
+        <v>655</v>
       </c>
       <c r="B155"/>
       <c r="C155" t="s">
-        <v>592</v>
+        <v>656</v>
       </c>
       <c r="D155" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E155" t="s">
-        <v>593</v>
+        <v>657</v>
       </c>
       <c r="F155" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G155">
         <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>658</v>
+      </c>
+      <c r="J155" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" t="s">
-        <v>595</v>
+        <v>659</v>
       </c>
       <c r="B156"/>
       <c r="C156" t="s">
-        <v>596</v>
+        <v>660</v>
       </c>
       <c r="D156" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E156" t="s">
-        <v>597</v>
+        <v>661</v>
       </c>
       <c r="F156" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G156">
         <v>0</v>
       </c>
       <c r="H156" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>662</v>
+      </c>
+      <c r="J156" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" t="s">
-        <v>599</v>
+        <v>663</v>
       </c>
       <c r="B157"/>
       <c r="C157" t="s">
-        <v>600</v>
+        <v>664</v>
       </c>
       <c r="D157" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E157"/>
       <c r="F157" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G157">
         <v>0</v>
       </c>
       <c r="H157" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>665</v>
+      </c>
+      <c r="J157" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" t="s">
-        <v>602</v>
+        <v>666</v>
       </c>
       <c r="B158"/>
       <c r="C158" t="s">
-        <v>603</v>
+        <v>667</v>
       </c>
       <c r="D158" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E158"/>
       <c r="F158" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G158">
         <v>0</v>
       </c>
       <c r="H158" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>668</v>
+      </c>
+      <c r="J158" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" t="s">
-        <v>605</v>
+        <v>669</v>
       </c>
       <c r="B159"/>
       <c r="C159" t="s">
-        <v>606</v>
+        <v>670</v>
       </c>
       <c r="D159" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E159" t="s">
-        <v>607</v>
+        <v>671</v>
       </c>
       <c r="F159" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G159">
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>672</v>
+      </c>
+      <c r="J159" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" t="s">
-        <v>609</v>
+        <v>673</v>
       </c>
       <c r="B160"/>
       <c r="C160" t="s">
-        <v>610</v>
+        <v>674</v>
       </c>
       <c r="D160" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E160"/>
       <c r="F160" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G160">
         <v>0</v>
       </c>
       <c r="H160" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>675</v>
+      </c>
+      <c r="J160" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" t="s">
-        <v>612</v>
+        <v>676</v>
       </c>
       <c r="B161"/>
       <c r="C161" t="s">
-        <v>613</v>
+        <v>677</v>
       </c>
       <c r="D161" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E161" t="s">
-        <v>614</v>
+        <v>678</v>
       </c>
       <c r="F161" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G161">
         <v>0</v>
       </c>
       <c r="H161" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>679</v>
+      </c>
+      <c r="J161" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" t="s">
-        <v>616</v>
+        <v>680</v>
       </c>
       <c r="B162"/>
       <c r="C162" t="s">
-        <v>617</v>
+        <v>681</v>
       </c>
       <c r="D162" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E162" t="s">
-        <v>618</v>
+        <v>682</v>
       </c>
       <c r="F162" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G162">
         <v>0</v>
       </c>
       <c r="H162" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>683</v>
+      </c>
+      <c r="J162" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" t="s">
-        <v>620</v>
+        <v>684</v>
       </c>
       <c r="B163"/>
       <c r="C163" t="s">
-        <v>621</v>
+        <v>685</v>
       </c>
       <c r="D163" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E163" t="s">
-        <v>622</v>
+        <v>686</v>
       </c>
       <c r="F163" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G163">
         <v>0</v>
       </c>
       <c r="H163" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>687</v>
+      </c>
+      <c r="J163" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" t="s">
-        <v>624</v>
+        <v>688</v>
       </c>
       <c r="B164"/>
       <c r="C164" t="s">
-        <v>625</v>
+        <v>689</v>
       </c>
       <c r="D164" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E164"/>
       <c r="F164" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G164">
         <v>0</v>
       </c>
       <c r="H164" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>690</v>
+      </c>
+      <c r="J164" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" t="s">
-        <v>627</v>
+        <v>691</v>
       </c>
       <c r="B165"/>
       <c r="C165" t="s">
-        <v>628</v>
+        <v>692</v>
       </c>
       <c r="D165" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E165" t="s">
-        <v>629</v>
+        <v>693</v>
       </c>
       <c r="F165" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G165">
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>694</v>
+      </c>
+      <c r="J165" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" t="s">
-        <v>631</v>
+        <v>695</v>
       </c>
       <c r="B166"/>
       <c r="C166" t="s">
-        <v>632</v>
+        <v>696</v>
       </c>
       <c r="D166" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E166"/>
       <c r="F166" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G166">
         <v>0</v>
       </c>
       <c r="H166" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>697</v>
+      </c>
+      <c r="J166" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" t="s">
-        <v>634</v>
+        <v>698</v>
       </c>
       <c r="B167"/>
       <c r="C167" t="s">
-        <v>635</v>
+        <v>699</v>
       </c>
       <c r="D167" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E167" t="s">
-        <v>636</v>
+        <v>700</v>
       </c>
       <c r="F167" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G167">
         <v>0</v>
       </c>
       <c r="H167" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>701</v>
+      </c>
+      <c r="J167" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" t="s">
-        <v>638</v>
+        <v>702</v>
       </c>
       <c r="B168"/>
       <c r="C168" t="s">
-        <v>639</v>
+        <v>703</v>
       </c>
       <c r="D168" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E168" t="s">
-        <v>640</v>
+        <v>704</v>
       </c>
       <c r="F168" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G168">
         <v>0</v>
       </c>
       <c r="H168" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>705</v>
+      </c>
+      <c r="J168" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" t="s">
-        <v>642</v>
+        <v>706</v>
       </c>
       <c r="B169"/>
       <c r="C169" t="s">
-        <v>643</v>
+        <v>707</v>
       </c>
       <c r="D169" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E169" t="s">
-        <v>644</v>
+        <v>708</v>
       </c>
       <c r="F169" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G169">
         <v>0</v>
       </c>
       <c r="H169" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>709</v>
+      </c>
+      <c r="J169" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" t="s">
-        <v>646</v>
+        <v>710</v>
       </c>
       <c r="B170"/>
       <c r="C170" t="s">
-        <v>647</v>
+        <v>711</v>
       </c>
       <c r="D170" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E170" t="s">
-        <v>648</v>
+        <v>712</v>
       </c>
       <c r="F170" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G170">
         <v>0</v>
       </c>
       <c r="H170" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>713</v>
+      </c>
+      <c r="J170" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" t="s">
-        <v>650</v>
+        <v>714</v>
       </c>
       <c r="B171"/>
       <c r="C171" t="s">
-        <v>651</v>
+        <v>715</v>
       </c>
       <c r="D171" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E171" t="s">
-        <v>652</v>
+        <v>716</v>
       </c>
       <c r="F171" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G171">
         <v>0</v>
       </c>
       <c r="H171" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>717</v>
+      </c>
+      <c r="J171" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" t="s">
-        <v>654</v>
+        <v>718</v>
       </c>
       <c r="B172"/>
       <c r="C172" t="s">
-        <v>655</v>
+        <v>719</v>
       </c>
       <c r="D172" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E172" t="s">
-        <v>656</v>
+        <v>720</v>
       </c>
       <c r="F172" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G172">
         <v>0</v>
       </c>
       <c r="H172" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>721</v>
+      </c>
+      <c r="J172" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" t="s">
-        <v>658</v>
+        <v>722</v>
       </c>
       <c r="B173"/>
       <c r="C173" t="s">
-        <v>659</v>
+        <v>723</v>
       </c>
       <c r="D173" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E173" t="s">
-        <v>660</v>
+        <v>724</v>
       </c>
       <c r="F173" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G173">
         <v>0</v>
       </c>
       <c r="H173" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>725</v>
+      </c>
+      <c r="J173" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" t="s">
-        <v>662</v>
+        <v>726</v>
       </c>
       <c r="B174"/>
       <c r="C174" t="s">
-        <v>663</v>
+        <v>727</v>
       </c>
       <c r="D174" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E174" t="s">
-        <v>664</v>
+        <v>728</v>
       </c>
       <c r="F174" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G174">
         <v>0</v>
       </c>
       <c r="H174" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>729</v>
+      </c>
+      <c r="J174" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" t="s">
-        <v>666</v>
+        <v>730</v>
       </c>
       <c r="B175"/>
       <c r="C175" t="s">
-        <v>667</v>
+        <v>731</v>
       </c>
       <c r="D175" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E175" t="s">
-        <v>668</v>
+        <v>732</v>
       </c>
       <c r="F175" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G175">
         <v>0</v>
       </c>
       <c r="H175" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>733</v>
+      </c>
+      <c r="J175" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" t="s">
-        <v>670</v>
+        <v>734</v>
       </c>
       <c r="B176"/>
       <c r="C176" t="s">
-        <v>671</v>
+        <v>735</v>
       </c>
       <c r="D176" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E176" t="s">
-        <v>672</v>
+        <v>736</v>
       </c>
       <c r="F176" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G176">
         <v>0</v>
       </c>
       <c r="H176" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>737</v>
+      </c>
+      <c r="J176" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" t="s">
-        <v>674</v>
+        <v>738</v>
       </c>
       <c r="B177"/>
       <c r="C177" t="s">
-        <v>675</v>
+        <v>739</v>
       </c>
       <c r="D177" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E177" t="s">
-        <v>676</v>
+        <v>740</v>
       </c>
       <c r="F177" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G177">
         <v>0</v>
       </c>
       <c r="H177" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>741</v>
+      </c>
+      <c r="J177" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" t="s">
-        <v>678</v>
+        <v>742</v>
       </c>
       <c r="B178"/>
       <c r="C178" t="s">
-        <v>679</v>
+        <v>743</v>
       </c>
       <c r="D178" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E178" t="s">
-        <v>680</v>
+        <v>744</v>
       </c>
       <c r="F178" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G178">
         <v>0</v>
       </c>
       <c r="H178" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>745</v>
+      </c>
+      <c r="J178" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" t="s">
-        <v>682</v>
+        <v>746</v>
       </c>
       <c r="B179"/>
       <c r="C179" t="s">
-        <v>683</v>
+        <v>747</v>
       </c>
       <c r="D179" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E179"/>
       <c r="F179" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G179">
         <v>0</v>
       </c>
       <c r="H179" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>748</v>
+      </c>
+      <c r="J179" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" t="s">
-        <v>685</v>
+        <v>749</v>
       </c>
       <c r="B180"/>
       <c r="C180" t="s">
-        <v>686</v>
+        <v>750</v>
       </c>
       <c r="D180" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E180" t="s">
-        <v>687</v>
+        <v>751</v>
       </c>
       <c r="F180" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G180">
         <v>0</v>
       </c>
       <c r="H180" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>752</v>
+      </c>
+      <c r="J180" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" t="s">
-        <v>689</v>
+        <v>753</v>
       </c>
       <c r="B181"/>
       <c r="C181" t="s">
-        <v>690</v>
+        <v>754</v>
       </c>
       <c r="D181" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E181" t="s">
-        <v>691</v>
+        <v>755</v>
       </c>
       <c r="F181" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G181">
         <v>0</v>
       </c>
       <c r="H181" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>756</v>
+      </c>
+      <c r="J181" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" t="s">
-        <v>693</v>
+        <v>757</v>
       </c>
       <c r="B182"/>
       <c r="C182" t="s">
-        <v>694</v>
+        <v>758</v>
       </c>
       <c r="D182" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E182" t="s">
-        <v>695</v>
+        <v>759</v>
       </c>
       <c r="F182" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G182">
         <v>0</v>
       </c>
       <c r="H182" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>760</v>
+      </c>
+      <c r="J182" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" t="s">
-        <v>697</v>
+        <v>761</v>
       </c>
       <c r="B183"/>
       <c r="C183" t="s">
-        <v>698</v>
+        <v>762</v>
       </c>
       <c r="D183" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E183" t="s">
-        <v>699</v>
+        <v>763</v>
       </c>
       <c r="F183" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G183">
         <v>0</v>
       </c>
       <c r="H183" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>764</v>
+      </c>
+      <c r="J183" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" t="s">
-        <v>701</v>
+        <v>765</v>
       </c>
       <c r="B184"/>
       <c r="C184" t="s">
-        <v>702</v>
+        <v>766</v>
       </c>
       <c r="D184" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E184" t="s">
-        <v>703</v>
+        <v>767</v>
       </c>
       <c r="F184" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G184">
         <v>0</v>
       </c>
       <c r="H184" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>768</v>
+      </c>
+      <c r="J184" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" t="s">
-        <v>705</v>
+        <v>769</v>
       </c>
       <c r="B185"/>
       <c r="C185" t="s">
-        <v>706</v>
+        <v>770</v>
       </c>
       <c r="D185" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E185" t="s">
-        <v>707</v>
+        <v>771</v>
       </c>
       <c r="F185" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G185">
         <v>0</v>
       </c>
       <c r="H185" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>772</v>
+      </c>
+      <c r="J185" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" t="s">
-        <v>709</v>
+        <v>773</v>
       </c>
       <c r="B186"/>
       <c r="C186" t="s">
-        <v>710</v>
+        <v>774</v>
       </c>
       <c r="D186" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E186" t="s">
-        <v>699</v>
+        <v>763</v>
       </c>
       <c r="F186" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G186">
         <v>0</v>
       </c>
       <c r="H186" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>775</v>
+      </c>
+      <c r="J186" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" t="s">
-        <v>712</v>
+        <v>776</v>
       </c>
       <c r="B187"/>
       <c r="C187" t="s">
-        <v>713</v>
+        <v>777</v>
       </c>
       <c r="D187" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E187" t="s">
-        <v>699</v>
+        <v>763</v>
       </c>
       <c r="F187" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G187">
         <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>778</v>
+      </c>
+      <c r="J187" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" t="s">
-        <v>715</v>
+        <v>779</v>
       </c>
       <c r="B188"/>
       <c r="C188" t="s">
-        <v>716</v>
+        <v>780</v>
       </c>
       <c r="D188" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E188" t="s">
-        <v>699</v>
+        <v>763</v>
       </c>
       <c r="F188" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G188">
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>781</v>
+      </c>
+      <c r="J188" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" t="s">
-        <v>718</v>
+        <v>782</v>
       </c>
       <c r="B189"/>
       <c r="C189" t="s">
-        <v>719</v>
+        <v>783</v>
       </c>
       <c r="D189" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E189" t="s">
-        <v>699</v>
+        <v>763</v>
       </c>
       <c r="F189" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G189">
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>784</v>
+      </c>
+      <c r="J189" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" t="s">
-        <v>721</v>
+        <v>785</v>
       </c>
       <c r="B190"/>
       <c r="C190" t="s">
-        <v>722</v>
+        <v>786</v>
       </c>
       <c r="D190" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E190" t="s">
-        <v>699</v>
+        <v>763</v>
       </c>
       <c r="F190" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G190">
         <v>0</v>
       </c>
       <c r="H190" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>787</v>
+      </c>
+      <c r="J190" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" t="s">
-        <v>724</v>
+        <v>788</v>
       </c>
       <c r="B191"/>
       <c r="C191" t="s">
-        <v>725</v>
+        <v>789</v>
       </c>
       <c r="D191" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E191" t="s">
-        <v>699</v>
+        <v>763</v>
       </c>
       <c r="F191" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G191">
         <v>0</v>
       </c>
       <c r="H191" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>790</v>
+      </c>
+      <c r="J191" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" t="s">
-        <v>727</v>
+        <v>791</v>
       </c>
       <c r="B192"/>
       <c r="C192" t="s">
-        <v>728</v>
+        <v>792</v>
       </c>
       <c r="D192" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E192" t="s">
-        <v>699</v>
+        <v>763</v>
       </c>
       <c r="F192" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G192">
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>793</v>
+      </c>
+      <c r="J192" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" t="s">
-        <v>730</v>
+        <v>794</v>
       </c>
       <c r="B193"/>
       <c r="C193" t="s">
-        <v>731</v>
+        <v>795</v>
       </c>
       <c r="D193" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E193" t="s">
-        <v>699</v>
+        <v>763</v>
       </c>
       <c r="F193" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G193">
         <v>0</v>
       </c>
       <c r="H193" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>796</v>
+      </c>
+      <c r="J193" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" t="s">
-        <v>733</v>
+        <v>797</v>
       </c>
       <c r="B194"/>
       <c r="C194" t="s">
-        <v>734</v>
+        <v>798</v>
       </c>
       <c r="D194" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E194" t="s">
-        <v>699</v>
+        <v>763</v>
       </c>
       <c r="F194" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G194">
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>799</v>
+      </c>
+      <c r="J194" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" t="s">
-        <v>736</v>
+        <v>800</v>
       </c>
       <c r="B195"/>
       <c r="C195" t="s">
-        <v>737</v>
+        <v>801</v>
       </c>
       <c r="D195" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E195" t="s">
-        <v>699</v>
+        <v>763</v>
       </c>
       <c r="F195" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G195">
         <v>0</v>
       </c>
       <c r="H195" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>802</v>
+      </c>
+      <c r="J195" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" t="s">
-        <v>739</v>
+        <v>803</v>
       </c>
       <c r="B196"/>
       <c r="C196" t="s">
-        <v>740</v>
+        <v>804</v>
       </c>
       <c r="D196" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E196" t="s">
-        <v>699</v>
+        <v>763</v>
       </c>
       <c r="F196" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G196">
         <v>0</v>
       </c>
       <c r="H196" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>805</v>
+      </c>
+      <c r="J196" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" t="s">
-        <v>742</v>
+        <v>806</v>
       </c>
       <c r="B197"/>
       <c r="C197" t="s">
-        <v>743</v>
+        <v>807</v>
       </c>
       <c r="D197" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E197" t="s">
-        <v>345</v>
+        <v>409</v>
       </c>
       <c r="F197" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G197">
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>808</v>
+      </c>
+      <c r="J197" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" t="s">
-        <v>745</v>
+        <v>809</v>
       </c>
       <c r="B198"/>
       <c r="C198" t="s">
-        <v>746</v>
+        <v>810</v>
       </c>
       <c r="D198" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E198" t="s">
-        <v>747</v>
+        <v>811</v>
       </c>
       <c r="F198" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G198">
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>812</v>
+      </c>
+      <c r="J198" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" t="s">
-        <v>749</v>
+        <v>813</v>
       </c>
       <c r="B199"/>
       <c r="C199" t="s">
-        <v>750</v>
+        <v>814</v>
       </c>
       <c r="D199" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E199" t="s">
-        <v>345</v>
+        <v>409</v>
       </c>
       <c r="F199" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G199">
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>815</v>
+      </c>
+      <c r="J199" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" t="s">
-        <v>752</v>
+        <v>816</v>
       </c>
       <c r="B200"/>
       <c r="C200" t="s">
-        <v>753</v>
+        <v>817</v>
       </c>
       <c r="D200" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E200" t="s">
-        <v>345</v>
+        <v>409</v>
       </c>
       <c r="F200" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G200">
         <v>0</v>
       </c>
       <c r="H200" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>818</v>
+      </c>
+      <c r="J200" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" t="s">
-        <v>755</v>
+        <v>819</v>
       </c>
       <c r="B201"/>
       <c r="C201" t="s">
-        <v>756</v>
+        <v>820</v>
       </c>
       <c r="D201" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E201" t="s">
-        <v>699</v>
+        <v>763</v>
       </c>
       <c r="F201" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G201">
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>821</v>
+      </c>
+      <c r="J201" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" t="s">
-        <v>758</v>
+        <v>822</v>
       </c>
       <c r="B202"/>
       <c r="C202" t="s">
-        <v>759</v>
+        <v>823</v>
       </c>
       <c r="D202" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E202" t="s">
-        <v>345</v>
+        <v>409</v>
       </c>
       <c r="F202" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G202">
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>824</v>
+      </c>
+      <c r="J202" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" t="s">
-        <v>761</v>
+        <v>825</v>
       </c>
       <c r="B203"/>
       <c r="C203" t="s">
-        <v>762</v>
+        <v>826</v>
       </c>
       <c r="D203" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E203" t="s">
-        <v>345</v>
+        <v>409</v>
       </c>
       <c r="F203" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G203">
         <v>0</v>
       </c>
       <c r="H203" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>827</v>
+      </c>
+      <c r="J203" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
       <c r="A204" t="s">
-        <v>764</v>
+        <v>828</v>
       </c>
       <c r="B204"/>
       <c r="C204" t="s">
-        <v>765</v>
+        <v>829</v>
       </c>
       <c r="D204" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E204"/>
       <c r="F204" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G204">
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>830</v>
+      </c>
+      <c r="J204" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
       <c r="A205" t="s">
-        <v>767</v>
+        <v>831</v>
       </c>
       <c r="B205"/>
       <c r="C205" t="s">
-        <v>768</v>
+        <v>832</v>
       </c>
       <c r="D205" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E205" t="s">
-        <v>345</v>
+        <v>409</v>
       </c>
       <c r="F205" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G205">
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>833</v>
+      </c>
+      <c r="J205" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
       <c r="A206" t="s">
-        <v>770</v>
+        <v>834</v>
       </c>
       <c r="B206"/>
       <c r="C206" t="s">
-        <v>771</v>
+        <v>835</v>
       </c>
       <c r="D206" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E206"/>
       <c r="F206" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G206">
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>836</v>
+      </c>
+      <c r="J206" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
       <c r="A207" t="s">
-        <v>773</v>
+        <v>837</v>
       </c>
       <c r="B207"/>
       <c r="C207" t="s">
-        <v>774</v>
+        <v>838</v>
       </c>
       <c r="D207" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E207"/>
       <c r="F207" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G207">
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>839</v>
+      </c>
+      <c r="J207" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
       <c r="A208" t="s">
-        <v>776</v>
+        <v>840</v>
       </c>
       <c r="B208"/>
       <c r="C208" t="s">
-        <v>777</v>
+        <v>841</v>
       </c>
       <c r="D208" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E208" t="s">
-        <v>699</v>
+        <v>763</v>
       </c>
       <c r="F208" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G208">
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>842</v>
+      </c>
+      <c r="J208" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
       <c r="A209" t="s">
-        <v>779</v>
+        <v>843</v>
       </c>
       <c r="B209"/>
       <c r="C209" t="s">
-        <v>780</v>
+        <v>844</v>
       </c>
       <c r="D209" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E209" t="s">
-        <v>345</v>
+        <v>409</v>
       </c>
       <c r="F209" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G209">
         <v>0</v>
       </c>
       <c r="H209" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>845</v>
+      </c>
+      <c r="J209" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
       <c r="A210" t="s">
-        <v>782</v>
+        <v>846</v>
       </c>
       <c r="B210"/>
       <c r="C210" t="s">
-        <v>783</v>
+        <v>847</v>
       </c>
       <c r="D210" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E210" t="s">
-        <v>699</v>
+        <v>763</v>
       </c>
       <c r="F210" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G210">
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>848</v>
+      </c>
+      <c r="J210" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
       <c r="A211" t="s">
-        <v>785</v>
+        <v>849</v>
       </c>
       <c r="B211"/>
       <c r="C211" t="s">
-        <v>786</v>
+        <v>850</v>
       </c>
       <c r="D211" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E211" t="s">
-        <v>699</v>
+        <v>763</v>
       </c>
       <c r="F211" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G211">
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>851</v>
+      </c>
+      <c r="J211" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
       <c r="A212" t="s">
-        <v>788</v>
+        <v>852</v>
       </c>
       <c r="B212"/>
       <c r="C212" t="s">
-        <v>789</v>
+        <v>853</v>
       </c>
       <c r="D212" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E212" t="s">
-        <v>345</v>
+        <v>409</v>
       </c>
       <c r="F212" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G212">
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>854</v>
+      </c>
+      <c r="J212" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
       <c r="A213" t="s">
-        <v>791</v>
+        <v>855</v>
       </c>
       <c r="B213"/>
       <c r="C213" t="s">
-        <v>792</v>
+        <v>856</v>
       </c>
       <c r="D213" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E213" t="s">
-        <v>793</v>
+        <v>857</v>
       </c>
       <c r="F213" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G213">
         <v>0</v>
       </c>
       <c r="H213" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>858</v>
+      </c>
+      <c r="J213" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
       <c r="A214" t="s">
-        <v>795</v>
+        <v>859</v>
       </c>
       <c r="B214"/>
       <c r="C214" t="s">
-        <v>796</v>
+        <v>860</v>
       </c>
       <c r="D214" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E214" t="s">
-        <v>699</v>
+        <v>763</v>
       </c>
       <c r="F214" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G214">
         <v>0</v>
       </c>
       <c r="H214" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>861</v>
+      </c>
+      <c r="J214" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10">
       <c r="A215" t="s">
-        <v>798</v>
+        <v>862</v>
       </c>
       <c r="B215"/>
       <c r="C215" t="s">
-        <v>799</v>
+        <v>863</v>
       </c>
       <c r="D215" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E215" t="s">
-        <v>699</v>
+        <v>763</v>
       </c>
       <c r="F215" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G215">
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>864</v>
+      </c>
+      <c r="J215" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10">
       <c r="A216" t="s">
-        <v>801</v>
+        <v>865</v>
       </c>
       <c r="B216"/>
       <c r="C216" t="s">
-        <v>802</v>
+        <v>866</v>
       </c>
       <c r="D216" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E216" t="s">
-        <v>345</v>
+        <v>409</v>
       </c>
       <c r="F216" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G216">
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>867</v>
+      </c>
+      <c r="J216" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10">
       <c r="A217" t="s">
-        <v>804</v>
+        <v>868</v>
       </c>
       <c r="B217"/>
       <c r="C217" t="s">
-        <v>805</v>
+        <v>869</v>
       </c>
       <c r="D217" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E217" t="s">
-        <v>699</v>
+        <v>763</v>
       </c>
       <c r="F217" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G217">
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>870</v>
+      </c>
+      <c r="J217" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10">
       <c r="A218" t="s">
-        <v>807</v>
+        <v>871</v>
       </c>
       <c r="B218"/>
       <c r="C218" t="s">
-        <v>808</v>
+        <v>872</v>
       </c>
       <c r="D218" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E218" t="s">
-        <v>699</v>
+        <v>763</v>
       </c>
       <c r="F218" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G218">
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>873</v>
+      </c>
+      <c r="J218" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10">
       <c r="A219" t="s">
-        <v>810</v>
+        <v>874</v>
       </c>
       <c r="B219"/>
       <c r="C219" t="s">
-        <v>811</v>
+        <v>875</v>
       </c>
       <c r="D219" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E219" t="s">
-        <v>812</v>
+        <v>876</v>
       </c>
       <c r="F219" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G219">
         <v>0</v>
       </c>
       <c r="H219" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>877</v>
+      </c>
+      <c r="J219" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10">
       <c r="A220" t="s">
-        <v>814</v>
+        <v>878</v>
       </c>
       <c r="B220"/>
       <c r="C220" t="s">
-        <v>815</v>
+        <v>879</v>
       </c>
       <c r="D220" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E220" t="s">
-        <v>816</v>
+        <v>880</v>
       </c>
       <c r="F220" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G220">
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>881</v>
+      </c>
+      <c r="J220" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10">
       <c r="A221" t="s">
-        <v>818</v>
+        <v>882</v>
       </c>
       <c r="B221"/>
       <c r="C221" t="s">
-        <v>819</v>
+        <v>883</v>
       </c>
       <c r="D221" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E221" t="s">
-        <v>820</v>
+        <v>884</v>
       </c>
       <c r="F221" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G221">
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>885</v>
+      </c>
+      <c r="J221" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10">
       <c r="A222" t="s">
-        <v>822</v>
+        <v>886</v>
       </c>
       <c r="B222"/>
       <c r="C222" t="s">
-        <v>823</v>
+        <v>887</v>
       </c>
       <c r="D222" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E222" t="s">
-        <v>824</v>
+        <v>888</v>
       </c>
       <c r="F222" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G222">
         <v>0</v>
       </c>
       <c r="H222" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="223" customFormat="1" spans="1:8">
+        <v>889</v>
+      </c>
+      <c r="J222" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="223" customFormat="1" spans="1:10">
       <c r="A223" t="s">
-        <v>826</v>
+        <v>890</v>
       </c>
       <c r="B223"/>
       <c r="C223" t="s">
-        <v>827</v>
+        <v>891</v>
       </c>
       <c r="D223" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E223" t="s">
-        <v>828</v>
+        <v>892</v>
       </c>
       <c r="F223" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G223">
         <v>0</v>
       </c>
       <c r="H223" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>893</v>
+      </c>
+      <c r="J223" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10">
       <c r="A224" t="s">
-        <v>830</v>
+        <v>894</v>
       </c>
       <c r="B224"/>
       <c r="C224" t="s">
-        <v>831</v>
+        <v>895</v>
       </c>
       <c r="D224" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E224" t="s">
-        <v>832</v>
+        <v>896</v>
       </c>
       <c r="F224" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G224">
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>897</v>
+      </c>
+      <c r="J224" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10">
       <c r="A225" t="s">
-        <v>834</v>
+        <v>898</v>
       </c>
       <c r="B225"/>
       <c r="C225" t="s">
-        <v>835</v>
+        <v>899</v>
       </c>
       <c r="D225" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E225" t="s">
-        <v>836</v>
+        <v>900</v>
       </c>
       <c r="F225" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G225">
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
+        <v>901</v>
+      </c>
+      <c r="J225" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10">
       <c r="A226" t="s">
-        <v>838</v>
+        <v>902</v>
       </c>
       <c r="B226"/>
       <c r="C226" t="s">
-        <v>839</v>
+        <v>903</v>
       </c>
       <c r="D226" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E226" t="s">
-        <v>840</v>
+        <v>904</v>
       </c>
       <c r="F226" t="s">
-        <v>841</v>
+        <v>905</v>
       </c>
       <c r="G226">
         <v>99.9</v>
       </c>
       <c r="H226" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>906</v>
+      </c>
+      <c r="J226" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10">
       <c r="A227" t="s">
-        <v>843</v>
+        <v>907</v>
       </c>
       <c r="B227"/>
       <c r="C227" t="s">
-        <v>844</v>
+        <v>908</v>
       </c>
       <c r="D227" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E227" t="s">
-        <v>845</v>
+        <v>909</v>
       </c>
       <c r="F227" t="s">
-        <v>846</v>
+        <v>910</v>
       </c>
       <c r="G227">
         <v>0</v>
       </c>
       <c r="H227" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+        <v>911</v>
+      </c>
+      <c r="J227" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10">
       <c r="A228" t="s">
-        <v>848</v>
+        <v>912</v>
       </c>
       <c r="B228"/>
       <c r="C228" t="s">
-        <v>849</v>
+        <v>913</v>
       </c>
       <c r="D228" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E228"/>
       <c r="F228" t="s">
-        <v>850</v>
+        <v>914</v>
       </c>
       <c r="G228">
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+        <v>915</v>
+      </c>
+      <c r="J228" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10">
       <c r="A229" t="s">
-        <v>852</v>
+        <v>916</v>
       </c>
       <c r="B229"/>
       <c r="C229" t="s">
-        <v>853</v>
+        <v>917</v>
       </c>
       <c r="D229" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E229" t="s">
-        <v>854</v>
+        <v>918</v>
       </c>
       <c r="F229" t="s">
-        <v>850</v>
+        <v>914</v>
       </c>
       <c r="G229">
         <v>0</v>
       </c>
       <c r="H229" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>919</v>
+      </c>
+      <c r="J229" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10">
       <c r="A230" t="s">
-        <v>856</v>
+        <v>920</v>
       </c>
       <c r="B230"/>
       <c r="C230" t="s">
-        <v>857</v>
+        <v>921</v>
       </c>
       <c r="D230" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E230" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F230" t="s">
-        <v>850</v>
+        <v>914</v>
       </c>
       <c r="G230">
         <v>0</v>
       </c>
       <c r="H230" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+        <v>922</v>
+      </c>
+      <c r="J230" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10">
       <c r="A231" t="s">
-        <v>859</v>
+        <v>923</v>
       </c>
       <c r="B231"/>
       <c r="C231" t="s">
-        <v>860</v>
+        <v>924</v>
       </c>
       <c r="D231" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E231" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F231" t="s">
-        <v>850</v>
+        <v>914</v>
       </c>
       <c r="G231">
         <v>0</v>
       </c>
       <c r="H231" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
+        <v>925</v>
+      </c>
+      <c r="J231" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10">
       <c r="A232" t="s">
-        <v>862</v>
+        <v>926</v>
       </c>
       <c r="B232"/>
       <c r="C232" t="s">
-        <v>863</v>
+        <v>927</v>
       </c>
       <c r="D232" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E232" t="s">
-        <v>854</v>
+        <v>918</v>
       </c>
       <c r="F232" t="s">
-        <v>850</v>
+        <v>914</v>
       </c>
       <c r="G232">
         <v>0</v>
       </c>
       <c r="H232" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>928</v>
+      </c>
+      <c r="J232" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10">
       <c r="A233" t="s">
-        <v>865</v>
+        <v>929</v>
       </c>
       <c r="B233"/>
       <c r="C233" t="s">
-        <v>866</v>
+        <v>930</v>
       </c>
       <c r="D233" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E233" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F233" t="s">
-        <v>850</v>
+        <v>914</v>
       </c>
       <c r="G233">
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+        <v>931</v>
+      </c>
+      <c r="J233" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10">
       <c r="A234" t="s">
-        <v>868</v>
+        <v>932</v>
       </c>
       <c r="B234"/>
       <c r="C234" t="s">
-        <v>869</v>
+        <v>933</v>
       </c>
       <c r="D234" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E234" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F234" t="s">
-        <v>850</v>
+        <v>914</v>
       </c>
       <c r="G234">
         <v>0</v>
       </c>
       <c r="H234" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
+        <v>934</v>
+      </c>
+      <c r="J234" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10">
       <c r="A235" t="s">
-        <v>871</v>
+        <v>935</v>
       </c>
       <c r="B235"/>
       <c r="C235" t="s">
-        <v>872</v>
+        <v>936</v>
       </c>
       <c r="D235" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E235"/>
       <c r="F235" t="s">
-        <v>873</v>
+        <v>937</v>
       </c>
       <c r="G235">
         <v>99.9</v>
       </c>
       <c r="H235" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+        <v>938</v>
+      </c>
+      <c r="J235" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10">
       <c r="A236" t="s">
-        <v>875</v>
+        <v>939</v>
       </c>
       <c r="B236"/>
       <c r="C236" t="s">
-        <v>876</v>
+        <v>940</v>
       </c>
       <c r="D236" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E236" t="s">
-        <v>877</v>
+        <v>941</v>
       </c>
       <c r="F236" t="s">
-        <v>873</v>
+        <v>937</v>
       </c>
       <c r="G236">
         <v>99.9</v>
       </c>
       <c r="H236" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
+        <v>942</v>
+      </c>
+      <c r="J236" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10">
       <c r="A237" t="s">
-        <v>879</v>
+        <v>943</v>
       </c>
       <c r="B237"/>
       <c r="C237" t="s">
-        <v>880</v>
+        <v>944</v>
       </c>
       <c r="D237" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E237"/>
       <c r="F237" t="s">
-        <v>881</v>
+        <v>945</v>
       </c>
       <c r="G237">
         <v>0</v>
       </c>
       <c r="H237" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
+        <v>946</v>
+      </c>
+      <c r="J237" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10">
       <c r="A238" t="s">
-        <v>883</v>
+        <v>947</v>
       </c>
       <c r="B238"/>
       <c r="C238" t="s">
-        <v>884</v>
+        <v>948</v>
       </c>
       <c r="D238" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E238" t="s">
-        <v>885</v>
+        <v>949</v>
       </c>
       <c r="F238" t="s">
-        <v>886</v>
+        <v>950</v>
       </c>
       <c r="G238">
         <v>0</v>
       </c>
       <c r="H238" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
+        <v>951</v>
+      </c>
+      <c r="J238" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10">
       <c r="A239" t="s">
-        <v>888</v>
+        <v>952</v>
       </c>
       <c r="B239"/>
       <c r="C239" t="s">
-        <v>889</v>
+        <v>953</v>
       </c>
       <c r="D239" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E239" t="s">
-        <v>890</v>
+        <v>954</v>
       </c>
       <c r="F239" t="s">
-        <v>886</v>
+        <v>950</v>
       </c>
       <c r="G239">
         <v>0</v>
       </c>
       <c r="H239" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
+        <v>955</v>
+      </c>
+      <c r="J239" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10">
       <c r="A240" t="s">
-        <v>892</v>
+        <v>956</v>
       </c>
       <c r="B240"/>
       <c r="C240" t="s">
-        <v>893</v>
+        <v>957</v>
       </c>
       <c r="D240" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E240"/>
       <c r="F240" t="s">
-        <v>886</v>
+        <v>950</v>
       </c>
       <c r="G240">
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
+        <v>958</v>
+      </c>
+      <c r="J240" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10">
       <c r="A241" t="s">
-        <v>895</v>
+        <v>959</v>
       </c>
       <c r="B241"/>
       <c r="C241" t="s">
-        <v>896</v>
+        <v>960</v>
       </c>
       <c r="D241" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E241" t="s">
-        <v>897</v>
+        <v>961</v>
       </c>
       <c r="F241" t="s">
-        <v>886</v>
+        <v>950</v>
       </c>
       <c r="G241">
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
+        <v>962</v>
+      </c>
+      <c r="J241" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10">
       <c r="A242" t="s">
-        <v>899</v>
+        <v>963</v>
       </c>
       <c r="B242"/>
       <c r="C242" t="s">
-        <v>900</v>
+        <v>964</v>
       </c>
       <c r="D242" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E242" t="s">
-        <v>890</v>
+        <v>954</v>
       </c>
       <c r="F242" t="s">
-        <v>886</v>
+        <v>950</v>
       </c>
       <c r="G242">
         <v>0</v>
       </c>
       <c r="H242" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
+        <v>965</v>
+      </c>
+      <c r="J242" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10">
       <c r="A243" t="s">
-        <v>902</v>
+        <v>966</v>
       </c>
       <c r="B243"/>
       <c r="C243" t="s">
-        <v>903</v>
+        <v>967</v>
       </c>
       <c r="D243" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E243" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F243" t="s">
-        <v>886</v>
+        <v>950</v>
       </c>
       <c r="G243">
         <v>0</v>
       </c>
       <c r="H243" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
+        <v>968</v>
+      </c>
+      <c r="J243" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10">
       <c r="A244" t="s">
-        <v>905</v>
+        <v>969</v>
       </c>
       <c r="B244"/>
       <c r="C244" t="s">
-        <v>906</v>
+        <v>970</v>
       </c>
       <c r="D244" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E244" t="s">
-        <v>907</v>
+        <v>971</v>
       </c>
       <c r="F244" t="s">
-        <v>886</v>
+        <v>950</v>
       </c>
       <c r="G244">
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
+        <v>972</v>
+      </c>
+      <c r="J244" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10">
       <c r="A245" t="s">
-        <v>909</v>
+        <v>973</v>
       </c>
       <c r="B245"/>
       <c r="C245" t="s">
-        <v>910</v>
+        <v>974</v>
       </c>
       <c r="D245" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E245" t="s">
-        <v>907</v>
+        <v>971</v>
       </c>
       <c r="F245" t="s">
-        <v>886</v>
+        <v>950</v>
       </c>
       <c r="G245">
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
+        <v>975</v>
+      </c>
+      <c r="J245" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10">
       <c r="A246" t="s">
-        <v>912</v>
+        <v>976</v>
       </c>
       <c r="B246"/>
       <c r="C246" t="s">
-        <v>913</v>
+        <v>977</v>
       </c>
       <c r="D246" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E246"/>
       <c r="F246" t="s">
-        <v>914</v>
+        <v>978</v>
       </c>
       <c r="G246">
         <v>0</v>
       </c>
       <c r="H246" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
+        <v>979</v>
+      </c>
+      <c r="J246" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10">
       <c r="A247" t="s">
-        <v>916</v>
+        <v>980</v>
       </c>
       <c r="B247"/>
       <c r="C247" t="s">
-        <v>917</v>
+        <v>981</v>
       </c>
       <c r="D247" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E247"/>
       <c r="F247" t="s">
-        <v>914</v>
+        <v>978</v>
       </c>
       <c r="G247">
         <v>0</v>
       </c>
       <c r="H247" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
+        <v>982</v>
+      </c>
+      <c r="J247" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10">
       <c r="A248" t="s">
-        <v>919</v>
+        <v>983</v>
       </c>
       <c r="B248"/>
       <c r="C248" t="s">
-        <v>920</v>
+        <v>984</v>
       </c>
       <c r="D248" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E248" t="s">
-        <v>921</v>
+        <v>985</v>
       </c>
       <c r="F248" t="s">
-        <v>914</v>
+        <v>978</v>
       </c>
       <c r="G248">
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
+        <v>986</v>
+      </c>
+      <c r="J248" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10">
       <c r="A249" t="s">
-        <v>923</v>
+        <v>987</v>
       </c>
       <c r="B249"/>
       <c r="C249" t="s">
-        <v>924</v>
+        <v>988</v>
       </c>
       <c r="D249" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E249"/>
       <c r="F249" t="s">
-        <v>925</v>
+        <v>989</v>
       </c>
       <c r="G249">
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
+        <v>990</v>
+      </c>
+      <c r="J249" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10">
       <c r="A250" t="s">
-        <v>927</v>
+        <v>991</v>
       </c>
       <c r="B250"/>
       <c r="C250" t="s">
-        <v>928</v>
+        <v>992</v>
       </c>
       <c r="D250" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E250"/>
       <c r="F250" t="s">
-        <v>925</v>
+        <v>989</v>
       </c>
       <c r="G250">
         <v>0</v>
       </c>
       <c r="H250" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
+        <v>993</v>
+      </c>
+      <c r="J250" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10">
       <c r="A251" t="s">
-        <v>930</v>
+        <v>994</v>
       </c>
       <c r="B251"/>
       <c r="C251" t="s">
-        <v>931</v>
+        <v>995</v>
       </c>
       <c r="D251" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E251"/>
       <c r="F251" t="s">
-        <v>925</v>
+        <v>989</v>
       </c>
       <c r="G251">
         <v>0</v>
       </c>
       <c r="H251" t="s">
-        <v>932</v>
+        <v>996</v>
+      </c>
+      <c r="J251" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:I124" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:J251" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <sortState ref="A227:I252">
     <sortCondition ref="F227:F252"/>
   </sortState>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20 D21 D42 D43 D44 D71 D139 D150 D154 D155 D156 D166 D220 D221 D222 D223 D224 D225 D226 D227 D228 D231 D238 D239 D249 D250 D251 D2:D11 D12:D17 D18:D19 D22:D41 D45:D54 D55:D56 D57:D70 D72:D85 D86:D87 D88:D138 D140:D146 D147:D149 D151:D153 D157:D160 D161:D165 D167:D219 D229:D230 D232:D233 D234:D237 D240:D241 D242:D244 D245:D246 D247:D248">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D251">
       <formula1>"公开,草稿,私密,未发布"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J9 J10:J33 J34:J44 J45:J225 J226:J251 J252:J1048576">
+      <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10670,7 +11741,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -10687,7 +11758,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
